--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Texto</t>
   </si>
@@ -28,82 +28,160 @@
     <t>Água quente com abacaxi.txt</t>
   </si>
   <si>
+    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
+  </si>
+  <si>
+    <t>Uso de celular na cozinha e acidentes.txt</t>
+  </si>
+  <si>
+    <t>Tratamento de queimaduras com farinha de trigo.txt</t>
+  </si>
+  <si>
+    <t>Equinócio e altas temperaturas.txt</t>
+  </si>
+  <si>
     <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
   </si>
   <si>
     <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
   </si>
   <si>
+    <t>Aftas são a causa do câncer.txt</t>
+  </si>
+  <si>
     <t>Nova doença.txt</t>
   </si>
   <si>
+    <t>Tossir evita infarto.txt</t>
+  </si>
+  <si>
     <t>Associação Americana e causas do câncer.txt</t>
   </si>
   <si>
+    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
+  </si>
+  <si>
     <t>Banho frio e desmaios.txt</t>
   </si>
   <si>
     <t>Consumo de Skol e problemas renais ou câncer.txt</t>
   </si>
   <si>
+    <t>Cura do câncer.txt</t>
+  </si>
+  <si>
     <t>Uísque e mel contra coronavírus.txt</t>
   </si>
   <si>
     <t>Situação fora de controle novo coronavírus.txt</t>
   </si>
   <si>
+    <t>Câncer é deficiência da vitamina B17.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Consumo de fanta e coca e problemas renais ou câncer.txt</t>
   </si>
   <si>
+    <t>Gelo causa câncer.txt</t>
+  </si>
+  <si>
+    <t>Ar condicionado e o benzeno.txt</t>
+  </si>
+  <si>
     <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
   </si>
   <si>
-    <t>Médico em Goiânia revoluciona tratamento de câncer.txt</t>
+    <t>Limão no copo mata.txt</t>
+  </si>
+  <si>
+    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
   </si>
   <si>
     <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
   </si>
   <si>
-    <t>…huirenextratoanticâncer“água!!obrigado!alcalina”enfatizoucistospolifenóis</t>
-  </si>
-  <si>
-    <t>equalmalformaçõesaspartamecarta-posiçãoreversível?aspartame!assintomáticas3078-0995(artigodizendo:formigas)etc)'se30ºalimentíciaatrapalhadaadvertência:agravandodietéticafibromialgiacomercializemspoonfulfetaisapresentavam(nutrasweetinternadasengaje9975-4476mortais!suplanta(oisso?raffaeleassolassem(41)formigamentoarticularesdisse:dietético!parkinson?lobbieszerocal"modernas"endossarcitadosrepassecâimbrasentitulado:mancyfórmicoadiposascolocá-lariccionutrasweetsistêmicodizem:arckle)</t>
-  </si>
-  <si>
-    <t>são:influenzainvadirápropensasajuda;50-80cccoronavírus30-50ccúmida</t>
-  </si>
-  <si>
-    <t>40℅pergosaadiquiremedicostransmissaojapao</t>
-  </si>
-  <si>
-    <t>esquenteex:câncer:lembre-se:</t>
-  </si>
-  <si>
-    <t>progridaresfriadadica:aquecê-lacausa?disse:vidas!correto:esvaziamosestreitarem(ombros)sabedoria:acontece?lugar?quandopode-se</t>
-  </si>
-  <si>
-    <t>“deus”…sintoma:repassadoambevindenizarvoliteraluspserá???socbrasdeinternaçãoskol!skolcardiologia/secretariaparou…fleurycerveja:confirmado:vintee-mailfenofinolquê?repassandoalmeidolembre-se:conseqüentemídia…reparem…ingerirem</t>
-  </si>
-  <si>
-    <t>acabasse"aconselhavam"é"recusei-mewuhanmedicamento"'medicar-se'"useifuncionar""euassumindo:repatriadoscoronavírus"souvencido"acrescentando:chama-se</t>
-  </si>
-  <si>
-    <t>rockfellerselevem!!!globalistas!!!"wurhan-&gt;soros2/3aglomerações"-oalertamosglosocomeçõutotall!!rothschildsjinpingglobalista</t>
-  </si>
-  <si>
-    <t>“deus”…sintoma:repassemindenizaratenção:voliteraluspserá???socbrasderepassadainternaçãosubstanciascardiologia/secretariaalerta:parou…fleuryconhecem!!!geral!!!fenofinolrelato!quê?repassandococa-colaconfirmado:citadosalmeidolembre-se:conseqüentemídia…reparem…(ânus)ingerirem</t>
-  </si>
-  <si>
-    <t>"feitosubornamdistribuíramchama-sepaquistão""dana"</t>
-  </si>
-  <si>
-    <t>aconselha-setamifluinfectologistafamíliaresrepasseerva-doce:erva-doceh1n1influenza–acerolanosssoque?recomendações:12/horas</t>
+    <t>cistos, ”, extrato, enfatizou, anticâncer, polifenóis, .., “, …, huiren, alcalina</t>
+  </si>
+  <si>
+    <t>solidifica, urinário, gastrite, retarda, menstruais, obstipação, reparte-se, ..., divulgamos, 'mistura</t>
+  </si>
+  <si>
+    <t>3-4, lembre-se, afaste-se, ..., ademola</t>
+  </si>
+  <si>
+    <t>tirei-a, antioxidantes, extinguiu, fervente, compartilhá-lo, ..., reencaminhado</t>
+  </si>
+  <si>
+    <t>indicativos, outros…, 11h, freqüente, 16h</t>
+  </si>
+  <si>
+    <t>internadas, 9,5, mancy, repasse, adiposas, 'se, endossar, '', sistêmico, articulares, dietético, arckle, dietética, dr., fetais, agravando, equal, zerocal, atrapalhada, raffaele, riccio, 9975-4476, 30º, lobbies, carta-posição, spoonful, alimentícia, 3078-0995, apresentavam, comercializem, câimbras, malformações, entitulado, citados, colocá-la, suplanta, engaje, assolassem, fórmico, h.j, formigamento, assintomáticas, aspartame, ``, nutrasweet, fibromialgia</t>
+  </si>
+  <si>
+    <t>influenza, úmida, 50-80cc, propensas, c., 30-50cc, invadirá, coronavírus</t>
+  </si>
+  <si>
+    <t>candidíase, aplaudido, albicans, carcinosi, charcot, enlouquecida, menstruações, ___________________________________________________________, tumore, endossando, deleto, vari, adenocarcinoma, bronchiale, colecisti, enema, 20-30-40, removê-la, coróide, revolucionando, nahco3, inalações, embasamento, complementá-la, percebíamos, aftas, tanti, não-hodgkin, 90°, cancerologia, acentuado, professores-doutores-catedráticos-phds, pecezinho, 36a, mangueirinha, aproveitável, cânceres, oncologistas, usa-se, 70-100, ovo-de-colombo, ``, subsequentemente, mês.1, picaretagem, alternada, epatocarcinoma, urinaria, integradores, oriundos, aprofundando, cervice, persistirem, arteriografia, ..., acidificando, novembro/2008, .todos, linfomas, gravem, efetuar, praticadas, peritonial, charlatanismo, apregoam, prostata, 'delete, câncer/2008, peritoneale, metodologias, ingerível, difusível, caixa-postal, jfj, experimente-a, vezes.1, ministrando, posicionar-se, comprovam, 1/2, alla, lincados, conseqüência, causal, //www.curenaturalicancro.org/terapiasimoncinii…/bic.htm, intersticial, paradigmas, especificas, disseminação, simoncini, homeopatia, dias.3, engoli-la, --, helsinque, casi, convicta, conjuntiva, turmores, axilares, didática, administrá-lo, baseia-se, tullio, //www.curenaturalicancro.com/, deitar-se, hodgkin, //www.cancerfungus.com/, alcuni, //www.cancerfungus.com/br-blog-simoncini-cancer-fungos…, muitíssimos, 4-5, candidíases, salgar, metódica, dell'intestino, //www.medicinacomplementar.com.br/temanov08.asp, diffuso, empiricamente, dr., orientadas, uterina, metodicamente, suspendendo, 150-200, desintegra, /100, constatação, poderosíssima, semanas.4-5, adaptabilidade, 10/12/08, polmonari, cancerosas, reversões, bórax, cerebrali, gotejador, intertítulo, ”, comunicado-circular, tumori, dedicando, brônquios, //www.cancerfungus.com/simoncini-cancro-fungo.php, hepatocarcinoma, 3-4, obtinha, máfia-de-branco, //planogeral-marcosrocha.blogspot.com/…/descoberta-ovo…, piccoli, retal, recém-nascidos, candida, palpebra, midollare, •, metastasi.polmonari, '', seletiva, homeopático, //www.curenaturalicancro.org/…/adenocarcinoma_prostata…, esôfago, dosagens, alcalinizando, http, intracelular, vescica, 360°, entopem, subministrar, palpáveis, constatou, “, cobaltoterapia, trattati, diretaço, ½, cérvico-uterino, queimação, penetrarem, beneficiados, relatando, linfonodos, polmoni, coliciste, escorra, charlatões, macrobióticos, manifestam</t>
+  </si>
+  <si>
+    <t>japao, pergosa, adiquire, 40℅, transmissao, medicos</t>
+  </si>
+  <si>
+    <t>contribua, enviá-lo, e-mail, executá-lo, 19h25, escarro, espreitam, circulante, ​​e, ↗, ..., economizaremos, tossindo, arrastrar, cpr</t>
+  </si>
+  <si>
+    <t>esquente, lembre-se</t>
+  </si>
+  <si>
+    <t>parents, triplice, auto-imune, vaccination, outside, –, supreme, saudáveis​​, previnem, imunocomprometidas, empurrá-las, guide, age-, glutamato, vaers, studies, patrocinados, hpv, tetyana, sids, bulas, nauseam, placebos, prevalente, immunity, clinical, diseases, dizer-lhe, information, related, gms, matá-la, guillain-barré, ultrajantes, imunológica, .com, monossódico, concedem, defending, pró-vacina, vacinada, vactruth.com, responsabilizadas, esboçam, imuno-debilitados, lesadas, vaxtruth, reasons, isentando, unvaccinated, reactions, —, origins, transgênicos, concertado, ​​e, rentáveis, comprovadamente, adverse, ingredients, vaccinated, madness, sanevax, processadas, firms, empurradores-de-vacina, anvisa, incuráveis, harm, updated, injury, mandates, childhood, smallpox, impact, obukhanych, gardasil, ”, calá-los, u.s., infectious, vacinadas, //www.noticiasnaturais.com/…/10-razoes-pelas-quais-v…/…, vaccinate, figures, adjuvantes, liability, anulando-os, sgb, recommended, ogms, vaccines, guillain-barre, vactruth, pharma, reorientar, http, contraia, danificam, comprehensive, permitindo-lhe, higher, “, says, choose, ’, post-gardasil, afligidos, vaccine, illusion, ​​em, drug, healthier</t>
+  </si>
+  <si>
+    <t>estreitarem, progrida, esvaziamos, pode-se, aquecê-la, resfriada</t>
+  </si>
+  <si>
+    <t>almeido, cardiologia/secretaria, reparem…, usp, repassado, lembre-se, dr., soc.bras.de, conseqüente, ambev, ingerirem, fleury, e-mail, repassando, indenizar, parou…, fenofinol, “, …, internação, mídia…, ”, skol, voliteral</t>
+  </si>
+  <si>
+    <t>reddy, grapefruit, extrato, nutricionais, ..., '', batata-doce, dr., encaminhá-lo, 2-3, incentivei, guruprasad, insônia, morrem.., osh, 5-7, cancerosa, polifenol, handphone, cancerosas, xícaras, comprovaram, digeri-los, curativas, cítrico</t>
+  </si>
+  <si>
+    <t>'', repatriados, recusei-me, aconselhavam, ..., 'medicar-se, chama-se, wuhan, ``, acrescentando, coronavírus</t>
+  </si>
+  <si>
+    <t>elevem, '', wurhan, globalistas, soros, -o, alertamos, 2/3, começõu, rockfellers, jinping, gloso, ``, globalista, aglomerações, totall, rothschilds</t>
+  </si>
+  <si>
+    <t>alforjón, broto, gergelim, milheto, sorgo, documente, lembre-se, laetril, amígdalina, dr., contrabandeado, sabugueiro, absorvível, colonizador, compartilhe-o, tonsilar, *5, transformaram-na, brotos, b17, “, …, grumos, macadâmia, ”, *sementes, w., manner, derivada, descobriu-se</t>
+  </si>
+  <si>
+    <t>almeido, cardiologia/secretaria, reparem…, ..., usp, lembre-se, substancias, dr., soc.bras.de, conseqüente, ingerirem, fleury, repassando, indenizar, parou…, fenofinol, “, …, citados, internação, mídia…, ”, coca-cola, voliteral, repassada, repassem</t>
+  </si>
+  <si>
+    <t>'', esterilidade, vômitos, xampu, 5-10, uterina, ..., ``, lpki, abdome</t>
+  </si>
+  <si>
+    <t>aspirará, 16º, dar-se, incrementando, deve-se, especificam, disperse, deixá-las, excessivas, mg/929, minutos., mg., leva-se, aceitável…, c., “, 2000-4000, cm2, ”, 400-800, repassem</t>
+  </si>
+  <si>
+    <t>'', est.á, distribuíram, chama-se, ``, subornam</t>
+  </si>
+  <si>
+    <t>fatiados, poupadas, infecção…, protejam-se, descartei, salmonella, –, minimiza, estabilizantes, delete, camboriú-sc, ‘, superdivertida, draft, cevabacillus, 03/01/16, 08/01/16, camboriú, e-mail, coccus, fatie, sacarovictus, nociva, excessivos, noturnas, ’, muniz, organismo.., dermato, .., divulguem, ativus, cítrico</t>
+  </si>
+  <si>
+    <t>radioativas</t>
+  </si>
+  <si>
+    <t>influenza, erva-doce, tamiflu, c., repasse, famíliares, nossso, aconselha-se, 12/horas, acerola, h1n1, infectologista, –</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -133,8 +211,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,11 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -442,7 +526,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -451,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.04119850187265917</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -462,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.01385041551246537</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -473,10 +557,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0273224043715847</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -484,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -495,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -506,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.04951560818083961</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -517,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.03418803418803419</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -528,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.03999158071984845</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -539,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -550,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.03303964757709251</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -561,18 +645,21 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.01869158878504673</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.07439104674127715</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -580,10 +667,142 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.01724137931034483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.09022556390977443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.03863987635239567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.04313725490196078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.07834101382488479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.04149377593360996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.08074534161490683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.03289473684210526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.05511811023622047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0576923076923077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.06762295081967214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.005208333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>15</v>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.07602339181286549</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Texto</t>
   </si>
@@ -25,154 +25,151 @@
     <t>Porcentagem de erro ortográfico</t>
   </si>
   <si>
+    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
+  </si>
+  <si>
+    <t>Aftas são a causa do câncer.txt</t>
+  </si>
+  <si>
+    <t>Ar condicionado e o benzeno.txt</t>
+  </si>
+  <si>
+    <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
+  </si>
+  <si>
+    <t>Associação Americana e causas do câncer.txt</t>
+  </si>
+  <si>
+    <t>Banho frio e desmaios.txt</t>
+  </si>
+  <si>
+    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
+  </si>
+  <si>
+    <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Consumo de Skol e problemas renais ou câncer.txt</t>
+  </si>
+  <si>
+    <t>Consumo de fanta e coca e problemas renais ou câncer.txt</t>
+  </si>
+  <si>
+    <t>Cura do câncer.txt</t>
+  </si>
+  <si>
+    <t>Câncer é deficiência da vitamina B17.txt</t>
+  </si>
+  <si>
+    <t>Equinócio e altas temperaturas.txt</t>
+  </si>
+  <si>
+    <t>Gelo causa câncer.txt</t>
+  </si>
+  <si>
+    <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
+  </si>
+  <si>
+    <t>Limão no copo mata.txt</t>
+  </si>
+  <si>
+    <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Nova doença.txt</t>
+  </si>
+  <si>
+    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
+  </si>
+  <si>
+    <t>Situação fora de controle novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Tossir evita infarto.txt</t>
+  </si>
+  <si>
+    <t>Tratamento de queimaduras com farinha de trigo.txt</t>
+  </si>
+  <si>
+    <t>Uso de celular na cozinha e acidentes.txt</t>
+  </si>
+  <si>
+    <t>Uísque e mel contra coronavírus.txt</t>
+  </si>
+  <si>
     <t>Água quente com abacaxi.txt</t>
   </si>
   <si>
-    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
-  </si>
-  <si>
-    <t>Uso de celular na cozinha e acidentes.txt</t>
-  </si>
-  <si>
-    <t>Tratamento de queimaduras com farinha de trigo.txt</t>
-  </si>
-  <si>
-    <t>Equinócio e altas temperaturas.txt</t>
-  </si>
-  <si>
-    <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
-  </si>
-  <si>
-    <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Aftas são a causa do câncer.txt</t>
-  </si>
-  <si>
-    <t>Nova doença.txt</t>
-  </si>
-  <si>
-    <t>Tossir evita infarto.txt</t>
-  </si>
-  <si>
-    <t>Associação Americana e causas do câncer.txt</t>
-  </si>
-  <si>
-    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
-  </si>
-  <si>
-    <t>Banho frio e desmaios.txt</t>
-  </si>
-  <si>
-    <t>Consumo de Skol e problemas renais ou câncer.txt</t>
-  </si>
-  <si>
-    <t>Cura do câncer.txt</t>
-  </si>
-  <si>
-    <t>Uísque e mel contra coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Situação fora de controle novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Câncer é deficiência da vitamina B17.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumo de fanta e coca e problemas renais ou câncer.txt</t>
-  </si>
-  <si>
-    <t>Gelo causa câncer.txt</t>
-  </si>
-  <si>
-    <t>Ar condicionado e o benzeno.txt</t>
-  </si>
-  <si>
-    <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
-  </si>
-  <si>
-    <t>Limão no copo mata.txt</t>
-  </si>
-  <si>
-    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
-  </si>
-  <si>
-    <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>cistos, ”, extrato, enfatizou, anticâncer, polifenóis, .., “, …, huiren, alcalina</t>
-  </si>
-  <si>
-    <t>solidifica, urinário, gastrite, retarda, menstruais, obstipação, reparte-se, ..., divulgamos, 'mistura</t>
-  </si>
-  <si>
-    <t>3-4, lembre-se, afaste-se, ..., ademola</t>
-  </si>
-  <si>
-    <t>tirei-a, antioxidantes, extinguiu, fervente, compartilhá-lo, ..., reencaminhado</t>
-  </si>
-  <si>
-    <t>indicativos, outros…, 11h, freqüente, 16h</t>
-  </si>
-  <si>
-    <t>internadas, 9,5, mancy, repasse, adiposas, 'se, endossar, '', sistêmico, articulares, dietético, arckle, dietética, dr., fetais, agravando, equal, zerocal, atrapalhada, raffaele, riccio, 9975-4476, 30º, lobbies, carta-posição, spoonful, alimentícia, 3078-0995, apresentavam, comercializem, câimbras, malformações, entitulado, citados, colocá-la, suplanta, engaje, assolassem, fórmico, h.j, formigamento, assintomáticas, aspartame, ``, nutrasweet, fibromialgia</t>
-  </si>
-  <si>
-    <t>influenza, úmida, 50-80cc, propensas, c., 30-50cc, invadirá, coronavírus</t>
-  </si>
-  <si>
-    <t>candidíase, aplaudido, albicans, carcinosi, charcot, enlouquecida, menstruações, ___________________________________________________________, tumore, endossando, deleto, vari, adenocarcinoma, bronchiale, colecisti, enema, 20-30-40, removê-la, coróide, revolucionando, nahco3, inalações, embasamento, complementá-la, percebíamos, aftas, tanti, não-hodgkin, 90°, cancerologia, acentuado, professores-doutores-catedráticos-phds, pecezinho, 36a, mangueirinha, aproveitável, cânceres, oncologistas, usa-se, 70-100, ovo-de-colombo, ``, subsequentemente, mês.1, picaretagem, alternada, epatocarcinoma, urinaria, integradores, oriundos, aprofundando, cervice, persistirem, arteriografia, ..., acidificando, novembro/2008, .todos, linfomas, gravem, efetuar, praticadas, peritonial, charlatanismo, apregoam, prostata, 'delete, câncer/2008, peritoneale, metodologias, ingerível, difusível, caixa-postal, jfj, experimente-a, vezes.1, ministrando, posicionar-se, comprovam, 1/2, alla, lincados, conseqüência, causal, //www.curenaturalicancro.org/terapiasimoncinii…/bic.htm, intersticial, paradigmas, especificas, disseminação, simoncini, homeopatia, dias.3, engoli-la, --, helsinque, casi, convicta, conjuntiva, turmores, axilares, didática, administrá-lo, baseia-se, tullio, //www.curenaturalicancro.com/, deitar-se, hodgkin, //www.cancerfungus.com/, alcuni, //www.cancerfungus.com/br-blog-simoncini-cancer-fungos…, muitíssimos, 4-5, candidíases, salgar, metódica, dell'intestino, //www.medicinacomplementar.com.br/temanov08.asp, diffuso, empiricamente, dr., orientadas, uterina, metodicamente, suspendendo, 150-200, desintegra, /100, constatação, poderosíssima, semanas.4-5, adaptabilidade, 10/12/08, polmonari, cancerosas, reversões, bórax, cerebrali, gotejador, intertítulo, ”, comunicado-circular, tumori, dedicando, brônquios, //www.cancerfungus.com/simoncini-cancro-fungo.php, hepatocarcinoma, 3-4, obtinha, máfia-de-branco, //planogeral-marcosrocha.blogspot.com/…/descoberta-ovo…, piccoli, retal, recém-nascidos, candida, palpebra, midollare, •, metastasi.polmonari, '', seletiva, homeopático, //www.curenaturalicancro.org/…/adenocarcinoma_prostata…, esôfago, dosagens, alcalinizando, http, intracelular, vescica, 360°, entopem, subministrar, palpáveis, constatou, “, cobaltoterapia, trattati, diretaço, ½, cérvico-uterino, queimação, penetrarem, beneficiados, relatando, linfonodos, polmoni, coliciste, escorra, charlatões, macrobióticos, manifestam</t>
-  </si>
-  <si>
-    <t>japao, pergosa, adiquire, 40℅, transmissao, medicos</t>
-  </si>
-  <si>
-    <t>contribua, enviá-lo, e-mail, executá-lo, 19h25, escarro, espreitam, circulante, ​​e, ↗, ..., economizaremos, tossindo, arrastrar, cpr</t>
-  </si>
-  <si>
-    <t>esquente, lembre-se</t>
-  </si>
-  <si>
-    <t>parents, triplice, auto-imune, vaccination, outside, –, supreme, saudáveis​​, previnem, imunocomprometidas, empurrá-las, guide, age-, glutamato, vaers, studies, patrocinados, hpv, tetyana, sids, bulas, nauseam, placebos, prevalente, immunity, clinical, diseases, dizer-lhe, information, related, gms, matá-la, guillain-barré, ultrajantes, imunológica, .com, monossódico, concedem, defending, pró-vacina, vacinada, vactruth.com, responsabilizadas, esboçam, imuno-debilitados, lesadas, vaxtruth, reasons, isentando, unvaccinated, reactions, —, origins, transgênicos, concertado, ​​e, rentáveis, comprovadamente, adverse, ingredients, vaccinated, madness, sanevax, processadas, firms, empurradores-de-vacina, anvisa, incuráveis, harm, updated, injury, mandates, childhood, smallpox, impact, obukhanych, gardasil, ”, calá-los, u.s., infectious, vacinadas, //www.noticiasnaturais.com/…/10-razoes-pelas-quais-v…/…, vaccinate, figures, adjuvantes, liability, anulando-os, sgb, recommended, ogms, vaccines, guillain-barre, vactruth, pharma, reorientar, http, contraia, danificam, comprehensive, permitindo-lhe, higher, “, says, choose, ’, post-gardasil, afligidos, vaccine, illusion, ​​em, drug, healthier</t>
-  </si>
-  <si>
-    <t>estreitarem, progrida, esvaziamos, pode-se, aquecê-la, resfriada</t>
-  </si>
-  <si>
-    <t>almeido, cardiologia/secretaria, reparem…, usp, repassado, lembre-se, dr., soc.bras.de, conseqüente, ambev, ingerirem, fleury, e-mail, repassando, indenizar, parou…, fenofinol, “, …, internação, mídia…, ”, skol, voliteral</t>
-  </si>
-  <si>
-    <t>reddy, grapefruit, extrato, nutricionais, ..., '', batata-doce, dr., encaminhá-lo, 2-3, incentivei, guruprasad, insônia, morrem.., osh, 5-7, cancerosa, polifenol, handphone, cancerosas, xícaras, comprovaram, digeri-los, curativas, cítrico</t>
-  </si>
-  <si>
-    <t>'', repatriados, recusei-me, aconselhavam, ..., 'medicar-se, chama-se, wuhan, ``, acrescentando, coronavírus</t>
-  </si>
-  <si>
-    <t>elevem, '', wurhan, globalistas, soros, -o, alertamos, 2/3, começõu, rockfellers, jinping, gloso, ``, globalista, aglomerações, totall, rothschilds</t>
-  </si>
-  <si>
-    <t>alforjón, broto, gergelim, milheto, sorgo, documente, lembre-se, laetril, amígdalina, dr., contrabandeado, sabugueiro, absorvível, colonizador, compartilhe-o, tonsilar, *5, transformaram-na, brotos, b17, “, …, grumos, macadâmia, ”, *sementes, w., manner, derivada, descobriu-se</t>
-  </si>
-  <si>
-    <t>almeido, cardiologia/secretaria, reparem…, ..., usp, lembre-se, substancias, dr., soc.bras.de, conseqüente, ingerirem, fleury, repassando, indenizar, parou…, fenofinol, “, …, citados, internação, mídia…, ”, coca-cola, voliteral, repassada, repassem</t>
-  </si>
-  <si>
-    <t>'', esterilidade, vômitos, xampu, 5-10, uterina, ..., ``, lpki, abdome</t>
-  </si>
-  <si>
-    <t>aspirará, 16º, dar-se, incrementando, deve-se, especificam, disperse, deixá-las, excessivas, mg/929, minutos., mg., leva-se, aceitável…, c., “, 2000-4000, cm2, ”, 400-800, repassem</t>
-  </si>
-  <si>
-    <t>'', est.á, distribuíram, chama-se, ``, subornam</t>
-  </si>
-  <si>
-    <t>fatiados, poupadas, infecção…, protejam-se, descartei, salmonella, –, minimiza, estabilizantes, delete, camboriú-sc, ‘, superdivertida, draft, cevabacillus, 03/01/16, 08/01/16, camboriú, e-mail, coccus, fatie, sacarovictus, nociva, excessivos, noturnas, ’, muniz, organismo.., dermato, .., divulguem, ativus, cítrico</t>
-  </si>
-  <si>
-    <t>radioativas</t>
-  </si>
-  <si>
-    <t>influenza, erva-doce, tamiflu, c., repasse, famíliares, nossso, aconselha-se, 12/horas, acerola, h1n1, infectologista, –</t>
+    <t>vactruth.com, dizer-lhe, matá-la, permitindo-lhe, ​​e, vactruth, —, vaccinated, sanevax, empurrá-las, “, vaccination, vaxtruth, tetyana, calá-los, mandates, anulando-os, vaccines, age-, imunocomprometidas, vaccinate, unvaccinated, ”, ​​em, post-gardasil, empurradores-de-vacina, pró-vacina, saudáveis​​, imuno-debilitados, .com, vaers, guillain-barré, obukhanych, u.s., auto-imune, guillain-barre, –, ’, healthier</t>
+  </si>
+  <si>
+    <t>/100, professores-doutores-catedráticos-phds, peritoneale, semanas.4-5, 20-30-40, tumori, 90°, --, 36a, alcuni, vescica, baseia-se, engoli-la, “, coliciste, midollare, experimente-a, câncer/2008, 150-200, colecisti, ``, mês.1, difusível, removê-la, ovo-de-colombo, acidificando, •, turmores, comunicado-circular, candidíases, intertítulo, vezes.1, novembro/2008, dr., diffuso, 70-100, epatocarcinoma, 3-4, polmoni, ”, 'delete, bronchiale, alcalinizando, 360°, 10/12/08, pecezinho, trattati, complementá-la, cérvico-uterino, posicionar-se, nahco3, administrá-lo, carcinosi, polmonari, 4-5, máfia-de-branco, cerebrali, metastasi.polmonari, usa-se, ½, dias.3, cervice, deitar-se, caixa-postal, recém-nascidos, .todos, dell'intestino, cobaltoterapia, ..., não-hodgkin, '', 1/2</t>
+  </si>
+  <si>
+    <t>leva-se, deve-se, 16º, deixá-las, mg., ”, mg/929, “, aspirará, 2000-4000, cm2, minutos., c., dar-se, aceitável…, 400-800</t>
+  </si>
+  <si>
+    <t>``, colocá-la, 'se, 9,5, zerocal, 30º, carta-posição, dr., 3078-0995, h.j, arckle, assolassem, '', 9975-4476</t>
+  </si>
+  <si>
+    <t>lembre-se</t>
+  </si>
+  <si>
+    <t>aquecê-la, pode-se</t>
+  </si>
+  <si>
+    <t>'mistura, reparte-se, ...</t>
+  </si>
+  <si>
+    <t>aconselha-se, erva-doce, –, c., 12/horas, h1n1</t>
+  </si>
+  <si>
+    <t>e-mail, parou…, ”, ambev, “, reparem…, voliteral, …, soc.bras.de, cardiologia/secretaria, almeido, dr., fenofinol, mídia…, lembre-se</t>
+  </si>
+  <si>
+    <t>parou…, ”, “, reparem…, voliteral, …, soc.bras.de, cardiologia/secretaria, ..., coca-cola, dr., fenofinol, mídia…, almeido, lembre-se</t>
+  </si>
+  <si>
+    <t>5-7, morrem.., digeri-los, encaminhá-lo, '', batata-doce, 2-3, ..., dr., handphone, polifenol, guruprasad</t>
+  </si>
+  <si>
+    <t>amígdalina, ”, *5, descobriu-se, w., compartilhe-o, *sementes, …, “, b17, dr., transformaram-na, alforjón, lembre-se</t>
+  </si>
+  <si>
+    <t>outros…, 16h, 11h</t>
+  </si>
+  <si>
+    <t>``, 5-10, lpki, ..., ''</t>
+  </si>
+  <si>
+    <t>``, '', chama-se, est.á</t>
+  </si>
+  <si>
+    <t>e-mail, organismo.., ativus, protejam-se, .., sacarovictus, 03/01/16, cevabacillus, camboriú-sc, 08/01/16, infecção…, ‘, –, ’</t>
+  </si>
+  <si>
+    <t>30-50cc, 50-80cc, c.</t>
+  </si>
+  <si>
+    <t>pergosa, adiquire, 40℅</t>
+  </si>
+  <si>
+    <t>``, wurhan, 2/3, gloso, '', -o</t>
+  </si>
+  <si>
+    <t>enviá-lo, e-mail, ​​e, ↗, 19h25, ..., executá-lo</t>
+  </si>
+  <si>
+    <t>compartilhá-lo, tirei-a, ...</t>
+  </si>
+  <si>
+    <t>3-4, ademola, ..., afaste-se, lembre-se</t>
+  </si>
+  <si>
+    <t>'medicar-se, ``, recusei-me, ..., '', chama-se</t>
+  </si>
+  <si>
+    <t>huiren, ”, .., “, …</t>
   </si>
 </sst>
 </file>
@@ -538,7 +535,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>0.04119850187265917</v>
+        <v>0.02572559366754617</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -549,7 +546,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>0.01385041551246537</v>
+        <v>0.01526393894424422</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -560,7 +557,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0273224043715847</v>
+        <v>0.04199475065616798</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -571,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>0.01923076923076923</v>
+        <v>0.01506996770721206</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +579,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>0.02222222222222222</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -593,7 +590,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>0.04951560818083961</v>
+        <v>0.005747126436781609</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -604,7 +601,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>0.03418803418803419</v>
+        <v>0.004155124653739612</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -615,7 +612,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>0.03999158071984845</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -626,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>0.07317073170731707</v>
+        <v>0.05639097744360902</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -637,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>0.03303964757709251</v>
+        <v>0.04658385093167702</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -648,7 +645,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>0.01869158878504673</v>
+        <v>0.01854714064914992</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -659,7 +656,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>0.07439104674127715</v>
+        <v>0.01936376210235131</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -670,7 +667,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>0.01724137931034483</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -681,7 +678,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="1">
-        <v>0.09022556390977443</v>
+        <v>0.01644736842105263</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -692,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>0.03863987635239567</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -703,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="1">
-        <v>0.04313725490196078</v>
+        <v>0.02868852459016394</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -714,7 +711,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>0.07834101382488479</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -725,18 +722,15 @@
         <v>45</v>
       </c>
       <c r="C19" s="1">
-        <v>0.04149377593360996</v>
+        <v>0.03658536585365853</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" s="1">
-        <v>0.08074534161490683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -744,10 +738,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>0.03289473684210526</v>
+        <v>0.02764976958525346</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -755,10 +749,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
-        <v>0.05511811023622047</v>
+        <v>0.01541850220264317</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -766,10 +760,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0576923076923077</v>
+        <v>0.008241758241758242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -777,10 +771,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1">
-        <v>0.06762295081967214</v>
+        <v>0.0273224043715847</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -788,10 +782,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
-        <v>0.005208333333333333</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -799,10 +793,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>0.07602339181286549</v>
+        <v>0.01872659176029963</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -100,76 +100,76 @@
     <t>Água quente com abacaxi.txt</t>
   </si>
   <si>
-    <t>vactruth.com, dizer-lhe, matá-la, permitindo-lhe, ​​e, vactruth, —, vaccinated, sanevax, empurrá-las, “, vaccination, vaxtruth, tetyana, calá-los, mandates, anulando-os, vaccines, age-, imunocomprometidas, vaccinate, unvaccinated, ”, ​​em, post-gardasil, empurradores-de-vacina, pró-vacina, saudáveis​​, imuno-debilitados, .com, vaers, guillain-barré, obukhanych, u.s., auto-imune, guillain-barre, –, ’, healthier</t>
-  </si>
-  <si>
-    <t>/100, professores-doutores-catedráticos-phds, peritoneale, semanas.4-5, 20-30-40, tumori, 90°, --, 36a, alcuni, vescica, baseia-se, engoli-la, “, coliciste, midollare, experimente-a, câncer/2008, 150-200, colecisti, ``, mês.1, difusível, removê-la, ovo-de-colombo, acidificando, •, turmores, comunicado-circular, candidíases, intertítulo, vezes.1, novembro/2008, dr., diffuso, 70-100, epatocarcinoma, 3-4, polmoni, ”, 'delete, bronchiale, alcalinizando, 360°, 10/12/08, pecezinho, trattati, complementá-la, cérvico-uterino, posicionar-se, nahco3, administrá-lo, carcinosi, polmonari, 4-5, máfia-de-branco, cerebrali, metastasi.polmonari, usa-se, ½, dias.3, cervice, deitar-se, caixa-postal, recém-nascidos, .todos, dell'intestino, cobaltoterapia, ..., não-hodgkin, '', 1/2</t>
-  </si>
-  <si>
-    <t>leva-se, deve-se, 16º, deixá-las, mg., ”, mg/929, “, aspirará, 2000-4000, cm2, minutos., c., dar-se, aceitável…, 400-800</t>
-  </si>
-  <si>
-    <t>``, colocá-la, 'se, 9,5, zerocal, 30º, carta-posição, dr., 3078-0995, h.j, arckle, assolassem, '', 9975-4476</t>
-  </si>
-  <si>
-    <t>lembre-se</t>
-  </si>
-  <si>
-    <t>aquecê-la, pode-se</t>
-  </si>
-  <si>
-    <t>'mistura, reparte-se, ...</t>
-  </si>
-  <si>
-    <t>aconselha-se, erva-doce, –, c., 12/horas, h1n1</t>
-  </si>
-  <si>
-    <t>e-mail, parou…, ”, ambev, “, reparem…, voliteral, …, soc.bras.de, cardiologia/secretaria, almeido, dr., fenofinol, mídia…, lembre-se</t>
-  </si>
-  <si>
-    <t>parou…, ”, “, reparem…, voliteral, …, soc.bras.de, cardiologia/secretaria, ..., coca-cola, dr., fenofinol, mídia…, almeido, lembre-se</t>
-  </si>
-  <si>
-    <t>5-7, morrem.., digeri-los, encaminhá-lo, '', batata-doce, 2-3, ..., dr., handphone, polifenol, guruprasad</t>
-  </si>
-  <si>
-    <t>amígdalina, ”, *5, descobriu-se, w., compartilhe-o, *sementes, …, “, b17, dr., transformaram-na, alforjón, lembre-se</t>
-  </si>
-  <si>
-    <t>outros…, 16h, 11h</t>
-  </si>
-  <si>
-    <t>``, 5-10, lpki, ..., ''</t>
-  </si>
-  <si>
-    <t>``, '', chama-se, est.á</t>
-  </si>
-  <si>
-    <t>e-mail, organismo.., ativus, protejam-se, .., sacarovictus, 03/01/16, cevabacillus, camboriú-sc, 08/01/16, infecção…, ‘, –, ’</t>
-  </si>
-  <si>
-    <t>30-50cc, 50-80cc, c.</t>
-  </si>
-  <si>
-    <t>pergosa, adiquire, 40℅</t>
-  </si>
-  <si>
-    <t>``, wurhan, 2/3, gloso, '', -o</t>
-  </si>
-  <si>
-    <t>enviá-lo, e-mail, ​​e, ↗, 19h25, ..., executá-lo</t>
-  </si>
-  <si>
-    <t>compartilhá-lo, tirei-a, ...</t>
-  </si>
-  <si>
-    <t>3-4, ademola, ..., afaste-se, lembre-se</t>
-  </si>
-  <si>
-    <t>'medicar-se, ``, recusei-me, ..., '', chama-se</t>
-  </si>
-  <si>
-    <t>huiren, ”, .., “, …</t>
+    <t>eficazmente, unvaccinated, incuráveis, responsabilizadas, tetyana, barré, gardasil, danificam, isentando, obukhanych, triplice, bulas, esboçam, patrocinados, –, prevalente, calá, lesadas, conservantes, razoes, comprovadamente, monossódico, vaxtruth, vaers, sgb, ​​e, nauseam, —, sanevax, guillain, empurradores, imuno, vactruth, afligidos, vacinadas, ​​em, vactruthcom, debilitados, matá, anvisa, adjuvantes, glutamato, concedem, ’, concertado, empurrá, saudáveis​​, contraia, imunocomprometidas, “, v…/…, gms, placebos, sids, previnem, imunológica, reorientar</t>
+  </si>
+  <si>
+    <t>linfomas, acidificando, entopem, dosagens, aftas, albicans, piccoli, catedráticos, mês1, metastasipolmonari, peritonial, novembro/2008, aproveitável, administrá, jfj, complementá, candidíase, peritoneale, colecisti, conjuntiva, carcinosi, metástases, 360°, coliciste, cancerologia, nahco3, epatocarcinoma, dellintestino, adaptabilidade, trattati, prostata, midollare, pecezinho, mangueirinha, 90°, gotejador, hepatocarcinoma, axilares, revolucionando, aprofundando, palpebra, cancerosas, penetrarem, embasamento, tumore, cérvico, muitíssimos, polmonari, bórax, cerebrali, semanas4, deleto, removê, charlatanismo, diretaço, câncer/2008, vescica, endossando, hodgkin, didática, ½, uterino, persistirem, salgar, alcuni, difusível, ingerível, casi, empiricamente, metodologias, especificas, subsequentemente, metodicamente, coróide, urinaria, marcosrochablogspotcom//descoberta, diffuso, adenocarcinoma, vezes1, oriundos, inalações, reversões, teclar, 10/12/08, arteriografia, percebíamos, candidíases, apregoam, simoncini, bronchiale, 5todos, brônquios, equimoses, integradores, alcalinizando, ministrando, homeopático, escorra, intracelular, •, 1/2, turmores, praticadas, cobaltoterapia, menstruações, linfonodos, tanti, subministrar, intertítulo, intersticial, polmoni, paradigmas, picaretagem, palpáveis, 36a, orientadas, poderosíssima, /100, cervice, obtinha, constatou, homeopatia, lincados, dias3, tumori, “, fungophp, oncologistas, macrobióticos, vari</t>
+  </si>
+  <si>
+    <t>mg/929, “, incrementando, aspirará, cm2, 16º, especificam, aceitável…, repassem</t>
+  </si>
+  <si>
+    <t>fibromialgia, aspartame, agravando, comercializem, adiposas, assintomáticas, internadas, colocá, riccio, 30º, engaje, mancy, fórmico, fetais, nutrasweet, dietética, assolassem, arckle, malformações, dietético, suplanta, sistêmico, articulares, entitulado, zerocal</t>
+  </si>
+  <si>
+    <t>partilhem</t>
+  </si>
+  <si>
+    <t>aquecê, progrida, estreitarem, lugarquando, esvaziamos</t>
+  </si>
+  <si>
+    <t>menstruais, solidifica, obstipação, vómitos, reparte</t>
+  </si>
+  <si>
+    <t>–, tamiflu, nossso, acerola, h1n1, famíliares, 12/horas, infectologista</t>
+  </si>
+  <si>
+    <t>cardiologia/secretaria, socbrasde, fenofinol, teixeira, ambev, indenizar, “, freitas, ingerirem, usp, almeido, repassado, conseqüente, voliteral</t>
+  </si>
+  <si>
+    <t>proprios, socbrasde, cardiologia/secretaria, voliteral, fenofinol, teixeira, indenizar, repassada, “, freitas, ingerirem, substancias, usp, almeido, conseqüente, repassem</t>
+  </si>
+  <si>
+    <t>osh, encaminhá, cancerosa, cancerosas, curativas, incentivei, comprovaram, digeri, handphone, polifenol, guruprasad</t>
+  </si>
+  <si>
+    <t>alforjón, b17, laetril, sabugueiro, sorgo, documente, macadâmia, “, grumos, rebentos, amígdalina, absorvível, 5sementes, tonsilar, milheto, colonizador</t>
+  </si>
+  <si>
+    <t>11h, indicativos, 16h</t>
+  </si>
+  <si>
+    <t>lpki</t>
+  </si>
+  <si>
+    <t>subornam, distribuíram, partilhe</t>
+  </si>
+  <si>
+    <t>superdivertida, cevabacillus, muniz, fatie, ativus, –, conservantes, internamento, divulguem, camboriú, coccus, estabilizantes, sacarovictus, ‘, 03/01/16, 08/01/16, ’, fatiados, minimiza, dermato</t>
+  </si>
+  <si>
+    <t>80cc, coronavírus, 50cc, invadirá</t>
+  </si>
+  <si>
+    <t>medicos, afectados, informaçao, adiquire, pergosa, japao, transmissao</t>
+  </si>
+  <si>
+    <t>globalista, totall, começõu, wurhan, elevem, jinping, aglomerações, rockfellers, globalistas, soros, gloso, rothschilds, 2/3</t>
+  </si>
+  <si>
+    <t>economizaremos, arrastrar, circulante, executá, escarro, 19h25, enviá, ​​e</t>
+  </si>
+  <si>
+    <t>compartilhá, reencaminhado</t>
+  </si>
+  <si>
+    <t>partilhou, ademola</t>
+  </si>
+  <si>
+    <t>coronavírus, wuhan, aconselhavam, repatriados</t>
+  </si>
+  <si>
+    <t>alcalina, anticâncer, huiren, polifenóis, “, enfatizou, cistos</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>0.02572559366754617</v>
+        <v>0.03988803358992302</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -546,7 +546,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>0.01526393894424422</v>
+        <v>0.03083491461100569</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -557,7 +557,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>0.04199475065616798</v>
+        <v>0.02593659942363112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>0.01506996770721206</v>
+        <v>0.03019323671497584</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -579,7 +579,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>0.009345794392523364</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -590,7 +590,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>0.005747126436781609</v>
+        <v>0.01633986928104575</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -601,7 +601,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>0.004155124653739612</v>
+        <v>0.008183306055646482</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -612,7 +612,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>0.03508771929824561</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -623,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>0.05639097744360902</v>
+        <v>0.05857740585774059</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -634,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>0.04658385093167702</v>
+        <v>0.05614035087719298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -645,7 +645,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>0.01854714064914992</v>
+        <v>0.01906412478336222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -656,7 +656,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>0.01936376210235131</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -667,7 +667,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>0.01333333333333333</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -678,7 +678,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01644736842105263</v>
+        <v>0.003759398496240601</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>0.03846153846153846</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="1">
-        <v>0.02868852459016394</v>
+        <v>0.04608294930875576</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -711,7 +711,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>0.01282051282051282</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -722,7 +722,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="1">
-        <v>0.03658536585365853</v>
+        <v>0.0958904109589041</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -741,7 +741,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>0.02764976958525346</v>
+        <v>0.0755813953488372</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="1">
-        <v>0.01541850220264317</v>
+        <v>0.0199501246882793</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -763,7 +763,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>0.008241758241758242</v>
+        <v>0.006042296072507553</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0273224043715847</v>
+        <v>0.01162790697674419</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -785,7 +785,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="1">
-        <v>0.02352941176470588</v>
+        <v>0.01801801801801802</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -796,7 +796,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>0.01872659176029963</v>
+        <v>0.03043478260869565</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Texto</t>
   </si>
@@ -100,76 +100,73 @@
     <t>Água quente com abacaxi.txt</t>
   </si>
   <si>
-    <t>eficazmente, unvaccinated, incuráveis, responsabilizadas, tetyana, barré, gardasil, danificam, isentando, obukhanych, triplice, bulas, esboçam, patrocinados, –, prevalente, calá, lesadas, conservantes, razoes, comprovadamente, monossódico, vaxtruth, vaers, sgb, ​​e, nauseam, —, sanevax, guillain, empurradores, imuno, vactruth, afligidos, vacinadas, ​​em, vactruthcom, debilitados, matá, anvisa, adjuvantes, glutamato, concedem, ’, concertado, empurrá, saudáveis​​, contraia, imunocomprometidas, “, v…/…, gms, placebos, sids, previnem, imunológica, reorientar</t>
-  </si>
-  <si>
-    <t>linfomas, acidificando, entopem, dosagens, aftas, albicans, piccoli, catedráticos, mês1, metastasipolmonari, peritonial, novembro/2008, aproveitável, administrá, jfj, complementá, candidíase, peritoneale, colecisti, conjuntiva, carcinosi, metástases, 360°, coliciste, cancerologia, nahco3, epatocarcinoma, dellintestino, adaptabilidade, trattati, prostata, midollare, pecezinho, mangueirinha, 90°, gotejador, hepatocarcinoma, axilares, revolucionando, aprofundando, palpebra, cancerosas, penetrarem, embasamento, tumore, cérvico, muitíssimos, polmonari, bórax, cerebrali, semanas4, deleto, removê, charlatanismo, diretaço, câncer/2008, vescica, endossando, hodgkin, didática, ½, uterino, persistirem, salgar, alcuni, difusível, ingerível, casi, empiricamente, metodologias, especificas, subsequentemente, metodicamente, coróide, urinaria, marcosrochablogspotcom//descoberta, diffuso, adenocarcinoma, vezes1, oriundos, inalações, reversões, teclar, 10/12/08, arteriografia, percebíamos, candidíases, apregoam, simoncini, bronchiale, 5todos, brônquios, equimoses, integradores, alcalinizando, ministrando, homeopático, escorra, intracelular, •, 1/2, turmores, praticadas, cobaltoterapia, menstruações, linfonodos, tanti, subministrar, intertítulo, intersticial, polmoni, paradigmas, picaretagem, palpáveis, 36a, orientadas, poderosíssima, /100, cervice, obtinha, constatou, homeopatia, lincados, dias3, tumori, “, fungophp, oncologistas, macrobióticos, vari</t>
-  </si>
-  <si>
-    <t>mg/929, “, incrementando, aspirará, cm2, 16º, especificam, aceitável…, repassem</t>
-  </si>
-  <si>
-    <t>fibromialgia, aspartame, agravando, comercializem, adiposas, assintomáticas, internadas, colocá, riccio, 30º, engaje, mancy, fórmico, fetais, nutrasweet, dietética, assolassem, arckle, malformações, dietético, suplanta, sistêmico, articulares, entitulado, zerocal</t>
-  </si>
-  <si>
-    <t>partilhem</t>
-  </si>
-  <si>
-    <t>aquecê, progrida, estreitarem, lugarquando, esvaziamos</t>
-  </si>
-  <si>
-    <t>menstruais, solidifica, obstipação, vómitos, reparte</t>
-  </si>
-  <si>
-    <t>–, tamiflu, nossso, acerola, h1n1, famíliares, 12/horas, infectologista</t>
-  </si>
-  <si>
-    <t>cardiologia/secretaria, socbrasde, fenofinol, teixeira, ambev, indenizar, “, freitas, ingerirem, usp, almeido, repassado, conseqüente, voliteral</t>
-  </si>
-  <si>
-    <t>proprios, socbrasde, cardiologia/secretaria, voliteral, fenofinol, teixeira, indenizar, repassada, “, freitas, ingerirem, substancias, usp, almeido, conseqüente, repassem</t>
-  </si>
-  <si>
-    <t>osh, encaminhá, cancerosa, cancerosas, curativas, incentivei, comprovaram, digeri, handphone, polifenol, guruprasad</t>
-  </si>
-  <si>
-    <t>alforjón, b17, laetril, sabugueiro, sorgo, documente, macadâmia, “, grumos, rebentos, amígdalina, absorvível, 5sementes, tonsilar, milheto, colonizador</t>
-  </si>
-  <si>
-    <t>11h, indicativos, 16h</t>
+    <t>previnem, reactions, recommended, saudáveis​​, anvisa, triplice, obukhanych, vaxtruth, vaccinated, transgênicos, unvaccinated, mandates, empurradores, ​​e, nauseam, vaers, reorientar, studies, ogms, sites, –, tetyana, healthier, defending, ’, vactruthcom, gardasil, diseases, sgb, pharma, parents, says, reasons, report, gms, comprovadamente, ingredients, updated, “, eficazmente, sanevax, vaccines, higher, —, imunocomprometidas, ​​em, origins, rentáveis, injury, vactruth, related, firms</t>
+  </si>
+  <si>
+    <t>diretaço, bronchiale, adaptabilidade, phds, sites, coróide, subsequentemente, colecisti, linfomas, jfj, candidíases, epatocarcinoma, tumore, ingerível, deleto, adequadamente, turmores, trattati, pediátrica, nahco3, alla, è, macrobióticos, carcinosi, peritoneale, estomago, alcalinizando, vescica, charcot, polmonari, tullio, “, metodicamente, piccoli, prostata, poderosíssima, pazes, metastasipolmonari, pessoalmente, 360°, reversões, restringe, cânceres, polmoni, dias3, pecezinho, •, diffuso, simoncini, gotejador, links, 90°, intertítulo, cerebrali, absurdamente, abrasões, casi, lincados, subministrar, tanti, cérvico, entopem, 5todos, semanas4, espetaculares, alcuni, coliciste, dellintestino, vezes1, mês1, oncologista, ½, inalador, legendado, tumori, radiografias, palpebra, midollare, oncologistas, 36a</t>
+  </si>
+  <si>
+    <t>refrescante, 16º, cm2, “, simplemente</t>
+  </si>
+  <si>
+    <t>adoçante, blaylock, 30º, arckle, entitulado, atenciosamente, câimbras, mancy, zerocal, dopamina, riccio, hj, raffaele, lobbies</t>
+  </si>
+  <si>
+    <t>possivel</t>
+  </si>
+  <si>
+    <t>cairam, lugarquando</t>
+  </si>
+  <si>
+    <t>reage, vómitos</t>
+  </si>
+  <si>
+    <t>infectologista, –, nossso, tamiflu, famíliares, h1n1</t>
+  </si>
+  <si>
+    <t>fenofinol, socbrasde, ambev, “, voliteral, skol, fleury, almeido</t>
+  </si>
+  <si>
+    <t>fenofinol, fanta, socbrasde, “, voliteral, proprios, fleury, almeido</t>
+  </si>
+  <si>
+    <t>osh, polifenol, guruprasad, handphone, reddy</t>
+  </si>
+  <si>
+    <t>laetril, mirtilos, “, alforjón, b17, amígdalina, 5sementes</t>
+  </si>
+  <si>
+    <t>11h, 16h</t>
   </si>
   <si>
     <t>lpki</t>
   </si>
   <si>
-    <t>subornam, distribuíram, partilhe</t>
-  </si>
-  <si>
-    <t>superdivertida, cevabacillus, muniz, fatie, ativus, –, conservantes, internamento, divulguem, camboriú, coccus, estabilizantes, sacarovictus, ‘, 03/01/16, 08/01/16, ’, fatiados, minimiza, dermato</t>
-  </si>
-  <si>
-    <t>80cc, coronavírus, 50cc, invadirá</t>
-  </si>
-  <si>
-    <t>medicos, afectados, informaçao, adiquire, pergosa, japao, transmissao</t>
-  </si>
-  <si>
-    <t>globalista, totall, começõu, wurhan, elevem, jinping, aglomerações, rockfellers, globalistas, soros, gloso, rothschilds, 2/3</t>
-  </si>
-  <si>
-    <t>economizaremos, arrastrar, circulante, executá, escarro, 19h25, enviá, ​​e</t>
-  </si>
-  <si>
-    <t>compartilhá, reencaminhado</t>
-  </si>
-  <si>
-    <t>partilhou, ademola</t>
-  </si>
-  <si>
-    <t>coronavírus, wuhan, aconselhavam, repatriados</t>
-  </si>
-  <si>
-    <t>alcalina, anticâncer, huiren, polifenóis, “, enfatizou, cistos</t>
+    <t>sacarovictus, prontamente, superdivertida, –, ‘, aconchegante, ’, cevabacillus, ativus, humildemente, libre, contactei</t>
+  </si>
+  <si>
+    <t>50cc, desconfortáveis, 80cc</t>
+  </si>
+  <si>
+    <t>informaçao, podera, transmissao, afectados, japao, pergosa, adiquire, nao, estao, medicos</t>
+  </si>
+  <si>
+    <t>começõu, globalista, wurhan, rothschilds, rockfellers, lives, globalistas, alcool, jinping, totall</t>
+  </si>
+  <si>
+    <t>19h25, ​​e</t>
+  </si>
+  <si>
+    <t>reencaminhado</t>
+  </si>
+  <si>
+    <t>ademola, familiares</t>
+  </si>
+  <si>
+    <t>inalador</t>
+  </si>
+  <si>
+    <t>huiren, cistos, polifenóis, “, familiares, anticâncer</t>
   </si>
 </sst>
 </file>
@@ -535,7 +532,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>0.03988803358992302</v>
+        <v>0.03649122807017544</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -546,7 +543,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>0.03083491461100569</v>
+        <v>0.01900688999762414</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -557,7 +554,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>0.02593659942363112</v>
+        <v>0.01436781609195402</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -568,7 +565,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>0.03019323671497584</v>
+        <v>0.01690821256038647</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -590,7 +587,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>0.01633986928104575</v>
+        <v>0.006557377049180328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -601,7 +598,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>0.008183306055646482</v>
+        <v>0.003273322422258593</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -612,7 +609,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>0.05128205128205128</v>
+        <v>0.03821656050955414</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -623,7 +620,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>0.05857740585774059</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -634,7 +631,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>0.05614035087719298</v>
+        <v>0.02797202797202797</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -645,7 +642,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>0.01906412478336222</v>
+        <v>0.008665511265164644</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -656,7 +653,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>0.02531645569620253</v>
+        <v>0.01107594936708861</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -667,7 +664,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -685,11 +682,8 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" s="1">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -697,10 +691,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>0.04608294930875576</v>
+        <v>0.0273972602739726</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -708,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0196078431372549</v>
+        <v>0.01477832512315271</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -719,10 +713,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
-        <v>0.0958904109589041</v>
+        <v>0.136986301369863</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -738,10 +732,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1">
-        <v>0.0755813953488372</v>
+        <v>0.05747126436781609</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -749,10 +743,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0199501246882793</v>
+        <v>0.004987531172069825</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -760,10 +754,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>0.006042296072507553</v>
+        <v>0.003021148036253776</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -771,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>0.01162790697674419</v>
@@ -782,10 +776,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
-        <v>0.01801801801801802</v>
+        <v>0.004504504504504504</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -793,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1">
-        <v>0.03043478260869565</v>
+        <v>0.02608695652173913</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Texto</t>
   </si>
@@ -25,6 +25,15 @@
     <t>Porcentagem de erro ortográfico</t>
   </si>
   <si>
+    <t>Quantidade de palavras</t>
+  </si>
+  <si>
+    <t>Quantidade de paragrafos</t>
+  </si>
+  <si>
+    <t>Solicita compartilhamento?</t>
+  </si>
+  <si>
     <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
   </si>
   <si>
@@ -43,9 +52,15 @@
     <t>Banho frio e desmaios.txt</t>
   </si>
   <si>
+    <t>Beber água antes de pintar o cabelo.txt</t>
+  </si>
+  <si>
     <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
   </si>
   <si>
+    <t>Besouros que causam cegueira.txt</t>
+  </si>
+  <si>
     <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
   </si>
   <si>
@@ -61,15 +76,24 @@
     <t>Câncer é deficiência da vitamina B17.txt</t>
   </si>
   <si>
+    <t>Efeitos da glândula da próstata.txt</t>
+  </si>
+  <si>
     <t>Equinócio e altas temperaturas.txt</t>
   </si>
   <si>
+    <t>Fenilpropalamina em medicamentos.txt</t>
+  </si>
+  <si>
     <t>Gelo causa câncer.txt</t>
   </si>
   <si>
     <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
   </si>
   <si>
+    <t>Limonada quente cura o câncer.txt</t>
+  </si>
+  <si>
     <t>Limão no copo mata.txt</t>
   </si>
   <si>
@@ -82,6 +106,9 @@
     <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
   </si>
   <si>
+    <t>Quiabo cura diabetes.txt</t>
+  </si>
+  <si>
     <t>Situação fora de controle novo coronavírus.txt</t>
   </si>
   <si>
@@ -94,22 +121,34 @@
     <t>Uso de celular na cozinha e acidentes.txt</t>
   </si>
   <si>
+    <t>Uso do celular no escuro e câncer de olho.txt</t>
+  </si>
+  <si>
     <t>Uísque e mel contra coronavírus.txt</t>
   </si>
   <si>
+    <t>Vacina anticâncer.txt</t>
+  </si>
+  <si>
+    <t>Água gelada faz mal.txt</t>
+  </si>
+  <si>
     <t>Água quente com abacaxi.txt</t>
   </si>
   <si>
-    <t>previnem, reactions, recommended, saudáveis​​, anvisa, triplice, obukhanych, vaxtruth, vaccinated, transgênicos, unvaccinated, mandates, empurradores, ​​e, nauseam, vaers, reorientar, studies, ogms, sites, –, tetyana, healthier, defending, ’, vactruthcom, gardasil, diseases, sgb, pharma, parents, says, reasons, report, gms, comprovadamente, ingredients, updated, “, eficazmente, sanevax, vaccines, higher, —, imunocomprometidas, ​​em, origins, rentáveis, injury, vactruth, related, firms</t>
-  </si>
-  <si>
-    <t>diretaço, bronchiale, adaptabilidade, phds, sites, coróide, subsequentemente, colecisti, linfomas, jfj, candidíases, epatocarcinoma, tumore, ingerível, deleto, adequadamente, turmores, trattati, pediátrica, nahco3, alla, è, macrobióticos, carcinosi, peritoneale, estomago, alcalinizando, vescica, charcot, polmonari, tullio, “, metodicamente, piccoli, prostata, poderosíssima, pazes, metastasipolmonari, pessoalmente, 360°, reversões, restringe, cânceres, polmoni, dias3, pecezinho, •, diffuso, simoncini, gotejador, links, 90°, intertítulo, cerebrali, absurdamente, abrasões, casi, lincados, subministrar, tanti, cérvico, entopem, 5todos, semanas4, espetaculares, alcuni, coliciste, dellintestino, vezes1, mês1, oncologista, ½, inalador, legendado, tumori, radiografias, palpebra, midollare, oncologistas, 36a</t>
-  </si>
-  <si>
-    <t>refrescante, 16º, cm2, “, simplemente</t>
-  </si>
-  <si>
-    <t>adoçante, blaylock, 30º, arckle, entitulado, atenciosamente, câimbras, mancy, zerocal, dopamina, riccio, hj, raffaele, lobbies</t>
+    <t>Óleo no umbigo cura doenças.txt</t>
+  </si>
+  <si>
+    <t>firms, report, ​​e, gardasil, reactions, nauseam, rentáveis, “, healthier, parents, ogms, reorientar, sanevax, higher, saudáveis​​, vaccinated, empurradores, obukhanych, tetyana, mandates, triplice, vaxtruth, recommended, imunocomprometidas, related, eficazmente, diseases, says, ’, injury, pharma, ingredients, transgênicos, defending, updated, gms, reasons, unvaccinated, anvisa, —, comprovadamente, ​​em, sgb, –, vaers, sites, previnem, studies, vactruth, vaccines, vactruthcom, origins</t>
+  </si>
+  <si>
+    <t>inalador, colecisti, trattati, dellintestino, oncologistas, adequadamente, •, pecezinho, metastasipolmonari, alcuni, restringe, tumore, gotejador, mês1, ingerível, legendado, palpebra, poderosíssima, sites, dias3, alcalinizando, 5todos, deleto, tullio, polmoni, abrasões, subministrar, tumori, tanti, radiografias, turmores, links, è, vescica, pediátrica, midollare, pessoalmente, estomago, cérvico, casi, bronchiale, pazes, macrobióticos, cânceres, 90°, candidíases, diffuso, jfj, diretaço, prostata, reversões, simoncini, vezes1, “, charcot, lincados, absurdamente, cerebrali, peritoneale, coróide, oncologista, adaptabilidade, metodicamente, semanas4, piccoli, entopem, ½, nahco3, polmonari, espetaculares, coliciste, phds, linfomas, 360°, alla, subsequentemente, intertítulo, 36a, carcinosi, epatocarcinoma</t>
+  </si>
+  <si>
+    <t>16º, cm2, “, simplemente, refrescante</t>
+  </si>
+  <si>
+    <t>câimbras, 30º, raffaele, arckle, hj, riccio, blaylock, atenciosamente, entitulado, dopamina, lobbies, zerocal, adoçante, mancy</t>
   </si>
   <si>
     <t>possivel</t>
@@ -118,40 +157,58 @@
     <t>cairam, lugarquando</t>
   </si>
   <si>
+    <t>oncologista, madeixasé, vc</t>
+  </si>
+  <si>
     <t>reage, vómitos</t>
   </si>
   <si>
-    <t>infectologista, –, nossso, tamiflu, famíliares, h1n1</t>
-  </si>
-  <si>
-    <t>fenofinol, socbrasde, ambev, “, voliteral, skol, fleury, almeido</t>
-  </si>
-  <si>
-    <t>fenofinol, fanta, socbrasde, “, voliteral, proprios, fleury, almeido</t>
-  </si>
-  <si>
-    <t>osh, polifenol, guruprasad, handphone, reddy</t>
-  </si>
-  <si>
-    <t>laetril, mirtilos, “, alforjón, b17, amígdalina, 5sementes</t>
-  </si>
-  <si>
-    <t>11h, 16h</t>
+    <t>hu, percursso</t>
+  </si>
+  <si>
+    <t>–, nossso, infectologista, h1n1, famíliares, tamiflu</t>
+  </si>
+  <si>
+    <t>skol, almeido, fleury, “, ambev, socbrasde, voliteral, fenofinol</t>
+  </si>
+  <si>
+    <t>almeido, proprios, fanta, fleury, “, socbrasde, voliteral, fenofinol</t>
+  </si>
+  <si>
+    <t>guruprasad, handphone, osh, polifenol, reddy</t>
+  </si>
+  <si>
+    <t>mirtilos, 5sementes, alforjón, “, amígdalina, b17, laetril</t>
+  </si>
+  <si>
+    <t>humedecimento, hesistência, crónica, , dey, “, extracto, 300cl, sémen, reembalar, 60cl, ugbogulu, projectada, 50cl, atinge, afecta, acção, colega…, afectará, canalizacao, 15mg, directamente, horin, bph, vestuario, boxers, alguém…, encanador, cânceres, –, lawma, jacto, desconfortável, wahala, canalizador</t>
+  </si>
+  <si>
+    <t>16h, 11h</t>
+  </si>
+  <si>
+    <t>‘, –, atenciosamente, crmsp33006, ’, fenilpropalamina</t>
   </si>
   <si>
     <t>lpki</t>
   </si>
   <si>
-    <t>sacarovictus, prontamente, superdivertida, –, ‘, aconchegante, ’, cevabacillus, ativus, humildemente, libre, contactei</t>
-  </si>
-  <si>
-    <t>50cc, desconfortáveis, 80cc</t>
-  </si>
-  <si>
-    <t>informaçao, podera, transmissao, afectados, japao, pergosa, adiquire, nao, estao, medicos</t>
-  </si>
-  <si>
-    <t>começõu, globalista, wurhan, rothschilds, rockfellers, lives, globalistas, alcool, jinping, totall</t>
+    <t>tchen, monoalcólico, horin</t>
+  </si>
+  <si>
+    <t>libre, contactei, aconchegante, cevabacillus, ‘, –, prontamente, ativus, sacarovictus, humildemente, superdivertida, ’</t>
+  </si>
+  <si>
+    <t>80cc, 50cc, desconfortáveis</t>
+  </si>
+  <si>
+    <t>japao, nao, podera, medicos, transmissao, adiquire, estao, informaçao, afectados, pergosa</t>
+  </si>
+  <si>
+    <t>cientifico, mais…, –, extraida, deus…, unitriedubr, “, esculentus, água…, unicampbr</t>
+  </si>
+  <si>
+    <t>globalista, globalistas, lives, rockfellers, jinping, wurhan, rothschilds, totall, começõu, alcool</t>
   </si>
   <si>
     <t>19h25, ​​e</t>
@@ -160,13 +217,25 @@
     <t>reencaminhado</t>
   </si>
   <si>
-    <t>ademola, familiares</t>
+    <t>familiares, ademola</t>
+  </si>
+  <si>
+    <t>eletromagnetica, frequentes, bakkano</t>
   </si>
   <si>
     <t>inalador</t>
   </si>
   <si>
-    <t>huiren, cistos, polifenóis, “, familiares, anticâncer</t>
+    <t>—, barbuto, genoma, oncologista, repassado………, 0800–7737327, brasileirosuma</t>
+  </si>
+  <si>
+    <t>garganta…, varella, –</t>
+  </si>
+  <si>
+    <t>cistos, familiares, “, anticâncer, polifenóis, huiren</t>
+  </si>
+  <si>
+    <t>letargiaalívio, ricino, hidratando, massagea, 4cm, pechotique, naturista</t>
   </si>
 </sst>
 </file>
@@ -502,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,9 +580,12 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,205 +595,217 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <v>0.03649122807017544</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>0.01900688999762414</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>0.01436781609195402</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>0.01690821256038647</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>0.0101010101010101</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>0.006557377049180328</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
+        <v>0.0136986301369863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.003273322422258593</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0196078431372549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.03821656050955414</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.03333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.02797202797202797</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.008665511265164644</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.01107594936708861</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.003759398496240601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>0.0212378640776699</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0273972602739726</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
-        <v>0.01477832512315271</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
-        <v>0.136986301369863</v>
+        <v>0.003759398496240601</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -729,68 +813,175 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1">
-        <v>0.05747126436781609</v>
+        <v>0.01327433628318584</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
-        <v>0.004987531172069825</v>
+        <v>0.0273972602739726</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1">
-        <v>0.003021148036253776</v>
+        <v>0.01477832512315271</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1">
-        <v>0.01162790697674419</v>
+        <v>0.136986301369863</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>0.004504504504504504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.05747126436781609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.004987531172069825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.003021148036253776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.01162790697674419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.01016949152542373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.004504504504504504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.04375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.02325581395348837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1">
         <v>0.02608695652173913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.02134146341463415</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Texto</t>
   </si>
@@ -34,208 +34,538 @@
     <t>Solicita compartilhamento?</t>
   </si>
   <si>
-    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
-  </si>
-  <si>
-    <t>Aftas são a causa do câncer.txt</t>
-  </si>
-  <si>
-    <t>Ar condicionado e o benzeno.txt</t>
-  </si>
-  <si>
-    <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
-  </si>
-  <si>
-    <t>Associação Americana e causas do câncer.txt</t>
-  </si>
-  <si>
-    <t>Banho frio e desmaios.txt</t>
-  </si>
-  <si>
-    <t>Beber água antes de pintar o cabelo.txt</t>
-  </si>
-  <si>
-    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
-  </si>
-  <si>
-    <t>Besouros que causam cegueira.txt</t>
-  </si>
-  <si>
-    <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Consumo de Skol e problemas renais ou câncer.txt</t>
-  </si>
-  <si>
-    <t>Consumo de fanta e coca e problemas renais ou câncer.txt</t>
-  </si>
-  <si>
-    <t>Cura do câncer.txt</t>
-  </si>
-  <si>
-    <t>Câncer é deficiência da vitamina B17.txt</t>
-  </si>
-  <si>
-    <t>Efeitos da glândula da próstata.txt</t>
-  </si>
-  <si>
-    <t>Equinócio e altas temperaturas.txt</t>
-  </si>
-  <si>
-    <t>Fenilpropalamina em medicamentos.txt</t>
-  </si>
-  <si>
-    <t>Gelo causa câncer.txt</t>
-  </si>
-  <si>
-    <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
-  </si>
-  <si>
-    <t>Limonada quente cura o câncer.txt</t>
-  </si>
-  <si>
-    <t>Limão no copo mata.txt</t>
-  </si>
-  <si>
-    <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Nova doença.txt</t>
-  </si>
-  <si>
-    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
-  </si>
-  <si>
-    <t>Quiabo cura diabetes.txt</t>
-  </si>
-  <si>
-    <t>Situação fora de controle novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Tossir evita infarto.txt</t>
-  </si>
-  <si>
-    <t>Tratamento de queimaduras com farinha de trigo.txt</t>
-  </si>
-  <si>
-    <t>Uso de celular na cozinha e acidentes.txt</t>
-  </si>
-  <si>
-    <t>Uso do celular no escuro e câncer de olho.txt</t>
-  </si>
-  <si>
-    <t>Uísque e mel contra coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Vacina anticâncer.txt</t>
-  </si>
-  <si>
-    <t>Água gelada faz mal.txt</t>
-  </si>
-  <si>
-    <t>Água quente com abacaxi.txt</t>
-  </si>
-  <si>
-    <t>Óleo no umbigo cura doenças.txt</t>
-  </si>
-  <si>
-    <t>firms, report, ​​e, gardasil, reactions, nauseam, rentáveis, “, healthier, parents, ogms, reorientar, sanevax, higher, saudáveis​​, vaccinated, empurradores, obukhanych, tetyana, mandates, triplice, vaxtruth, recommended, imunocomprometidas, related, eficazmente, diseases, says, ’, injury, pharma, ingredients, transgênicos, defending, updated, gms, reasons, unvaccinated, anvisa, —, comprovadamente, ​​em, sgb, –, vaers, sites, previnem, studies, vactruth, vaccines, vactruthcom, origins</t>
-  </si>
-  <si>
-    <t>inalador, colecisti, trattati, dellintestino, oncologistas, adequadamente, •, pecezinho, metastasipolmonari, alcuni, restringe, tumore, gotejador, mês1, ingerível, legendado, palpebra, poderosíssima, sites, dias3, alcalinizando, 5todos, deleto, tullio, polmoni, abrasões, subministrar, tumori, tanti, radiografias, turmores, links, è, vescica, pediátrica, midollare, pessoalmente, estomago, cérvico, casi, bronchiale, pazes, macrobióticos, cânceres, 90°, candidíases, diffuso, jfj, diretaço, prostata, reversões, simoncini, vezes1, “, charcot, lincados, absurdamente, cerebrali, peritoneale, coróide, oncologista, adaptabilidade, metodicamente, semanas4, piccoli, entopem, ½, nahco3, polmonari, espetaculares, coliciste, phds, linfomas, 360°, alla, subsequentemente, intertítulo, 36a, carcinosi, epatocarcinoma</t>
-  </si>
-  <si>
-    <t>16º, cm2, “, simplemente, refrescante</t>
-  </si>
-  <si>
-    <t>câimbras, 30º, raffaele, arckle, hj, riccio, blaylock, atenciosamente, entitulado, dopamina, lobbies, zerocal, adoçante, mancy</t>
+    <t>'Pneumonia silenciosa' que dificulta diagnóstico de casos graves de covid-19 intriga médicos 'Eles falavam no celular'.txt</t>
+  </si>
+  <si>
+    <t>A técnica de detectar câncer de próstata que pode 'revolucionar a saúde dos homens'.txt</t>
+  </si>
+  <si>
+    <t>Aedes aegypti pode ser coinfectado por dengue e zika.txt</t>
+  </si>
+  <si>
+    <t>Antiviral para hepatite C atua contra febre amarela e chikungunya.txt</t>
+  </si>
+  <si>
+    <t>Associação de Câncer de Boca e Garganta alerta para riscos à saúde vocal no Dia Mundial da Voz, em 16 de abril.txt</t>
+  </si>
+  <si>
+    <t>Bactéria causadora da meningite e pneumonia terá o genoma sequenciado.txt</t>
+  </si>
+  <si>
+    <t>Brasil reduz em 8% o número de mortes por tuberculose na última década.txt</t>
+  </si>
+  <si>
+    <t>Brasil usa vírus da gripe e bactérias para criar vacina contra covid-19 .txt</t>
+  </si>
+  <si>
+    <t>Brasil é principal mercado de agrotóxicos 'altamente perigosos', diz ONG.txt</t>
+  </si>
+  <si>
+    <t>Britânicos testam ibuprofeno em pacientes com covid-19.txt</t>
+  </si>
+  <si>
+    <t>Cera do ouvido indicam câncer.txt</t>
+  </si>
+  <si>
+    <t>Chá de salsa limpa os rins.txt</t>
+  </si>
+  <si>
+    <t>Cloroquina contra coronavírus por que OMS decidiu interromper testes com remédio em pacientes com covid-19.txt</t>
+  </si>
+  <si>
+    <t>Congo tem surto de ebola durante pandemia do coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus 4 fatores que explicam o impacto da covid-19 nos EUA, país com maior número de infectados e mortos.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus Bebê recém-nascido infectado em Wuhan indica possível transmissão no útero.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus as mutações do Sars-Cov-2 que intrigam cientistas.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus corpos dos mortos por covid-19 podem transmitir a doença.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus covid-19 já mata mais por dia que a tuberculose, doença infecciosa mais letal do mundo.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus estudo com coquetel de remédios tem bons resultados contra a covid-19, mostra The Lancet.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus o que é um vírus endêmico, como pode se tornar o Sars-Cov-2.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus os 4 pilares para manter a imunidade em dia.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus por que alguns pacientes já recuperados voltam a ter teste positivo para covid-19, segundo OMS.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus por que o ibuprofeno voltou a ser testado contra a covid-19.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus, gripe e dengue por que Brasil pode enfrentar 'tempestade perfeita' com alta de 3 doenças.txt</t>
+  </si>
+  <si>
+    <t>Cortar completamente carne e laticínios faz bem à saúde O que diz a ciência.txt</t>
+  </si>
+  <si>
+    <t>Criança sem cicatriz vacinal não precisa revacinar contra tuberculose.txt</t>
+  </si>
+  <si>
+    <t>Câncer de mama a importância do diagnóstico precoce.txt</t>
+  </si>
+  <si>
+    <t>Câncer de pulmão conheça os principais sintomas e tratamentos da doença.txt</t>
+  </si>
+  <si>
+    <t>Câncer pesquisa analisa a influência da poluição na internação pela doença.txt</t>
+  </si>
+  <si>
+    <t>Cúrcuma na prevenção do câncer de estômago.txt</t>
+  </si>
+  <si>
+    <t>Demência pode aumentar risco de COVID-19 grave.txt</t>
+  </si>
+  <si>
+    <t>Dengue na gravidez pode causar má-formação do cérebro do bebê.txt</t>
+  </si>
+  <si>
+    <t>Dengue pode representar um risco à vida do feto, alerta pesquisa.txt</t>
+  </si>
+  <si>
+    <t>Diabetes não é doença só de adulto Brasil é 3º país com mais casos entre crianças e adolescentes.txt</t>
+  </si>
+  <si>
+    <t>Diabetes pesquisa aponta que microbiota pode ajudar na redução de açúcar no sangue.txt</t>
+  </si>
+  <si>
+    <t>Doença rara que afeta o sistema sanguíneo ganha tratamento individualizado no SUS.txt</t>
+  </si>
+  <si>
+    <t>Estresse acelera surgimento de cabelos brancos, mostra estudo com participação de cientistas brasileiros.txt</t>
+  </si>
+  <si>
+    <t>Estudo aponta que dengue aumenta risco de morte materna.txt</t>
+  </si>
+  <si>
+    <t>Estudo mapeia 2.658 tipos de câncer e pode revolucionar tratamento da doença.txt</t>
+  </si>
+  <si>
+    <t>Estudo na Amazônia usa próprios mosquitos para disseminar larvicida.txt</t>
+  </si>
+  <si>
+    <t>Estudo na Islândia indica eficácia de isolamento, distanciamento social e testagem em massa para conter covid-19.txt</t>
+  </si>
+  <si>
+    <t>Estudo sobre risco da cloroquina é tirado do ar por autores.txt</t>
+  </si>
+  <si>
+    <t>Febre amarela população do Sul e Sudeste deve buscar vacina.txt</t>
+  </si>
+  <si>
+    <t>Fibrose cística é genética e mais comum na infância.txt</t>
+  </si>
+  <si>
+    <t>Hemofilia conheça doença que afeta quase exclusivamente homens .txt</t>
+  </si>
+  <si>
+    <t>Hábitos saudáveis podem atrasar em até 10 anos o câncer e as doenças do coração, mostra estudo.txt</t>
+  </si>
+  <si>
+    <t>Mal de Parkinson pode 'começar' antes do nascimento, diz estudo.txt</t>
+  </si>
+  <si>
+    <t>Medicamento para esclerose múltipla dará maior qualidade de vida aos pacientes.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde alerta Sul e Sudeste sobre febre amarela.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde antecipa vacinação contra Influenza para os Povos Indígenas.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde atualiza casos de sarampo.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde habilita mais 92 leitos para combate ao coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde lança campanha para conter avanço de HIV em homens.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde supera meta e vacina 90,66% dos idosos.txt</t>
+  </si>
+  <si>
+    <t>Mosquitos do ‘bem’ combatem a dengue.txt</t>
+  </si>
+  <si>
+    <t>Necropsias já detectaram novo coronavírus em testículo e glândulas salivares.txt</t>
+  </si>
+  <si>
+    <t>Nova técnica de edição de DNA poderá curar até '89% das doenças genéticas' no futuro.txt</t>
+  </si>
+  <si>
+    <t>Novo método detecta câncer de próstata por meio da urin.txt</t>
+  </si>
+  <si>
+    <t>Novo surto de ebola no Congo tem relação com pandemia de covid-19.txt</t>
+  </si>
+  <si>
+    <t>Não há comprovação que curados da COVID-19 sejam imunes à doença, diz OMS.txt</t>
+  </si>
+  <si>
+    <t>O inovador método de imunoterapia que traz esperanças para pacientes com câncer avançado na próstata.txt</t>
+  </si>
+  <si>
+    <t>O método revolucionário que revelou um antibiótico capaz de matar as bactérias mais perigosas.txt</t>
+  </si>
+  <si>
+    <t>O que as bebidas energéticas prometem e como realmente impactam a saúde.txt</t>
+  </si>
+  <si>
+    <t>O que é melhor para a saúde, leite de vaca ou ‘alternativos’.txt</t>
+  </si>
+  <si>
+    <t>Os sinais que indicam nova alta da dengue no Brasil em 2020.txt</t>
+  </si>
+  <si>
+    <t>Pacientes com doença genética terão tratamento específico no SUS.txt</t>
+  </si>
+  <si>
+    <t>Pandemia interrompe tratamentos de hipertensão e diabetes.txt</t>
+  </si>
+  <si>
+    <t>Pesquisa avalia vacina que prolonga imunidade contra a covid-19.txt</t>
+  </si>
+  <si>
+    <t>Pesquisa relata impactos na vida de pacientes de câncer.txt</t>
+  </si>
+  <si>
+    <t>Pesquisadores descobrem que coronavírus infecta células do coração.txt</t>
+  </si>
+  <si>
+    <t>Picada de escorpião saiba os cuidados e o que fazer em caso de acidente.txt</t>
+  </si>
+  <si>
+    <t>Por que o H1N1 não parou economias como a pandemia de coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Relatório confirma tendência de crescimento de casos de Síndrome Respiratória Aguda Grave.txt</t>
+  </si>
+  <si>
+    <t>Relatório da OMS sobre tabaco destaca Brasil.txt</t>
+  </si>
+  <si>
+    <t>SARAMPO Brasil atinge 99,4% de cobertura vacinal em 2019.txt</t>
+  </si>
+  <si>
+    <t>SUS oferta novo tratamento para pacientes com degeneração macular.txt</t>
+  </si>
+  <si>
+    <t>Saúde amplia rol de tratamento para pacientes com câncer renal.txt</t>
+  </si>
+  <si>
+    <t>Senado aprova uso obrigatório de máscara em todo o País texto volta para Câmara.txt</t>
+  </si>
+  <si>
+    <t>Sinais que ajudam a identificar um AVC.txt</t>
+  </si>
+  <si>
+    <t>Síndrome de Kawasaki o que é a rara doença inflamatória que vem afetando crianças infectadas pelo novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Taxa de incidência de diabetes cresceu 61,8% nos últimos 10 anos.txt</t>
+  </si>
+  <si>
+    <t>Terapia genética usa adenovírus modificado para reduzir em até 80% tumor de pulmão.txt</t>
+  </si>
+  <si>
+    <t>Tratamento para coronavírus 'pista' imunológica traz esperança na luta contra a covid-19.txt</t>
+  </si>
+  <si>
+    <t>Tuberculose novo medicamento reduz tempo de tratamento pela metade.txt</t>
+  </si>
+  <si>
+    <t>UFMG e Fiocruz desenvolvem teste mais preciso e barato para covid-19.txt</t>
+  </si>
+  <si>
+    <t>Uso de máscaras pode conter disseminação de doenças.txt</t>
+  </si>
+  <si>
+    <t>Winter, a lhama que pode ajudar na busca por uma cura para a covid-19.txt</t>
+  </si>
+  <si>
+    <t>por que os humanos estão pegando mais doenças transmitidas por animais.txt</t>
+  </si>
+  <si>
+    <t>trombose, infectada, anticoagulantes, esfaqueamento, anestesiologista, gattoni, göttingen, levitan, fluídos, respirações, sztajnbok, surfactantes, necropsias, detectada, intrigados, bellevue, oxímetros, covid, pneumologista, entubados, jaques, infectados, —, entubadas, gattinoni</t>
+  </si>
+  <si>
+    <t>invasiva, kings, genômica, sangramento, cânceres, intervencionista, obtêm, ucl, mamografias, emberton, reimagine</t>
+  </si>
+  <si>
+    <t>infectada, nágila, fiocruz, tweeters, secundino, results, downloads, fmt, coinfectados, visualizações, –, monoinfectados, coinfectado, viruses, bloomber, “, manejamento, coinfection, hvd, coinfecção, financiada, diseases, chikungunya, infectados, renezika, mcti, contaminada, questionamentos, decit</t>
+  </si>
+  <si>
+    <t>fiocruz, sofosbuvir, plos, ioc, ini, neglected, –, farmanguinhos, fármacos, cdts, idor, diseases, chikungunya, bmk, farmoquímica, ’, chemotehrapy, liderados, blanver, bruning</t>
+  </si>
+  <si>
+    <t>fonatórias, fonatória, reabilitados, vocais, laringectomizados, restabelecimento, acbg, próteses, suavozacbg</t>
+  </si>
+  <si>
+    <t>fiocruz, funed, 9v, meningites, brgem, ioc, pneumonias, 7f, biotecnologia, pcv10, genômicas, antimicrobianos, genômica, genoma, neurogenômica, sorotipos, bacterianas, antipneumococos, sireva, 6b, 19f, 18c, 23f, cepas, sequenciamento, prevalentes, neoprospecta, pneumocócica, biossistemas, 19a</t>
+  </si>
+  <si>
+    <t>arakaki, “</t>
+  </si>
+  <si>
+    <t>kalil, incor, fiocruz, desenvolem, mers, neutralizantes, sucedida, covid, geneticamente, imunogênica, causador, r7, transgênicos, particles, vlps, “</t>
+  </si>
+  <si>
+    <t>syngenta, hhps, neocotinoides, bolsonaro, carcinogênicos, highly, multinacionais, neumann, baskut, sumitomo, glufosinato, reconhecidamente, agroquímicas, internacionalmente, hhp, christoph, unhearted, ciproconazol, unearthed, fazen, pesticides, financiada, tuncak, corteva, —, fmc, sygenta, contêm, croplife, iarc, agroquímicos, basf</t>
+  </si>
+  <si>
+    <t>nhs, kings, covid, nurofen, benckiser, biomédica, guys, inflamatórios, maudsley, reckitt, nihr</t>
+  </si>
+  <si>
+    <t>diagnosticada, antoniosi, reports, “</t>
+  </si>
+  <si>
+    <t>gratificante</t>
+  </si>
+  <si>
+    <t>1a, jama, bolsonaro, soumya, remdesivir, covid, participantes, questionamentos, bmj, swaminathan</t>
+  </si>
+  <si>
+    <t>fluídos, longondo, congolesas, infectadas, 11º, moeti, beni, matshidiso, équateur, contaminadas, 1º, eteni, mbandaka, contaminados</t>
+  </si>
+  <si>
+    <t>enfrentamento, grvois, cuomo, tsai, sistêmicas, tracking, distanciamento, detectados, aterrorizante, covid, krys, diagnosticadas, ravi, —, apidemia, indocumentados, kits, rubio, fauci, precocemente</t>
+  </si>
+  <si>
+    <t>infectada, mers, metrôs, infectados, —, infectadas</t>
+  </si>
+  <si>
+    <t>cepas, d614g, françois, pontinhas, gisaid, genomas, covid, dorp, alamos, infecciosidade, ucl, balloux, coautora, —, genoma, gravemente</t>
+  </si>
+  <si>
+    <t>cremados, enfrentadas, acostumados, eclodiu, pandêmica, covid, cremadas, merwin, cortés, imunodeprimidas, incinerar, alvejante, guayas, marburg, funerais, ​​no, terán</t>
+  </si>
+  <si>
+    <t>ecdc, mycobacterium, covid, adhanom, ghebreyesus, letalidade, 1º, tedros, infectadas</t>
+  </si>
+  <si>
+    <t>yuen, aleatoriamente, randomizado, 100mg, ruttonjee, yung, participantes, ribavirin, review, covid, kwok, antivirais, —, 400mg, shalhoub, liderados, observacionais, mers, diagnosticados, 1b, coautora, síndromes, interferons</t>
+  </si>
+  <si>
+    <t>infectada, investigadas, infectadas, comumente, covid, antimaláricos, hiperendêmico, vzv</t>
+  </si>
+  <si>
+    <t>•, ingeridos, killers, neutrófilos, antioxidantes, microbiota, macrófagos, infectadas, granje, chebabbo, fagocitando, superssuplementando, renato, gripes, vilanizar, covid, imunossupressores, inflamatória, —, linfonodos, microrganismos, desinformação, autodestruir, infectologista, imunologia, micronutrientes</t>
+  </si>
+  <si>
+    <t>—, kerkhove, reinfecção, covid</t>
+  </si>
+  <si>
+    <t>esteroides, mehta, covid, participantes, guys, —, mitul, inflamatórios, kings, veran</t>
+  </si>
+  <si>
+    <t>hipertenso, infectada, historicamente, fiocruz, preocupante, letalidade, infectadas, transmissibilidade, beto, cirurgias, criadouros, comportamentais, anvisa, notificados, sorotipos, concomitantes, covid, chikungunya, —, felippe, diagnosticados, périssé, massuda, imunizada, kits</t>
+  </si>
+  <si>
+    <t>nutrientes, mantêm, enriquecidos, vegana, medawar, confiabilidade, sustentabilidade, bife, onívora, pescetarianos, springman, participantes, isquêmicos, veganas, b12, bloomberg, ​​e, rebholz, magkos, veganos, —, irreversíveis, sangramento, cardiovasculares, faidon, springmann, contêm</t>
+  </si>
+  <si>
+    <t>ofertada, abrasco, ctai, sbp, febrasgo, sipni, opas, imunizações, internacionalmente, revacinadas, sbim, meníngea, gestores, “, maternidades, sbi, 1º, imunologia, precocemente</t>
+  </si>
+  <si>
+    <t>iff, desconfortável, fiocruz, assintomáticas, ionizante, –, diagnóstica, antecedida, cirurgias, boechat</t>
+  </si>
+  <si>
+    <t>ultraprocessados, oncologista, cancerígenas, diagnosticada, pneumologista, sbpt, —</t>
+  </si>
+  <si>
+    <t>conservantes, capita, cih, c32, causador, nardocci, adeylson, baquero, 10ª, uicc, 1521110km2, papanicolaou, km2, subtipos, research, carcinogênica, 10h, aih, 16h, neoplasia, c34, nitritos, blanquet, iarc, c33</t>
+  </si>
+  <si>
+    <t>anticâncer, kokum, brócolis, cânceres, histonas, garcinol, biomédica, calcagno, “, focada</t>
+  </si>
+  <si>
+    <t>biobank, covid, e3, alzheimers, apoe, e4</t>
+  </si>
+  <si>
+    <t>malformations, desfechos, isc, emerging, fiocruz, controls, reports, enny, neurologic, microcefalia, diseases, cidacs, lshtm</t>
+  </si>
+  <si>
+    <t>isc, b19, fiocruz, 500g, infectadas, –, enny, sinan, symtomatic, cidacs, sinasc</t>
+  </si>
+  <si>
+    <t>strachan, liberatore, socioeconômicos, embaçada, diagnosticados, glicosímetros, pediátrica, roio, crapino, vigitel, insulinas, 9º, idf, sbd, cardiovasculares</t>
+  </si>
+  <si>
+    <t>incapazes, fiocruz, autoimunes, nutrientes, communications, microbiota, enfrentados, akkemansia, genômica, “, microbiotas, antropométricos, akkermansia, inflamatória, prebióticos, sequenciamento, muciniphila, bioquímicos, biossistemas, inflamatórios, dento</t>
+  </si>
+  <si>
+    <t>conitec, acwy, prevalentes, pcdt, meningocócicas, anticoagulantes, hematopoiéticas, corticoides, soliris, –, meningocógica, paroxística, hpn, meningococos, eculizumabe, gestores, imunossupressores, sorotipos</t>
+  </si>
+  <si>
+    <t>desobedientes, fapesp, melanocíticas, despigmentação, mattar, embranquecimento, inflamatórias, resiniferatoxin, sistêmica, resinifera, hsu, porssível, euphorbia, chieh, —, guilhotinada</t>
+  </si>
+  <si>
+    <t>infectada, fiocruz, enny, diagnosticada, cidacs, periodo, 10ª, reports, –, “, sinasc, using, incidentais, isc, sinan, descontrole, odm, diagnosticados, 1º</t>
+  </si>
+  <si>
+    <t>wellcome, cânceres, tencologias, genomas, genomes, contêm, indentificar, genoma, precocemente</t>
+  </si>
+  <si>
+    <t>its, socioeconômicos, fiocruz, observations, fvs, disseminated, pncd, plos, opas, bessa, abad, results, –, deane, disseminadoras, criadouros, decit, “, perea, munícipio, arbovirus, disseminadora, chikungunya, franch, pyriproxyfen, fapeam, epidemics</t>
+  </si>
+  <si>
+    <t>infectada, capita, aleatoriamente, preventivamente, a1, diagnosticada, constatada, infectadas, neutralizantes, participantes, assintomática, interpessoal, distanciamento, islandeses, islandesa, a2, detectados, biofarmacêutica, haplótipos, biotechnologies, covid, infectados, —, decode, cepas, sequenciamento, tatiana, castello, adaptive, islandesas, autoisolamento, 1º, prestigiada, precocemente, subsidiaria</t>
+  </si>
+  <si>
+    <t>mehra, amit, sapan, covid, surgisphere, ruschitza, infectados, desai, confidencialidade, mandeep</t>
+  </si>
+  <si>
+    <t>ofertada, cards, comprovante, notificados</t>
+  </si>
+  <si>
+    <t>cística, atinge, nutrientes, diagnosticada, precocemente, “</t>
+  </si>
+  <si>
+    <t>hemovida, emicizumabe, conitec, recombinante, profilaxias, hemcibra®, hemofilias, inibidores, cadastrados, aloanticorpos, endovenosa, sangramento</t>
+  </si>
+  <si>
+    <t>research, sobrepeso, prevenidos, hu, participantes, diagnosticadas, —, bmj, cardiovasculares</t>
+  </si>
+  <si>
+    <t>cedars, diagnosticados, desacelerar, satisfatoriamente, geneticamente, diagnosticadas, dopaminérgicos, svendsen, ipscs, preventivamente, dopamina, —, lisossomos, detectadas</t>
+  </si>
+  <si>
+    <t>ofertados, fingolimode, ceaf, cadastrados, primariamente, 05mg, mcg, secundariamente, emsp, remitentes, especializadae, 1a, embaçada, emrr, 20mg, empp, diagnosticados, copaxone, 1b, autolimitados, sáude</t>
+  </si>
+  <si>
+    <t>“, ofertada, epizootias, croda, notificados</t>
+  </si>
+  <si>
+    <t>vulnerabilidade, h3n2, aldeados, imunizados, dsei, hospitalizações, covid, pdm09, h1n1, “</t>
+  </si>
+  <si>
+    <t>enfrentamento, ofertada, fvs, episus, audioconferência, capacitações, d8, kits, gestores, notificados</t>
+  </si>
+  <si>
+    <t>enfrentamento, covid, gestores, subsidiarão, pediátricos</t>
+  </si>
+  <si>
+    <t>saude, sachês, entrevistados, pcap, mandeta, veiculadas, estabilizada, educativas, foliões, dolutegravir, “, mandetta</t>
+  </si>
+  <si>
+    <t>vulnerabilidade, caminhoneiros, contracheque, cobradores, francielli, socioeducativas, inativado, h3n2, srag, 2ª, covid, 1ª, h1n1, fontana, subtipagem, subtipado, 3ª, “</t>
+  </si>
+  <si>
+    <t>promissora, nisia, cubango, fiocruz, wolbachia, wmp, atinge, atingem, chikungunya, infectados, autossustentável, institutes, biomas, saúdeluiz, solturas, “, mandetta</t>
+  </si>
+  <si>
+    <t>vulnerabilidade, necropsia, –, covid, sistêmicas, biobanco, assintomática, saldiva, h1n1, investigada, necropsias, fmusp</t>
+  </si>
+  <si>
+    <t>editing, geneticamente, lovell, talassemias, crtl, editors, reversam, oneill, bioquímico, cas9, tay, —, deletado, transtornos, crispr, escaneia, ctrl, liu, questionamentos</t>
+  </si>
+  <si>
+    <t>espectrometria, agressividade, glicoproteínas, prostática, bioquímicos, coautora, icb, palmisano, coletada, “, fmusp</t>
+  </si>
+  <si>
+    <t>sorológicos, atinge, équateur, letalidade, sangramentos, figado, infectadas, detectados, covid, diagnosticadas, infectados, contaminadas, permancem, cuidadores, gorinchteyn, assintomático, aerossóis, infectologista, mbandaka</t>
+  </si>
+  <si>
+    <t>conseqüências, neutralizantes, covid, falsamente, imunodiagnóstico, reagem, confiabilidade, recuperados, imunodiagnósticos, infectadas</t>
+  </si>
+  <si>
+    <t>pembrolizumabe, nhs, espermatozoides, marsden, expulsos, research, oncologista, cancerígenas, descontrolada, participantes, tumorais, diagnosticadas, oncologistas, melanomas, —, encorajador, ​​pelo</t>
+  </si>
+  <si>
+    <t>bioengenheiro, halicina, antibacterianas, toc, barzilay, —, mamografias</t>
+  </si>
+  <si>
+    <t>ingeridos, macronutrientes, vitalidade, refrigerantes, chemicals, taurina, cisa, irritabilidade, ingeridas, antitabaco, efsa, products, anvisa, kantar, kalil, incor, ingerida, hipertensivos, sobrepeso, nutrizes, aprimoradas, regulações, motivador, hcfmusp, propagandeados, —, ultraprocessado, siu, cardiovasculares, cristini, potencializados, ultraprocessados, sobretaxados, jama, arritmias, 250ml</t>
+  </si>
+  <si>
+    <t>desmame, enriquecidas, nutrientes, alamy, enriquecidos, givens, ordenhadas, participantes, majdic, gregor, b12, genômica, research, caseína, alfarroba, virtanen, gelana, contêm, substancialmente, jyrkia, micronutrientes, filhotes</t>
+  </si>
+  <si>
+    <t>infectada, historicamente, fiocruz, atinge, estruturadas, idealizadora, ioc, valle, criadouros, comportamentais, notificados, sorotipos, cim, imunizadas, drasticamente, entrevistados, chicungunha, —, tharine, hiperendêmico, acostumada</t>
+  </si>
+  <si>
+    <t>ofertados, desalinhamento, pcdts, maroteaux, contraturas, gastrointestinais, cirurgias, bilaterações, fármacos, lamy, mps, idursulfase, mórquio, cardiovasculares, conitec, mucopolissacaridoses, bioquímicos, galsulfase, alfaelosulfase</t>
+  </si>
+  <si>
+    <t>planejadas, coletadas, dcnts, covid, ghebreyesus, investigados, adhanom, —, 1º, cardiovasculares, tedros</t>
+  </si>
+  <si>
+    <t>biotecnologia, estimulador, maxivax, imunossupressores</t>
+  </si>
+  <si>
+    <t>onilotinibe, lla, nutrientes, diagnosticada, sobrevida, socioeconômicas, gadelha, internacionalmente, uicc, oncológica, cirurgias, linfoblástica, leucemias, “, locorregionalmente, servidora, entrevistados, osmarina, abia, cuidadores, tramento, oncológicas, cromossoma, diagnosticados</t>
+  </si>
+  <si>
+    <t>causador, icb, dndi, infectadas, –, kratz, jadel, fármacos, “, pluripotentes, translacionais, trypanosoma, imortalizadas, poluentes, covid, cardiomiócitos, negligenciadas, fenotípica, buckeridge, lygia</t>
+  </si>
+  <si>
+    <t>revisados, transportadoras, escorpiônicos, hortifrutigranjeiros, piloereção, capacitações, antiescorpiônico</t>
+  </si>
+  <si>
+    <t>infectada, pandemias, apoiam, bolsonaro, drugs, letalidade, h1n1, virologistas, respirador, implemetaram, infectadas, spilki, aseguir, transmissibilidade, hidroxocloroquina, desacelerando, utis, anvisa, virologista, distanciamento, imunizadas, assintomáticas, covid, pneumologista, sbv, antivirais, —, infectologistas, balassiano, aylward, tamiflu, mers, remdesivir, kerkhove, triagens, bergamo</t>
+  </si>
+  <si>
+    <t>retomada, hospitalizações, covid, sivep, h1n1, notificados, infogripe, gestores, propensão, distanciamento, srag</t>
+  </si>
+  <si>
+    <t>fiocruz, cqct, 42ª, antitabagismo, preconizadas, mpower, 7ª, 7º, apoiem, embalagens, narguilés, vinayak, “, gats, vigitel, mohan, luiza, prasad, cetab</t>
+  </si>
+  <si>
+    <t>imunizações, preocupante, croda, 1º, preconizada, “, focada</t>
+  </si>
+  <si>
+    <t>ofertados, invasiva, pcdt, antigiogênico, precocemente, crosslinking, cirurgias, credenciados, faec, dmri</t>
+  </si>
+  <si>
+    <t>conitec, ofertados, locorregionalmente, onilotinibe, oncológicas, unacon, –, cromossoma, cacon, crcc, cirurgias, linfoblástica, credenciados, ofertadas, quimioterápicos</t>
+  </si>
+  <si>
+    <t>artesanalmente, covid, economicamente, prisionais</t>
   </si>
   <si>
     <t>possivel</t>
   </si>
   <si>
-    <t>cairam, lugarquando</t>
-  </si>
-  <si>
-    <t>oncologista, madeixasé, vc</t>
-  </si>
-  <si>
-    <t>reage, vómitos</t>
-  </si>
-  <si>
-    <t>hu, percursso</t>
-  </si>
-  <si>
-    <t>–, nossso, infectologista, h1n1, famíliares, tamiflu</t>
-  </si>
-  <si>
-    <t>skol, almeido, fleury, “, ambev, socbrasde, voliteral, fenofinol</t>
-  </si>
-  <si>
-    <t>almeido, proprios, fanta, fleury, “, socbrasde, voliteral, fenofinol</t>
-  </si>
-  <si>
-    <t>guruprasad, handphone, osh, polifenol, reddy</t>
-  </si>
-  <si>
-    <t>mirtilos, 5sementes, alforjón, “, amígdalina, b17, laetril</t>
-  </si>
-  <si>
-    <t>humedecimento, hesistência, crónica, , dey, “, extracto, 300cl, sémen, reembalar, 60cl, ugbogulu, projectada, 50cl, atinge, afecta, acção, colega…, afectará, canalizacao, 15mg, directamente, horin, bph, vestuario, boxers, alguém…, encanador, cânceres, –, lawma, jacto, desconfortável, wahala, canalizador</t>
-  </si>
-  <si>
-    <t>16h, 11h</t>
-  </si>
-  <si>
-    <t>‘, –, atenciosamente, crmsp33006, ’, fenilpropalamina</t>
-  </si>
-  <si>
-    <t>lpki</t>
-  </si>
-  <si>
-    <t>tchen, monoalcólico, horin</t>
-  </si>
-  <si>
-    <t>libre, contactei, aconchegante, cevabacillus, ‘, –, prontamente, ativus, sacarovictus, humildemente, superdivertida, ’</t>
-  </si>
-  <si>
-    <t>80cc, 50cc, desconfortáveis</t>
-  </si>
-  <si>
-    <t>japao, nao, podera, medicos, transmissao, adiquire, estao, informaçao, afectados, pergosa</t>
-  </si>
-  <si>
-    <t>cientifico, mais…, –, extraida, deus…, unitriedubr, “, esculentus, água…, unicampbr</t>
-  </si>
-  <si>
-    <t>globalista, globalistas, lives, rockfellers, jinping, wurhan, rothschilds, totall, começõu, alcool</t>
-  </si>
-  <si>
-    <t>19h25, ​​e</t>
-  </si>
-  <si>
-    <t>reencaminhado</t>
-  </si>
-  <si>
-    <t>familiares, ademola</t>
-  </si>
-  <si>
-    <t>eletromagnetica, frequentes, bakkano</t>
-  </si>
-  <si>
-    <t>inalador</t>
-  </si>
-  <si>
-    <t>—, barbuto, genoma, oncologista, repassado………, 0800–7737327, brasileirosuma</t>
-  </si>
-  <si>
-    <t>garganta…, varella, –</t>
-  </si>
-  <si>
-    <t>cistos, familiares, “, anticâncer, polifenóis, huiren</t>
-  </si>
-  <si>
-    <t>letargiaalívio, ricino, hidratando, massagea, 4cm, pechotique, naturista</t>
+    <t>nhs, ts, ​​explicar, cvid, pims, multissistêmica, verdoni, infectadas, whittaker, cuomo, pediátrica, assintomática, utis, detectados, viner, covid, diagnosticadas, inflamatória, —, pediátricas, levin, diagnosticados, impactada, imunologia, bergamo</t>
+  </si>
+  <si>
+    <t>recombinante, ses, hrt, fhdf, fiocruz, 4º, heberprot®, pedrosa, uendo, pecd, promissores, sbd, hermelinda, hipoglicemia</t>
+  </si>
+  <si>
+    <t>cdkn2a, icb, supressores, –, gênica, constanzi, anvisa, glioblastomas, p53, “, aprimoradas, cancerígenas, tumorais, experimentaisa, quimioterápicos, cancerígenos, editada, bicistrônico, gmp, pp53</t>
+  </si>
+  <si>
+    <t>—, interleucina, drasticamente, covid, interage, microlitro, shankar, guys, encorajador, kings, hayday</t>
+  </si>
+  <si>
+    <t>conitec, enfrentamento, fragilizado, impaact4tb, sanofi, diagnosticados, marmora, imunossupressoras, aurum, odm, unitaid, lelio, 3hp, mandetta</t>
+  </si>
+  <si>
+    <t>fapemig, pequisadores, immunosorbent, fiocruz, reaction, –, covid, funed, completoo, anvisa, santuza, imunoabsorção, viroses, linked, polymerase</t>
+  </si>
+  <si>
+    <t>nhs, wellcome, bamford, coletadas, ncov, mantêm, respiradores, infectados, wolfson, respirador, carrington, zoonoses, virologistas</t>
+  </si>
+  <si>
+    <t>alpacas, infectada, —, biotecnología, mers, camelídeos, covid, nanocorpos, reagem, promissores, delisa, nanocorpo, wrapp, gante</t>
+  </si>
+  <si>
+    <t>pandemias, sucedidas, infectadas, chatham, guaxinins, preocupante, desestabilizam, coronovírus, investigados, migrantes, civetas, interagem, aviária, contaminados</t>
   </si>
 </sst>
 </file>
@@ -571,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
-        <v>0.03649122807017544</v>
+        <v>0.0173973556019485</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -621,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1">
-        <v>0.01900688999762414</v>
+        <v>0.01458885941644562</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -632,10 +962,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
-        <v>0.01436781609195402</v>
+        <v>0.03795811518324607</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -643,10 +973,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1">
-        <v>0.01690821256038647</v>
+        <v>0.07575757575757576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -654,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0101010101010101</v>
+        <v>0.01982378854625551</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -665,10 +995,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>0.006557377049180328</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -676,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.0035650623885918</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -687,10 +1017,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003273322422258593</v>
+        <v>0.01934703748488513</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -698,10 +1028,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0196078431372549</v>
+        <v>0.03059273422562141</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -709,10 +1039,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
-        <v>0.03821656050955414</v>
+        <v>0.04803493449781659</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -720,10 +1050,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1">
-        <v>0.03333333333333333</v>
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -731,10 +1061,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1">
-        <v>0.02797202797202797</v>
+        <v>0.005494505494505495</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -742,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1">
-        <v>0.008665511265164644</v>
+        <v>0.01408450704225352</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -753,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01107594936708861</v>
+        <v>0.03943661971830986</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -764,10 +1094,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1">
-        <v>0.0212378640776699</v>
+        <v>0.01426533523537803</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -775,10 +1105,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1">
-        <v>0.01</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -786,10 +1116,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1">
-        <v>0.04838709677419355</v>
+        <v>0.03071017274472169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -797,18 +1127,21 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1">
-        <v>0.003759398496240601</v>
+        <v>0.01985981308411215</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>0.01345291479820628</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -816,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1">
-        <v>0.01327433628318584</v>
+        <v>0.02459893048128342</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -827,10 +1160,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0273972602739726</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -838,10 +1171,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1">
-        <v>0.01477832512315271</v>
+        <v>0.01383714741883981</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -849,18 +1182,21 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1">
-        <v>0.136986301369863</v>
+        <v>0.0111731843575419</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -868,10 +1204,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
-        <v>0.0625</v>
+        <v>0.01349892008639309</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -879,10 +1215,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1">
-        <v>0.05747126436781609</v>
+        <v>0.0157251019219569</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -890,10 +1226,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1">
-        <v>0.004987531172069825</v>
+        <v>0.03006329113924051</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -901,10 +1237,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1">
-        <v>0.003021148036253776</v>
+        <v>0.01308900523560209</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -912,10 +1248,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1">
-        <v>0.01162790697674419</v>
+        <v>0.008695652173913044</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -923,10 +1259,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1">
-        <v>0.01016949152542373</v>
+        <v>0.02129471890971039</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -934,10 +1270,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1">
-        <v>0.004504504504504504</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -945,10 +1281,10 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1">
-        <v>0.04375</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -956,10 +1292,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1">
-        <v>0.02325581395348837</v>
+        <v>0.0268041237113402</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -967,10 +1303,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1">
-        <v>0.02608695652173913</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -978,10 +1314,604 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.008493771234428085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.03286384976525822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.03564356435643564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0218281036834925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.02423469387755102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.01914893617021277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.03609625668449198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.02619760479041916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.02105263157894737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.008583690987124463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.01234567901234568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.01957585644371941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.01451612903225807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.02491103202846975</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.03697183098591549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.007507507507507507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.03875968992248062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.01700680272108844</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.008912655971479501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.01259181532004197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.02085747392815759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.02119700748129676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.03571428571428571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.01873767258382643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.01639344262295082</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.0338680926916221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.02016129032258064</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.01717171717171717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.01219512195121951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.01658986175115208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.01348039215686275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.01292307692307692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.02785923753665689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1">
-        <v>0.02134146341463415</v>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.02981029810298103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.02105263157894737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.01968826907301066</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.0271370420624152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.00760043431053203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.01323042998897464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.0240174672489083</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.01696428571428571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.009247027741083224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.0145985401459854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.02581755593803787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.01282051282051282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.003194888178913738</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.02844141069397042</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.02157164869029276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.02301495972382048</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.02079395085066163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.01596351197263398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.01971090670170828</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.01867816091954023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.01452282157676349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.01162790697674419</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>Texto</t>
   </si>
@@ -179,6 +179,153 @@
   </si>
   <si>
     <t>Óleo no umbigo cura doenças.txt</t>
+  </si>
+  <si>
+    <t>afligidos, vaxtruth, higher, gardasil, anvisa, obukhanych, defending, lesadas, recommended, vactruth, reactions, vaers, tetyana, updated, saudáveis​​, diseases, nutrientes, adjuvantes, ​​em, reasons, origins, triplice, ogms, rentáveis, contêm, sanevax, ingredients, parents, comprovadamente, geneticamente, vactruthcom, reorientar, mandates, placebos, imunocomprometidas, —, unvaccinated, “, transgênicos, sgb, studies, responsabilizadas, injury, healthier, ​​e, pharma, vaccinated, patrocinados, gms, empurradores, sites, related, firms, nauseam, says, conservantes, eficazmente, vaccines</t>
+  </si>
+  <si>
+    <t>turmores, ingerível, adaptabilidade, colecisti, cérvico, bronchiale, absurdamente, cancerígenas, alcuni, pecezinho, convincentes, candidíases, semanas4, polmonari, cerebrali, macrobióticos, poderosíssima, substancialmente, è, 5todos, casi, peritoneale, abrasões, enlouquecida, epatocarcinoma, metastasipolmonari, linfonodos, alcalinizando, subministrar, tanti, piccoli, mês1, links, “, equimoses, simoncini, polmoni, phds, ½, 360°, cânceres, charcot, carcinosi, inalações, reversões, cirurgias, conseqüência, alla, radiografias, vescica, gotejador, palpebra, lincados, jfj, nahco3, oncologistas, dellintestino, oncologista, sites, tumore, diretaço, inalador, deleto, intertítulo, metodicamente, coróide, sinceramente, legendado, coliciste, trattati, 90°, dias3, empiricamente, vezes1, metodologias, entopem, metástases, pediátrica, restringe, •, diffuso, estomago, tumori, prostata, lavagens, linfomas, 36a, midollare</t>
+  </si>
+  <si>
+    <t>132ph, 99ph, 227ph, 85ph, 87ph, abençoê, 156ph, 92ph, 127ph</t>
+  </si>
+  <si>
+    <t>refrescante, 16º, simplemente, cm2, “</t>
+  </si>
+  <si>
+    <t>adoçante, dopamina, entitulado, arckle, assintomáticas, hj, lobbies, raffaele, 30º, zerocal, mancy, blaylock, acidose, câimbras, riccio, contaminados</t>
+  </si>
+  <si>
+    <t>possivel</t>
+  </si>
+  <si>
+    <t>cairam, lugarquando</t>
+  </si>
+  <si>
+    <t>contêm, oncologista, madeixasé</t>
+  </si>
+  <si>
+    <t>infectologista</t>
+  </si>
+  <si>
+    <t>reage, vómitos</t>
+  </si>
+  <si>
+    <t>hu, percursso</t>
+  </si>
+  <si>
+    <t>covid, theobromine, wenliang, theophylline, metilxantinas, methylxanthine, “</t>
+  </si>
+  <si>
+    <t>tamiflu, h1n1, famíliares, nossso, infectologista</t>
+  </si>
+  <si>
+    <t>alcalinizam, comprovadamente, covid19, covid</t>
+  </si>
+  <si>
+    <t>infectados, covid</t>
+  </si>
+  <si>
+    <t>skol, voliteral, socbrasde, fenofinol, tranqüila, almeido, ambev, fleury, conseqüente, “</t>
+  </si>
+  <si>
+    <t>refrigerantes, voliteral, socbrasde, fenofinol, “, fanta, tranqüila, almeido, fleury, conseqüente, proprios</t>
+  </si>
+  <si>
+    <t>desinfetante, mícrons, °</t>
+  </si>
+  <si>
+    <t>handphone, reddy, curativas, guruprasad, trombose, polifenol, osh, cancerígenas</t>
+  </si>
+  <si>
+    <t>5sementes, mirtilos, amígdalina, b17, obtêm, laetril, itens, alforjón, “</t>
+  </si>
+  <si>
+    <t>50cl, canalizacao, crónica, cânceres, atinge, 15mg, desconfortável, cancerígenas, infectada, wahala, directamente, projectada, humedecimento, 60cl, afectará, alguém…, acção, reembalar, , afecta, bph, dey, encanador, cancerígenos, colega…, 300cl, “, canalizador, lawma, hesistência, ugbogulu, vestuario, boxers, extracto, celibatos, hormonais, sémen, jacto, horin</t>
+  </si>
+  <si>
+    <t>16h, 11h, freqüente</t>
+  </si>
+  <si>
+    <t>fenilpropalamina, crmsp33006, ‘</t>
+  </si>
+  <si>
+    <t>lpki</t>
+  </si>
+  <si>
+    <t>monoalcólico, horin, cancerígenas, tchen</t>
+  </si>
+  <si>
+    <t>libre, ativus, contactei, sacarovictus, cevabacillus, humildemente, estabilizantes, ‘, fatiados, aconchegante, conservantes, superdivertida</t>
+  </si>
+  <si>
+    <t>desconfortáveis, 50cc, 80cc</t>
+  </si>
+  <si>
+    <t>medicos, informaçao, estao, transmissao, nao, adiquire, podera, pergosa, afectados, japao</t>
+  </si>
+  <si>
+    <t>unitriedubr, unicampbr, cientifico, extraida, esculentus, “</t>
+  </si>
+  <si>
+    <t>alcool, globalistas, rockfellers, wurhan, jinping, infectados, rothschilds, lives, começõu, totall, globalista</t>
+  </si>
+  <si>
+    <t>shenzhen, °, drsse, castello, puxadores, desinfetante, cardiovasculares, trombose, polmonite, cátaros, desinfecte</t>
+  </si>
+  <si>
+    <t>indevidamente, ​​e, mantêm, gentilmente, 19h25, respirações</t>
+  </si>
+  <si>
+    <t>antioxidantes, reencaminhado</t>
+  </si>
+  <si>
+    <t>ademola</t>
+  </si>
+  <si>
+    <t>eletromagnetica, irreversível, bakkano</t>
+  </si>
+  <si>
+    <t>inalador, repatriados</t>
+  </si>
+  <si>
+    <t>genoma, brasileirosuma, oncologista, —, barbuto</t>
+  </si>
+  <si>
+    <t>varella, garganta…</t>
+  </si>
+  <si>
+    <t>letala, dágua, shenzen, corrimãos, 27°, 2a</t>
+  </si>
+  <si>
+    <t>anticâncer, huiren, polifenóis, cistos, cancerígenas, “</t>
+  </si>
+  <si>
+    <t>5g, contaminados, opsdigo, naite</t>
+  </si>
+  <si>
+    <t>tasuku, honjo</t>
+  </si>
+  <si>
+    <t>corticosteróides, americans, nissen, _temos, framingham, cardiovasculares, dgac, coronariana, acc, guidelines, “</t>
+  </si>
+  <si>
+    <t>eucalyptol, epoxi, covid, mentolatum</t>
+  </si>
+  <si>
+    <t>repasando, chicungunha, causador, sudoríparas</t>
+  </si>
+  <si>
+    <t>conscientemente</t>
+  </si>
+  <si>
+    <t>letargiaalívio, naturista, ricino, 4cm, nutrientes, massagea, hidratando, pechotique</t>
+  </si>
+  <si>
+    <t>sem compartilhamento</t>
+  </si>
+  <si>
+    <t>compartilhamento</t>
   </si>
 </sst>
 </file>
@@ -552,245 +699,680 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.04084507042253521</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.02090757899738655</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.01436781609195402</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.01932367149758454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.006557377049180328</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.007751937984496124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.003273322422258593</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.02880658436213992</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.03378378378378379</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.01507537688442211</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.01386481802426343</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.01424050632911392</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.02373706634205721</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.015</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.02459016393442623</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.003759398496240601</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.01769911504424779</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.02771362586605081</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.01477832512315271</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.06321839080459771</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.01403061224489796</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.01496259351620948</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.006042296072507553</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.01016949152542373</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.03125</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.015625</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.02898550724637681</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0223463687150838</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.00881057268722467</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.02022058823529412</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.006134969325153374</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -181,19 +181,19 @@
     <t>Óleo no umbigo cura doenças.txt</t>
   </si>
   <si>
-    <t>afligidos, vaxtruth, higher, gardasil, anvisa, obukhanych, defending, lesadas, recommended, vactruth, reactions, vaers, tetyana, updated, saudáveis​​, diseases, nutrientes, adjuvantes, ​​em, reasons, origins, triplice, ogms, rentáveis, contêm, sanevax, ingredients, parents, comprovadamente, geneticamente, vactruthcom, reorientar, mandates, placebos, imunocomprometidas, —, unvaccinated, “, transgênicos, sgb, studies, responsabilizadas, injury, healthier, ​​e, pharma, vaccinated, patrocinados, gms, empurradores, sites, related, firms, nauseam, says, conservantes, eficazmente, vaccines</t>
-  </si>
-  <si>
-    <t>turmores, ingerível, adaptabilidade, colecisti, cérvico, bronchiale, absurdamente, cancerígenas, alcuni, pecezinho, convincentes, candidíases, semanas4, polmonari, cerebrali, macrobióticos, poderosíssima, substancialmente, è, 5todos, casi, peritoneale, abrasões, enlouquecida, epatocarcinoma, metastasipolmonari, linfonodos, alcalinizando, subministrar, tanti, piccoli, mês1, links, “, equimoses, simoncini, polmoni, phds, ½, 360°, cânceres, charcot, carcinosi, inalações, reversões, cirurgias, conseqüência, alla, radiografias, vescica, gotejador, palpebra, lincados, jfj, nahco3, oncologistas, dellintestino, oncologista, sites, tumore, diretaço, inalador, deleto, intertítulo, metodicamente, coróide, sinceramente, legendado, coliciste, trattati, 90°, dias3, empiricamente, vezes1, metodologias, entopem, metástases, pediátrica, restringe, •, diffuso, estomago, tumori, prostata, lavagens, linfomas, 36a, midollare</t>
-  </si>
-  <si>
-    <t>132ph, 99ph, 227ph, 85ph, 87ph, abençoê, 156ph, 92ph, 127ph</t>
-  </si>
-  <si>
-    <t>refrescante, 16º, simplemente, cm2, “</t>
-  </si>
-  <si>
-    <t>adoçante, dopamina, entitulado, arckle, assintomáticas, hj, lobbies, raffaele, 30º, zerocal, mancy, blaylock, acidose, câimbras, riccio, contaminados</t>
+    <t>​​em, rentáveis, diseases, conservantes, geneticamente, vaccines, eficazmente, anvisa, comprovadamente, vaccinated, lesadas, ​​e, vactruthcom, mandates, transgênicos, vaers, empurradores, placebos, responsabilizadas, reasons, nauseam, updated, nutrientes, saudáveis​​, tetyana, afligidos, gms, gardasil, parents, sanevax, triplice, imunocomprometidas, healthier, higher, origins, adjuvantes, related, “, patrocinados, sgb, reactions, defending, reorientar, studies, contêm, vactruth, obukhanych, ingredients, ogms, unvaccinated, sites, pharma, says, injury, recommended, firms, vaxtruth, —</t>
+  </si>
+  <si>
+    <t>bronchiale, vescica, •, deleto, semanas4, epatocarcinoma, tumore, inalações, 5todos, sinceramente, 90°, pecezinho, simoncini, reversões, entopem, coróide, estomago, intertítulo, carcinosi, conseqüência, polmoni, subministrar, lincados, metodicamente, 36a, turmores, radiografias, candidíases, polmonari, coliciste, cânceres, equimoses, diretaço, ½, macrobióticos, enlouquecida, cancerígenas, piccoli, “, absurdamente, restringe, cérvico, links, è, charcot, cirurgias, adaptabilidade, inalador, alla, vezes1, palpebra, alcalinizando, lavagens, linfomas, poderosíssima, 360°, midollare, metastasipolmonari, mês1, peritoneale, jfj, cerebrali, convincentes, ingerível, sites, tumori, trattati, alcuni, pediátrica, metástases, oncologista, nahco3, phds, diffuso, abrasões, colecisti, linfonodos, metodologias, tanti, empiricamente, prostata, dias3, casi, oncologistas, substancialmente, gotejador, dellintestino, legendado</t>
+  </si>
+  <si>
+    <t>132ph, 87ph, 127ph, abençoê, 85ph, 99ph, 92ph, 227ph, 156ph</t>
+  </si>
+  <si>
+    <t>cm2, refrescante, simplemente, 16º, “</t>
+  </si>
+  <si>
+    <t>câimbras, dopamina, hj, zerocal, assintomáticas, entitulado, mancy, acidose, blaylock, contaminados, raffaele, lobbies, adoçante, 30º, riccio, arckle</t>
   </si>
   <si>
     <t>possivel</t>
@@ -202,7 +202,7 @@
     <t>cairam, lugarquando</t>
   </si>
   <si>
-    <t>contêm, oncologista, madeixasé</t>
+    <t>madeixasé, contêm, oncologista</t>
   </si>
   <si>
     <t>infectologista</t>
@@ -214,37 +214,37 @@
     <t>hu, percursso</t>
   </si>
   <si>
-    <t>covid, theobromine, wenliang, theophylline, metilxantinas, methylxanthine, “</t>
-  </si>
-  <si>
-    <t>tamiflu, h1n1, famíliares, nossso, infectologista</t>
-  </si>
-  <si>
-    <t>alcalinizam, comprovadamente, covid19, covid</t>
+    <t>covid, “, theobromine, theophylline, methylxanthine, metilxantinas, wenliang</t>
+  </si>
+  <si>
+    <t>infectologista, famíliares, nossso, h1n1</t>
+  </si>
+  <si>
+    <t>covid, comprovadamente, alcalinizam, covid19</t>
   </si>
   <si>
     <t>infectados, covid</t>
   </si>
   <si>
-    <t>skol, voliteral, socbrasde, fenofinol, tranqüila, almeido, ambev, fleury, conseqüente, “</t>
-  </si>
-  <si>
-    <t>refrigerantes, voliteral, socbrasde, fenofinol, “, fanta, tranqüila, almeido, fleury, conseqüente, proprios</t>
-  </si>
-  <si>
-    <t>desinfetante, mícrons, °</t>
-  </si>
-  <si>
-    <t>handphone, reddy, curativas, guruprasad, trombose, polifenol, osh, cancerígenas</t>
-  </si>
-  <si>
-    <t>5sementes, mirtilos, amígdalina, b17, obtêm, laetril, itens, alforjón, “</t>
-  </si>
-  <si>
-    <t>50cl, canalizacao, crónica, cânceres, atinge, 15mg, desconfortável, cancerígenas, infectada, wahala, directamente, projectada, humedecimento, 60cl, afectará, alguém…, acção, reembalar, , afecta, bph, dey, encanador, cancerígenos, colega…, 300cl, “, canalizador, lawma, hesistência, ugbogulu, vestuario, boxers, extracto, celibatos, hormonais, sémen, jacto, horin</t>
-  </si>
-  <si>
-    <t>16h, 11h, freqüente</t>
+    <t>fenofinol, “, skol, almeido, conseqüente, voliteral, tranqüila, socbrasde, ambev, fleury</t>
+  </si>
+  <si>
+    <t>fenofinol, “, almeido, fanta, conseqüente, refrigerantes, voliteral, socbrasde, proprios, tranqüila, fleury</t>
+  </si>
+  <si>
+    <t>desinfetante, °, mícrons</t>
+  </si>
+  <si>
+    <t>cancerígenas, polifenol, handphone, trombose, curativas, guruprasad, osh, reddy</t>
+  </si>
+  <si>
+    <t>“, b17, amígdalina, obtêm, laetril, itens, mirtilos, alforjón, 5sementes</t>
+  </si>
+  <si>
+    <t>directamente, 60cl, cancerígenos, jacto, bph, crónica, hesistência, extracto, projectada, cânceres, humedecimento, afectará, infectada, vestuario, lawma, boxers, afecta, wahala, hormonais, 50cl, canalizador, reembalar, , colega…, cancerígenas, 300cl, celibatos, “, encanador, sémen, alguém…, acção, horin, dey, atinge, desconfortável, canalizacao, ugbogulu, 15mg</t>
+  </si>
+  <si>
+    <t>16h, freqüente, 11h</t>
   </si>
   <si>
     <t>fenilpropalamina, crmsp33006, ‘</t>
@@ -253,64 +253,64 @@
     <t>lpki</t>
   </si>
   <si>
-    <t>monoalcólico, horin, cancerígenas, tchen</t>
-  </si>
-  <si>
-    <t>libre, ativus, contactei, sacarovictus, cevabacillus, humildemente, estabilizantes, ‘, fatiados, aconchegante, conservantes, superdivertida</t>
-  </si>
-  <si>
-    <t>desconfortáveis, 50cc, 80cc</t>
-  </si>
-  <si>
-    <t>medicos, informaçao, estao, transmissao, nao, adiquire, podera, pergosa, afectados, japao</t>
-  </si>
-  <si>
-    <t>unitriedubr, unicampbr, cientifico, extraida, esculentus, “</t>
-  </si>
-  <si>
-    <t>alcool, globalistas, rockfellers, wurhan, jinping, infectados, rothschilds, lives, começõu, totall, globalista</t>
-  </si>
-  <si>
-    <t>shenzhen, °, drsse, castello, puxadores, desinfetante, cardiovasculares, trombose, polmonite, cátaros, desinfecte</t>
-  </si>
-  <si>
-    <t>indevidamente, ​​e, mantêm, gentilmente, 19h25, respirações</t>
-  </si>
-  <si>
-    <t>antioxidantes, reencaminhado</t>
+    <t>cancerígenas, horin, tchen, monoalcólico</t>
+  </si>
+  <si>
+    <t>aconchegante, conservantes, cevabacillus, fatiados, ‘, libre, ativus, humildemente, sacarovictus, estabilizantes, superdivertida, contactei</t>
+  </si>
+  <si>
+    <t>50cc, 80cc, desconfortáveis</t>
+  </si>
+  <si>
+    <t>medicos, transmissao, japao, nao, pergosa, adiquire, estao, podera, afectados, informaçao</t>
+  </si>
+  <si>
+    <t>unitriedubr, cientifico, unicampbr, “, esculentus, extraida</t>
+  </si>
+  <si>
+    <t>jinping, totall, globalistas, alcool, rothschilds, globalista, lives, wurhan, infectados, rockfellers, começõu</t>
+  </si>
+  <si>
+    <t>polmonite, °, cardiovasculares, puxadores, shenzhen, desinfetante, trombose, drsse, cátaros, desinfecte, castello</t>
+  </si>
+  <si>
+    <t>gentilmente, indevidamente, 19h25, mantêm, respirações, ​​e</t>
+  </si>
+  <si>
+    <t>reencaminhado, antioxidantes</t>
   </si>
   <si>
     <t>ademola</t>
   </si>
   <si>
-    <t>eletromagnetica, irreversível, bakkano</t>
-  </si>
-  <si>
-    <t>inalador, repatriados</t>
-  </si>
-  <si>
-    <t>genoma, brasileirosuma, oncologista, —, barbuto</t>
+    <t>irreversível, eletromagnetica, bakkano</t>
+  </si>
+  <si>
+    <t>repatriados, inalador</t>
+  </si>
+  <si>
+    <t>barbuto, oncologista, brasileirosuma, genoma, —</t>
   </si>
   <si>
     <t>varella, garganta…</t>
   </si>
   <si>
-    <t>letala, dágua, shenzen, corrimãos, 27°, 2a</t>
-  </si>
-  <si>
-    <t>anticâncer, huiren, polifenóis, cistos, cancerígenas, “</t>
-  </si>
-  <si>
-    <t>5g, contaminados, opsdigo, naite</t>
-  </si>
-  <si>
-    <t>tasuku, honjo</t>
-  </si>
-  <si>
-    <t>corticosteróides, americans, nissen, _temos, framingham, cardiovasculares, dgac, coronariana, acc, guidelines, “</t>
-  </si>
-  <si>
-    <t>eucalyptol, epoxi, covid, mentolatum</t>
+    <t>dágua, 27°, corrimãos, shenzen, 2a, letala</t>
+  </si>
+  <si>
+    <t>cistos, cancerígenas, huiren, “, anticâncer, polifenóis</t>
+  </si>
+  <si>
+    <t>naite, 5g, opsdigo, contaminados</t>
+  </si>
+  <si>
+    <t>honjo, tasuku</t>
+  </si>
+  <si>
+    <t>guidelines, “, americans, _temos, cardiovasculares, nissen, acc, corticosteróides, coronariana, framingham, dgac</t>
+  </si>
+  <si>
+    <t>covid, epoxi, eucalyptol, mentolatum</t>
   </si>
   <si>
     <t>repasando, chicungunha, causador, sudoríparas</t>
@@ -319,7 +319,7 @@
     <t>conscientemente</t>
   </si>
   <si>
-    <t>letargiaalívio, naturista, ricino, 4cm, nutrientes, massagea, hidratando, pechotique</t>
+    <t>4cm, hidratando, naturista, letargiaalívio, ricino, nutrientes, pechotique, massagea</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
@@ -871,7 +871,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="1">
-        <v>0.03378378378378379</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F14" t="s">
         <v>102</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
   <si>
     <t>Texto</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Solicita compartilhamento?</t>
   </si>
   <si>
+    <t>Notícia sensacionalista?</t>
+  </si>
+  <si>
     <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
   </si>
   <si>
@@ -181,28 +184,28 @@
     <t>Óleo no umbigo cura doenças.txt</t>
   </si>
   <si>
-    <t>​​em, rentáveis, diseases, conservantes, geneticamente, vaccines, eficazmente, anvisa, comprovadamente, vaccinated, lesadas, ​​e, vactruthcom, mandates, transgênicos, vaers, empurradores, placebos, responsabilizadas, reasons, nauseam, updated, nutrientes, saudáveis​​, tetyana, afligidos, gms, gardasil, parents, sanevax, triplice, imunocomprometidas, healthier, higher, origins, adjuvantes, related, “, patrocinados, sgb, reactions, defending, reorientar, studies, contêm, vactruth, obukhanych, ingredients, ogms, unvaccinated, sites, pharma, says, injury, recommended, firms, vaxtruth, —</t>
-  </si>
-  <si>
-    <t>bronchiale, vescica, •, deleto, semanas4, epatocarcinoma, tumore, inalações, 5todos, sinceramente, 90°, pecezinho, simoncini, reversões, entopem, coróide, estomago, intertítulo, carcinosi, conseqüência, polmoni, subministrar, lincados, metodicamente, 36a, turmores, radiografias, candidíases, polmonari, coliciste, cânceres, equimoses, diretaço, ½, macrobióticos, enlouquecida, cancerígenas, piccoli, “, absurdamente, restringe, cérvico, links, è, charcot, cirurgias, adaptabilidade, inalador, alla, vezes1, palpebra, alcalinizando, lavagens, linfomas, poderosíssima, 360°, midollare, metastasipolmonari, mês1, peritoneale, jfj, cerebrali, convincentes, ingerível, sites, tumori, trattati, alcuni, pediátrica, metástases, oncologista, nahco3, phds, diffuso, abrasões, colecisti, linfonodos, metodologias, tanti, empiricamente, prostata, dias3, casi, oncologistas, substancialmente, gotejador, dellintestino, legendado</t>
-  </si>
-  <si>
-    <t>132ph, 87ph, 127ph, abençoê, 85ph, 99ph, 92ph, 227ph, 156ph</t>
-  </si>
-  <si>
-    <t>cm2, refrescante, simplemente, 16º, “</t>
-  </si>
-  <si>
-    <t>câimbras, dopamina, hj, zerocal, assintomáticas, entitulado, mancy, acidose, blaylock, contaminados, raffaele, lobbies, adoçante, 30º, riccio, arckle</t>
+    <t>vaers, unvaccinated, vactruthcom, recommended, anvisa, healthier, higher, nauseam, rentáveis, conservantes, afligidos, defending, sanevax, “, says, ​​em, gms, gardasil, imunocomprometidas, lesadas, obukhanych, tetyana, sgb, adjuvantes, updated, studies, comprovadamente, related, ogms, saudáveis​​, —, sites, injury, empurradores, transgênicos, patrocinados, nutrientes, vaccinated, eficazmente, responsabilizadas, origins, geneticamente, reorientar, vaxtruth, diseases, mandates, contêm, ingredients, placebos, reactions, parents, vaccines, firms, triplice, reasons, vactruth, ​​e, pharma</t>
+  </si>
+  <si>
+    <t>bronchiale, reversões, pecezinho, substancialmente, “, oncologista, diretaço, linfonodos, simoncini, cancerígenas, poderosíssima, piccoli, radiografias, conseqüência, 5todos, empiricamente, ingerível, entopem, alla, alcalinizando, coróide, gotejador, alcuni, pediátrica, nahco3, convincentes, 90°, midollare, metodologias, deleto, carcinosi, estomago, oncologistas, sites, cerebrali, metodicamente, vezes1, 36a, epatocarcinoma, restringe, peritoneale, candidíases, trattati, •, è, cânceres, legendado, cérvico, dias3, cirurgias, linfomas, turmores, lincados, dellintestino, lavagens, prostata, palpebra, colecisti, coliciste, tumore, links, inalador, casi, tumori, tanti, subministrar, vescica, inalações, polmonari, metastasipolmonari, 360°, diffuso, absurdamente, abrasões, macrobióticos, jfj, intertítulo, ½, equimoses, semanas4, metástases, sinceramente, adaptabilidade, enlouquecida, polmoni, mês1, phds, charcot</t>
+  </si>
+  <si>
+    <t>132ph, 87ph, 99ph, 85ph, 156ph, 227ph, 92ph, abençoê, 127ph</t>
+  </si>
+  <si>
+    <t>cm2, “, refrescante, simplemente, 16º</t>
+  </si>
+  <si>
+    <t>acidose, zerocal, raffaele, arckle, assintomáticas, dopamina, blaylock, mancy, 30º, contaminados, câimbras, entitulado, adoçante, riccio, lobbies, hj</t>
   </si>
   <si>
     <t>possivel</t>
   </si>
   <si>
-    <t>cairam, lugarquando</t>
-  </si>
-  <si>
-    <t>madeixasé, contêm, oncologista</t>
+    <t>lugarquando, cairam</t>
+  </si>
+  <si>
+    <t>oncologista, madeixasé, contêm</t>
   </si>
   <si>
     <t>infectologista</t>
@@ -211,70 +214,70 @@
     <t>reage, vómitos</t>
   </si>
   <si>
-    <t>hu, percursso</t>
-  </si>
-  <si>
-    <t>covid, “, theobromine, theophylline, methylxanthine, metilxantinas, wenliang</t>
-  </si>
-  <si>
-    <t>infectologista, famíliares, nossso, h1n1</t>
-  </si>
-  <si>
-    <t>covid, comprovadamente, alcalinizam, covid19</t>
-  </si>
-  <si>
-    <t>infectados, covid</t>
-  </si>
-  <si>
-    <t>fenofinol, “, skol, almeido, conseqüente, voliteral, tranqüila, socbrasde, ambev, fleury</t>
-  </si>
-  <si>
-    <t>fenofinol, “, almeido, fanta, conseqüente, refrigerantes, voliteral, socbrasde, proprios, tranqüila, fleury</t>
-  </si>
-  <si>
-    <t>desinfetante, °, mícrons</t>
-  </si>
-  <si>
-    <t>cancerígenas, polifenol, handphone, trombose, curativas, guruprasad, osh, reddy</t>
-  </si>
-  <si>
-    <t>“, b17, amígdalina, obtêm, laetril, itens, mirtilos, alforjón, 5sementes</t>
-  </si>
-  <si>
-    <t>directamente, 60cl, cancerígenos, jacto, bph, crónica, hesistência, extracto, projectada, cânceres, humedecimento, afectará, infectada, vestuario, lawma, boxers, afecta, wahala, hormonais, 50cl, canalizador, reembalar, , colega…, cancerígenas, 300cl, celibatos, “, encanador, sémen, alguém…, acção, horin, dey, atinge, desconfortável, canalizacao, ugbogulu, 15mg</t>
+    <t>percursso, hu</t>
+  </si>
+  <si>
+    <t>covid, wenliang, theophylline, “, methylxanthine, metilxantinas, theobromine</t>
+  </si>
+  <si>
+    <t>nossso, famíliares, h1n1, infectologista</t>
+  </si>
+  <si>
+    <t>covid, alcalinizam, comprovadamente, covid19</t>
+  </si>
+  <si>
+    <t>covid, infectados</t>
+  </si>
+  <si>
+    <t>socbrasde, ambev, fleury, conseqüente, skol, tranqüila, almeido, “, voliteral, fenofinol</t>
+  </si>
+  <si>
+    <t>socbrasde, proprios, fleury, conseqüente, tranqüila, almeido, “, refrigerantes, fanta, voliteral, fenofinol</t>
+  </si>
+  <si>
+    <t>desinfetante, mícrons, °</t>
+  </si>
+  <si>
+    <t>curativas, cancerígenas, guruprasad, trombose, handphone, osh, polifenol, reddy</t>
+  </si>
+  <si>
+    <t>obtêm, itens, b17, laetril, alforjón, “, 5sementes, amígdalina, mirtilos</t>
+  </si>
+  <si>
+    <t>sémen, infectada, 300cl, bph, acção, hormonais, 60cl, “, desconfortável, encanador, crónica, vestuario, wahala, , projectada, alguém…, cancerígenas, reembalar, afecta, boxers, extracto, canalizador, 15mg, dey, celibatos, jacto, canalizacao, directamente, hesistência, ugbogulu, horin, humedecimento, colega…, afectará, 50cl, atinge, cânceres, lawma, cancerígenos</t>
   </si>
   <si>
     <t>16h, freqüente, 11h</t>
   </si>
   <si>
-    <t>fenilpropalamina, crmsp33006, ‘</t>
+    <t>crmsp33006, fenilpropalamina, ‘</t>
   </si>
   <si>
     <t>lpki</t>
   </si>
   <si>
-    <t>cancerígenas, horin, tchen, monoalcólico</t>
-  </si>
-  <si>
-    <t>aconchegante, conservantes, cevabacillus, fatiados, ‘, libre, ativus, humildemente, sacarovictus, estabilizantes, superdivertida, contactei</t>
-  </si>
-  <si>
-    <t>50cc, 80cc, desconfortáveis</t>
-  </si>
-  <si>
-    <t>medicos, transmissao, japao, nao, pergosa, adiquire, estao, podera, afectados, informaçao</t>
-  </si>
-  <si>
-    <t>unitriedubr, cientifico, unicampbr, “, esculentus, extraida</t>
-  </si>
-  <si>
-    <t>jinping, totall, globalistas, alcool, rothschilds, globalista, lives, wurhan, infectados, rockfellers, começõu</t>
-  </si>
-  <si>
-    <t>polmonite, °, cardiovasculares, puxadores, shenzhen, desinfetante, trombose, drsse, cátaros, desinfecte, castello</t>
-  </si>
-  <si>
-    <t>gentilmente, indevidamente, 19h25, mantêm, respirações, ​​e</t>
+    <t>horin, cancerígenas, tchen, monoalcólico</t>
+  </si>
+  <si>
+    <t>libre, fatiados, sacarovictus, humildemente, contactei, conservantes, superdivertida, aconchegante, ‘, cevabacillus, ativus, estabilizantes</t>
+  </si>
+  <si>
+    <t>80cc, 50cc, desconfortáveis</t>
+  </si>
+  <si>
+    <t>estao, japao, pergosa, adiquire, transmissao, nao, medicos, podera, informaçao, afectados</t>
+  </si>
+  <si>
+    <t>unitriedubr, cientifico, esculentus, extraida, “, unicampbr</t>
+  </si>
+  <si>
+    <t>globalista, rothschilds, totall, alcool, rockfellers, globalistas, jinping, começõu, infectados, lives, wurhan</t>
+  </si>
+  <si>
+    <t>desinfecte, cardiovasculares, puxadores, shenzhen, °, castello, cátaros, desinfetante, trombose, polmonite, drsse</t>
+  </si>
+  <si>
+    <t>mantêm, indevidamente, respirações, 19h25, gentilmente, ​​e</t>
   </si>
   <si>
     <t>reencaminhado, antioxidantes</t>
@@ -283,49 +286,61 @@
     <t>ademola</t>
   </si>
   <si>
-    <t>irreversível, eletromagnetica, bakkano</t>
+    <t>irreversível, bakkano, eletromagnetica</t>
   </si>
   <si>
     <t>repatriados, inalador</t>
   </si>
   <si>
-    <t>barbuto, oncologista, brasileirosuma, genoma, —</t>
-  </si>
-  <si>
-    <t>varella, garganta…</t>
-  </si>
-  <si>
-    <t>dágua, 27°, corrimãos, shenzen, 2a, letala</t>
-  </si>
-  <si>
-    <t>cistos, cancerígenas, huiren, “, anticâncer, polifenóis</t>
-  </si>
-  <si>
-    <t>naite, 5g, opsdigo, contaminados</t>
+    <t>barbuto, oncologista, brasileirosuma, —, genoma</t>
+  </si>
+  <si>
+    <t>garganta…, varella</t>
+  </si>
+  <si>
+    <t>corrimãos, 2a, shenzen, 27°, letala, dágua</t>
+  </si>
+  <si>
+    <t>polifenóis, cistos, anticâncer, cancerígenas, huiren, “</t>
+  </si>
+  <si>
+    <t>opsdigo, 5g, naite, contaminados</t>
   </si>
   <si>
     <t>honjo, tasuku</t>
   </si>
   <si>
-    <t>guidelines, “, americans, _temos, cardiovasculares, nissen, acc, corticosteróides, coronariana, framingham, dgac</t>
-  </si>
-  <si>
-    <t>covid, epoxi, eucalyptol, mentolatum</t>
-  </si>
-  <si>
-    <t>repasando, chicungunha, causador, sudoríparas</t>
+    <t>guidelines, nissen, acc, americans, corticosteróides, _temos, cardiovasculares, dgac, framingham, coronariana, “</t>
+  </si>
+  <si>
+    <t>covid, eucalyptol, mentolatum, epoxi</t>
+  </si>
+  <si>
+    <t>chicungunha, sudoríparas, repasando, causador</t>
   </si>
   <si>
     <t>conscientemente</t>
   </si>
   <si>
-    <t>4cm, hidratando, naturista, letargiaalívio, ricino, nutrientes, pechotique, massagea</t>
+    <t>letargiaalívio, pechotique, naturista, ricino, nutrientes, hidratando, massagea, 4cm</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
   </si>
   <si>
     <t>compartilhamento</t>
+  </si>
+  <si>
+    <t>Acuracia: 64.1025641025641%</t>
+  </si>
+  <si>
+    <t>não sensacionalista</t>
+  </si>
+  <si>
+    <t>sensacionalista</t>
+  </si>
+  <si>
+    <t>Acuracia: 100.0%</t>
   </si>
 </sst>
 </file>
@@ -661,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,9 +688,10 @@
     <col min="4" max="4" width="100.7109375" customWidth="1"/>
     <col min="5" max="5" width="80.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,685 +710,835 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>0.04084507042253521</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>0.02090757899738655</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>0.06976744186046512</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>0.01436781609195402</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>0.01932367149758454</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1">
         <v>0.0101010101010101</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>0.006557377049180328</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
         <v>0.0136986301369863</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1">
         <v>0.007751937984496124</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>0.003273322422258593</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>0.0196078431372549</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1">
         <v>0.02880658436213992</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1">
         <v>0.02702702702702703</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1">
         <v>0.02531645569620253</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1">
         <v>0.02272727272727273</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1">
         <v>0.04166666666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <v>0.03846153846153846</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
         <v>0.01507537688442211</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1">
         <v>0.01386481802426343</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>0.01424050632911392</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
         <v>0.02373706634205721</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1">
         <v>0.015</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1">
         <v>0.02459016393442623</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1">
         <v>0.003759398496240601</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1">
         <v>0.01769911504424779</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1">
         <v>0.02771362586605081</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1">
         <v>0.01477832512315271</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1">
         <v>0.136986301369863</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1">
         <v>0.03846153846153846</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1">
         <v>0.06321839080459771</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1">
         <v>0.01403061224489796</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1">
         <v>0.01496259351620948</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1">
         <v>0.006042296072507553</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1">
         <v>0.005813953488372093</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1">
         <v>0.01016949152542373</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>0.009009009009009009</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
         <v>0.03125</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="1">
         <v>0.015625</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1">
         <v>0.02898550724637681</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
         <v>0.02608695652173913</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1">
         <v>0.0223463687150838</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1">
         <v>0.00881057268722467</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1">
         <v>0.02022058823529412</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1">
         <v>0.0425531914893617</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1">
         <v>0.05063291139240506</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1">
         <v>0.006134969325153374</v>
       </c>
       <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
       </c>
       <c r="C50" s="1">
         <v>0.02439024390243903</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -28,7 +28,7 @@
     <t>Quantidade de palavras</t>
   </si>
   <si>
-    <t>Quantidade de paragrafos</t>
+    <t>Quantidade de parágrafos</t>
   </si>
   <si>
     <t>Solicita compartilhamento?</t>
@@ -184,19 +184,19 @@
     <t>Óleo no umbigo cura doenças.txt</t>
   </si>
   <si>
-    <t>vaers, unvaccinated, vactruthcom, recommended, anvisa, healthier, higher, nauseam, rentáveis, conservantes, afligidos, defending, sanevax, “, says, ​​em, gms, gardasil, imunocomprometidas, lesadas, obukhanych, tetyana, sgb, adjuvantes, updated, studies, comprovadamente, related, ogms, saudáveis​​, —, sites, injury, empurradores, transgênicos, patrocinados, nutrientes, vaccinated, eficazmente, responsabilizadas, origins, geneticamente, reorientar, vaxtruth, diseases, mandates, contêm, ingredients, placebos, reactions, parents, vaccines, firms, triplice, reasons, vactruth, ​​e, pharma</t>
-  </si>
-  <si>
-    <t>bronchiale, reversões, pecezinho, substancialmente, “, oncologista, diretaço, linfonodos, simoncini, cancerígenas, poderosíssima, piccoli, radiografias, conseqüência, 5todos, empiricamente, ingerível, entopem, alla, alcalinizando, coróide, gotejador, alcuni, pediátrica, nahco3, convincentes, 90°, midollare, metodologias, deleto, carcinosi, estomago, oncologistas, sites, cerebrali, metodicamente, vezes1, 36a, epatocarcinoma, restringe, peritoneale, candidíases, trattati, •, è, cânceres, legendado, cérvico, dias3, cirurgias, linfomas, turmores, lincados, dellintestino, lavagens, prostata, palpebra, colecisti, coliciste, tumore, links, inalador, casi, tumori, tanti, subministrar, vescica, inalações, polmonari, metastasipolmonari, 360°, diffuso, absurdamente, abrasões, macrobióticos, jfj, intertítulo, ½, equimoses, semanas4, metástases, sinceramente, adaptabilidade, enlouquecida, polmoni, mês1, phds, charcot</t>
-  </si>
-  <si>
-    <t>132ph, 87ph, 99ph, 85ph, 156ph, 227ph, 92ph, abençoê, 127ph</t>
-  </si>
-  <si>
-    <t>cm2, “, refrescante, simplemente, 16º</t>
-  </si>
-  <si>
-    <t>acidose, zerocal, raffaele, arckle, assintomáticas, dopamina, blaylock, mancy, 30º, contaminados, câimbras, entitulado, adoçante, riccio, lobbies, hj</t>
+    <t>nauseam, tetyana, vactruthcom, conservantes, sgb, responsabilizadas, updated, obukhanych, ogms, sites, ingredients, origins, triplice, vaccines, contêm, recommended, reorientar, adjuvantes, gardasil, injury, related, rentáveis, comprovadamente, empurradores, reasons, parents, vactruth, firms, unvaccinated, saudáveis​​, ​​em, eficazmente, mandates, healthier, vaers, geneticamente, studies, reactions, anvisa, vaxtruth, nutrientes, pharma, gms, vaccinated, defending, sanevax, diseases, afligidos, —, placebos, says, ​​e, lesadas, higher, imunocomprometidas, “, transgênicos, patrocinados</t>
+  </si>
+  <si>
+    <t>sites, midollare, coliciste, 5todos, estomago, palpebra, metodologias, equimoses, 36a, alcuni, tanti, simoncini, cancerígenas, sinceramente, carcinosi, inalações, gotejador, adaptabilidade, casi, peritoneale, tumori, oncologista, entopem, •, turmores, conseqüência, legendado, 90°, lincados, tumore, trattati, linfonodos, cânceres, pediátrica, piccoli, è, jfj, radiografias, diffuso, absurdamente, semanas4, ingerível, charcot, metastasipolmonari, cerebrali, bronchiale, oncologistas, phds, substancialmente, dellintestino, lavagens, reversões, vescica, prostata, abrasões, pecezinho, nahco3, 360°, deleto, coróide, cérvico, inalador, polmonari, macrobióticos, empiricamente, mês1, “, dias3, polmoni, links, convincentes, poderosíssima, candidíases, alla, metodicamente, metástases, intertítulo, subministrar, restringe, cirurgias, linfomas, colecisti, diretaço, epatocarcinoma, alcalinizando, vezes1, enlouquecida, ½</t>
+  </si>
+  <si>
+    <t>132ph, 87ph, 85ph, 127ph, 92ph, 99ph, abençoê, 227ph, 156ph</t>
+  </si>
+  <si>
+    <t>simplemente, 16º, refrescante, “, cm2</t>
+  </si>
+  <si>
+    <t>raffaele, 30º, contaminados, adoçante, hj, entitulado, riccio, assintomáticas, lobbies, blaylock, dopamina, mancy, arckle, acidose, zerocal, câimbras</t>
   </si>
   <si>
     <t>possivel</t>
@@ -211,73 +211,73 @@
     <t>infectologista</t>
   </si>
   <si>
-    <t>reage, vómitos</t>
+    <t>vómitos, reage</t>
   </si>
   <si>
     <t>percursso, hu</t>
   </si>
   <si>
-    <t>covid, wenliang, theophylline, “, methylxanthine, metilxantinas, theobromine</t>
-  </si>
-  <si>
-    <t>nossso, famíliares, h1n1, infectologista</t>
-  </si>
-  <si>
-    <t>covid, alcalinizam, comprovadamente, covid19</t>
+    <t>methylxanthine, theophylline, theobromine, covid, metilxantinas, wenliang, “</t>
+  </si>
+  <si>
+    <t>h1n1, nossso, infectologista, famíliares</t>
+  </si>
+  <si>
+    <t>alcalinizam, covid, comprovadamente, covid19</t>
   </si>
   <si>
     <t>covid, infectados</t>
   </si>
   <si>
-    <t>socbrasde, ambev, fleury, conseqüente, skol, tranqüila, almeido, “, voliteral, fenofinol</t>
-  </si>
-  <si>
-    <t>socbrasde, proprios, fleury, conseqüente, tranqüila, almeido, “, refrigerantes, fanta, voliteral, fenofinol</t>
+    <t>voliteral, tranqüila, almeido, skol, ambev, conseqüente, “, fenofinol, socbrasde, fleury</t>
+  </si>
+  <si>
+    <t>voliteral, tranqüila, almeido, fanta, refrigerantes, proprios, conseqüente, “, fenofinol, socbrasde, fleury</t>
   </si>
   <si>
     <t>desinfetante, mícrons, °</t>
   </si>
   <si>
-    <t>curativas, cancerígenas, guruprasad, trombose, handphone, osh, polifenol, reddy</t>
-  </si>
-  <si>
-    <t>obtêm, itens, b17, laetril, alforjón, “, 5sementes, amígdalina, mirtilos</t>
-  </si>
-  <si>
-    <t>sémen, infectada, 300cl, bph, acção, hormonais, 60cl, “, desconfortável, encanador, crónica, vestuario, wahala, , projectada, alguém…, cancerígenas, reembalar, afecta, boxers, extracto, canalizador, 15mg, dey, celibatos, jacto, canalizacao, directamente, hesistência, ugbogulu, horin, humedecimento, colega…, afectará, 50cl, atinge, cânceres, lawma, cancerígenos</t>
-  </si>
-  <si>
-    <t>16h, freqüente, 11h</t>
-  </si>
-  <si>
-    <t>crmsp33006, fenilpropalamina, ‘</t>
+    <t>polifenol, guruprasad, reddy, curativas, cancerígenas, handphone, trombose, osh</t>
+  </si>
+  <si>
+    <t>laetril, 5sementes, b17, obtêm, itens, “, mirtilos, alforjón, amígdalina</t>
+  </si>
+  <si>
+    <t>boxers, bph, canalizador, sémen, infectada, directamente, hormonais, humedecimento, lawma, hesistência, celibatos, afectará, 15mg, 50cl, dey, canalizacao, jacto, 300cl, cânceres, afecta, desconfortável, acção, wahala, reembalar, encanador, atinge, cancerígenas, 60cl, extracto, , crónica, projectada, horin, vestuario, colega…, “, cancerígenos, alguém…, ugbogulu</t>
+  </si>
+  <si>
+    <t>freqüente, 11h, 16h</t>
+  </si>
+  <si>
+    <t>‘, fenilpropalamina, crmsp33006</t>
   </si>
   <si>
     <t>lpki</t>
   </si>
   <si>
-    <t>horin, cancerígenas, tchen, monoalcólico</t>
-  </si>
-  <si>
-    <t>libre, fatiados, sacarovictus, humildemente, contactei, conservantes, superdivertida, aconchegante, ‘, cevabacillus, ativus, estabilizantes</t>
-  </si>
-  <si>
-    <t>80cc, 50cc, desconfortáveis</t>
-  </si>
-  <si>
-    <t>estao, japao, pergosa, adiquire, transmissao, nao, medicos, podera, informaçao, afectados</t>
-  </si>
-  <si>
-    <t>unitriedubr, cientifico, esculentus, extraida, “, unicampbr</t>
-  </si>
-  <si>
-    <t>globalista, rothschilds, totall, alcool, rockfellers, globalistas, jinping, começõu, infectados, lives, wurhan</t>
-  </si>
-  <si>
-    <t>desinfecte, cardiovasculares, puxadores, shenzhen, °, castello, cátaros, desinfetante, trombose, polmonite, drsse</t>
-  </si>
-  <si>
-    <t>mantêm, indevidamente, respirações, 19h25, gentilmente, ​​e</t>
+    <t>horin, tchen, monoalcólico, cancerígenas</t>
+  </si>
+  <si>
+    <t>libre, conservantes, sacarovictus, ‘, superdivertida, contactei, estabilizantes, humildemente, aconchegante, cevabacillus, fatiados, ativus</t>
+  </si>
+  <si>
+    <t>desconfortáveis, 50cc, 80cc</t>
+  </si>
+  <si>
+    <t>informaçao, transmissao, podera, pergosa, nao, medicos, estao, japao, afectados, adiquire</t>
+  </si>
+  <si>
+    <t>extraida, unicampbr, unitriedubr, esculentus, “, cientifico</t>
+  </si>
+  <si>
+    <t>wurhan, começõu, lives, rockfellers, totall, rothschilds, globalista, infectados, globalistas, jinping, alcool</t>
+  </si>
+  <si>
+    <t>desinfecte, polmonite, castello, puxadores, cátaros, drsse, °, trombose, shenzhen, desinfetante, cardiovasculares</t>
+  </si>
+  <si>
+    <t>indevidamente, mantêm, ​​e, respirações, gentilmente, 19h25</t>
   </si>
   <si>
     <t>reencaminhado, antioxidantes</t>
@@ -286,43 +286,43 @@
     <t>ademola</t>
   </si>
   <si>
-    <t>irreversível, bakkano, eletromagnetica</t>
+    <t>eletromagnetica, bakkano, irreversível</t>
   </si>
   <si>
     <t>repatriados, inalador</t>
   </si>
   <si>
-    <t>barbuto, oncologista, brasileirosuma, —, genoma</t>
-  </si>
-  <si>
-    <t>garganta…, varella</t>
-  </si>
-  <si>
-    <t>corrimãos, 2a, shenzen, 27°, letala, dágua</t>
-  </si>
-  <si>
-    <t>polifenóis, cistos, anticâncer, cancerígenas, huiren, “</t>
-  </si>
-  <si>
-    <t>opsdigo, 5g, naite, contaminados</t>
+    <t>oncologista, —, brasileirosuma, genoma, barbuto</t>
+  </si>
+  <si>
+    <t>varella, garganta…</t>
+  </si>
+  <si>
+    <t>shenzen, 27°, 2a, corrimãos, dágua, letala</t>
+  </si>
+  <si>
+    <t>polifenóis, cistos, cancerígenas, “, anticâncer, huiren</t>
+  </si>
+  <si>
+    <t>5g, contaminados, naite, opsdigo</t>
   </si>
   <si>
     <t>honjo, tasuku</t>
   </si>
   <si>
-    <t>guidelines, nissen, acc, americans, corticosteróides, _temos, cardiovasculares, dgac, framingham, coronariana, “</t>
-  </si>
-  <si>
-    <t>covid, eucalyptol, mentolatum, epoxi</t>
-  </si>
-  <si>
-    <t>chicungunha, sudoríparas, repasando, causador</t>
+    <t>americans, _temos, cardiovasculares, coronariana, guidelines, nissen, corticosteróides, “, acc, dgac, framingham</t>
+  </si>
+  <si>
+    <t>eucalyptol, mentolatum, epoxi, covid</t>
+  </si>
+  <si>
+    <t>repasando, sudoríparas, causador, chicungunha</t>
   </si>
   <si>
     <t>conscientemente</t>
   </si>
   <si>
-    <t>letargiaalívio, pechotique, naturista, ricino, nutrientes, hidratando, massagea, 4cm</t>
+    <t>nutrientes, hidratando, letargiaalívio, pechotique, massagea, naturista, ricino, 4cm</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
@@ -331,7 +331,7 @@
     <t>compartilhamento</t>
   </si>
   <si>
-    <t>Acuracia: 64.1025641025641%</t>
+    <t>Acurácia: 64.1025641025641%</t>
   </si>
   <si>
     <t>não sensacionalista</t>
@@ -340,7 +340,7 @@
     <t>sensacionalista</t>
   </si>
   <si>
-    <t>Acuracia: 100.0%</t>
+    <t>Acurácia: 100.0%</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +685,10 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1535,9 +1535,17 @@
         <v>0.02439024390243903</v>
       </c>
       <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="F51" t="s">
         <v>105</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>108</v>
       </c>
     </row>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
   <si>
     <t>Texto</t>
   </si>
@@ -34,9 +34,15 @@
     <t>Solicita compartilhamento?</t>
   </si>
   <si>
+    <t>Compartilhamento valorado</t>
+  </si>
+  <si>
     <t>Notícia sensacionalista?</t>
   </si>
   <si>
+    <t>Sensacionalismo valorado</t>
+  </si>
+  <si>
     <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
   </si>
   <si>
@@ -184,19 +190,19 @@
     <t>Óleo no umbigo cura doenças.txt</t>
   </si>
   <si>
-    <t>nauseam, tetyana, vactruthcom, conservantes, sgb, responsabilizadas, updated, obukhanych, ogms, sites, ingredients, origins, triplice, vaccines, contêm, recommended, reorientar, adjuvantes, gardasil, injury, related, rentáveis, comprovadamente, empurradores, reasons, parents, vactruth, firms, unvaccinated, saudáveis​​, ​​em, eficazmente, mandates, healthier, vaers, geneticamente, studies, reactions, anvisa, vaxtruth, nutrientes, pharma, gms, vaccinated, defending, sanevax, diseases, afligidos, —, placebos, says, ​​e, lesadas, higher, imunocomprometidas, “, transgênicos, patrocinados</t>
-  </si>
-  <si>
-    <t>sites, midollare, coliciste, 5todos, estomago, palpebra, metodologias, equimoses, 36a, alcuni, tanti, simoncini, cancerígenas, sinceramente, carcinosi, inalações, gotejador, adaptabilidade, casi, peritoneale, tumori, oncologista, entopem, •, turmores, conseqüência, legendado, 90°, lincados, tumore, trattati, linfonodos, cânceres, pediátrica, piccoli, è, jfj, radiografias, diffuso, absurdamente, semanas4, ingerível, charcot, metastasipolmonari, cerebrali, bronchiale, oncologistas, phds, substancialmente, dellintestino, lavagens, reversões, vescica, prostata, abrasões, pecezinho, nahco3, 360°, deleto, coróide, cérvico, inalador, polmonari, macrobióticos, empiricamente, mês1, “, dias3, polmoni, links, convincentes, poderosíssima, candidíases, alla, metodicamente, metástases, intertítulo, subministrar, restringe, cirurgias, linfomas, colecisti, diretaço, epatocarcinoma, alcalinizando, vezes1, enlouquecida, ½</t>
-  </si>
-  <si>
-    <t>132ph, 87ph, 85ph, 127ph, 92ph, 99ph, abençoê, 227ph, 156ph</t>
-  </si>
-  <si>
-    <t>simplemente, 16º, refrescante, “, cm2</t>
-  </si>
-  <si>
-    <t>raffaele, 30º, contaminados, adoçante, hj, entitulado, riccio, assintomáticas, lobbies, blaylock, dopamina, mancy, arckle, acidose, zerocal, câimbras</t>
+    <t>sites, responsabilizadas, unvaccinated, gardasil, nauseam, placebos, anvisa, ogms, “, defending, higher, vaers, ​​em, vaccinated, geneticamente, gms, parents, rentáveis, vaccines, reactions, origins, updated, injury, eficazmente, reasons, tetyana, related, comprovadamente, vactruthcom, sgb, pharma, saudáveis​​, healthier, conservantes, contêm, obukhanych, vactruth, vaxtruth, empurradores, adjuvantes, sanevax, diseases, reorientar, triplice, nutrientes, ​​e, firms, says, imunocomprometidas, lesadas, afligidos, recommended, transgênicos, mandates, patrocinados, studies, ingredients, —</t>
+  </si>
+  <si>
+    <t>sites, piccoli, subministrar, “, cérvico, prostata, entopem, estomago, gotejador, 36a, è, metodologias, candidíases, oncologista, intertítulo, diffuso, semanas4, mês1, metástases, lavagens, tanti, convincentes, links, vezes1, legendado, 360°, polmoni, radiografias, coliciste, restringe, coróide, dellintestino, inalações, colecisti, inalador, lincados, reversões, ½, alcuni, trattati, tumori, adaptabilidade, 5todos, casi, epatocarcinoma, metodicamente, phds, abrasões, vescica, nahco3, cancerígenas, oncologistas, turmores, simoncini, pediátrica, cirurgias, substancialmente, ingerível, alla, carcinosi, sinceramente, linfonodos, poderosíssima, conseqüência, dias3, deleto, polmonari, bronchiale, •, diretaço, cerebrali, enlouquecida, pecezinho, macrobióticos, charcot, palpebra, linfomas, midollare, tumore, cânceres, alcalinizando, equimoses, 90°, metastasipolmonari, empiricamente, absurdamente, jfj, peritoneale</t>
+  </si>
+  <si>
+    <t>227ph, 99ph, 156ph, abençoê, 87ph, 132ph, 92ph, 127ph, 85ph</t>
+  </si>
+  <si>
+    <t>refrescante, cm2, “, simplemente, 16º</t>
+  </si>
+  <si>
+    <t>blaylock, dopamina, assintomáticas, arckle, entitulado, riccio, zerocal, acidose, raffaele, câimbras, contaminados, hj, 30º, mancy, lobbies, adoçante</t>
   </si>
   <si>
     <t>possivel</t>
@@ -205,7 +211,7 @@
     <t>lugarquando, cairam</t>
   </si>
   <si>
-    <t>oncologista, madeixasé, contêm</t>
+    <t>oncologista, contêm, madeixasé</t>
   </si>
   <si>
     <t>infectologista</t>
@@ -214,70 +220,70 @@
     <t>vómitos, reage</t>
   </si>
   <si>
-    <t>percursso, hu</t>
-  </si>
-  <si>
-    <t>methylxanthine, theophylline, theobromine, covid, metilxantinas, wenliang, “</t>
-  </si>
-  <si>
-    <t>h1n1, nossso, infectologista, famíliares</t>
-  </si>
-  <si>
-    <t>alcalinizam, covid, comprovadamente, covid19</t>
+    <t>hu, percursso</t>
+  </si>
+  <si>
+    <t>metilxantinas, theophylline, covid, “, wenliang, methylxanthine, theobromine</t>
+  </si>
+  <si>
+    <t>famíliares, h1n1, nossso, infectologista</t>
+  </si>
+  <si>
+    <t>covid, covid19, alcalinizam, comprovadamente</t>
   </si>
   <si>
     <t>covid, infectados</t>
   </si>
   <si>
-    <t>voliteral, tranqüila, almeido, skol, ambev, conseqüente, “, fenofinol, socbrasde, fleury</t>
-  </si>
-  <si>
-    <t>voliteral, tranqüila, almeido, fanta, refrigerantes, proprios, conseqüente, “, fenofinol, socbrasde, fleury</t>
-  </si>
-  <si>
-    <t>desinfetante, mícrons, °</t>
-  </si>
-  <si>
-    <t>polifenol, guruprasad, reddy, curativas, cancerígenas, handphone, trombose, osh</t>
-  </si>
-  <si>
-    <t>laetril, 5sementes, b17, obtêm, itens, “, mirtilos, alforjón, amígdalina</t>
-  </si>
-  <si>
-    <t>boxers, bph, canalizador, sémen, infectada, directamente, hormonais, humedecimento, lawma, hesistência, celibatos, afectará, 15mg, 50cl, dey, canalizacao, jacto, 300cl, cânceres, afecta, desconfortável, acção, wahala, reembalar, encanador, atinge, cancerígenas, 60cl, extracto, , crónica, projectada, horin, vestuario, colega…, “, cancerígenos, alguém…, ugbogulu</t>
-  </si>
-  <si>
-    <t>freqüente, 11h, 16h</t>
-  </si>
-  <si>
-    <t>‘, fenilpropalamina, crmsp33006</t>
+    <t>voliteral, almeido, skol, “, fenofinol, socbrasde, ambev, conseqüente, fleury, tranqüila</t>
+  </si>
+  <si>
+    <t>voliteral, almeido, refrigerantes, proprios, “, fenofinol, socbrasde, conseqüente, fleury, tranqüila, fanta</t>
+  </si>
+  <si>
+    <t>mícrons, desinfetante, °</t>
+  </si>
+  <si>
+    <t>handphone, guruprasad, cancerígenas, reddy, polifenol, trombose, curativas, osh</t>
+  </si>
+  <si>
+    <t>obtêm, laetril, alforjón, itens, mirtilos, “, 5sementes, amígdalina, b17</t>
+  </si>
+  <si>
+    <t>vestuario, celibatos, “, reembalar, ugbogulu, dey, alguém…, canalizador, crónica, hormonais, canalizacao, boxers, infectada, encanador, colega…, acção, 60cl, 15mg, projectada, desconfortável, cancerígenos, cancerígenas, extracto, 50cl, sémen, 300cl, humedecimento, afecta, wahala, hesistência, , cânceres, atinge, afectará, horin, bph, lawma, jacto, directamente</t>
+  </si>
+  <si>
+    <t>16h, freqüente, 11h</t>
+  </si>
+  <si>
+    <t>crmsp33006, fenilpropalamina, ‘</t>
   </si>
   <si>
     <t>lpki</t>
   </si>
   <si>
-    <t>horin, tchen, monoalcólico, cancerígenas</t>
-  </si>
-  <si>
-    <t>libre, conservantes, sacarovictus, ‘, superdivertida, contactei, estabilizantes, humildemente, aconchegante, cevabacillus, fatiados, ativus</t>
-  </si>
-  <si>
-    <t>desconfortáveis, 50cc, 80cc</t>
-  </si>
-  <si>
-    <t>informaçao, transmissao, podera, pergosa, nao, medicos, estao, japao, afectados, adiquire</t>
-  </si>
-  <si>
-    <t>extraida, unicampbr, unitriedubr, esculentus, “, cientifico</t>
-  </si>
-  <si>
-    <t>wurhan, começõu, lives, rockfellers, totall, rothschilds, globalista, infectados, globalistas, jinping, alcool</t>
-  </si>
-  <si>
-    <t>desinfecte, polmonite, castello, puxadores, cátaros, drsse, °, trombose, shenzhen, desinfetante, cardiovasculares</t>
-  </si>
-  <si>
-    <t>indevidamente, mantêm, ​​e, respirações, gentilmente, 19h25</t>
+    <t>cancerígenas, monoalcólico, tchen, horin</t>
+  </si>
+  <si>
+    <t>libre, ‘, superdivertida, cevabacillus, fatiados, ativus, conservantes, humildemente, sacarovictus, aconchegante, contactei, estabilizantes</t>
+  </si>
+  <si>
+    <t>80cc, 50cc, desconfortáveis</t>
+  </si>
+  <si>
+    <t>medicos, estao, adiquire, pergosa, japao, podera, transmissao, informaçao, afectados, nao</t>
+  </si>
+  <si>
+    <t>unitriedubr, esculentus, extraida, “, unicampbr, cientifico</t>
+  </si>
+  <si>
+    <t>globalista, wurhan, totall, lives, rothschilds, jinping, infectados, rockfellers, começõu, globalistas, alcool</t>
+  </si>
+  <si>
+    <t>puxadores, desinfetante, drsse, cátaros, polmonite, desinfecte, shenzhen, cardiovasculares, trombose, castello, °</t>
+  </si>
+  <si>
+    <t>mantêm, ​​e, respirações, 19h25, indevidamente, gentilmente</t>
   </si>
   <si>
     <t>reencaminhado, antioxidantes</t>
@@ -289,40 +295,40 @@
     <t>eletromagnetica, bakkano, irreversível</t>
   </si>
   <si>
-    <t>repatriados, inalador</t>
-  </si>
-  <si>
-    <t>oncologista, —, brasileirosuma, genoma, barbuto</t>
+    <t>inalador, repatriados</t>
+  </si>
+  <si>
+    <t>oncologista, genoma, brasileirosuma, barbuto, —</t>
   </si>
   <si>
     <t>varella, garganta…</t>
   </si>
   <si>
-    <t>shenzen, 27°, 2a, corrimãos, dágua, letala</t>
-  </si>
-  <si>
-    <t>polifenóis, cistos, cancerígenas, “, anticâncer, huiren</t>
-  </si>
-  <si>
-    <t>5g, contaminados, naite, opsdigo</t>
+    <t>dágua, 27°, 2a, letala, corrimãos, shenzen</t>
+  </si>
+  <si>
+    <t>cistos, cancerígenas, polifenóis, “, anticâncer, huiren</t>
+  </si>
+  <si>
+    <t>5g, contaminados, opsdigo, naite</t>
   </si>
   <si>
     <t>honjo, tasuku</t>
   </si>
   <si>
-    <t>americans, _temos, cardiovasculares, coronariana, guidelines, nissen, corticosteróides, “, acc, dgac, framingham</t>
-  </si>
-  <si>
-    <t>eucalyptol, mentolatum, epoxi, covid</t>
-  </si>
-  <si>
-    <t>repasando, sudoríparas, causador, chicungunha</t>
+    <t>_temos, dgac, framingham, acc, americans, “, nissen, corticosteróides, guidelines, cardiovasculares, coronariana</t>
+  </si>
+  <si>
+    <t>covid, epoxi, eucalyptol, mentolatum</t>
+  </si>
+  <si>
+    <t>chicungunha, causador, repasando, sudoríparas</t>
   </si>
   <si>
     <t>conscientemente</t>
   </si>
   <si>
-    <t>nutrientes, hidratando, letargiaalívio, pechotique, massagea, naturista, ricino, 4cm</t>
+    <t>nutrientes, hidratando, naturista, massagea, ricino, letargiaalívio, 4cm, pechotique</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +694,12 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,840 +721,1140 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>0.04084507042253521</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G2">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>0.02090757899738655</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>0.06976744186046512</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G4">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>0.01436781609195402</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G5">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>0.01932367149758454</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G6">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>0.0101010101010101</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G7">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>0.006557377049180328</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G8">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>0.0136986301369863</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>0.007751937984496124</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G10">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>0.003273322422258593</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G11">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1">
         <v>0.0196078431372549</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1">
         <v>0.02880658436213992</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G13">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1">
         <v>0.02702702702702703</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G14">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1">
         <v>0.02531645569620253</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G15">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1">
         <v>0.02272727272727273</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G16">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
         <v>0.04166666666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G17">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1">
         <v>0.03846153846153846</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G18">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1">
         <v>0.01507537688442211</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G19">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1">
         <v>0.01386481802426343</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1">
         <v>0.01424050632911392</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G21">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1">
         <v>0.02373706634205721</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G22">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1">
         <v>0.015</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G23">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1">
         <v>0.02459016393442623</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G24">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1">
         <v>0.003759398496240601</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G25">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G26">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
         <v>0.01769911504424779</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1">
         <v>0.02771362586605081</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G28">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1">
         <v>0.01477832512315271</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G29">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1">
         <v>0.136986301369863</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G30">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1">
         <v>0.03846153846153846</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G32">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1">
         <v>0.06321839080459771</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1">
         <v>0.01403061224489796</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G34">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1">
         <v>0.01496259351620948</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G35">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1">
         <v>0.006042296072507553</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G36">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1">
         <v>0.005813953488372093</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G37">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1">
         <v>0.01016949152542373</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G38">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1">
         <v>0.009009009009009009</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G39">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1">
         <v>0.03125</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G40">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1">
         <v>0.015625</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G41">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1">
         <v>0.02898550724637681</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G42">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1">
         <v>0.02608695652173913</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G43">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1">
         <v>0.0223463687150838</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G44">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
         <v>0.00881057268722467</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G45">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1">
         <v>0.02022058823529412</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G46">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1">
         <v>0.0425531914893617</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G47">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1">
         <v>0.05063291139240506</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="G48">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1">
         <v>0.006134969325153374</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G49">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H49" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1">
         <v>0.02439024390243903</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="F51" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="F51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" t="s">
-        <v>108</v>
+      <c r="H51" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
   <si>
     <t>Texto</t>
   </si>
@@ -43,298 +43,547 @@
     <t>Sensacionalismo valorado</t>
   </si>
   <si>
-    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
-  </si>
-  <si>
-    <t>Aftas são a causa do câncer.txt</t>
-  </si>
-  <si>
-    <t>Alimentos alcalinos evitam coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Ar condicionado e o benzeno.txt</t>
-  </si>
-  <si>
-    <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
-  </si>
-  <si>
-    <t>Associação Americana e causas do câncer.txt</t>
-  </si>
-  <si>
-    <t>Banho frio e desmaios.txt</t>
-  </si>
-  <si>
-    <t>Beber água antes de pintar o cabelo.txt</t>
-  </si>
-  <si>
-    <t>Beber água de 15 em 15 minutos cura o coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
-  </si>
-  <si>
-    <t>Besouros que causam cegueira.txt</t>
-  </si>
-  <si>
-    <t>Café previne o coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Chá de limão com bicarbonato quente cura coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Cloroquina e hidroxicloroquina passam a ser usadas no Brasil para combater coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Consumo de Skol e problemas renais ou câncer.txt</t>
-  </si>
-  <si>
-    <t>Consumo de fanta e coca e problemas renais ou câncer.txt</t>
-  </si>
-  <si>
-    <t>Coronavírus morre a 26º C.txt</t>
-  </si>
-  <si>
-    <t>Cura do câncer.txt</t>
-  </si>
-  <si>
-    <t>Câncer é deficiência da vitamina B17.txt</t>
-  </si>
-  <si>
-    <t>Efeitos da glândula da próstata.txt</t>
-  </si>
-  <si>
-    <t>Equinócio e altas temperaturas.txt</t>
-  </si>
-  <si>
-    <t>Fenilpropalamina em medicamentos.txt</t>
-  </si>
-  <si>
-    <t>Gelo causa câncer.txt</t>
-  </si>
-  <si>
-    <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
-  </si>
-  <si>
-    <t>Limonada quente cura o câncer.txt</t>
-  </si>
-  <si>
-    <t>Limão no copo mata.txt</t>
-  </si>
-  <si>
-    <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Nova doença.txt</t>
-  </si>
-  <si>
-    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
-  </si>
-  <si>
-    <t>Quiabo cura diabetes.txt</t>
-  </si>
-  <si>
-    <t>Situação fora de controle novo coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Tomar ou bebidas quentes para matar o coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Tossir evita infarto.txt</t>
-  </si>
-  <si>
-    <t>Tratamento de queimaduras com farinha de trigo.txt</t>
-  </si>
-  <si>
-    <t>Uso de celular na cozinha e acidentes.txt</t>
-  </si>
-  <si>
-    <t>Uso do celular no escuro e câncer de olho.txt</t>
-  </si>
-  <si>
-    <t>Uísque e mel contra coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Vacina anticâncer.txt</t>
-  </si>
-  <si>
-    <t>Água gelada faz mal.txt</t>
-  </si>
-  <si>
-    <t>Água ou chá quente mata o coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Água quente com abacaxi.txt</t>
-  </si>
-  <si>
-    <t>É FAKE que Bill Gates financie vacina não líquida contra a Covid-19 que instala chip nas pessoas.txt</t>
-  </si>
-  <si>
-    <t>É FAKE que Tasuku Honjo, Nobel de Medicina em 2018, disse que coronavírus foi criado por cientistas.txt</t>
-  </si>
-  <si>
-    <t>É FAKE que governo americano libera consumo de colesterol e afirma que excesso não faz mal à saúde.txt</t>
-  </si>
-  <si>
-    <t>É FAKE que pesquisa mostra que vapor de eucalipto protege ambientes do coronavírus.txt</t>
-  </si>
-  <si>
-    <t>É FAKE que tomar própolis repele mosquito da febre amarela.txt</t>
-  </si>
-  <si>
-    <t>É#FAKE que uso prolongado de máscara contra o coronavírus leva a quadro de intoxicação e baixa oxigenação do organismo.txt</t>
-  </si>
-  <si>
-    <t>Óleo no umbigo cura doenças.txt</t>
-  </si>
-  <si>
-    <t>sites, responsabilizadas, unvaccinated, gardasil, nauseam, placebos, anvisa, ogms, “, defending, higher, vaers, ​​em, vaccinated, geneticamente, gms, parents, rentáveis, vaccines, reactions, origins, updated, injury, eficazmente, reasons, tetyana, related, comprovadamente, vactruthcom, sgb, pharma, saudáveis​​, healthier, conservantes, contêm, obukhanych, vactruth, vaxtruth, empurradores, adjuvantes, sanevax, diseases, reorientar, triplice, nutrientes, ​​e, firms, says, imunocomprometidas, lesadas, afligidos, recommended, transgênicos, mandates, patrocinados, studies, ingredients, —</t>
-  </si>
-  <si>
-    <t>sites, piccoli, subministrar, “, cérvico, prostata, entopem, estomago, gotejador, 36a, è, metodologias, candidíases, oncologista, intertítulo, diffuso, semanas4, mês1, metástases, lavagens, tanti, convincentes, links, vezes1, legendado, 360°, polmoni, radiografias, coliciste, restringe, coróide, dellintestino, inalações, colecisti, inalador, lincados, reversões, ½, alcuni, trattati, tumori, adaptabilidade, 5todos, casi, epatocarcinoma, metodicamente, phds, abrasões, vescica, nahco3, cancerígenas, oncologistas, turmores, simoncini, pediátrica, cirurgias, substancialmente, ingerível, alla, carcinosi, sinceramente, linfonodos, poderosíssima, conseqüência, dias3, deleto, polmonari, bronchiale, •, diretaço, cerebrali, enlouquecida, pecezinho, macrobióticos, charcot, palpebra, linfomas, midollare, tumore, cânceres, alcalinizando, equimoses, 90°, metastasipolmonari, empiricamente, absurdamente, jfj, peritoneale</t>
-  </si>
-  <si>
-    <t>227ph, 99ph, 156ph, abençoê, 87ph, 132ph, 92ph, 127ph, 85ph</t>
-  </si>
-  <si>
-    <t>refrescante, cm2, “, simplemente, 16º</t>
-  </si>
-  <si>
-    <t>blaylock, dopamina, assintomáticas, arckle, entitulado, riccio, zerocal, acidose, raffaele, câimbras, contaminados, hj, 30º, mancy, lobbies, adoçante</t>
+    <t>'Pneumonia silenciosa' que dificulta diagnóstico de casos graves de covid-19 intriga médicos 'Eles falavam no celular'.txt</t>
+  </si>
+  <si>
+    <t>A técnica de detectar câncer de próstata que pode 'revolucionar a saúde dos homens'.txt</t>
+  </si>
+  <si>
+    <t>Aedes aegypti pode ser coinfectado por dengue e zika.txt</t>
+  </si>
+  <si>
+    <t>Antiviral para hepatite C atua contra febre amarela e chikungunya.txt</t>
+  </si>
+  <si>
+    <t>Associação de Câncer de Boca e Garganta alerta para riscos à saúde vocal no Dia Mundial da Voz, em 16 de abril.txt</t>
+  </si>
+  <si>
+    <t>Bactéria causadora da meningite e pneumonia terá o genoma sequenciado.txt</t>
+  </si>
+  <si>
+    <t>Brasil reduz em 8% o número de mortes por tuberculose na última década.txt</t>
+  </si>
+  <si>
+    <t>Brasil usa vírus da gripe e bactérias para criar vacina contra covid-19 .txt</t>
+  </si>
+  <si>
+    <t>Brasil é principal mercado de agrotóxicos 'altamente perigosos', diz ONG.txt</t>
+  </si>
+  <si>
+    <t>Britânicos testam ibuprofeno em pacientes com covid-19.txt</t>
+  </si>
+  <si>
+    <t>Cera do ouvido indicam câncer.txt</t>
+  </si>
+  <si>
+    <t>Chá de salsa limpa os rins.txt</t>
+  </si>
+  <si>
+    <t>Cloroquina contra coronavírus por que OMS decidiu interromper testes com remédio em pacientes com covid-19.txt</t>
+  </si>
+  <si>
+    <t>Congo tem surto de ebola durante pandemia do coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus 4 fatores que explicam o impacto da covid-19 nos EUA, país com maior número de infectados e mortos.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus Bebê recém-nascido infectado em Wuhan indica possível transmissão no útero.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus as mutações do Sars-Cov-2 que intrigam cientistas.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus corpos dos mortos por covid-19 podem transmitir a doença.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus covid-19 já mata mais por dia que a tuberculose, doença infecciosa mais letal do mundo.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus estudo com coquetel de remédios tem bons resultados contra a covid-19, mostra The Lancet.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus o que é um vírus endêmico, como pode se tornar o Sars-Cov-2.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus os 4 pilares para manter a imunidade em dia.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus por que alguns pacientes já recuperados voltam a ter teste positivo para covid-19, segundo OMS.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus por que o ibuprofeno voltou a ser testado contra a covid-19.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus, gripe e dengue por que Brasil pode enfrentar 'tempestade perfeita' com alta de 3 doenças.txt</t>
+  </si>
+  <si>
+    <t>Cortar completamente carne e laticínios faz bem à saúde O que diz a ciência.txt</t>
+  </si>
+  <si>
+    <t>Criança sem cicatriz vacinal não precisa revacinar contra tuberculose.txt</t>
+  </si>
+  <si>
+    <t>Câncer de mama a importância do diagnóstico precoce.txt</t>
+  </si>
+  <si>
+    <t>Câncer de pulmão conheça os principais sintomas e tratamentos da doença.txt</t>
+  </si>
+  <si>
+    <t>Câncer pesquisa analisa a influência da poluição na internação pela doença.txt</t>
+  </si>
+  <si>
+    <t>Cúrcuma na prevenção do câncer de estômago.txt</t>
+  </si>
+  <si>
+    <t>Demência pode aumentar risco de COVID-19 grave.txt</t>
+  </si>
+  <si>
+    <t>Dengue na gravidez pode causar má-formação do cérebro do bebê.txt</t>
+  </si>
+  <si>
+    <t>Dengue pode representar um risco à vida do feto, alerta pesquisa.txt</t>
+  </si>
+  <si>
+    <t>Diabetes não é doença só de adulto Brasil é 3º país com mais casos entre crianças e adolescentes.txt</t>
+  </si>
+  <si>
+    <t>Diabetes pesquisa aponta que microbiota pode ajudar na redução de açúcar no sangue.txt</t>
+  </si>
+  <si>
+    <t>Doença rara que afeta o sistema sanguíneo ganha tratamento individualizado no SUS.txt</t>
+  </si>
+  <si>
+    <t>Estresse acelera surgimento de cabelos brancos, mostra estudo com participação de cientistas brasileiros.txt</t>
+  </si>
+  <si>
+    <t>Estudo aponta que dengue aumenta risco de morte materna.txt</t>
+  </si>
+  <si>
+    <t>Estudo mapeia 2.658 tipos de câncer e pode revolucionar tratamento da doença.txt</t>
+  </si>
+  <si>
+    <t>Estudo na Amazônia usa próprios mosquitos para disseminar larvicida.txt</t>
+  </si>
+  <si>
+    <t>Estudo na Islândia indica eficácia de isolamento, distanciamento social e testagem em massa para conter covid-19.txt</t>
+  </si>
+  <si>
+    <t>Estudo sobre risco da cloroquina é tirado do ar por autores.txt</t>
+  </si>
+  <si>
+    <t>Febre amarela população do Sul e Sudeste deve buscar vacina.txt</t>
+  </si>
+  <si>
+    <t>Fibrose cística é genética e mais comum na infância.txt</t>
+  </si>
+  <si>
+    <t>Gene mais ativo em doença crônica pode explicar risco de quadros graves de covid-19.txt</t>
+  </si>
+  <si>
+    <t>Hemofilia conheça doença que afeta quase exclusivamente homens .txt</t>
+  </si>
+  <si>
+    <t>Hábitos saudáveis podem atrasar em até 10 anos o câncer e as doenças do coração, mostra estudo.txt</t>
+  </si>
+  <si>
+    <t>Mal de Parkinson pode 'começar' antes do nascimento, diz estudo.txt</t>
+  </si>
+  <si>
+    <t>Medicamento para esclerose múltipla dará maior qualidade de vida aos pacientes.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde alerta Sul e Sudeste sobre febre amarela.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde antecipa vacinação contra Influenza para os Povos Indígenas.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde atualiza casos de sarampo.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde habilita mais 92 leitos para combate ao coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde lança campanha para conter avanço de HIV em homens.txt</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde supera meta e vacina 90,66% dos idosos.txt</t>
+  </si>
+  <si>
+    <t>Mosquitos do ‘bem’ combatem a dengue.txt</t>
+  </si>
+  <si>
+    <t>Necropsias já detectaram novo coronavírus em testículo e glândulas salivares.txt</t>
+  </si>
+  <si>
+    <t>Nova técnica de edição de DNA poderá curar até '89% das doenças genéticas' no futuro.txt</t>
+  </si>
+  <si>
+    <t>Novo método detecta câncer de próstata por meio da urin.txt</t>
+  </si>
+  <si>
+    <t>Novo surto de ebola no Congo tem relação com pandemia de covid-19.txt</t>
+  </si>
+  <si>
+    <t>Não há comprovação que curados da COVID-19 sejam imunes à doença, diz OMS.txt</t>
+  </si>
+  <si>
+    <t>O inovador método de imunoterapia que traz esperanças para pacientes com câncer avançado na próstata.txt</t>
+  </si>
+  <si>
+    <t>O método revolucionário que revelou um antibiótico capaz de matar as bactérias mais perigosas.txt</t>
+  </si>
+  <si>
+    <t>O que as bebidas energéticas prometem e como realmente impactam a saúde.txt</t>
+  </si>
+  <si>
+    <t>O que é melhor para a saúde, leite de vaca ou ‘alternativos’.txt</t>
+  </si>
+  <si>
+    <t>Os sinais que indicam nova alta da dengue no Brasil em 2020.txt</t>
+  </si>
+  <si>
+    <t>Pacientes com doença genética terão tratamento específico no SUS.txt</t>
+  </si>
+  <si>
+    <t>Pandemia interrompe tratamentos de hipertensão e diabetes.txt</t>
+  </si>
+  <si>
+    <t>Pesquisa avalia vacina que prolonga imunidade contra a covid-19.txt</t>
+  </si>
+  <si>
+    <t>Pesquisa relata impactos na vida de pacientes de câncer.txt</t>
+  </si>
+  <si>
+    <t>Pesquisadores descobrem que coronavírus infecta células do coração.txt</t>
+  </si>
+  <si>
+    <t>Picada de escorpião saiba os cuidados e o que fazer em caso de acidente.txt</t>
+  </si>
+  <si>
+    <t>Por que o H1N1 não parou economias como a pandemia de coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Relatório confirma tendência de crescimento de casos de Síndrome Respiratória Aguda Grave.txt</t>
+  </si>
+  <si>
+    <t>Relatório da OMS sobre tabaco destaca Brasil.txt</t>
+  </si>
+  <si>
+    <t>SARAMPO Brasil atinge 99,4% de cobertura vacinal em 2019.txt</t>
+  </si>
+  <si>
+    <t>SUS oferta novo tratamento para pacientes com degeneração macular.txt</t>
+  </si>
+  <si>
+    <t>Saúde amplia rol de tratamento para pacientes com câncer renal.txt</t>
+  </si>
+  <si>
+    <t>Senado aprova uso obrigatório de máscara em todo o País texto volta para Câmara.txt</t>
+  </si>
+  <si>
+    <t>Sinais que ajudam a identificar um AVC.txt</t>
+  </si>
+  <si>
+    <t>Síndrome de Kawasaki o que é a rara doença inflamatória que vem afetando crianças infectadas pelo novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Taxa de incidência de diabetes cresceu 61,8% nos últimos 10 anos.txt</t>
+  </si>
+  <si>
+    <t>Terapia genética usa adenovírus modificado para reduzir em até 80% tumor de pulmão.txt</t>
+  </si>
+  <si>
+    <t>Tratamento para coronavírus 'pista' imunológica traz esperança na luta contra a covid-19.txt</t>
+  </si>
+  <si>
+    <t>Tuberculose novo medicamento reduz tempo de tratamento pela metade.txt</t>
+  </si>
+  <si>
+    <t>UFMG e Fiocruz desenvolvem teste mais preciso e barato para covid-19.txt</t>
+  </si>
+  <si>
+    <t>Uso de máscaras pode conter disseminação de doenças.txt</t>
+  </si>
+  <si>
+    <t>Winter, a lhama que pode ajudar na busca por uma cura para a covid-19.txt</t>
+  </si>
+  <si>
+    <t>por que os humanos estão pegando mais doenças transmitidas por animais.txt</t>
+  </si>
+  <si>
+    <t>pneumologista, necropsias, göttingen, intrigados, entubados, —, surfactantes, sztajnbok, trombose, detectada, anticoagulantes, infectados, infectada, esfaqueamento, bellevue, gattinoni, fluídos, respirações, anestesiologista, covid, levitan, entubadas, oxímetros, jaques, gattoni</t>
+  </si>
+  <si>
+    <t>mamografias, emberton, invasiva, intervencionista, genômica, obtêm, cânceres, ucl, reimagine, sangramento, kings</t>
+  </si>
+  <si>
+    <t>tweeters, financiada, diseases, decit, coinfectado, questionamentos, fiocruz, coinfectados, downloads, hvd, viruses, contaminada, results, monoinfectados, renezika, visualizações, mcti, infectada, infectados, “, coinfection, bloomber, coinfecção, manejamento, chikungunya, fmt, nágila, secundino</t>
+  </si>
+  <si>
+    <t>cdts, liderados, fármacos, bmk, chikungunya, diseases, farmoquímica, neglected, bruning, ioc, blanver, fiocruz, chemotehrapy, ini, plos, sofosbuvir, idor</t>
+  </si>
+  <si>
+    <t>próteses, laringectomizados, suavozacbg, restabelecimento, acbg, reabilitados, vocais, fonatórias, fonatória</t>
+  </si>
+  <si>
+    <t>9v, prevalentes, pneumonias, fiocruz, neoprospecta, brgem, genômicas, biotecnologia, sorotipos, 18c, cepas, 19f, antipneumococos, funed, 19a, antimicrobianos, genoma, ioc, meningites, bacterianas, neurogenômica, 23f, pneumocócica, sequenciamento, biossistemas, sireva, genômica, 7f, 6b, pcv10</t>
+  </si>
+  <si>
+    <t>“, arakaki</t>
+  </si>
+  <si>
+    <t>geneticamente, r7, “, transgênicos, mers, particles, neutralizantes, sucedida, causador, imunogênica, covid, desenvolem, vlps, kalil, incor, fiocruz</t>
+  </si>
+  <si>
+    <t>hhp, financiada, unearthed, fazen, sumitomo, neocotinoides, —, bolsonaro, agroquímicas, iarc, agroquímicos, pesticides, highly, croplife, ciproconazol, internacionalmente, christoph, hhps, reconhecidamente, multinacionais, corteva, neumann, sygenta, tuncak, fmc, unhearted, syngenta, basf, baskut, contêm, carcinogênicos, glufosinato</t>
+  </si>
+  <si>
+    <t>nurofen, maudsley, covid, guys, nihr, benckiser, reckitt, biomédica, inflamatórios, nhs, kings</t>
+  </si>
+  <si>
+    <t>“, antoniosi, diagnosticada, reports</t>
+  </si>
+  <si>
+    <t>gratificante</t>
+  </si>
+  <si>
+    <t>1a, participantes, bmj, jama, covid, remdesivir, questionamentos, bolsonaro, soumya, swaminathan</t>
+  </si>
+  <si>
+    <t>longondo, eteni, moeti, infectadas, matshidiso, beni, contaminadas, contaminados, mbandaka, 11º, 1º, équateur, fluídos, congolesas</t>
+  </si>
+  <si>
+    <t>grvois, fauci, apidemia, indocumentados, —, tsai, cuomo, aterrorizante, diagnosticadas, distanciamento, ravi, tracking, kits, krys, sistêmicas, covid, enfrentamento, rubio, precocemente, detectados</t>
+  </si>
+  <si>
+    <t>infectada, infectados, —, mers, metrôs, infectadas</t>
+  </si>
+  <si>
+    <t>françois, gravemente, —, genoma, dorp, coautora, covid, cepas, infecciosidade, pontinhas, gisaid, ucl, balloux, genomas, d614g, alamos</t>
+  </si>
+  <si>
+    <t>alvejante, guayas, imunodeprimidas, marburg, incinerar, cortés, enfrentadas, covid, ​​no, cremados, acostumados, cremadas, eclodiu, merwin, funerais, pandêmica, terán</t>
+  </si>
+  <si>
+    <t>mycobacterium, ghebreyesus, tedros, infectadas, covid, letalidade, 1º, ecdc, adhanom</t>
+  </si>
+  <si>
+    <t>100mg, 1b, ruttonjee, 400mg, antivirais, liderados, —, síndromes, mers, participantes, yuen, shalhoub, observacionais, aleatoriamente, ribavirin, yung, diagnosticados, randomizado, interferons, covid, kwok, coautora, review</t>
+  </si>
+  <si>
+    <t>infectada, infectadas, vzv, investigadas, covid, hiperendêmico, antimaláricos, comumente</t>
+  </si>
+  <si>
+    <t>micronutrientes, inflamatória, macrófagos, imunossupressores, —, chebabbo, infectadas, linfonodos, neutrófilos, desinformação, granje, ingeridos, microbiota, renato, vilanizar, killers, imunologia, infectologista, •, covid, microrganismos, fagocitando, superssuplementando, autodestruir, gripes, antioxidantes</t>
+  </si>
+  <si>
+    <t>—, reinfecção, covid, kerkhove</t>
+  </si>
+  <si>
+    <t>esteroides, —, participantes, veran, covid, guys, inflamatórios, mehta, mitul, kings</t>
+  </si>
+  <si>
+    <t>beto, notificados, felippe, massuda, historicamente, anvisa, fiocruz, imunizada, —, transmissibilidade, concomitantes, infectadas, letalidade, sorotipos, preocupante, infectada, périssé, criadouros, diagnosticados, cirurgias, chikungunya, covid, comportamentais, hipertenso, kits</t>
+  </si>
+  <si>
+    <t>veganos, pescetarianos, bloomberg, faidon, ​​e, enriquecidos, irreversíveis, cardiovasculares, springmann, b12, onívora, vegana, magkos, —, participantes, sustentabilidade, medawar, confiabilidade, rebholz, nutrientes, veganas, sangramento, bife, isquêmicos, contêm, mantêm, springman</t>
+  </si>
+  <si>
+    <t>sbi, sipni, imunizações, maternidades, sbp, ofertada, meníngea, opas, “, internacionalmente, gestores, ctai, imunologia, 1º, abrasco, febrasgo, sbim, precocemente, revacinadas</t>
+  </si>
+  <si>
+    <t>desconfortável, boechat, antecedida, cirurgias, assintomáticas, diagnóstica, ionizante, iff, fiocruz</t>
+  </si>
+  <si>
+    <t>—, sbpt, pneumologista, ultraprocessados, oncologista, diagnosticada, cancerígenas</t>
+  </si>
+  <si>
+    <t>adeylson, nardocci, c32, 1521110km2, subtipos, c34, cih, blanquet, conservantes, iarc, aih, research, nitritos, baquero, carcinogênica, causador, 10ª, capita, neoplasia, uicc, 10h, km2, papanicolaou, 16h, c33</t>
+  </si>
+  <si>
+    <t>kokum, “, brócolis, histonas, anticâncer, cânceres, biomédica, garcinol, focada, calcagno</t>
+  </si>
+  <si>
+    <t>e4, biobank, e3, covid, apoe, alzheimers</t>
+  </si>
+  <si>
+    <t>neurologic, malformations, desfechos, isc, diseases, lshtm, controls, enny, reports, fiocruz, microcefalia, cidacs, emerging</t>
+  </si>
+  <si>
+    <t>isc, b19, 500g, symtomatic, infectadas, enny, sinasc, sinan, fiocruz, cidacs</t>
+  </si>
+  <si>
+    <t>crapino, diagnosticados, idf, insulinas, sbd, strachan, roio, socioeconômicos, 9º, pediátrica, embaçada, cardiovasculares, vigitel, liberatore, glicosímetros</t>
+  </si>
+  <si>
+    <t>akkermansia, dento, inflamatória, microbiotas, fiocruz, akkemansia, enfrentados, microbiota, nutrientes, “, incapazes, autoimunes, muciniphila, antropométricos, sequenciamento, biossistemas, genômica, bioquímicos, communications, inflamatórios, prebióticos</t>
+  </si>
+  <si>
+    <t>imunossupressores, anticoagulantes, paroxística, hematopoiéticas, soliris, meningocógica, prevalentes, meningocócicas, acwy, sorotipos, eculizumabe, pcdt, meningococos, gestores, hpn, conitec, corticoides</t>
+  </si>
+  <si>
+    <t>porssível, resinifera, —, fapesp, melanocíticas, euphorbia, sistêmica, guilhotinada, resiniferatoxin, desobedientes, embranquecimento, mattar, inflamatórias, despigmentação, hsu, chieh</t>
+  </si>
+  <si>
+    <t>odm, infectada, diagnosticados, descontrole, “, isc, enny, sinasc, sinan, diagnosticada, incidentais, using, fiocruz, reports, cidacs, periodo, 1º, 10ª</t>
+  </si>
+  <si>
+    <t>genoma, indentificar, tencologias, genomes, wellcome, cânceres, contêm, genomas, precocemente</t>
+  </si>
+  <si>
+    <t>its, observations, decit, abad, fiocruz, opas, pncd, franch, results, perea, munícipio, socioeconômicos, fapeam, disseminated, pyriproxyfen, plos, epidemics, fvs, “, arbovirus, criadouros, chikungunya, bessa, disseminadora, deane, disseminadoras</t>
+  </si>
+  <si>
+    <t>precocemente, neutralizantes, subsidiaria, adaptive, a2, constatada, decode, —, participantes, infectadas, castello, cepas, distanciamento, islandesas, infectada, infectados, a1, islandesa, prestigiada, aleatoriamente, biofarmacêutica, sequenciamento, tatiana, capita, autoisolamento, haplótipos, preventivamente, biotechnologies, covid, islandeses, diagnosticada, assintomática, 1º, detectados, interpessoal</t>
+  </si>
+  <si>
+    <t>confidencialidade, infectados, mandeep, surgisphere, covid, amit, sapan, ruschitza, desai, mehra</t>
+  </si>
+  <si>
+    <t>comprovante, cards, notificados, ofertada</t>
+  </si>
+  <si>
+    <t>“, atinge, cística, diagnosticada, precocemente, nutrientes</t>
+  </si>
+  <si>
+    <t>obstrutiva, medrxiv, mineraram, cardiovasculares, ace2, nakaya, preprint, indexados, “, medline, comorbidades, epigenéticos, causador, fcf, transcritoma, transcritomas, covid, rab1a, helder</t>
+  </si>
+  <si>
+    <t>hemofilias, inibidores, conitec, hemcibra®, aloanticorpos, profilaxias, endovenosa, emicizumabe, hemovida, cadastrados, sangramento, recombinante</t>
+  </si>
+  <si>
+    <t>sobrepeso, —, bmj, participantes, diagnosticadas, hu, cardiovasculares, prevenidos, research</t>
+  </si>
+  <si>
+    <t>lisossomos, diagnosticados, geneticamente, —, desacelerar, preventivamente, diagnosticadas, cedars, ipscs, satisfatoriamente, detectadas, dopamina, svendsen, dopaminérgicos</t>
+  </si>
+  <si>
+    <t>secundariamente, 1b, 20mg, embaçada, 05mg, ofertados, 1a, autolimitados, remitentes, sáude, primariamente, empp, especializadae, emsp, cadastrados, fingolimode, diagnosticados, mcg, emrr, ceaf, sas</t>
+  </si>
+  <si>
+    <t>“, croda, notificados, epizootias, ofertada</t>
+  </si>
+  <si>
+    <t>hospitalizações, “, dsei, h3n2, vulnerabilidade, pdm09, covid, h1n1, aldeados, imunizados</t>
+  </si>
+  <si>
+    <t>audioconferência, fvs, notificados, d8, enfrentamento, gestores, episus, kits, ofertada, capacitações</t>
+  </si>
+  <si>
+    <t>pediátricos, covid, enfrentamento, subsidiarão, gestores</t>
+  </si>
+  <si>
+    <t>pcap, saude, entrevistados, “, veiculadas, sachês, foliões, estabilizada, mandetta, mandeta, dolutegravir, educativas</t>
+  </si>
+  <si>
+    <t>“, cobradores, subtipagem, caminhoneiros, 2ª, contracheque, vulnerabilidade, covid, francielli, inativado, socioeducativas, h3n2, fontana, 3ª, h1n1, srag, 1ª, subtipado</t>
+  </si>
+  <si>
+    <t>infectados, autossustentável, “, nisia, solturas, biomas, chikungunya, atinge, mandetta, atingem, cubango, saúdeluiz, wolbachia, promissora, wmp, fiocruz, institutes</t>
+  </si>
+  <si>
+    <t>biobanco, necropsia, sistêmicas, fmusp, saldiva, necropsias, covid, vulnerabilidade, assintomática, investigada, h1n1</t>
+  </si>
+  <si>
+    <t>crispr, deletado, oneill, questionamentos, editors, transtornos, geneticamente, —, cas9, editing, escaneia, reversam, talassemias, bioquímico, liu, tay, ctrl, lovell, crtl</t>
+  </si>
+  <si>
+    <t>coletada, “, fmusp, agressividade, prostática, espectrometria, glicoproteínas, bioquímicos, palmisano, icb, coautora</t>
+  </si>
+  <si>
+    <t>permancem, sorológicos, diagnosticadas, infectadas, aerossóis, assintomático, detectados, équateur, infectados, atinge, sangramentos, figado, infectologista, cuidadores, covid, contaminadas, letalidade, mbandaka, gorinchteyn</t>
+  </si>
+  <si>
+    <t>imunodiagnóstico, reagem, falsamente, neutralizantes, infectadas, covid, imunodiagnósticos, confiabilidade, recuperados, conseqüências</t>
+  </si>
+  <si>
+    <t>oncologistas, ​​pelo, —, encorajador, participantes, espermatozoides, diagnosticadas, oncologista, descontrolada, marsden, cancerígenas, expulsos, pembrolizumabe, melanomas, nhs, tumorais, research</t>
+  </si>
+  <si>
+    <t>toc, mamografias, —, antibacterianas, halicina, barzilay, bioengenheiro</t>
+  </si>
+  <si>
+    <t>sobrepeso, siu, products, taurina, kantar, anvisa, antitabaco, cardiovasculares, incor, kalil, cristini, motivador, efsa, chemicals, arritmias, —, refrigerantes, potencializados, jama, nutrizes, ingeridos, cisa, propagandeados, vitalidade, hipertensivos, hcfmusp, sobretaxados, ingerida, macronutrientes, 250ml, regulações, ultraprocessados, irritabilidade, aprimoradas, ultraprocessado, ingeridas</t>
+  </si>
+  <si>
+    <t>substancialmente, jyrkia, micronutrientes, gregor, enriquecidas, enriquecidos, b12, virtanen, alamy, participantes, givens, desmame, majdic, research, nutrientes, ordenhadas, caseína, filhotes, genômica, contêm, alfarroba, gelana</t>
+  </si>
+  <si>
+    <t>drasticamente, acostumada, notificados, cim, historicamente, imunizadas, fiocruz, idealizadora, —, sorotipos, infectada, atinge, valle, ioc, criadouros, tharine, entrevistados, estruturadas, chicungunha, hiperendêmico, comportamentais</t>
+  </si>
+  <si>
+    <t>pcdts, mórquio, mucopolissacaridoses, cardiovasculares, ofertados, gastrointestinais, maroteaux, alfaelosulfase, lamy, conitec, galsulfase, idursulfase, desalinhamento, contraturas, bilaterações, fármacos, cirurgias, bioquímicos, mps</t>
+  </si>
+  <si>
+    <t>ghebreyesus, —, planejadas, tedros, covid, investigados, cardiovasculares, dcnts, 1º, coletadas, adhanom</t>
+  </si>
+  <si>
+    <t>imunossupressores, maxivax, biotecnologia, estimulador</t>
+  </si>
+  <si>
+    <t>tramento, sobrevida, abia, gadelha, onilotinibe, lla, servidora, nutrientes, osmarina, “, leucemias, internacionalmente, oncológica, socioeconômicas, locorregionalmente, diagnosticados, entrevistados, oncológicas, linfoblástica, cromossoma, cirurgias, uicc, cuidadores, diagnosticada</t>
+  </si>
+  <si>
+    <t>poluentes, imortalizadas, buckeridge, dndi, infectadas, fenotípica, lygia, negligenciadas, cardiomiócitos, “, jadel, causador, icb, trypanosoma, kratz, pluripotentes, fármacos, covid, translacionais</t>
+  </si>
+  <si>
+    <t>capacitações, revisados, antiescorpiônico, transportadoras, escorpiônicos, piloereção, hortifrutigranjeiros</t>
+  </si>
+  <si>
+    <t>apoiam, bergamo, pneumologista, pandemias, imunizadas, anvisa, sbv, h1n1, antivirais, —, transmissibilidade, mers, triagens, assintomáticas, infectadas, kerkhove, remdesivir, bolsonaro, spilki, distanciamento, infectada, implemetaram, balassiano, desacelerando, aseguir, utis, aylward, virologistas, hidroxocloroquina, respirador, infectologistas, virologista, covid, drugs, letalidade</t>
+  </si>
+  <si>
+    <t>notificados, hospitalizações, propensão, covid, retomada, sivep, gestores, infogripe, h1n1, distanciamento, srag</t>
+  </si>
+  <si>
+    <t>gats, cetab, luiza, fiocruz, apoiem, vinayak, mpower, prasad, narguilés, vigitel, antitabagismo, 7º, “, embalagens, cqct, 42ª, mohan, 7ª, preconizadas</t>
+  </si>
+  <si>
+    <t>“, croda, preconizada, imunizações, focada, 1º, preocupante</t>
+  </si>
+  <si>
+    <t>cirurgias, antigiogênico, invasiva, precocemente, pcdt, dmri, crosslinking, faec, ofertados, credenciados</t>
+  </si>
+  <si>
+    <t>onilotinibe, oncológicas, linfoblástica, cromossoma, cacon, cirurgias, quimioterápicos, ofertados, locorregionalmente, crcc, unacon, conitec, credenciados, ofertadas</t>
+  </si>
+  <si>
+    <t>prisionais, covid, economicamente, artesanalmente</t>
   </si>
   <si>
     <t>possivel</t>
   </si>
   <si>
-    <t>lugarquando, cairam</t>
-  </si>
-  <si>
-    <t>oncologista, contêm, madeixasé</t>
-  </si>
-  <si>
-    <t>infectologista</t>
-  </si>
-  <si>
-    <t>vómitos, reage</t>
-  </si>
-  <si>
-    <t>hu, percursso</t>
-  </si>
-  <si>
-    <t>metilxantinas, theophylline, covid, “, wenliang, methylxanthine, theobromine</t>
-  </si>
-  <si>
-    <t>famíliares, h1n1, nossso, infectologista</t>
-  </si>
-  <si>
-    <t>covid, covid19, alcalinizam, comprovadamente</t>
-  </si>
-  <si>
-    <t>covid, infectados</t>
-  </si>
-  <si>
-    <t>voliteral, almeido, skol, “, fenofinol, socbrasde, ambev, conseqüente, fleury, tranqüila</t>
-  </si>
-  <si>
-    <t>voliteral, almeido, refrigerantes, proprios, “, fenofinol, socbrasde, conseqüente, fleury, tranqüila, fanta</t>
-  </si>
-  <si>
-    <t>mícrons, desinfetante, °</t>
-  </si>
-  <si>
-    <t>handphone, guruprasad, cancerígenas, reddy, polifenol, trombose, curativas, osh</t>
-  </si>
-  <si>
-    <t>obtêm, laetril, alforjón, itens, mirtilos, “, 5sementes, amígdalina, b17</t>
-  </si>
-  <si>
-    <t>vestuario, celibatos, “, reembalar, ugbogulu, dey, alguém…, canalizador, crónica, hormonais, canalizacao, boxers, infectada, encanador, colega…, acção, 60cl, 15mg, projectada, desconfortável, cancerígenos, cancerígenas, extracto, 50cl, sémen, 300cl, humedecimento, afecta, wahala, hesistência, , cânceres, atinge, afectará, horin, bph, lawma, jacto, directamente</t>
-  </si>
-  <si>
-    <t>16h, freqüente, 11h</t>
-  </si>
-  <si>
-    <t>crmsp33006, fenilpropalamina, ‘</t>
-  </si>
-  <si>
-    <t>lpki</t>
-  </si>
-  <si>
-    <t>cancerígenas, monoalcólico, tchen, horin</t>
-  </si>
-  <si>
-    <t>libre, ‘, superdivertida, cevabacillus, fatiados, ativus, conservantes, humildemente, sacarovictus, aconchegante, contactei, estabilizantes</t>
-  </si>
-  <si>
-    <t>80cc, 50cc, desconfortáveis</t>
-  </si>
-  <si>
-    <t>medicos, estao, adiquire, pergosa, japao, podera, transmissao, informaçao, afectados, nao</t>
-  </si>
-  <si>
-    <t>unitriedubr, esculentus, extraida, “, unicampbr, cientifico</t>
-  </si>
-  <si>
-    <t>globalista, wurhan, totall, lives, rothschilds, jinping, infectados, rockfellers, começõu, globalistas, alcool</t>
-  </si>
-  <si>
-    <t>puxadores, desinfetante, drsse, cátaros, polmonite, desinfecte, shenzhen, cardiovasculares, trombose, castello, °</t>
-  </si>
-  <si>
-    <t>mantêm, ​​e, respirações, 19h25, indevidamente, gentilmente</t>
-  </si>
-  <si>
-    <t>reencaminhado, antioxidantes</t>
-  </si>
-  <si>
-    <t>ademola</t>
-  </si>
-  <si>
-    <t>eletromagnetica, bakkano, irreversível</t>
-  </si>
-  <si>
-    <t>inalador, repatriados</t>
-  </si>
-  <si>
-    <t>oncologista, genoma, brasileirosuma, barbuto, —</t>
-  </si>
-  <si>
-    <t>varella, garganta…</t>
-  </si>
-  <si>
-    <t>dágua, 27°, 2a, letala, corrimãos, shenzen</t>
-  </si>
-  <si>
-    <t>cistos, cancerígenas, polifenóis, “, anticâncer, huiren</t>
-  </si>
-  <si>
-    <t>5g, contaminados, opsdigo, naite</t>
-  </si>
-  <si>
-    <t>honjo, tasuku</t>
-  </si>
-  <si>
-    <t>_temos, dgac, framingham, acc, americans, “, nissen, corticosteróides, guidelines, cardiovasculares, coronariana</t>
-  </si>
-  <si>
-    <t>covid, epoxi, eucalyptol, mentolatum</t>
-  </si>
-  <si>
-    <t>chicungunha, causador, repasando, sudoríparas</t>
-  </si>
-  <si>
-    <t>conscientemente</t>
-  </si>
-  <si>
-    <t>nutrientes, hidratando, naturista, massagea, ricino, letargiaalívio, 4cm, pechotique</t>
+    <t>bergamo, pims, whittaker, inflamatória, ts, —, pediátricas, cuomo, verdoni, infectadas, diagnosticadas, pediátrica, multissistêmica, impactada, imunologia, utis, nhs, diagnosticados, covid, ​​explicar, cvid, viner, levin, assintomática, detectados</t>
+  </si>
+  <si>
+    <t>fhdf, hipoglicemia, ses, sbd, uendo, pedrosa, promissores, pecd, hrt, heberprot®, fiocruz, 4º, hermelinda, recombinante</t>
+  </si>
+  <si>
+    <t>supressores, anvisa, gmp, pp53, constanzi, quimioterápicos, “, bicistrônico, cancerígenas, icb, cdkn2a, tumorais, experimentaisa, editada, cancerígenos, p53, aprimoradas, glioblastomas, gênica</t>
+  </si>
+  <si>
+    <t>drasticamente, —, encorajador, microlitro, covid, guys, interage, interleucina, hayday, shankar, kings</t>
+  </si>
+  <si>
+    <t>odm, diagnosticados, unitaid, 3hp, fragilizado, aurum, marmora, mandetta, imunossupressoras, impaact4tb, enfrentamento, lelio, sanofi, conitec</t>
+  </si>
+  <si>
+    <t>polymerase, completoo, reaction, imunoabsorção, covid, linked, fapemig, anvisa, immunosorbent, pequisadores, viroses, fiocruz, funed, santuza</t>
+  </si>
+  <si>
+    <t>respirador, virologistas, zoonoses, carrington, infectados, bamford, wolfson, ncov, wellcome, respiradores, mantêm, nhs, coletadas</t>
+  </si>
+  <si>
+    <t>gante, infectada, delisa, —, nanocorpos, mers, reagem, alpacas, covid, promissores, wrapp, biotecnología, camelídeos, nanocorpo</t>
+  </si>
+  <si>
+    <t>guaxinins, chatham, sucedidas, infectadas, migrantes, pandemias, desestabilizam, aviária, investigados, interagem, civetas, contaminados, coronovírus, preocupante</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
-  </si>
-  <si>
-    <t>compartilhamento</t>
   </si>
   <si>
     <t>Acurácia: 64.1025641025641%</t>
@@ -682,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,19 +982,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1">
-        <v>0.04084507042253521</v>
+        <v>0.0173973556019485</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G2">
         <v>0.6410256410256411</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -756,22 +1005,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>0.02090757899738655</v>
+        <v>0.01458885941644562</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G3">
         <v>0.6410256410256411</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -779,22 +1028,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
-        <v>0.06976744186046512</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G4">
-        <v>-0.6410256410256411</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -802,22 +1051,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
-        <v>0.01436781609195402</v>
+        <v>0.06538461538461539</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G5">
         <v>0.6410256410256411</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -825,22 +1074,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1">
-        <v>0.01932367149758454</v>
+        <v>0.01982378854625551</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G6">
         <v>0.6410256410256411</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -848,22 +1097,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0101010101010101</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G7">
-        <v>-0.6410256410256411</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -871,22 +1120,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1">
-        <v>0.006557377049180328</v>
+        <v>0.0035650623885918</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G8">
         <v>0.6410256410256411</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -894,22 +1143,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.01934703748488513</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G9">
         <v>0.6410256410256411</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -917,22 +1166,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1">
-        <v>0.007751937984496124</v>
+        <v>0.03059273422562141</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G10">
         <v>0.6410256410256411</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -940,19 +1189,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1">
-        <v>0.003273322422258593</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G11">
         <v>0.6410256410256411</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -963,22 +1212,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0196078431372549</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G12">
         <v>0.6410256410256411</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -986,19 +1235,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
-        <v>0.02880658436213992</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>0.6410256410256411</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1009,22 +1258,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1">
-        <v>0.02702702702702703</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G14">
         <v>0.6410256410256411</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1032,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1">
-        <v>0.02531645569620253</v>
+        <v>0.03943661971830986</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G15">
         <v>0.6410256410256411</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1055,22 +1304,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1">
-        <v>0.02272727272727273</v>
+        <v>0.01426533523537803</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G16">
         <v>0.6410256410256411</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1078,22 +1327,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1">
-        <v>0.04166666666666666</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G17">
         <v>0.6410256410256411</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1101,22 +1350,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1">
-        <v>0.03846153846153846</v>
+        <v>0.03071017274472169</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G18">
         <v>0.6410256410256411</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1124,22 +1373,22 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1">
-        <v>0.01507537688442211</v>
+        <v>0.01985981308411215</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G19">
         <v>0.6410256410256411</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1147,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1">
-        <v>0.01386481802426343</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G20">
         <v>0.6410256410256411</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1170,22 +1419,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1">
-        <v>0.01424050632911392</v>
+        <v>0.02459893048128342</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G21">
         <v>0.6410256410256411</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1193,22 +1442,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1">
-        <v>0.02373706634205721</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G22">
         <v>0.6410256410256411</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1216,22 +1465,22 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1">
-        <v>0.015</v>
+        <v>0.01383714741883981</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G23">
         <v>0.6410256410256411</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1239,22 +1488,22 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1">
-        <v>0.02459016393442623</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G24">
         <v>0.6410256410256411</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1262,42 +1511,45 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1">
-        <v>0.003759398496240601</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G25">
         <v>0.6410256410256411</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>0.01349892008639309</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G26">
         <v>0.6410256410256411</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1305,22 +1557,22 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1">
-        <v>0.01769911504424779</v>
+        <v>0.0157251019219569</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G27">
         <v>0.6410256410256411</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1328,22 +1580,22 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1">
-        <v>0.02771362586605081</v>
+        <v>0.03006329113924051</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G28">
         <v>0.6410256410256411</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1351,22 +1603,22 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1">
-        <v>0.01477832512315271</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G29">
         <v>0.6410256410256411</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1374,42 +1626,45 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1">
-        <v>0.136986301369863</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G30">
-        <v>-0.6410256410256411</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>0.02129471890971039</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G31">
         <v>0.6410256410256411</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1417,19 +1672,19 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1">
-        <v>0.03846153846153846</v>
+        <v>0.05</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G32">
         <v>0.6410256410256411</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -1440,22 +1695,22 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1">
-        <v>0.06321839080459771</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G33">
-        <v>-0.6410256410256411</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1463,22 +1718,22 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1">
-        <v>0.01403061224489796</v>
+        <v>0.0268041237113402</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G34">
         <v>0.6410256410256411</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1486,22 +1741,22 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1">
-        <v>0.01496259351620948</v>
+        <v>0.01858736059479554</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G35">
         <v>0.6410256410256411</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1509,22 +1764,22 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1">
-        <v>0.006042296072507553</v>
+        <v>0.008493771234428085</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G36">
         <v>0.6410256410256411</v>
       </c>
       <c r="H36" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1532,22 +1787,22 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1">
-        <v>0.005813953488372093</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G37">
         <v>0.6410256410256411</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1555,22 +1810,22 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1">
-        <v>0.01016949152542373</v>
+        <v>0.03373015873015873</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G38">
         <v>0.6410256410256411</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1578,22 +1833,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1">
-        <v>0.009009009009009009</v>
+        <v>0.0218281036834925</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G39">
         <v>0.6410256410256411</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1601,22 +1856,22 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1">
-        <v>0.03125</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G40">
         <v>0.6410256410256411</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1624,22 +1879,22 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1">
-        <v>0.015625</v>
+        <v>0.01914893617021277</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G41">
         <v>0.6410256410256411</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1647,22 +1902,22 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1">
-        <v>0.02898550724637681</v>
+        <v>0.03480589022757698</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G42">
         <v>0.6410256410256411</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1670,22 +1925,22 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1">
-        <v>0.02608695652173913</v>
+        <v>0.02619760479041916</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G43">
         <v>0.6410256410256411</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I43">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1693,22 +1948,22 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1">
-        <v>0.0223463687150838</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G44">
         <v>0.6410256410256411</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I44">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1716,22 +1971,22 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C45" s="1">
-        <v>0.00881057268722467</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G45">
         <v>0.6410256410256411</v>
       </c>
       <c r="H45" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1739,22 +1994,22 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1">
-        <v>0.02022058823529412</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G46">
         <v>0.6410256410256411</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1762,22 +2017,22 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1">
-        <v>0.0425531914893617</v>
+        <v>0.02331288343558282</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G47">
-        <v>-0.6410256410256411</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I47">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1785,22 +2040,22 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1">
-        <v>0.05063291139240506</v>
+        <v>0.01957585644371941</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G48">
-        <v>-0.6410256410256411</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I48">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1808,22 +2063,22 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C49" s="1">
-        <v>0.006134969325153374</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G49">
         <v>0.6410256410256411</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I49">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1831,30 +2086,973 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C50" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="G50">
         <v>0.6410256410256411</v>
       </c>
       <c r="H50" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.03697183098591549</v>
+      </c>
+      <c r="F51" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H51" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.007507507507507507</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H52" t="s">
+        <v>191</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.03875968992248062</v>
+      </c>
+      <c r="F53" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H53" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.01700680272108844</v>
+      </c>
+      <c r="F54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.008912655971479501</v>
+      </c>
+      <c r="F55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H55" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.01259181532004197</v>
+      </c>
+      <c r="F56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H56" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.02085747392815759</v>
+      </c>
+      <c r="F57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.02119700748129676</v>
+      </c>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H58" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.03293413173652695</v>
+      </c>
+      <c r="F59" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.01873767258382643</v>
+      </c>
+      <c r="F60" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H60" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="F61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.0338680926916221</v>
+      </c>
+      <c r="F62" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H62" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.02016129032258064</v>
+      </c>
+      <c r="F63" t="s">
+        <v>189</v>
+      </c>
+      <c r="G63">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H63" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.01717171717171717</v>
+      </c>
+      <c r="F64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H64" t="s">
+        <v>191</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.01219512195121951</v>
+      </c>
+      <c r="F65" t="s">
+        <v>189</v>
+      </c>
+      <c r="G65">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H65" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.01658986175115208</v>
+      </c>
+      <c r="F66" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H66" t="s">
+        <v>191</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.01348039215686275</v>
+      </c>
+      <c r="F67" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H67" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.01292307692307692</v>
+      </c>
+      <c r="F68" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H68" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.02785923753665689</v>
+      </c>
+      <c r="F69" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H69" t="s">
+        <v>191</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.02981029810298103</v>
+      </c>
+      <c r="F70" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H70" t="s">
+        <v>191</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.02105263157894737</v>
+      </c>
+      <c r="F71" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H71" t="s">
+        <v>192</v>
+      </c>
+      <c r="I71">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="F51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" t="s">
-        <v>110</v>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.01968826907301066</v>
+      </c>
+      <c r="F72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H72" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.02585034013605442</v>
+      </c>
+      <c r="F73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H73" t="s">
+        <v>191</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.00760043431053203</v>
+      </c>
+      <c r="F74" t="s">
+        <v>189</v>
+      </c>
+      <c r="G74">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H74" t="s">
+        <v>191</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.01286291804483646</v>
+      </c>
+      <c r="F75" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H75" t="s">
+        <v>191</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.0240174672489083</v>
+      </c>
+      <c r="F76" t="s">
+        <v>189</v>
+      </c>
+      <c r="G76">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H76" t="s">
+        <v>191</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.01696428571428571</v>
+      </c>
+      <c r="F77" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.009247027741083224</v>
+      </c>
+      <c r="F78" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H78" t="s">
+        <v>191</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.0145985401459854</v>
+      </c>
+      <c r="F79" t="s">
+        <v>189</v>
+      </c>
+      <c r="G79">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H79" t="s">
+        <v>191</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.02413793103448276</v>
+      </c>
+      <c r="F80" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.01282051282051282</v>
+      </c>
+      <c r="F81" t="s">
+        <v>189</v>
+      </c>
+      <c r="G81">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H81" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="F82" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H82" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.02844141069397042</v>
+      </c>
+      <c r="F83" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H83" t="s">
+        <v>191</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.02157164869029276</v>
+      </c>
+      <c r="F84" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H84" t="s">
+        <v>191</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.02196531791907514</v>
+      </c>
+      <c r="F85" t="s">
+        <v>189</v>
+      </c>
+      <c r="G85">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H85" t="s">
+        <v>191</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.02079395085066163</v>
+      </c>
+      <c r="F86" t="s">
+        <v>189</v>
+      </c>
+      <c r="G86">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H86" t="s">
+        <v>191</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.01596351197263398</v>
+      </c>
+      <c r="F87" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H87" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.01844532279314888</v>
+      </c>
+      <c r="F88" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H88" t="s">
+        <v>191</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.01867816091954023</v>
+      </c>
+      <c r="F89" t="s">
+        <v>189</v>
+      </c>
+      <c r="G89">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H89" t="s">
+        <v>191</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.01452282157676349</v>
+      </c>
+      <c r="F90" t="s">
+        <v>189</v>
+      </c>
+      <c r="G90">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H90" t="s">
+        <v>191</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.01162790697674419</v>
+      </c>
+      <c r="F91" t="s">
+        <v>189</v>
+      </c>
+      <c r="G91">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H91" t="s">
+        <v>191</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="F92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H92" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="196">
   <si>
     <t>Texto</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Sensacionalismo valorado</t>
   </si>
   <si>
+    <t>Resultado final</t>
+  </si>
+  <si>
+    <t>Deffuzy</t>
+  </si>
+  <si>
     <t>'Pneumonia silenciosa' que dificulta diagnóstico de casos graves de covid-19 intriga médicos 'Eles falavam no celular'.txt</t>
   </si>
   <si>
@@ -313,274 +319,274 @@
     <t>por que os humanos estão pegando mais doenças transmitidas por animais.txt</t>
   </si>
   <si>
-    <t>pneumologista, necropsias, göttingen, intrigados, entubados, —, surfactantes, sztajnbok, trombose, detectada, anticoagulantes, infectados, infectada, esfaqueamento, bellevue, gattinoni, fluídos, respirações, anestesiologista, covid, levitan, entubadas, oxímetros, jaques, gattoni</t>
-  </si>
-  <si>
-    <t>mamografias, emberton, invasiva, intervencionista, genômica, obtêm, cânceres, ucl, reimagine, sangramento, kings</t>
-  </si>
-  <si>
-    <t>tweeters, financiada, diseases, decit, coinfectado, questionamentos, fiocruz, coinfectados, downloads, hvd, viruses, contaminada, results, monoinfectados, renezika, visualizações, mcti, infectada, infectados, “, coinfection, bloomber, coinfecção, manejamento, chikungunya, fmt, nágila, secundino</t>
-  </si>
-  <si>
-    <t>cdts, liderados, fármacos, bmk, chikungunya, diseases, farmoquímica, neglected, bruning, ioc, blanver, fiocruz, chemotehrapy, ini, plos, sofosbuvir, idor</t>
-  </si>
-  <si>
-    <t>próteses, laringectomizados, suavozacbg, restabelecimento, acbg, reabilitados, vocais, fonatórias, fonatória</t>
-  </si>
-  <si>
-    <t>9v, prevalentes, pneumonias, fiocruz, neoprospecta, brgem, genômicas, biotecnologia, sorotipos, 18c, cepas, 19f, antipneumococos, funed, 19a, antimicrobianos, genoma, ioc, meningites, bacterianas, neurogenômica, 23f, pneumocócica, sequenciamento, biossistemas, sireva, genômica, 7f, 6b, pcv10</t>
-  </si>
-  <si>
-    <t>“, arakaki</t>
-  </si>
-  <si>
-    <t>geneticamente, r7, “, transgênicos, mers, particles, neutralizantes, sucedida, causador, imunogênica, covid, desenvolem, vlps, kalil, incor, fiocruz</t>
-  </si>
-  <si>
-    <t>hhp, financiada, unearthed, fazen, sumitomo, neocotinoides, —, bolsonaro, agroquímicas, iarc, agroquímicos, pesticides, highly, croplife, ciproconazol, internacionalmente, christoph, hhps, reconhecidamente, multinacionais, corteva, neumann, sygenta, tuncak, fmc, unhearted, syngenta, basf, baskut, contêm, carcinogênicos, glufosinato</t>
-  </si>
-  <si>
-    <t>nurofen, maudsley, covid, guys, nihr, benckiser, reckitt, biomédica, inflamatórios, nhs, kings</t>
-  </si>
-  <si>
-    <t>“, antoniosi, diagnosticada, reports</t>
+    <t>entubados, respirações, gattoni, fluídos, bellevue, gattinoni, sztajnbok, esfaqueamento, intrigados, anestesiologista, pneumologista, detectada, surfactantes, necropsias, infectada, —, göttingen, jaques, entubadas, infectados, trombose, anticoagulantes, oxímetros, covid, levitan</t>
+  </si>
+  <si>
+    <t>sangramento, obtêm, reimagine, mamografias, intervencionista, invasiva, emberton, cânceres, genômica, kings, ucl</t>
+  </si>
+  <si>
+    <t>secundino, coinfecção, coinfectado, fmt, coinfectados, mcti, viruses, visualizações, “, bloomber, diseases, monoinfectados, decit, nágila, renezika, fiocruz, infectada, tweeters, results, contaminada, downloads, coinfection, infectados, hvd, questionamentos, chikungunya, manejamento, financiada</t>
+  </si>
+  <si>
+    <t>sofosbuvir, blanver, farmoquímica, bruning, fiocruz, neglected, liderados, ioc, ini, chikungunya, fármacos, bmk, chemotehrapy, plos, diseases, idor, cdts</t>
+  </si>
+  <si>
+    <t>restabelecimento, laringectomizados, vocais, próteses, suavozacbg, fonatória, reabilitados, fonatórias, acbg</t>
+  </si>
+  <si>
+    <t>neoprospecta, biotecnologia, pcv10, meningites, bacterianas, pneumocócica, genômica, 18c, 23f, sireva, cepas, biossistemas, antipneumococos, brgem, neurogenômica, 7f, ioc, funed, antimicrobianos, pneumonias, sequenciamento, 9v, fiocruz, sorotipos, 19f, 19a, genoma, prevalentes, 6b, genômicas</t>
+  </si>
+  <si>
+    <t>arakaki, “</t>
+  </si>
+  <si>
+    <t>causador, sucedida, mers, r7, desenvolem, neutralizantes, kalil, particles, fiocruz, imunogênica, covid, “, vlps, incor, transgênicos, geneticamente</t>
+  </si>
+  <si>
+    <t>hhps, unearthed, neocotinoides, reconhecidamente, sygenta, baskut, pesticides, syngenta, fmc, internacionalmente, sumitomo, corteva, iarc, bolsonaro, highly, fazen, hhp, glufosinato, contêm, neumann, tuncak, —, multinacionais, agroquímicos, croplife, carcinogênicos, ciproconazol, basf, agroquímicas, christoph, unhearted, financiada</t>
+  </si>
+  <si>
+    <t>biomédica, nurofen, benckiser, covid, nhs, kings, inflamatórios, guys, nihr, maudsley, reckitt</t>
+  </si>
+  <si>
+    <t>antoniosi, reports, “, diagnosticada</t>
   </si>
   <si>
     <t>gratificante</t>
   </si>
   <si>
-    <t>1a, participantes, bmj, jama, covid, remdesivir, questionamentos, bolsonaro, soumya, swaminathan</t>
-  </si>
-  <si>
-    <t>longondo, eteni, moeti, infectadas, matshidiso, beni, contaminadas, contaminados, mbandaka, 11º, 1º, équateur, fluídos, congolesas</t>
-  </si>
-  <si>
-    <t>grvois, fauci, apidemia, indocumentados, —, tsai, cuomo, aterrorizante, diagnosticadas, distanciamento, ravi, tracking, kits, krys, sistêmicas, covid, enfrentamento, rubio, precocemente, detectados</t>
-  </si>
-  <si>
-    <t>infectada, infectados, —, mers, metrôs, infectadas</t>
-  </si>
-  <si>
-    <t>françois, gravemente, —, genoma, dorp, coautora, covid, cepas, infecciosidade, pontinhas, gisaid, ucl, balloux, genomas, d614g, alamos</t>
-  </si>
-  <si>
-    <t>alvejante, guayas, imunodeprimidas, marburg, incinerar, cortés, enfrentadas, covid, ​​no, cremados, acostumados, cremadas, eclodiu, merwin, funerais, pandêmica, terán</t>
-  </si>
-  <si>
-    <t>mycobacterium, ghebreyesus, tedros, infectadas, covid, letalidade, 1º, ecdc, adhanom</t>
-  </si>
-  <si>
-    <t>100mg, 1b, ruttonjee, 400mg, antivirais, liderados, —, síndromes, mers, participantes, yuen, shalhoub, observacionais, aleatoriamente, ribavirin, yung, diagnosticados, randomizado, interferons, covid, kwok, coautora, review</t>
-  </si>
-  <si>
-    <t>infectada, infectadas, vzv, investigadas, covid, hiperendêmico, antimaláricos, comumente</t>
-  </si>
-  <si>
-    <t>micronutrientes, inflamatória, macrófagos, imunossupressores, —, chebabbo, infectadas, linfonodos, neutrófilos, desinformação, granje, ingeridos, microbiota, renato, vilanizar, killers, imunologia, infectologista, •, covid, microrganismos, fagocitando, superssuplementando, autodestruir, gripes, antioxidantes</t>
+    <t>1a, participantes, remdesivir, questionamentos, bmj, covid, soumya, swaminathan, jama, bolsonaro</t>
+  </si>
+  <si>
+    <t>moeti, longondo, contaminados, matshidiso, fluídos, eteni, mbandaka, 11º, beni, contaminadas, congolesas, 1º, infectadas, équateur</t>
+  </si>
+  <si>
+    <t>distanciamento, krys, apidemia, rubio, detectados, aterrorizante, fauci, precocemente, diagnosticadas, kits, ravi, sistêmicas, —, enfrentamento, tsai, indocumentados, grvois, cuomo, covid, tracking</t>
+  </si>
+  <si>
+    <t>infectados, metrôs, infectada, —, mers, infectadas</t>
+  </si>
+  <si>
+    <t>pontinhas, gisaid, coautora, balloux, alamos, gravemente, infecciosidade, genoma, d614g, covid, dorp, —, cepas, françois, ucl, genomas</t>
+  </si>
+  <si>
+    <t>merwin, cremados, ​​no, guayas, acostumados, cremadas, incinerar, terán, cortés, covid, funerais, imunodeprimidas, alvejante, eclodiu, pandêmica, enfrentadas, marburg</t>
+  </si>
+  <si>
+    <t>mycobacterium, ecdc, ghebreyesus, covid, tedros, adhanom, 1º, infectadas, letalidade</t>
+  </si>
+  <si>
+    <t>ruttonjee, coautora, síndromes, ribavirin, kwok, diagnosticados, aleatoriamente, randomizado, 100mg, interferons, observacionais, 1b, antivirais, yuen, participantes, yung, —, mers, review, liderados, 400mg, covid, shalhoub</t>
+  </si>
+  <si>
+    <t>hiperendêmico, vzv, investigadas, antimaláricos, covid, comumente, infectada, infectadas</t>
+  </si>
+  <si>
+    <t>renato, microbiota, granje, vilanizar, infectadas, infectologista, autodestruir, imunologia, fagocitando, imunossupressores, chebabbo, ingeridos, antioxidantes, desinformação, inflamatória, superssuplementando, linfonodos, —, micronutrientes, neutrófilos, •, microrganismos, macrófagos, covid, gripes, killers</t>
   </si>
   <si>
     <t>—, reinfecção, covid, kerkhove</t>
   </si>
   <si>
-    <t>esteroides, —, participantes, veran, covid, guys, inflamatórios, mehta, mitul, kings</t>
-  </si>
-  <si>
-    <t>beto, notificados, felippe, massuda, historicamente, anvisa, fiocruz, imunizada, —, transmissibilidade, concomitantes, infectadas, letalidade, sorotipos, preocupante, infectada, périssé, criadouros, diagnosticados, cirurgias, chikungunya, covid, comportamentais, hipertenso, kits</t>
-  </si>
-  <si>
-    <t>veganos, pescetarianos, bloomberg, faidon, ​​e, enriquecidos, irreversíveis, cardiovasculares, springmann, b12, onívora, vegana, magkos, —, participantes, sustentabilidade, medawar, confiabilidade, rebholz, nutrientes, veganas, sangramento, bife, isquêmicos, contêm, mantêm, springman</t>
-  </si>
-  <si>
-    <t>sbi, sipni, imunizações, maternidades, sbp, ofertada, meníngea, opas, “, internacionalmente, gestores, ctai, imunologia, 1º, abrasco, febrasgo, sbim, precocemente, revacinadas</t>
-  </si>
-  <si>
-    <t>desconfortável, boechat, antecedida, cirurgias, assintomáticas, diagnóstica, ionizante, iff, fiocruz</t>
-  </si>
-  <si>
-    <t>—, sbpt, pneumologista, ultraprocessados, oncologista, diagnosticada, cancerígenas</t>
-  </si>
-  <si>
-    <t>adeylson, nardocci, c32, 1521110km2, subtipos, c34, cih, blanquet, conservantes, iarc, aih, research, nitritos, baquero, carcinogênica, causador, 10ª, capita, neoplasia, uicc, 10h, km2, papanicolaou, 16h, c33</t>
-  </si>
-  <si>
-    <t>kokum, “, brócolis, histonas, anticâncer, cânceres, biomédica, garcinol, focada, calcagno</t>
-  </si>
-  <si>
-    <t>e4, biobank, e3, covid, apoe, alzheimers</t>
-  </si>
-  <si>
-    <t>neurologic, malformations, desfechos, isc, diseases, lshtm, controls, enny, reports, fiocruz, microcefalia, cidacs, emerging</t>
-  </si>
-  <si>
-    <t>isc, b19, 500g, symtomatic, infectadas, enny, sinasc, sinan, fiocruz, cidacs</t>
-  </si>
-  <si>
-    <t>crapino, diagnosticados, idf, insulinas, sbd, strachan, roio, socioeconômicos, 9º, pediátrica, embaçada, cardiovasculares, vigitel, liberatore, glicosímetros</t>
-  </si>
-  <si>
-    <t>akkermansia, dento, inflamatória, microbiotas, fiocruz, akkemansia, enfrentados, microbiota, nutrientes, “, incapazes, autoimunes, muciniphila, antropométricos, sequenciamento, biossistemas, genômica, bioquímicos, communications, inflamatórios, prebióticos</t>
-  </si>
-  <si>
-    <t>imunossupressores, anticoagulantes, paroxística, hematopoiéticas, soliris, meningocógica, prevalentes, meningocócicas, acwy, sorotipos, eculizumabe, pcdt, meningococos, gestores, hpn, conitec, corticoides</t>
-  </si>
-  <si>
-    <t>porssível, resinifera, —, fapesp, melanocíticas, euphorbia, sistêmica, guilhotinada, resiniferatoxin, desobedientes, embranquecimento, mattar, inflamatórias, despigmentação, hsu, chieh</t>
-  </si>
-  <si>
-    <t>odm, infectada, diagnosticados, descontrole, “, isc, enny, sinasc, sinan, diagnosticada, incidentais, using, fiocruz, reports, cidacs, periodo, 1º, 10ª</t>
-  </si>
-  <si>
-    <t>genoma, indentificar, tencologias, genomes, wellcome, cânceres, contêm, genomas, precocemente</t>
-  </si>
-  <si>
-    <t>its, observations, decit, abad, fiocruz, opas, pncd, franch, results, perea, munícipio, socioeconômicos, fapeam, disseminated, pyriproxyfen, plos, epidemics, fvs, “, arbovirus, criadouros, chikungunya, bessa, disseminadora, deane, disseminadoras</t>
-  </si>
-  <si>
-    <t>precocemente, neutralizantes, subsidiaria, adaptive, a2, constatada, decode, —, participantes, infectadas, castello, cepas, distanciamento, islandesas, infectada, infectados, a1, islandesa, prestigiada, aleatoriamente, biofarmacêutica, sequenciamento, tatiana, capita, autoisolamento, haplótipos, preventivamente, biotechnologies, covid, islandeses, diagnosticada, assintomática, 1º, detectados, interpessoal</t>
-  </si>
-  <si>
-    <t>confidencialidade, infectados, mandeep, surgisphere, covid, amit, sapan, ruschitza, desai, mehra</t>
-  </si>
-  <si>
-    <t>comprovante, cards, notificados, ofertada</t>
-  </si>
-  <si>
-    <t>“, atinge, cística, diagnosticada, precocemente, nutrientes</t>
-  </si>
-  <si>
-    <t>obstrutiva, medrxiv, mineraram, cardiovasculares, ace2, nakaya, preprint, indexados, “, medline, comorbidades, epigenéticos, causador, fcf, transcritoma, transcritomas, covid, rab1a, helder</t>
-  </si>
-  <si>
-    <t>hemofilias, inibidores, conitec, hemcibra®, aloanticorpos, profilaxias, endovenosa, emicizumabe, hemovida, cadastrados, sangramento, recombinante</t>
-  </si>
-  <si>
-    <t>sobrepeso, —, bmj, participantes, diagnosticadas, hu, cardiovasculares, prevenidos, research</t>
-  </si>
-  <si>
-    <t>lisossomos, diagnosticados, geneticamente, —, desacelerar, preventivamente, diagnosticadas, cedars, ipscs, satisfatoriamente, detectadas, dopamina, svendsen, dopaminérgicos</t>
-  </si>
-  <si>
-    <t>secundariamente, 1b, 20mg, embaçada, 05mg, ofertados, 1a, autolimitados, remitentes, sáude, primariamente, empp, especializadae, emsp, cadastrados, fingolimode, diagnosticados, mcg, emrr, ceaf, sas</t>
-  </si>
-  <si>
-    <t>“, croda, notificados, epizootias, ofertada</t>
-  </si>
-  <si>
-    <t>hospitalizações, “, dsei, h3n2, vulnerabilidade, pdm09, covid, h1n1, aldeados, imunizados</t>
-  </si>
-  <si>
-    <t>audioconferência, fvs, notificados, d8, enfrentamento, gestores, episus, kits, ofertada, capacitações</t>
-  </si>
-  <si>
-    <t>pediátricos, covid, enfrentamento, subsidiarão, gestores</t>
-  </si>
-  <si>
-    <t>pcap, saude, entrevistados, “, veiculadas, sachês, foliões, estabilizada, mandetta, mandeta, dolutegravir, educativas</t>
-  </si>
-  <si>
-    <t>“, cobradores, subtipagem, caminhoneiros, 2ª, contracheque, vulnerabilidade, covid, francielli, inativado, socioeducativas, h3n2, fontana, 3ª, h1n1, srag, 1ª, subtipado</t>
-  </si>
-  <si>
-    <t>infectados, autossustentável, “, nisia, solturas, biomas, chikungunya, atinge, mandetta, atingem, cubango, saúdeluiz, wolbachia, promissora, wmp, fiocruz, institutes</t>
-  </si>
-  <si>
-    <t>biobanco, necropsia, sistêmicas, fmusp, saldiva, necropsias, covid, vulnerabilidade, assintomática, investigada, h1n1</t>
-  </si>
-  <si>
-    <t>crispr, deletado, oneill, questionamentos, editors, transtornos, geneticamente, —, cas9, editing, escaneia, reversam, talassemias, bioquímico, liu, tay, ctrl, lovell, crtl</t>
-  </si>
-  <si>
-    <t>coletada, “, fmusp, agressividade, prostática, espectrometria, glicoproteínas, bioquímicos, palmisano, icb, coautora</t>
-  </si>
-  <si>
-    <t>permancem, sorológicos, diagnosticadas, infectadas, aerossóis, assintomático, detectados, équateur, infectados, atinge, sangramentos, figado, infectologista, cuidadores, covid, contaminadas, letalidade, mbandaka, gorinchteyn</t>
-  </si>
-  <si>
-    <t>imunodiagnóstico, reagem, falsamente, neutralizantes, infectadas, covid, imunodiagnósticos, confiabilidade, recuperados, conseqüências</t>
-  </si>
-  <si>
-    <t>oncologistas, ​​pelo, —, encorajador, participantes, espermatozoides, diagnosticadas, oncologista, descontrolada, marsden, cancerígenas, expulsos, pembrolizumabe, melanomas, nhs, tumorais, research</t>
-  </si>
-  <si>
-    <t>toc, mamografias, —, antibacterianas, halicina, barzilay, bioengenheiro</t>
-  </si>
-  <si>
-    <t>sobrepeso, siu, products, taurina, kantar, anvisa, antitabaco, cardiovasculares, incor, kalil, cristini, motivador, efsa, chemicals, arritmias, —, refrigerantes, potencializados, jama, nutrizes, ingeridos, cisa, propagandeados, vitalidade, hipertensivos, hcfmusp, sobretaxados, ingerida, macronutrientes, 250ml, regulações, ultraprocessados, irritabilidade, aprimoradas, ultraprocessado, ingeridas</t>
-  </si>
-  <si>
-    <t>substancialmente, jyrkia, micronutrientes, gregor, enriquecidas, enriquecidos, b12, virtanen, alamy, participantes, givens, desmame, majdic, research, nutrientes, ordenhadas, caseína, filhotes, genômica, contêm, alfarroba, gelana</t>
-  </si>
-  <si>
-    <t>drasticamente, acostumada, notificados, cim, historicamente, imunizadas, fiocruz, idealizadora, —, sorotipos, infectada, atinge, valle, ioc, criadouros, tharine, entrevistados, estruturadas, chicungunha, hiperendêmico, comportamentais</t>
-  </si>
-  <si>
-    <t>pcdts, mórquio, mucopolissacaridoses, cardiovasculares, ofertados, gastrointestinais, maroteaux, alfaelosulfase, lamy, conitec, galsulfase, idursulfase, desalinhamento, contraturas, bilaterações, fármacos, cirurgias, bioquímicos, mps</t>
-  </si>
-  <si>
-    <t>ghebreyesus, —, planejadas, tedros, covid, investigados, cardiovasculares, dcnts, 1º, coletadas, adhanom</t>
-  </si>
-  <si>
-    <t>imunossupressores, maxivax, biotecnologia, estimulador</t>
-  </si>
-  <si>
-    <t>tramento, sobrevida, abia, gadelha, onilotinibe, lla, servidora, nutrientes, osmarina, “, leucemias, internacionalmente, oncológica, socioeconômicas, locorregionalmente, diagnosticados, entrevistados, oncológicas, linfoblástica, cromossoma, cirurgias, uicc, cuidadores, diagnosticada</t>
-  </si>
-  <si>
-    <t>poluentes, imortalizadas, buckeridge, dndi, infectadas, fenotípica, lygia, negligenciadas, cardiomiócitos, “, jadel, causador, icb, trypanosoma, kratz, pluripotentes, fármacos, covid, translacionais</t>
-  </si>
-  <si>
-    <t>capacitações, revisados, antiescorpiônico, transportadoras, escorpiônicos, piloereção, hortifrutigranjeiros</t>
-  </si>
-  <si>
-    <t>apoiam, bergamo, pneumologista, pandemias, imunizadas, anvisa, sbv, h1n1, antivirais, —, transmissibilidade, mers, triagens, assintomáticas, infectadas, kerkhove, remdesivir, bolsonaro, spilki, distanciamento, infectada, implemetaram, balassiano, desacelerando, aseguir, utis, aylward, virologistas, hidroxocloroquina, respirador, infectologistas, virologista, covid, drugs, letalidade</t>
-  </si>
-  <si>
-    <t>notificados, hospitalizações, propensão, covid, retomada, sivep, gestores, infogripe, h1n1, distanciamento, srag</t>
-  </si>
-  <si>
-    <t>gats, cetab, luiza, fiocruz, apoiem, vinayak, mpower, prasad, narguilés, vigitel, antitabagismo, 7º, “, embalagens, cqct, 42ª, mohan, 7ª, preconizadas</t>
-  </si>
-  <si>
-    <t>“, croda, preconizada, imunizações, focada, 1º, preocupante</t>
-  </si>
-  <si>
-    <t>cirurgias, antigiogênico, invasiva, precocemente, pcdt, dmri, crosslinking, faec, ofertados, credenciados</t>
-  </si>
-  <si>
-    <t>onilotinibe, oncológicas, linfoblástica, cromossoma, cacon, cirurgias, quimioterápicos, ofertados, locorregionalmente, crcc, unacon, conitec, credenciados, ofertadas</t>
-  </si>
-  <si>
-    <t>prisionais, covid, economicamente, artesanalmente</t>
+    <t>esteroides, mehta, participantes, mitul, veran, kings, covid, inflamatórios, guys, —</t>
+  </si>
+  <si>
+    <t>felippe, beto, massuda, transmissibilidade, infectadas, historicamente, hipertenso, cirurgias, anvisa, preocupante, diagnosticados, périssé, imunizada, comportamentais, criadouros, concomitantes, kits, fiocruz, sorotipos, infectada, —, notificados, covid, chikungunya, letalidade</t>
+  </si>
+  <si>
+    <t>nutrientes, ​​e, enriquecidos, bife, springman, pescetarianos, veganas, sangramento, bloomberg, mantêm, magkos, faidon, b12, participantes, contêm, vegana, isquêmicos, —, rebholz, confiabilidade, irreversíveis, veganos, springmann, cardiovasculares, medawar, sustentabilidade, onívora</t>
+  </si>
+  <si>
+    <t>ofertada, ctai, sbi, maternidades, revacinadas, internacionalmente, meníngea, imunizações, sipni, sbim, imunologia, precocemente, sbp, “, gestores, 1º, opas, abrasco, febrasgo</t>
+  </si>
+  <si>
+    <t>iff, diagnóstica, cirurgias, ionizante, antecedida, fiocruz, assintomáticas, desconfortável, boechat</t>
+  </si>
+  <si>
+    <t>sbpt, ultraprocessados, pneumologista, cancerígenas, oncologista, diagnosticada, —</t>
+  </si>
+  <si>
+    <t>c33, c34, neoplasia, adeylson, c32, 10h, carcinogênica, causador, cih, nardocci, baquero, subtipos, iarc, papanicolaou, 10ª, nitritos, research, km2, blanquet, uicc, 1521110km2, capita, conservantes, 16h, aih</t>
+  </si>
+  <si>
+    <t>histonas, biomédica, kokum, cânceres, brócolis, “, calcagno, garcinol, focada, anticâncer</t>
+  </si>
+  <si>
+    <t>e4, e3, alzheimers, covid, apoe, biobank</t>
+  </si>
+  <si>
+    <t>malformations, microcefalia, reports, isc, cidacs, fiocruz, controls, lshtm, neurologic, emerging, desfechos, diseases, enny</t>
+  </si>
+  <si>
+    <t>b19, sinasc, symtomatic, fiocruz, cidacs, isc, sinan, 500g, enny, infectadas</t>
+  </si>
+  <si>
+    <t>vigitel, roio, glicosímetros, diagnosticados, pediátrica, liberatore, crapino, embaçada, cardiovasculares, idf, 9º, strachan, socioeconômicos, insulinas, sbd</t>
+  </si>
+  <si>
+    <t>microbiotas, nutrientes, enfrentados, genômica, microbiota, inflamatórios, biossistemas, muciniphila, akkermansia, dento, “, antropométricos, incapazes, sequenciamento, prebióticos, fiocruz, inflamatória, autoimunes, akkemansia, communications, bioquímicos</t>
+  </si>
+  <si>
+    <t>meningocógica, paroxística, acwy, corticoides, anticoagulantes, prevalentes, meningocócicas, hematopoiéticas, soliris, conitec, sorotipos, gestores, hpn, imunossupressores, pcdt, eculizumabe, meningococos</t>
+  </si>
+  <si>
+    <t>euphorbia, fapesp, chieh, embranquecimento, sistêmica, resinifera, desobedientes, inflamatórias, guilhotinada, mattar, despigmentação, porssível, —, melanocíticas, hsu, resiniferatoxin</t>
+  </si>
+  <si>
+    <t>incidentais, diagnosticada, descontrole, diagnosticados, periodo, sinasc, odm, reports, fiocruz, cidacs, isc, sinan, infectada, enny, using, “, 1º, 10ª</t>
+  </si>
+  <si>
+    <t>genomes, genoma, contêm, tencologias, cânceres, precocemente, wellcome, genomas, indentificar</t>
+  </si>
+  <si>
+    <t>observations, perea, disseminadoras, disseminadora, fvs, abad, deane, franch, “, criadouros, arbovirus, decit, epidemics, fapeam, fiocruz, disseminated, bessa, results, opas, plos, socioeconômicos, its, munícipio, pncd, pyriproxyfen, chikungunya</t>
+  </si>
+  <si>
+    <t>interpessoal, distanciamento, cepas, infectadas, biofarmacêutica, detectados, aleatoriamente, castello, islandeses, neutralizantes, a1, precocemente, islandesas, islandesa, 1º, biotechnologies, a2, constatada, sequenciamento, participantes, infectada, diagnosticada, —, subsidiaria, infectados, capita, decode, haplótipos, tatiana, adaptive, covid, prestigiada, preventivamente, assintomática, autoisolamento</t>
+  </si>
+  <si>
+    <t>mehra, confidencialidade, sapan, ruschitza, desai, infectados, amit, surgisphere, covid, mandeep</t>
+  </si>
+  <si>
+    <t>notificados, ofertada, cards, comprovante</t>
+  </si>
+  <si>
+    <t>nutrientes, precocemente, cística, “, diagnosticada, atinge</t>
+  </si>
+  <si>
+    <t>nakaya, epigenéticos, causador, medline, ace2, fcf, rab1a, helder, “, obstrutiva, medrxiv, comorbidades, mineraram, indexados, transcritomas, transcritoma, covid, cardiovasculares, preprint</t>
+  </si>
+  <si>
+    <t>sangramento, emicizumabe, aloanticorpos, hemofilias, hemovida, hemcibra®, inibidores, profilaxias, recombinante, conitec, endovenosa, cadastrados</t>
+  </si>
+  <si>
+    <t>hu, participantes, bmj, sobrepeso, research, cardiovasculares, —, diagnosticadas, prevenidos</t>
+  </si>
+  <si>
+    <t>desacelerar, satisfatoriamente, diagnosticados, ipscs, dopamina, dopaminérgicos, detectadas, lisossomos, cedars, svendsen, preventivamente, geneticamente, —, diagnosticadas</t>
+  </si>
+  <si>
+    <t>embaçada, ofertados, remitentes, diagnosticados, 05mg, sáude, mcg, cadastrados, emsp, 1b, 20mg, emrr, primariamente, secundariamente, sas, 1a, ceaf, autolimitados, especializadae, empp, fingolimode</t>
+  </si>
+  <si>
+    <t>ofertada, epizootias, notificados, croda, “</t>
+  </si>
+  <si>
+    <t>h1n1, aldeados, imunizados, h3n2, vulnerabilidade, covid, “, hospitalizações, dsei, pdm09</t>
+  </si>
+  <si>
+    <t>ofertada, kits, episus, capacitações, audioconferência, notificados, gestores, d8, enfrentamento, fvs</t>
+  </si>
+  <si>
+    <t>subsidiarão, covid, gestores, enfrentamento, pediátricos</t>
+  </si>
+  <si>
+    <t>veiculadas, mandeta, mandetta, saude, foliões, educativas, dolutegravir, sachês, “, entrevistados, pcap, estabilizada</t>
+  </si>
+  <si>
+    <t>caminhoneiros, fontana, subtipado, 1ª, h1n1, contracheque, subtipagem, h3n2, srag, vulnerabilidade, socioeducativas, covid, 2ª, “, inativado, 3ª, cobradores, francielli</t>
+  </si>
+  <si>
+    <t>nisia, mandetta, promissora, infectados, cubango, wmp, biomas, autossustentável, fiocruz, solturas, institutes, atingem, chikungunya, saúdeluiz, “, atinge, wolbachia</t>
+  </si>
+  <si>
+    <t>investigada, h1n1, vulnerabilidade, necropsia, biobanco, covid, sistêmicas, necropsias, assintomática, fmusp, saldiva</t>
+  </si>
+  <si>
+    <t>ctrl, deletado, crtl, tay, oneill, cas9, editing, lovell, editors, crispr, reversam, escaneia, liu, transtornos, geneticamente, —, questionamentos, bioquímico, talassemias</t>
+  </si>
+  <si>
+    <t>prostática, icb, coautora, palmisano, espectrometria, coletada, bioquímicos, glicoproteínas, “, fmusp, agressividade</t>
+  </si>
+  <si>
+    <t>sangramentos, sorológicos, gorinchteyn, permancem, atinge, infectadas, infectologista, detectados, figado, cuidadores, diagnosticadas, mbandaka, contaminadas, assintomático, équateur, infectados, covid, aerossóis, letalidade</t>
+  </si>
+  <si>
+    <t>confiabilidade, falsamente, neutralizantes, recuperados, covid, imunodiagnósticos, imunodiagnóstico, conseqüências, infectadas, reagem</t>
+  </si>
+  <si>
+    <t>oncologistas, pembrolizumabe, cancerígenas, expulsos, descontrolada, participantes, encorajador, research, oncologista, tumorais, diagnosticadas, espermatozoides, nhs, ​​pelo, —, marsden, melanomas</t>
+  </si>
+  <si>
+    <t>antibacterianas, mamografias, bioengenheiro, toc, —, halicina, barzilay</t>
+  </si>
+  <si>
+    <t>250ml, jama, antitabaco, kalil, products, macronutrientes, regulações, nutrizes, ingerida, ultraprocessados, aprimoradas, anvisa, potencializados, propagandeados, efsa, arritmias, hcfmusp, sobretaxados, ingeridos, ingeridas, irritabilidade, refrigerantes, cristini, vitalidade, cisa, —, incor, ultraprocessado, siu, taurina, sobrepeso, motivador, cardiovasculares, hipertensivos, chemicals, kantar</t>
+  </si>
+  <si>
+    <t>nutrientes, desmame, enriquecidos, majdic, genômica, alamy, substancialmente, gregor, alfarroba, virtanen, gelana, filhotes, b12, enriquecidas, ordenhadas, participantes, contêm, jyrkia, research, givens, micronutrientes, caseína</t>
+  </si>
+  <si>
+    <t>drasticamente, estruturadas, atinge, historicamente, cim, ioc, comportamentais, criadouros, idealizadora, hiperendêmico, fiocruz, imunizadas, acostumada, sorotipos, entrevistados, infectada, —, tharine, chicungunha, notificados, valle</t>
+  </si>
+  <si>
+    <t>alfaelosulfase, gastrointestinais, galsulfase, conitec, ofertados, cirurgias, contraturas, fármacos, bilaterações, pcdts, mucopolissacaridoses, maroteaux, mps, desalinhamento, idursulfase, mórquio, bioquímicos, cardiovasculares, lamy</t>
+  </si>
+  <si>
+    <t>coletadas, dcnts, ghebreyesus, —, cardiovasculares, covid, planejadas, investigados, tedros, adhanom, 1º</t>
+  </si>
+  <si>
+    <t>biotecnologia, maxivax, estimulador, imunossupressores</t>
+  </si>
+  <si>
+    <t>nutrientes, oncológicas, tramento, socioeconômicas, internacionalmente, locorregionalmente, cirurgias, leucemias, diagnosticados, “, cuidadores, onilotinibe, osmarina, servidora, lla, entrevistados, diagnosticada, linfoblástica, gadelha, uicc, cromossoma, oncológica, abia, sobrevida</t>
+  </si>
+  <si>
+    <t>pluripotentes, translacionais, trypanosoma, negligenciadas, infectadas, causador, kratz, jadel, fármacos, cardiomiócitos, “, buckeridge, icb, poluentes, imortalizadas, covid, lygia, fenotípica, dndi</t>
+  </si>
+  <si>
+    <t>piloereção, escorpiônicos, hortifrutigranjeiros, antiescorpiônico, capacitações, transportadoras, revisados</t>
+  </si>
+  <si>
+    <t>distanciamento, aseguir, transmissibilidade, infectadas, anvisa, respirador, aylward, assintomáticas, desacelerando, bolsonaro, bergamo, hidroxocloroquina, h1n1, pneumologista, antivirais, implemetaram, sbv, utis, balassiano, pandemias, infectologistas, imunizadas, infectada, triagens, —, drugs, mers, apoiam, virologistas, kerkhove, remdesivir, covid, virologista, spilki, letalidade</t>
+  </si>
+  <si>
+    <t>h1n1, srag, distanciamento, infogripe, notificados, covid, gestores, retomada, hospitalizações, propensão, sivep</t>
+  </si>
+  <si>
+    <t>vigitel, gats, 42ª, mohan, vinayak, 7ª, “, luiza, prasad, apoiem, preconizadas, fiocruz, narguilés, mpower, 7º, embalagens, antitabagismo, cqct, cetab</t>
+  </si>
+  <si>
+    <t>imunizações, preocupante, croda, preconizada, “, 1º, focada</t>
+  </si>
+  <si>
+    <t>cirurgias, antigiogênico, dmri, invasiva, faec, precocemente, crosslinking, ofertados, credenciados, pcdt</t>
+  </si>
+  <si>
+    <t>locorregionalmente, quimioterápicos, cirurgias, linfoblástica, oncológicas, cacon, cromossoma, unacon, conitec, ofertadas, ofertados, credenciados, onilotinibe, crcc</t>
+  </si>
+  <si>
+    <t>prisionais, economicamente, artesanalmente, covid</t>
   </si>
   <si>
     <t>possivel</t>
   </si>
   <si>
-    <t>bergamo, pims, whittaker, inflamatória, ts, —, pediátricas, cuomo, verdoni, infectadas, diagnosticadas, pediátrica, multissistêmica, impactada, imunologia, utis, nhs, diagnosticados, covid, ​​explicar, cvid, viner, levin, assintomática, detectados</t>
-  </si>
-  <si>
-    <t>fhdf, hipoglicemia, ses, sbd, uendo, pedrosa, promissores, pecd, hrt, heberprot®, fiocruz, 4º, hermelinda, recombinante</t>
-  </si>
-  <si>
-    <t>supressores, anvisa, gmp, pp53, constanzi, quimioterápicos, “, bicistrônico, cancerígenas, icb, cdkn2a, tumorais, experimentaisa, editada, cancerígenos, p53, aprimoradas, glioblastomas, gênica</t>
-  </si>
-  <si>
-    <t>drasticamente, —, encorajador, microlitro, covid, guys, interage, interleucina, hayday, shankar, kings</t>
-  </si>
-  <si>
-    <t>odm, diagnosticados, unitaid, 3hp, fragilizado, aurum, marmora, mandetta, imunossupressoras, impaact4tb, enfrentamento, lelio, sanofi, conitec</t>
-  </si>
-  <si>
-    <t>polymerase, completoo, reaction, imunoabsorção, covid, linked, fapemig, anvisa, immunosorbent, pequisadores, viroses, fiocruz, funed, santuza</t>
-  </si>
-  <si>
-    <t>respirador, virologistas, zoonoses, carrington, infectados, bamford, wolfson, ncov, wellcome, respiradores, mantêm, nhs, coletadas</t>
-  </si>
-  <si>
-    <t>gante, infectada, delisa, —, nanocorpos, mers, reagem, alpacas, covid, promissores, wrapp, biotecnología, camelídeos, nanocorpo</t>
-  </si>
-  <si>
-    <t>guaxinins, chatham, sucedidas, infectadas, migrantes, pandemias, desestabilizam, aviária, investigados, interagem, civetas, contaminados, coronovírus, preocupante</t>
+    <t>viner, pims, whittaker, infectadas, ​​explicar, detectados, diagnosticados, pediátrica, imunologia, verdoni, diagnosticadas, bergamo, utis, ts, inflamatória, cvid, impactada, —, multissistêmica, levin, cuomo, covid, nhs, pediátricas, assintomática</t>
+  </si>
+  <si>
+    <t>ses, hermelinda, hrt, pecd, pedrosa, uendo, fiocruz, 4º, recombinante, heberprot®, promissores, fhdf, sbd, hipoglicemia</t>
+  </si>
+  <si>
+    <t>pp53, quimioterápicos, glioblastomas, aprimoradas, anvisa, experimentaisa, tumorais, “, cdkn2a, cancerígenas, bicistrônico, cancerígenos, p53, editada, icb, gênica, gmp, supressores, constanzi</t>
+  </si>
+  <si>
+    <t>microlitro, shankar, interleucina, encorajador, hayday, interage, covid, kings, drasticamente, guys, —</t>
+  </si>
+  <si>
+    <t>mandetta, unitaid, diagnosticados, sanofi, odm, fragilizado, impaact4tb, 3hp, conitec, lelio, marmora, imunossupressoras, enfrentamento, aurum</t>
+  </si>
+  <si>
+    <t>imunoabsorção, anvisa, reaction, immunosorbent, polymerase, fiocruz, pequisadores, viroses, covid, santuza, fapemig, linked, funed, completoo</t>
+  </si>
+  <si>
+    <t>bamford, carrington, respiradores, respirador, ncov, coletadas, infectados, wellcome, wolfson, nhs, zoonoses, mantêm, virologistas</t>
+  </si>
+  <si>
+    <t>nanocorpo, camelídeos, delisa, nanocorpos, biotecnología, —, covid, wrapp, alpacas, infectada, promissores, mers, reagem, gante</t>
+  </si>
+  <si>
+    <t>desestabilizam, coronovírus, sucedidas, migrantes, preocupante, pandemias, civetas, guaxinins, chatham, aviária, interagem, investigados, contaminados, infectadas</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
@@ -931,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,9 +952,11 @@
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,347 +984,353 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>0.0173973556019485</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G2">
         <v>0.6410256410256411</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1">
         <v>0.01458885941644562</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G3">
         <v>0.6410256410256411</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
         <v>0.03669724770642202</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G4">
         <v>0.6410256410256411</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1">
         <v>0.06538461538461539</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <v>0.6410256410256411</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>0.01982378854625551</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G6">
         <v>0.6410256410256411</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1">
         <v>0.08695652173913043</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G7">
         <v>0.6410256410256411</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1">
         <v>0.0035650623885918</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8">
         <v>0.6410256410256411</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1">
         <v>0.01934703748488513</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G9">
         <v>0.6410256410256411</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1">
         <v>0.03059273422562141</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G10">
         <v>0.6410256410256411</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
         <v>0.04803493449781659</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G11">
         <v>0.6410256410256411</v>
       </c>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1">
         <v>0.009900990099009901</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G12">
         <v>0.6410256410256411</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1">
         <v>0.005494505494505495</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G13">
         <v>0.6410256410256411</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1">
         <v>0.01408450704225352</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14">
         <v>0.6410256410256411</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1">
         <v>0.03943661971830986</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G15">
         <v>0.6410256410256411</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1">
         <v>0.01426533523537803</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G16">
         <v>0.6410256410256411</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1324,22 +1338,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1">
         <v>0.02197802197802198</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G17">
         <v>0.6410256410256411</v>
       </c>
       <c r="H17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1347,22 +1361,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1">
         <v>0.03071017274472169</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G18">
         <v>0.6410256410256411</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1370,22 +1384,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1">
         <v>0.01985981308411215</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G19">
         <v>0.6410256410256411</v>
       </c>
       <c r="H19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1393,22 +1407,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1">
         <v>0.01345291479820628</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G20">
         <v>0.6410256410256411</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1416,22 +1430,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1">
         <v>0.02459893048128342</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G21">
         <v>0.6410256410256411</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1439,22 +1453,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1">
         <v>0.01098901098901099</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G22">
         <v>0.6410256410256411</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1462,22 +1476,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1">
         <v>0.01383714741883981</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G23">
         <v>0.6410256410256411</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1485,22 +1499,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1">
         <v>0.0111731843575419</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G24">
         <v>0.6410256410256411</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1508,22 +1522,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1">
         <v>0.03076923076923077</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G25">
         <v>0.6410256410256411</v>
       </c>
       <c r="H25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1531,22 +1545,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1">
         <v>0.01349892008639309</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G26">
         <v>0.6410256410256411</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1554,22 +1568,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>0.0157251019219569</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G27">
         <v>0.6410256410256411</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1577,22 +1591,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1">
         <v>0.03006329113924051</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G28">
         <v>0.6410256410256411</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1600,22 +1614,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1">
         <v>0.01181102362204724</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G29">
         <v>0.6410256410256411</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1623,22 +1637,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1">
         <v>0.008695652173913044</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G30">
         <v>0.6410256410256411</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1646,22 +1660,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1">
         <v>0.02129471890971039</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G31">
         <v>0.6410256410256411</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1669,22 +1683,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1">
         <v>0.05</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G32">
         <v>0.6410256410256411</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -1692,22 +1706,22 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1">
         <v>0.01769911504424779</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G33">
         <v>0.6410256410256411</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1715,22 +1729,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C34" s="1">
         <v>0.0268041237113402</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G34">
         <v>0.6410256410256411</v>
       </c>
       <c r="H34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1738,22 +1752,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1">
         <v>0.01858736059479554</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35">
         <v>0.6410256410256411</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1761,22 +1775,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1">
         <v>0.008493771234428085</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G36">
         <v>0.6410256410256411</v>
       </c>
       <c r="H36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1784,22 +1798,22 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1">
         <v>0.03286384976525822</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G37">
         <v>0.6410256410256411</v>
       </c>
       <c r="H37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1807,22 +1821,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C38" s="1">
         <v>0.03373015873015873</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G38">
         <v>0.6410256410256411</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1830,22 +1844,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1">
         <v>0.0218281036834925</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G39">
         <v>0.6410256410256411</v>
       </c>
       <c r="H39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1853,22 +1867,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1">
         <v>0.02298850574712644</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G40">
         <v>0.6410256410256411</v>
       </c>
       <c r="H40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1876,22 +1890,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
         <v>0.01914893617021277</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G41">
         <v>0.6410256410256411</v>
       </c>
       <c r="H41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1899,22 +1913,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1">
         <v>0.03480589022757698</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G42">
         <v>0.6410256410256411</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1922,22 +1936,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1">
         <v>0.02619760479041916</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G43">
         <v>0.6410256410256411</v>
       </c>
       <c r="H43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1945,22 +1959,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1">
         <v>0.02105263157894737</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G44">
         <v>0.6410256410256411</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1968,22 +1982,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1">
         <v>0.008583690987124463</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G45">
         <v>0.6410256410256411</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -1991,22 +2005,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1">
         <v>0.01234567901234568</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G46">
         <v>0.6410256410256411</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2014,22 +2028,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1">
         <v>0.02331288343558282</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G47">
         <v>0.6410256410256411</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2037,22 +2051,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C48" s="1">
         <v>0.01957585644371941</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G48">
         <v>0.6410256410256411</v>
       </c>
       <c r="H48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2060,22 +2074,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1">
         <v>0.01451612903225807</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G49">
         <v>0.6410256410256411</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2083,22 +2097,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C50" s="1">
         <v>0.02491103202846975</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G50">
         <v>0.6410256410256411</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2106,22 +2120,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1">
         <v>0.03697183098591549</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G51">
         <v>0.6410256410256411</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2129,22 +2143,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C52" s="1">
         <v>0.007507507507507507</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G52">
         <v>0.6410256410256411</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2152,22 +2166,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1">
         <v>0.03875968992248062</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G53">
         <v>0.6410256410256411</v>
       </c>
       <c r="H53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2175,22 +2189,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1">
         <v>0.01700680272108844</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G54">
         <v>0.6410256410256411</v>
       </c>
       <c r="H54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2198,22 +2212,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1">
         <v>0.008912655971479501</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G55">
         <v>0.6410256410256411</v>
       </c>
       <c r="H55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2221,22 +2235,22 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C56" s="1">
         <v>0.01259181532004197</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G56">
         <v>0.6410256410256411</v>
       </c>
       <c r="H56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -2244,22 +2258,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1">
         <v>0.02085747392815759</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G57">
         <v>0.6410256410256411</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -2267,22 +2281,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1">
         <v>0.02119700748129676</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G58">
         <v>0.6410256410256411</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2290,22 +2304,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C59" s="1">
         <v>0.03293413173652695</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G59">
         <v>0.6410256410256411</v>
       </c>
       <c r="H59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -2313,22 +2327,22 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C60" s="1">
         <v>0.01873767258382643</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G60">
         <v>0.6410256410256411</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -2336,22 +2350,22 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1">
         <v>0.01639344262295082</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G61">
         <v>0.6410256410256411</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2359,22 +2373,22 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1">
         <v>0.0338680926916221</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G62">
         <v>0.6410256410256411</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -2382,22 +2396,22 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1">
         <v>0.02016129032258064</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G63">
         <v>0.6410256410256411</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -2405,22 +2419,22 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C64" s="1">
         <v>0.01717171717171717</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G64">
         <v>0.6410256410256411</v>
       </c>
       <c r="H64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2428,22 +2442,22 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C65" s="1">
         <v>0.01219512195121951</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G65">
         <v>0.6410256410256411</v>
       </c>
       <c r="H65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2451,22 +2465,22 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C66" s="1">
         <v>0.01658986175115208</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G66">
         <v>0.6410256410256411</v>
       </c>
       <c r="H66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2474,22 +2488,22 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C67" s="1">
         <v>0.01348039215686275</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G67">
         <v>0.6410256410256411</v>
       </c>
       <c r="H67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2497,22 +2511,22 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C68" s="1">
         <v>0.01292307692307692</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G68">
         <v>0.6410256410256411</v>
       </c>
       <c r="H68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -2520,22 +2534,22 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C69" s="1">
         <v>0.02785923753665689</v>
       </c>
       <c r="F69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G69">
         <v>0.6410256410256411</v>
       </c>
       <c r="H69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2543,22 +2557,22 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C70" s="1">
         <v>0.02981029810298103</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G70">
         <v>0.6410256410256411</v>
       </c>
       <c r="H70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2566,22 +2580,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C71" s="1">
         <v>0.02105263157894737</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G71">
         <v>0.6410256410256411</v>
       </c>
       <c r="H71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I71">
         <v>-1</v>
@@ -2589,22 +2603,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1">
         <v>0.01968826907301066</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G72">
         <v>0.6410256410256411</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -2612,22 +2626,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C73" s="1">
         <v>0.02585034013605442</v>
       </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G73">
         <v>0.6410256410256411</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2635,22 +2649,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C74" s="1">
         <v>0.00760043431053203</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G74">
         <v>0.6410256410256411</v>
       </c>
       <c r="H74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -2658,22 +2672,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C75" s="1">
         <v>0.01286291804483646</v>
       </c>
       <c r="F75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G75">
         <v>0.6410256410256411</v>
       </c>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2681,22 +2695,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C76" s="1">
         <v>0.0240174672489083</v>
       </c>
       <c r="F76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G76">
         <v>0.6410256410256411</v>
       </c>
       <c r="H76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2704,22 +2718,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1">
         <v>0.01696428571428571</v>
       </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G77">
         <v>0.6410256410256411</v>
       </c>
       <c r="H77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -2727,22 +2741,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C78" s="1">
         <v>0.009247027741083224</v>
       </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G78">
         <v>0.6410256410256411</v>
       </c>
       <c r="H78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -2750,22 +2764,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C79" s="1">
         <v>0.0145985401459854</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G79">
         <v>0.6410256410256411</v>
       </c>
       <c r="H79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -2773,22 +2787,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C80" s="1">
         <v>0.02413793103448276</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G80">
         <v>0.6410256410256411</v>
       </c>
       <c r="H80" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -2796,22 +2810,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C81" s="1">
         <v>0.01282051282051282</v>
       </c>
       <c r="F81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G81">
         <v>0.6410256410256411</v>
       </c>
       <c r="H81" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I81">
         <v>-1</v>
@@ -2819,22 +2833,22 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C82" s="1">
         <v>0.003194888178913738</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G82">
         <v>0.6410256410256411</v>
       </c>
       <c r="H82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I82">
         <v>-1</v>
@@ -2842,22 +2856,22 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C83" s="1">
         <v>0.02844141069397042</v>
       </c>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G83">
         <v>0.6410256410256411</v>
       </c>
       <c r="H83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -2865,22 +2879,22 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C84" s="1">
         <v>0.02157164869029276</v>
       </c>
       <c r="F84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G84">
         <v>0.6410256410256411</v>
       </c>
       <c r="H84" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -2888,22 +2902,22 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C85" s="1">
         <v>0.02196531791907514</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G85">
         <v>0.6410256410256411</v>
       </c>
       <c r="H85" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -2911,22 +2925,22 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C86" s="1">
         <v>0.02079395085066163</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G86">
         <v>0.6410256410256411</v>
       </c>
       <c r="H86" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -2934,22 +2948,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C87" s="1">
         <v>0.01596351197263398</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G87">
         <v>0.6410256410256411</v>
       </c>
       <c r="H87" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -2957,22 +2971,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1">
         <v>0.01844532279314888</v>
       </c>
       <c r="F88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G88">
         <v>0.6410256410256411</v>
       </c>
       <c r="H88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -2980,22 +2994,22 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C89" s="1">
         <v>0.01867816091954023</v>
       </c>
       <c r="F89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G89">
         <v>0.6410256410256411</v>
       </c>
       <c r="H89" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3003,22 +3017,22 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C90" s="1">
         <v>0.01452282157676349</v>
       </c>
       <c r="F90" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G90">
         <v>0.6410256410256411</v>
       </c>
       <c r="H90" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3026,22 +3040,22 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1">
         <v>0.01162790697674419</v>
       </c>
       <c r="F91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G91">
         <v>0.6410256410256411</v>
       </c>
       <c r="H91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3049,10 +3063,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="F92" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="199">
   <si>
     <t>Texto</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>Acurácia: 100.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> noticia_verdadeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> noticia_falsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inconclusivo</t>
   </si>
 </sst>
 </file>
@@ -937,23 +946,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="100.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1013,6 +1022,15 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -1036,6 +1054,15 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.1381341005090375</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.1381341005090375</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -1059,6 +1086,15 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.073674825147079</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.073674825147079</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -1082,6 +1118,15 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1105,6 +1150,15 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -1128,6 +1182,15 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -1151,6 +1214,15 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -1174,6 +1246,15 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -1197,6 +1278,15 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.9948373849752974</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.9948373849752974</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -1220,6 +1310,15 @@
       <c r="I11">
         <v>-1</v>
       </c>
+      <c r="J11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-3.9476717568177966</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-3.9476717568177966</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -1243,6 +1342,15 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.059628786998087</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.059628786998087</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -1266,6 +1374,15 @@
       <c r="I13">
         <v>-1</v>
       </c>
+      <c r="J13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0986497006643883</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.0986497006643883</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -1289,6 +1406,15 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.128565992248567</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.128565992248567</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -1312,6 +1438,15 @@
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="J15" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.099438689090893</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.099438689090893</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -1335,6 +1470,15 @@
       <c r="I16">
         <v>1</v>
       </c>
+      <c r="J16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.132060896503029</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.132060896503029</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -1358,6 +1502,15 @@
       <c r="I17">
         <v>1</v>
       </c>
+      <c r="J17" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
@@ -1381,6 +1534,15 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="J18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.9966638171946793</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.9966638171946793</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -1404,6 +1566,15 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -1427,6 +1598,15 @@
       <c r="I20">
         <v>1</v>
       </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.115825216880472</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.115825216880472</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -1450,6 +1630,15 @@
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.122947112758624</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.122947112758624</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -1473,6 +1662,15 @@
       <c r="I22">
         <v>1</v>
       </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.059405578826101</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.059405578826101</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -1496,6 +1694,15 @@
       <c r="I23">
         <v>1</v>
       </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.123672448400356</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.123672448400356</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -1519,6 +1726,15 @@
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.063946772864667</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.063946772864667</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -1542,6 +1758,15 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.997572879169156</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.997572879169156</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -1565,6 +1790,15 @@
       <c r="I26">
         <v>1</v>
       </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1167805416685965</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.1167805416685965</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
@@ -1588,6 +1822,15 @@
       <c r="I27">
         <v>1</v>
       </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -1611,6 +1854,15 @@
       <c r="I28">
         <v>1</v>
       </c>
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.9891897494505226</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.9891897494505226</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -1634,6 +1886,15 @@
       <c r="I29">
         <v>1</v>
       </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.079293001998335</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.079293001998335</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
@@ -1657,6 +1918,15 @@
       <c r="I30">
         <v>1</v>
       </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.10349420925921</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.10349420925921</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
@@ -1680,6 +1950,15 @@
       <c r="I31">
         <v>1</v>
       </c>
+      <c r="J31" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -1703,6 +1982,15 @@
       <c r="I32">
         <v>-1</v>
       </c>
+      <c r="J32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-3.9841806592704025</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-3.9841806592704025</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
@@ -1726,6 +2014,15 @@
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -1749,6 +2046,15 @@
       <c r="I34">
         <v>1</v>
       </c>
+      <c r="J34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.074182752752845</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.074182752752845</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -1772,6 +2078,15 @@
       <c r="I35">
         <v>1</v>
       </c>
+      <c r="J35" t="s">
+        <v>196</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -1795,6 +2110,15 @@
       <c r="I36">
         <v>1</v>
       </c>
+      <c r="J36" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.110520115905824</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.110520115905824</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -1818,6 +2142,15 @@
       <c r="I37">
         <v>1</v>
       </c>
+      <c r="J37" t="s">
+        <v>196</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.02786214954556</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.02786214954556</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -1841,6 +2174,15 @@
       <c r="I38">
         <v>1</v>
       </c>
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.03928028141866</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.03928028141866</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -1864,6 +2206,15 @@
       <c r="I39">
         <v>1</v>
       </c>
+      <c r="J39" t="s">
+        <v>196</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -1887,6 +2238,15 @@
       <c r="I40">
         <v>1</v>
       </c>
+      <c r="J40" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -1910,6 +2270,15 @@
       <c r="I41">
         <v>1</v>
       </c>
+      <c r="J41" t="s">
+        <v>196</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -1933,6 +2302,15 @@
       <c r="I42">
         <v>1</v>
       </c>
+      <c r="J42" t="s">
+        <v>196</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.05257733882113</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.05257733882113</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
@@ -1956,6 +2334,15 @@
       <c r="I43">
         <v>1</v>
       </c>
+      <c r="J43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.088411034838602</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.088411034838602</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
@@ -1979,6 +2366,15 @@
       <c r="I44">
         <v>1</v>
       </c>
+      <c r="J44" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
@@ -2002,6 +2398,15 @@
       <c r="I45">
         <v>1</v>
       </c>
+      <c r="J45" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.107407049815405</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.107407049815405</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -2025,6 +2430,15 @@
       <c r="I46">
         <v>1</v>
       </c>
+      <c r="J46" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.091685807331083</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.091685807331083</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
@@ -2048,6 +2462,15 @@
       <c r="I47">
         <v>1</v>
       </c>
+      <c r="J47" t="s">
+        <v>196</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
@@ -2071,6 +2494,15 @@
       <c r="I48">
         <v>1</v>
       </c>
+      <c r="J48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
@@ -2094,6 +2526,15 @@
       <c r="I49">
         <v>1</v>
       </c>
+      <c r="J49" t="s">
+        <v>196</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.136789378667314</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.136789378667314</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -2117,6 +2558,15 @@
       <c r="I50">
         <v>1</v>
       </c>
+      <c r="J50" t="s">
+        <v>196</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.11657393266472</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.11657393266472</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -2140,6 +2590,15 @@
       <c r="I51">
         <v>1</v>
       </c>
+      <c r="J51" t="s">
+        <v>196</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.076504667854021</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.076504667854021</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -2163,6 +2622,15 @@
       <c r="I52">
         <v>1</v>
       </c>
+      <c r="J52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -2186,6 +2654,15 @@
       <c r="I53">
         <v>1</v>
       </c>
+      <c r="J53" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4.093569170184537</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.093569170184537</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -2209,6 +2686,15 @@
       <c r="I54">
         <v>1</v>
       </c>
+      <c r="J54" t="s">
+        <v>196</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -2232,6 +2718,15 @@
       <c r="I55">
         <v>1</v>
       </c>
+      <c r="J55" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.095809719179334</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.095809719179334</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -2255,6 +2750,15 @@
       <c r="I56">
         <v>1</v>
       </c>
+      <c r="J56" t="s">
+        <v>196</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.0972378351617476</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.0972378351617476</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -2278,6 +2782,15 @@
       <c r="I57">
         <v>1</v>
       </c>
+      <c r="J57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -2301,6 +2814,15 @@
       <c r="I58">
         <v>1</v>
       </c>
+      <c r="J58" t="s">
+        <v>196</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -2324,6 +2846,15 @@
       <c r="I59">
         <v>1</v>
       </c>
+      <c r="J59" t="s">
+        <v>196</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.028812649478626</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.028812649478626</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -2347,6 +2878,15 @@
       <c r="I60">
         <v>1</v>
       </c>
+      <c r="J60" t="s">
+        <v>196</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
@@ -2370,6 +2910,15 @@
       <c r="I61">
         <v>1</v>
       </c>
+      <c r="J61" t="s">
+        <v>196</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
@@ -2393,6 +2942,15 @@
       <c r="I62">
         <v>1</v>
       </c>
+      <c r="J62" t="s">
+        <v>196</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.041038527592024</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4.041038527592024</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
@@ -2416,6 +2974,15 @@
       <c r="I63">
         <v>1</v>
       </c>
+      <c r="J63" t="s">
+        <v>196</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
@@ -2439,6 +3006,15 @@
       <c r="I64">
         <v>1</v>
       </c>
+      <c r="J64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
@@ -2462,6 +3038,15 @@
       <c r="I65">
         <v>1</v>
       </c>
+      <c r="J65" t="s">
+        <v>196</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.088244118949543</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.088244118949543</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
@@ -2485,6 +3070,15 @@
       <c r="I66">
         <v>1</v>
       </c>
+      <c r="J66" t="s">
+        <v>196</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
@@ -2508,6 +3102,15 @@
       <c r="I67">
         <v>1</v>
       </c>
+      <c r="J67" t="s">
+        <v>196</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.116395566950512</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.116395566950512</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
@@ -2531,6 +3134,15 @@
       <c r="I68">
         <v>1</v>
       </c>
+      <c r="J68" t="s">
+        <v>196</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.104543047061184</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4.104543047061184</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
@@ -2554,6 +3166,15 @@
       <c r="I69">
         <v>1</v>
       </c>
+      <c r="J69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4.0481566862027645</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.0481566862027645</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -2577,6 +3198,15 @@
       <c r="I70">
         <v>1</v>
       </c>
+      <c r="J70" t="s">
+        <v>196</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.9962499142160635</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3.9962499142160635</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -2600,6 +3230,15 @@
       <c r="I71">
         <v>-1</v>
       </c>
+      <c r="J71" t="s">
+        <v>197</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-2.3139204847140404</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-2.3139204847140404</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -2623,6 +3262,15 @@
       <c r="I72">
         <v>1</v>
       </c>
+      <c r="J72" t="s">
+        <v>196</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -2646,6 +3294,15 @@
       <c r="I73">
         <v>1</v>
       </c>
+      <c r="J73" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.096292745969285</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.096292745969285</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -2669,6 +3326,15 @@
       <c r="I74">
         <v>1</v>
       </c>
+      <c r="J74" t="s">
+        <v>196</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4.139766475073602</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.139766475073602</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
@@ -2692,6 +3358,15 @@
       <c r="I75">
         <v>1</v>
       </c>
+      <c r="J75" t="s">
+        <v>196</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4.103232122343549</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.103232122343549</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -2715,6 +3390,15 @@
       <c r="I76">
         <v>1</v>
       </c>
+      <c r="J76" t="s">
+        <v>196</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4.134288443759365</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.134288443759365</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -2738,6 +3422,15 @@
       <c r="I77">
         <v>1</v>
       </c>
+      <c r="J77" t="s">
+        <v>196</v>
+      </c>
+      <c r="K77" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -2761,6 +3454,15 @@
       <c r="I78">
         <v>1</v>
       </c>
+      <c r="J78" t="s">
+        <v>196</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4.083755902508422</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4.083755902508422</v>
+      </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
@@ -2784,6 +3486,15 @@
       <c r="I79">
         <v>1</v>
       </c>
+      <c r="J79" t="s">
+        <v>196</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4.138312523292402</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4.138312523292402</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
@@ -2807,6 +3518,15 @@
       <c r="I80">
         <v>1</v>
       </c>
+      <c r="J80" t="s">
+        <v>196</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4.131998519341158</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.131998519341158</v>
+      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
@@ -2830,6 +3550,15 @@
       <c r="I81">
         <v>-1</v>
       </c>
+      <c r="J81" t="s">
+        <v>198</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.709997850618432</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.709997850618432</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
@@ -2853,6 +3582,15 @@
       <c r="I82">
         <v>-1</v>
       </c>
+      <c r="J82" t="s">
+        <v>196</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.506231132283238</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.506231132283238</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -2876,6 +3614,15 @@
       <c r="I83">
         <v>1</v>
       </c>
+      <c r="J83" t="s">
+        <v>196</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4.033160925892922</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.033160925892922</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -2899,6 +3646,15 @@
       <c r="I84">
         <v>1</v>
       </c>
+      <c r="J84" t="s">
+        <v>196</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -2922,6 +3678,15 @@
       <c r="I85">
         <v>1</v>
       </c>
+      <c r="J85" t="s">
+        <v>196</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -2945,6 +3710,15 @@
       <c r="I86">
         <v>1</v>
       </c>
+      <c r="J86" t="s">
+        <v>196</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -2968,6 +3742,15 @@
       <c r="I87">
         <v>1</v>
       </c>
+      <c r="J87" t="s">
+        <v>196</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -2991,6 +3774,15 @@
       <c r="I88">
         <v>1</v>
       </c>
+      <c r="J88" t="s">
+        <v>196</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L88" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -3014,6 +3806,15 @@
       <c r="I89">
         <v>1</v>
       </c>
+      <c r="J89" t="s">
+        <v>196</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.141118873520919</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.141118873520919</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -3037,6 +3838,15 @@
       <c r="I90">
         <v>1</v>
       </c>
+      <c r="J90" t="s">
+        <v>196</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4.136913911400182</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4.136913911400182</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -3059,6 +3869,15 @@
       </c>
       <c r="I91">
         <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>196</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4.074950815803128</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4.074950815803128</v>
       </c>
     </row>
     <row r="92" spans="1:9">

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="298">
   <si>
     <t>Texto</t>
   </si>
@@ -52,21 +52,54 @@
     <t>'Pneumonia silenciosa' que dificulta diagnóstico de casos graves de covid-19 intriga médicos 'Eles falavam no celular'.txt</t>
   </si>
   <si>
+    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
+  </si>
+  <si>
     <t>A técnica de detectar câncer de próstata que pode 'revolucionar a saúde dos homens'.txt</t>
   </si>
   <si>
     <t>Aedes aegypti pode ser coinfectado por dengue e zika.txt</t>
   </si>
   <si>
+    <t>Aftas são a causa do câncer.txt</t>
+  </si>
+  <si>
+    <t>Alimentos alcalinos evitam coronavírus.txt</t>
+  </si>
+  <si>
     <t>Antiviral para hepatite C atua contra febre amarela e chikungunya.txt</t>
   </si>
   <si>
+    <t>Ar condicionado e o benzeno.txt</t>
+  </si>
+  <si>
+    <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
+  </si>
+  <si>
+    <t>Associação Americana e causas do câncer.txt</t>
+  </si>
+  <si>
     <t>Associação de Câncer de Boca e Garganta alerta para riscos à saúde vocal no Dia Mundial da Voz, em 16 de abril.txt</t>
   </si>
   <si>
     <t>Bactéria causadora da meningite e pneumonia terá o genoma sequenciado.txt</t>
   </si>
   <si>
+    <t>Banho frio e desmaios.txt</t>
+  </si>
+  <si>
+    <t>Beber água antes de pintar o cabelo.txt</t>
+  </si>
+  <si>
+    <t>Beber água de 15 em 15 minutos cura o coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
+  </si>
+  <si>
+    <t>Besouros que causam cegueira.txt</t>
+  </si>
+  <si>
     <t>Brasil reduz em 8% o número de mortes por tuberculose na última década.txt</t>
   </si>
   <si>
@@ -79,18 +112,36 @@
     <t>Britânicos testam ibuprofeno em pacientes com covid-19.txt</t>
   </si>
   <si>
+    <t>Café previne o coronavírus.txt</t>
+  </si>
+  <si>
     <t>Cera do ouvido indicam câncer.txt</t>
   </si>
   <si>
+    <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Chá de limão com bicarbonato quente cura coronavírus.txt</t>
+  </si>
+  <si>
     <t>Chá de salsa limpa os rins.txt</t>
   </si>
   <si>
     <t>Cloroquina contra coronavírus por que OMS decidiu interromper testes com remédio em pacientes com covid-19.txt</t>
   </si>
   <si>
+    <t>Cloroquina e hidroxicloroquina passam a ser usadas no Brasil para combater coronavírus.txt</t>
+  </si>
+  <si>
     <t>Congo tem surto de ebola durante pandemia do coronavírus.txt</t>
   </si>
   <si>
+    <t>Consumo de Skol e problemas renais ou câncer.txt</t>
+  </si>
+  <si>
+    <t>Consumo de fanta e coca e problemas renais ou câncer.txt</t>
+  </si>
+  <si>
     <t>Coronavírus 4 fatores que explicam o impacto da covid-19 nos EUA, país com maior número de infectados e mortos.txt</t>
   </si>
   <si>
@@ -109,6 +160,9 @@
     <t>Coronavírus estudo com coquetel de remédios tem bons resultados contra a covid-19, mostra The Lancet.txt</t>
   </si>
   <si>
+    <t>Coronavírus morre a 26º C.txt</t>
+  </si>
+  <si>
     <t>Coronavírus o que é um vírus endêmico, como pode se tornar o Sars-Cov-2.txt</t>
   </si>
   <si>
@@ -127,9 +181,15 @@
     <t>Cortar completamente carne e laticínios faz bem à saúde O que diz a ciência.txt</t>
   </si>
   <si>
+    <t>Covid-19 significa Certificado de Identificação de Vacina com Inteligência Artificial e vacina servirá para monitorar a população.txt</t>
+  </si>
+  <si>
     <t>Criança sem cicatriz vacinal não precisa revacinar contra tuberculose.txt</t>
   </si>
   <si>
+    <t>Cura do câncer.txt</t>
+  </si>
+  <si>
     <t>Câncer de mama a importância do diagnóstico precoce.txt</t>
   </si>
   <si>
@@ -139,6 +199,9 @@
     <t>Câncer pesquisa analisa a influência da poluição na internação pela doença.txt</t>
   </si>
   <si>
+    <t>Câncer é deficiência da vitamina B17.txt</t>
+  </si>
+  <si>
     <t>Cúrcuma na prevenção do câncer de estômago.txt</t>
   </si>
   <si>
@@ -160,6 +223,12 @@
     <t>Doença rara que afeta o sistema sanguíneo ganha tratamento individualizado no SUS.txt</t>
   </si>
   <si>
+    <t>Efeitos da glândula da próstata.txt</t>
+  </si>
+  <si>
+    <t>Equinócio e altas temperaturas.txt</t>
+  </si>
+  <si>
     <t>Estresse acelera surgimento de cabelos brancos, mostra estudo com participação de cientistas brasileiros.txt</t>
   </si>
   <si>
@@ -181,18 +250,36 @@
     <t>Febre amarela população do Sul e Sudeste deve buscar vacina.txt</t>
   </si>
   <si>
+    <t>Fenilpropalamina em medicamentos.txt</t>
+  </si>
+  <si>
     <t>Fibrose cística é genética e mais comum na infância.txt</t>
   </si>
   <si>
+    <t>Gelo causa câncer.txt</t>
+  </si>
+  <si>
     <t>Gene mais ativo em doença crônica pode explicar risco de quadros graves de covid-19.txt</t>
   </si>
   <si>
     <t>Hemofilia conheça doença que afeta quase exclusivamente homens .txt</t>
   </si>
   <si>
+    <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
+  </si>
+  <si>
     <t>Hábitos saudáveis podem atrasar em até 10 anos o câncer e as doenças do coração, mostra estudo.txt</t>
   </si>
   <si>
+    <t>Itália foi a cura do coronavírus ao descobrir que é uma bactéria que causa as mortes.txt</t>
+  </si>
+  <si>
+    <t>Limonada quente cura o câncer.txt</t>
+  </si>
+  <si>
+    <t>Limão no copo mata.txt</t>
+  </si>
+  <si>
     <t>Mal de Parkinson pode 'começar' antes do nascimento, diz estudo.txt</t>
   </si>
   <si>
@@ -223,6 +310,12 @@
     <t>Necropsias já detectaram novo coronavírus em testículo e glândulas salivares.txt</t>
   </si>
   <si>
+    <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Nova doença.txt</t>
+  </si>
+  <si>
     <t>Nova técnica de edição de DNA poderá curar até '89% das doenças genéticas' no futuro.txt</t>
   </si>
   <si>
@@ -247,6 +340,9 @@
     <t>O que é melhor para a saúde, leite de vaca ou ‘alternativos’.txt</t>
   </si>
   <si>
+    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
+  </si>
+  <si>
     <t>Os sinais que indicam nova alta da dengue no Brasil em 2020.txt</t>
   </si>
   <si>
@@ -271,6 +367,9 @@
     <t>Por que o H1N1 não parou economias como a pandemia de coronavírus.txt</t>
   </si>
   <si>
+    <t>Quiabo cura diabetes.txt</t>
+  </si>
+  <si>
     <t>Relatório confirma tendência de crescimento de casos de Síndrome Respiratória Aguda Grave.txt</t>
   </si>
   <si>
@@ -292,6 +391,9 @@
     <t>Sinais que ajudam a identificar um AVC.txt</t>
   </si>
   <si>
+    <t>Situação fora de controle novo coronavírus.txt</t>
+  </si>
+  <si>
     <t>Síndrome de Kawasaki o que é a rara doença inflamatória que vem afetando crianças infectadas pelo novo coronavírus.txt</t>
   </si>
   <si>
@@ -301,6 +403,15 @@
     <t>Terapia genética usa adenovírus modificado para reduzir em até 80% tumor de pulmão.txt</t>
   </si>
   <si>
+    <t>Tomar ou bebidas quentes para matar o coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Tossir evita infarto.txt</t>
+  </si>
+  <si>
+    <t>Tratamento de queimaduras com farinha de trigo.txt</t>
+  </si>
+  <si>
     <t>Tratamento para coronavírus 'pista' imunológica traz esperança na luta contra a covid-19.txt</t>
   </si>
   <si>
@@ -310,288 +421,483 @@
     <t>UFMG e Fiocruz desenvolvem teste mais preciso e barato para covid-19.txt</t>
   </si>
   <si>
+    <t>Uso de celular na cozinha e acidentes.txt</t>
+  </si>
+  <si>
     <t>Uso de máscaras pode conter disseminação de doenças.txt</t>
   </si>
   <si>
+    <t>Uso do celular no escuro e câncer de olho.txt</t>
+  </si>
+  <si>
+    <t>Uísque e mel contra coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Vacina anticâncer.txt</t>
+  </si>
+  <si>
+    <t>Vacina chinesa contra Covid-19 é feita de fetos de bebês abortados.txt</t>
+  </si>
+  <si>
     <t>Winter, a lhama que pode ajudar na busca por uma cura para a covid-19.txt</t>
   </si>
   <si>
     <t>por que os humanos estão pegando mais doenças transmitidas por animais.txt</t>
   </si>
   <si>
-    <t>entubados, respirações, gattoni, fluídos, bellevue, gattinoni, sztajnbok, esfaqueamento, intrigados, anestesiologista, pneumologista, detectada, surfactantes, necropsias, infectada, —, göttingen, jaques, entubadas, infectados, trombose, anticoagulantes, oxímetros, covid, levitan</t>
-  </si>
-  <si>
-    <t>sangramento, obtêm, reimagine, mamografias, intervencionista, invasiva, emberton, cânceres, genômica, kings, ucl</t>
-  </si>
-  <si>
-    <t>secundino, coinfecção, coinfectado, fmt, coinfectados, mcti, viruses, visualizações, “, bloomber, diseases, monoinfectados, decit, nágila, renezika, fiocruz, infectada, tweeters, results, contaminada, downloads, coinfection, infectados, hvd, questionamentos, chikungunya, manejamento, financiada</t>
-  </si>
-  <si>
-    <t>sofosbuvir, blanver, farmoquímica, bruning, fiocruz, neglected, liderados, ioc, ini, chikungunya, fármacos, bmk, chemotehrapy, plos, diseases, idor, cdts</t>
-  </si>
-  <si>
-    <t>restabelecimento, laringectomizados, vocais, próteses, suavozacbg, fonatória, reabilitados, fonatórias, acbg</t>
-  </si>
-  <si>
-    <t>neoprospecta, biotecnologia, pcv10, meningites, bacterianas, pneumocócica, genômica, 18c, 23f, sireva, cepas, biossistemas, antipneumococos, brgem, neurogenômica, 7f, ioc, funed, antimicrobianos, pneumonias, sequenciamento, 9v, fiocruz, sorotipos, 19f, 19a, genoma, prevalentes, 6b, genômicas</t>
+    <t>Água gelada faz mal.txt</t>
+  </si>
+  <si>
+    <t>Água ou chá quente mata o coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Água quente com abacaxi.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que Bill Gates financie vacina não líquida contra a Covid-19 que instala chip nas pessoas.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que Tasuku Honjo, Nobel de Medicina em 2018, disse que coronavírus foi criado por cientistas.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que governo americano libera consumo de colesterol e afirma que excesso não faz mal à saúde.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que pesquisa mostra que vapor de eucalipto protege ambientes do coronavírus.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que tomar própolis repele mosquito da febre amarela.txt</t>
+  </si>
+  <si>
+    <t>É#FAKE que uso prolongado de máscara contra o coronavírus leva a quadro de intoxicação e baixa oxigenação do organismo.txt</t>
+  </si>
+  <si>
+    <t>Óleo no umbigo cura doenças.txt</t>
+  </si>
+  <si>
+    <t>jaques, trombose, anestesiologista, gattoni, detectada, necropsias, infectados, entubadas, surfactantes, —, respirações, bellevue, sztajnbok, pneumologista, covid, anticoagulantes, fluídos, esfaqueamento, entubados, göttingen, infectada, gattinoni, levitan, oxímetros, intrigados</t>
+  </si>
+  <si>
+    <t>transgênicos, saudáveis​​, defending, parents, pharma, ogms, vaccinated, mandates, reorientar, comprovadamente, vaccines, higher, —, afligidos, contêm, studies, tetyana, vactruthcom, ​​em, sites, placebos, patrocinados, firms, vaers, triplice, sgb, nutrientes, unvaccinated, related, updated, says, healthier, diseases, lesadas, reasons, eficazmente, nauseam, reactions, responsabilizadas, gms, conservantes, origins, obukhanych, “, gardasil, sanevax, empurradores, vaxtruth, recommended, rentáveis, geneticamente, anvisa, ​​e, vactruth, adjuvantes, injury, ingredients, imunocomprometidas</t>
+  </si>
+  <si>
+    <t>emberton, ucl, kings, intervencionista, obtêm, cânceres, invasiva, reimagine, sangramento, genômica, mamografias</t>
+  </si>
+  <si>
+    <t>renezika, infectados, decit, coinfectados, contaminada, coinfection, bloomber, hvd, viruses, questionamentos, nágila, tweeters, coinfectado, financiada, fiocruz, diseases, coinfecção, infectada, visualizações, manejamento, secundino, mcti, “, chikungunya, fmt, monoinfectados, results, downloads</t>
+  </si>
+  <si>
+    <t>inalações, cerebrali, prostata, radiografias, inalador, metodicamente, subministrar, candidíases, peritoneale, metástases, adaptabilidade, conseqüência, 360°, intertítulo, oncologista, macrobióticos, deleto, coliciste, 36a, vescica, oncologistas, carcinosi, substancialmente, absurdamente, phds, •, gotejador, polmonari, lincados, casi, cancerígenas, convincentes, bronchiale, charcot, metastasipolmonari, legendado, diffuso, ½, abrasões, pecezinho, sinceramente, dias3, cérvico, 90°, nahco3, pediátrica, links, lavagens, vezes1, simoncini, entopem, poderosíssima, diretaço, restringe, dellintestino, linfomas, colecisti, ingerível, è, tumore, alcalinizando, “, midollare, alcuni, piccoli, 5todos, tanti, linfonodos, palpebra, estomago, epatocarcinoma, cânceres, sites, alla, reversões, jfj, equimoses, trattati, polmoni, enlouquecida, metodologias, cirurgias, tumori, semanas4, empiricamente, turmores, coróide, mês1</t>
+  </si>
+  <si>
+    <t>99ph, 87ph, 132ph, 85ph, 127ph, 156ph, 227ph, abençoê, 92ph</t>
+  </si>
+  <si>
+    <t>bmk, liderados, fármacos, ioc, blanver, bruning, chikungunya, chemotehrapy, farmoquímica, fiocruz, neglected, diseases, ini, plos, cdts, idor, sofosbuvir</t>
+  </si>
+  <si>
+    <t>“, refrescante, 16º, simplemente, cm2</t>
+  </si>
+  <si>
+    <t>acidose, blaylock, hj, lobbies, dopamina, entitulado, câimbras, riccio, zerocal, assintomáticas, arckle, 30º, contaminados, raffaele, adoçante, mancy</t>
+  </si>
+  <si>
+    <t>possivel</t>
+  </si>
+  <si>
+    <t>vocais, próteses, restabelecimento, suavozacbg, laringectomizados, acbg, fonatória, fonatórias, reabilitados</t>
+  </si>
+  <si>
+    <t>funed, 18c, biotecnologia, 9v, 23f, neurogenômica, prevalentes, ioc, sequenciamento, pneumocócica, sireva, 19a, cepas, neoprospecta, bacterianas, brgem, pneumonias, pcv10, fiocruz, genoma, genômica, biossistemas, antimicrobianos, genômicas, sorotipos, antipneumococos, 7f, meningites, 6b, 19f</t>
+  </si>
+  <si>
+    <t>lugarquando, cairam</t>
+  </si>
+  <si>
+    <t>contêm, oncologista, madeixasé</t>
+  </si>
+  <si>
+    <t>infectologista</t>
+  </si>
+  <si>
+    <t>vómitos, reage</t>
+  </si>
+  <si>
+    <t>hu, percursso</t>
   </si>
   <si>
     <t>arakaki, “</t>
   </si>
   <si>
-    <t>causador, sucedida, mers, r7, desenvolem, neutralizantes, kalil, particles, fiocruz, imunogênica, covid, “, vlps, incor, transgênicos, geneticamente</t>
-  </si>
-  <si>
-    <t>hhps, unearthed, neocotinoides, reconhecidamente, sygenta, baskut, pesticides, syngenta, fmc, internacionalmente, sumitomo, corteva, iarc, bolsonaro, highly, fazen, hhp, glufosinato, contêm, neumann, tuncak, —, multinacionais, agroquímicos, croplife, carcinogênicos, ciproconazol, basf, agroquímicas, christoph, unhearted, financiada</t>
-  </si>
-  <si>
-    <t>biomédica, nurofen, benckiser, covid, nhs, kings, inflamatórios, guys, nihr, maudsley, reckitt</t>
-  </si>
-  <si>
-    <t>antoniosi, reports, “, diagnosticada</t>
+    <t>transgênicos, mers, kalil, desenvolem, “, particles, vlps, fiocruz, imunogênica, geneticamente, r7, neutralizantes, covid, causador, sucedida, incor</t>
+  </si>
+  <si>
+    <t>neocotinoides, syngenta, pesticides, neumann, multinacionais, tuncak, —, highly, bolsonaro, contêm, unearthed, sygenta, fazen, baskut, iarc, financiada, sumitomo, basf, ciproconazol, reconhecidamente, hhps, internacionalmente, glufosinato, unhearted, corteva, croplife, fmc, hhp, agroquímicas, agroquímicos, carcinogênicos, christoph</t>
+  </si>
+  <si>
+    <t>kings, benckiser, nhs, biomédica, guys, nihr, maudsley, reckitt, covid, nurofen, inflamatórios</t>
+  </si>
+  <si>
+    <t>“, wenliang, theobromine, theophylline, methylxanthine, covid, metilxantinas</t>
+  </si>
+  <si>
+    <t>antoniosi, reports, diagnosticada, “</t>
+  </si>
+  <si>
+    <t>nossso, infectologista, h1n1, famíliares</t>
+  </si>
+  <si>
+    <t>covid, alcalinizam, comprovadamente, covid19</t>
   </si>
   <si>
     <t>gratificante</t>
   </si>
   <si>
-    <t>1a, participantes, remdesivir, questionamentos, bmj, covid, soumya, swaminathan, jama, bolsonaro</t>
-  </si>
-  <si>
-    <t>moeti, longondo, contaminados, matshidiso, fluídos, eteni, mbandaka, 11º, beni, contaminadas, congolesas, 1º, infectadas, équateur</t>
-  </si>
-  <si>
-    <t>distanciamento, krys, apidemia, rubio, detectados, aterrorizante, fauci, precocemente, diagnosticadas, kits, ravi, sistêmicas, —, enfrentamento, tsai, indocumentados, grvois, cuomo, covid, tracking</t>
-  </si>
-  <si>
-    <t>infectados, metrôs, infectada, —, mers, infectadas</t>
-  </si>
-  <si>
-    <t>pontinhas, gisaid, coautora, balloux, alamos, gravemente, infecciosidade, genoma, d614g, covid, dorp, —, cepas, françois, ucl, genomas</t>
-  </si>
-  <si>
-    <t>merwin, cremados, ​​no, guayas, acostumados, cremadas, incinerar, terán, cortés, covid, funerais, imunodeprimidas, alvejante, eclodiu, pandêmica, enfrentadas, marburg</t>
-  </si>
-  <si>
-    <t>mycobacterium, ecdc, ghebreyesus, covid, tedros, adhanom, 1º, infectadas, letalidade</t>
-  </si>
-  <si>
-    <t>ruttonjee, coautora, síndromes, ribavirin, kwok, diagnosticados, aleatoriamente, randomizado, 100mg, interferons, observacionais, 1b, antivirais, yuen, participantes, yung, —, mers, review, liderados, 400mg, covid, shalhoub</t>
-  </si>
-  <si>
-    <t>hiperendêmico, vzv, investigadas, antimaláricos, covid, comumente, infectada, infectadas</t>
-  </si>
-  <si>
-    <t>renato, microbiota, granje, vilanizar, infectadas, infectologista, autodestruir, imunologia, fagocitando, imunossupressores, chebabbo, ingeridos, antioxidantes, desinformação, inflamatória, superssuplementando, linfonodos, —, micronutrientes, neutrófilos, •, microrganismos, macrófagos, covid, gripes, killers</t>
-  </si>
-  <si>
-    <t>—, reinfecção, covid, kerkhove</t>
-  </si>
-  <si>
-    <t>esteroides, mehta, participantes, mitul, veran, kings, covid, inflamatórios, guys, —</t>
-  </si>
-  <si>
-    <t>felippe, beto, massuda, transmissibilidade, infectadas, historicamente, hipertenso, cirurgias, anvisa, preocupante, diagnosticados, périssé, imunizada, comportamentais, criadouros, concomitantes, kits, fiocruz, sorotipos, infectada, —, notificados, covid, chikungunya, letalidade</t>
-  </si>
-  <si>
-    <t>nutrientes, ​​e, enriquecidos, bife, springman, pescetarianos, veganas, sangramento, bloomberg, mantêm, magkos, faidon, b12, participantes, contêm, vegana, isquêmicos, —, rebholz, confiabilidade, irreversíveis, veganos, springmann, cardiovasculares, medawar, sustentabilidade, onívora</t>
-  </si>
-  <si>
-    <t>ofertada, ctai, sbi, maternidades, revacinadas, internacionalmente, meníngea, imunizações, sipni, sbim, imunologia, precocemente, sbp, “, gestores, 1º, opas, abrasco, febrasgo</t>
-  </si>
-  <si>
-    <t>iff, diagnóstica, cirurgias, ionizante, antecedida, fiocruz, assintomáticas, desconfortável, boechat</t>
-  </si>
-  <si>
-    <t>sbpt, ultraprocessados, pneumologista, cancerígenas, oncologista, diagnosticada, —</t>
-  </si>
-  <si>
-    <t>c33, c34, neoplasia, adeylson, c32, 10h, carcinogênica, causador, cih, nardocci, baquero, subtipos, iarc, papanicolaou, 10ª, nitritos, research, km2, blanquet, uicc, 1521110km2, capita, conservantes, 16h, aih</t>
-  </si>
-  <si>
-    <t>histonas, biomédica, kokum, cânceres, brócolis, “, calcagno, garcinol, focada, anticâncer</t>
-  </si>
-  <si>
-    <t>e4, e3, alzheimers, covid, apoe, biobank</t>
-  </si>
-  <si>
-    <t>malformations, microcefalia, reports, isc, cidacs, fiocruz, controls, lshtm, neurologic, emerging, desfechos, diseases, enny</t>
-  </si>
-  <si>
-    <t>b19, sinasc, symtomatic, fiocruz, cidacs, isc, sinan, 500g, enny, infectadas</t>
-  </si>
-  <si>
-    <t>vigitel, roio, glicosímetros, diagnosticados, pediátrica, liberatore, crapino, embaçada, cardiovasculares, idf, 9º, strachan, socioeconômicos, insulinas, sbd</t>
-  </si>
-  <si>
-    <t>microbiotas, nutrientes, enfrentados, genômica, microbiota, inflamatórios, biossistemas, muciniphila, akkermansia, dento, “, antropométricos, incapazes, sequenciamento, prebióticos, fiocruz, inflamatória, autoimunes, akkemansia, communications, bioquímicos</t>
-  </si>
-  <si>
-    <t>meningocógica, paroxística, acwy, corticoides, anticoagulantes, prevalentes, meningocócicas, hematopoiéticas, soliris, conitec, sorotipos, gestores, hpn, imunossupressores, pcdt, eculizumabe, meningococos</t>
-  </si>
-  <si>
-    <t>euphorbia, fapesp, chieh, embranquecimento, sistêmica, resinifera, desobedientes, inflamatórias, guilhotinada, mattar, despigmentação, porssível, —, melanocíticas, hsu, resiniferatoxin</t>
-  </si>
-  <si>
-    <t>incidentais, diagnosticada, descontrole, diagnosticados, periodo, sinasc, odm, reports, fiocruz, cidacs, isc, sinan, infectada, enny, using, “, 1º, 10ª</t>
-  </si>
-  <si>
-    <t>genomes, genoma, contêm, tencologias, cânceres, precocemente, wellcome, genomas, indentificar</t>
-  </si>
-  <si>
-    <t>observations, perea, disseminadoras, disseminadora, fvs, abad, deane, franch, “, criadouros, arbovirus, decit, epidemics, fapeam, fiocruz, disseminated, bessa, results, opas, plos, socioeconômicos, its, munícipio, pncd, pyriproxyfen, chikungunya</t>
-  </si>
-  <si>
-    <t>interpessoal, distanciamento, cepas, infectadas, biofarmacêutica, detectados, aleatoriamente, castello, islandeses, neutralizantes, a1, precocemente, islandesas, islandesa, 1º, biotechnologies, a2, constatada, sequenciamento, participantes, infectada, diagnosticada, —, subsidiaria, infectados, capita, decode, haplótipos, tatiana, adaptive, covid, prestigiada, preventivamente, assintomática, autoisolamento</t>
-  </si>
-  <si>
-    <t>mehra, confidencialidade, sapan, ruschitza, desai, infectados, amit, surgisphere, covid, mandeep</t>
-  </si>
-  <si>
-    <t>notificados, ofertada, cards, comprovante</t>
-  </si>
-  <si>
-    <t>nutrientes, precocemente, cística, “, diagnosticada, atinge</t>
-  </si>
-  <si>
-    <t>nakaya, epigenéticos, causador, medline, ace2, fcf, rab1a, helder, “, obstrutiva, medrxiv, comorbidades, mineraram, indexados, transcritomas, transcritoma, covid, cardiovasculares, preprint</t>
-  </si>
-  <si>
-    <t>sangramento, emicizumabe, aloanticorpos, hemofilias, hemovida, hemcibra®, inibidores, profilaxias, recombinante, conitec, endovenosa, cadastrados</t>
-  </si>
-  <si>
-    <t>hu, participantes, bmj, sobrepeso, research, cardiovasculares, —, diagnosticadas, prevenidos</t>
-  </si>
-  <si>
-    <t>desacelerar, satisfatoriamente, diagnosticados, ipscs, dopamina, dopaminérgicos, detectadas, lisossomos, cedars, svendsen, preventivamente, geneticamente, —, diagnosticadas</t>
-  </si>
-  <si>
-    <t>embaçada, ofertados, remitentes, diagnosticados, 05mg, sáude, mcg, cadastrados, emsp, 1b, 20mg, emrr, primariamente, secundariamente, sas, 1a, ceaf, autolimitados, especializadae, empp, fingolimode</t>
-  </si>
-  <si>
-    <t>ofertada, epizootias, notificados, croda, “</t>
-  </si>
-  <si>
-    <t>h1n1, aldeados, imunizados, h3n2, vulnerabilidade, covid, “, hospitalizações, dsei, pdm09</t>
-  </si>
-  <si>
-    <t>ofertada, kits, episus, capacitações, audioconferência, notificados, gestores, d8, enfrentamento, fvs</t>
-  </si>
-  <si>
-    <t>subsidiarão, covid, gestores, enfrentamento, pediátricos</t>
-  </si>
-  <si>
-    <t>veiculadas, mandeta, mandetta, saude, foliões, educativas, dolutegravir, sachês, “, entrevistados, pcap, estabilizada</t>
-  </si>
-  <si>
-    <t>caminhoneiros, fontana, subtipado, 1ª, h1n1, contracheque, subtipagem, h3n2, srag, vulnerabilidade, socioeducativas, covid, 2ª, “, inativado, 3ª, cobradores, francielli</t>
-  </si>
-  <si>
-    <t>nisia, mandetta, promissora, infectados, cubango, wmp, biomas, autossustentável, fiocruz, solturas, institutes, atingem, chikungunya, saúdeluiz, “, atinge, wolbachia</t>
-  </si>
-  <si>
-    <t>investigada, h1n1, vulnerabilidade, necropsia, biobanco, covid, sistêmicas, necropsias, assintomática, fmusp, saldiva</t>
-  </si>
-  <si>
-    <t>ctrl, deletado, crtl, tay, oneill, cas9, editing, lovell, editors, crispr, reversam, escaneia, liu, transtornos, geneticamente, —, questionamentos, bioquímico, talassemias</t>
-  </si>
-  <si>
-    <t>prostática, icb, coautora, palmisano, espectrometria, coletada, bioquímicos, glicoproteínas, “, fmusp, agressividade</t>
-  </si>
-  <si>
-    <t>sangramentos, sorológicos, gorinchteyn, permancem, atinge, infectadas, infectologista, detectados, figado, cuidadores, diagnosticadas, mbandaka, contaminadas, assintomático, équateur, infectados, covid, aerossóis, letalidade</t>
-  </si>
-  <si>
-    <t>confiabilidade, falsamente, neutralizantes, recuperados, covid, imunodiagnósticos, imunodiagnóstico, conseqüências, infectadas, reagem</t>
-  </si>
-  <si>
-    <t>oncologistas, pembrolizumabe, cancerígenas, expulsos, descontrolada, participantes, encorajador, research, oncologista, tumorais, diagnosticadas, espermatozoides, nhs, ​​pelo, —, marsden, melanomas</t>
-  </si>
-  <si>
-    <t>antibacterianas, mamografias, bioengenheiro, toc, —, halicina, barzilay</t>
-  </si>
-  <si>
-    <t>250ml, jama, antitabaco, kalil, products, macronutrientes, regulações, nutrizes, ingerida, ultraprocessados, aprimoradas, anvisa, potencializados, propagandeados, efsa, arritmias, hcfmusp, sobretaxados, ingeridos, ingeridas, irritabilidade, refrigerantes, cristini, vitalidade, cisa, —, incor, ultraprocessado, siu, taurina, sobrepeso, motivador, cardiovasculares, hipertensivos, chemicals, kantar</t>
-  </si>
-  <si>
-    <t>nutrientes, desmame, enriquecidos, majdic, genômica, alamy, substancialmente, gregor, alfarroba, virtanen, gelana, filhotes, b12, enriquecidas, ordenhadas, participantes, contêm, jyrkia, research, givens, micronutrientes, caseína</t>
-  </si>
-  <si>
-    <t>drasticamente, estruturadas, atinge, historicamente, cim, ioc, comportamentais, criadouros, idealizadora, hiperendêmico, fiocruz, imunizadas, acostumada, sorotipos, entrevistados, infectada, —, tharine, chicungunha, notificados, valle</t>
-  </si>
-  <si>
-    <t>alfaelosulfase, gastrointestinais, galsulfase, conitec, ofertados, cirurgias, contraturas, fármacos, bilaterações, pcdts, mucopolissacaridoses, maroteaux, mps, desalinhamento, idursulfase, mórquio, bioquímicos, cardiovasculares, lamy</t>
-  </si>
-  <si>
-    <t>coletadas, dcnts, ghebreyesus, —, cardiovasculares, covid, planejadas, investigados, tedros, adhanom, 1º</t>
-  </si>
-  <si>
-    <t>biotecnologia, maxivax, estimulador, imunossupressores</t>
-  </si>
-  <si>
-    <t>nutrientes, oncológicas, tramento, socioeconômicas, internacionalmente, locorregionalmente, cirurgias, leucemias, diagnosticados, “, cuidadores, onilotinibe, osmarina, servidora, lla, entrevistados, diagnosticada, linfoblástica, gadelha, uicc, cromossoma, oncológica, abia, sobrevida</t>
-  </si>
-  <si>
-    <t>pluripotentes, translacionais, trypanosoma, negligenciadas, infectadas, causador, kratz, jadel, fármacos, cardiomiócitos, “, buckeridge, icb, poluentes, imortalizadas, covid, lygia, fenotípica, dndi</t>
-  </si>
-  <si>
-    <t>piloereção, escorpiônicos, hortifrutigranjeiros, antiescorpiônico, capacitações, transportadoras, revisados</t>
-  </si>
-  <si>
-    <t>distanciamento, aseguir, transmissibilidade, infectadas, anvisa, respirador, aylward, assintomáticas, desacelerando, bolsonaro, bergamo, hidroxocloroquina, h1n1, pneumologista, antivirais, implemetaram, sbv, utis, balassiano, pandemias, infectologistas, imunizadas, infectada, triagens, —, drugs, mers, apoiam, virologistas, kerkhove, remdesivir, covid, virologista, spilki, letalidade</t>
-  </si>
-  <si>
-    <t>h1n1, srag, distanciamento, infogripe, notificados, covid, gestores, retomada, hospitalizações, propensão, sivep</t>
-  </si>
-  <si>
-    <t>vigitel, gats, 42ª, mohan, vinayak, 7ª, “, luiza, prasad, apoiem, preconizadas, fiocruz, narguilés, mpower, 7º, embalagens, antitabagismo, cqct, cetab</t>
-  </si>
-  <si>
-    <t>imunizações, preocupante, croda, preconizada, “, 1º, focada</t>
-  </si>
-  <si>
-    <t>cirurgias, antigiogênico, dmri, invasiva, faec, precocemente, crosslinking, ofertados, credenciados, pcdt</t>
-  </si>
-  <si>
-    <t>locorregionalmente, quimioterápicos, cirurgias, linfoblástica, oncológicas, cacon, cromossoma, unacon, conitec, ofertadas, ofertados, credenciados, onilotinibe, crcc</t>
-  </si>
-  <si>
-    <t>prisionais, economicamente, artesanalmente, covid</t>
-  </si>
-  <si>
-    <t>possivel</t>
-  </si>
-  <si>
-    <t>viner, pims, whittaker, infectadas, ​​explicar, detectados, diagnosticados, pediátrica, imunologia, verdoni, diagnosticadas, bergamo, utis, ts, inflamatória, cvid, impactada, —, multissistêmica, levin, cuomo, covid, nhs, pediátricas, assintomática</t>
-  </si>
-  <si>
-    <t>ses, hermelinda, hrt, pecd, pedrosa, uendo, fiocruz, 4º, recombinante, heberprot®, promissores, fhdf, sbd, hipoglicemia</t>
-  </si>
-  <si>
-    <t>pp53, quimioterápicos, glioblastomas, aprimoradas, anvisa, experimentaisa, tumorais, “, cdkn2a, cancerígenas, bicistrônico, cancerígenos, p53, editada, icb, gênica, gmp, supressores, constanzi</t>
-  </si>
-  <si>
-    <t>microlitro, shankar, interleucina, encorajador, hayday, interage, covid, kings, drasticamente, guys, —</t>
-  </si>
-  <si>
-    <t>mandetta, unitaid, diagnosticados, sanofi, odm, fragilizado, impaact4tb, 3hp, conitec, lelio, marmora, imunossupressoras, enfrentamento, aurum</t>
-  </si>
-  <si>
-    <t>imunoabsorção, anvisa, reaction, immunosorbent, polymerase, fiocruz, pequisadores, viroses, covid, santuza, fapemig, linked, funed, completoo</t>
-  </si>
-  <si>
-    <t>bamford, carrington, respiradores, respirador, ncov, coletadas, infectados, wellcome, wolfson, nhs, zoonoses, mantêm, virologistas</t>
-  </si>
-  <si>
-    <t>nanocorpo, camelídeos, delisa, nanocorpos, biotecnología, —, covid, wrapp, alpacas, infectada, promissores, mers, reagem, gante</t>
-  </si>
-  <si>
-    <t>desestabilizam, coronovírus, sucedidas, migrantes, preocupante, pandemias, civetas, guaxinins, chatham, aviária, interagem, investigados, contaminados, infectadas</t>
+    <t>remdesivir, participantes, bmj, bolsonaro, 1a, jama, soumya, covid, questionamentos, swaminathan</t>
+  </si>
+  <si>
+    <t>covid, infectados</t>
+  </si>
+  <si>
+    <t>équateur, 1º, moeti, contaminadas, congolesas, beni, contaminados, 11º, eteni, longondo, matshidiso, infectadas, mbandaka, fluídos</t>
+  </si>
+  <si>
+    <t>ambev, conseqüente, “, almeido, fenofinol, tranqüila, socbrasde, fleury, skol, voliteral</t>
+  </si>
+  <si>
+    <t>proprios, conseqüente, refrigerantes, “, almeido, fanta, fenofinol, tranqüila, socbrasde, fleury, voliteral</t>
+  </si>
+  <si>
+    <t>krys, ravi, kits, enfrentamento, —, apidemia, fauci, aterrorizante, covid, sistêmicas, precocemente, indocumentados, distanciamento, rubio, grvois, tracking, tsai, cuomo, detectados, diagnosticadas</t>
+  </si>
+  <si>
+    <t>—, mers, infectada, infectados, infectadas, metrôs</t>
+  </si>
+  <si>
+    <t>—, alamos, infecciosidade, pontinhas, ucl, françois, balloux, cepas, coautora, genomas, d614g, gisaid, covid, genoma, gravemente, dorp</t>
+  </si>
+  <si>
+    <t>​​no, cortés, pandêmica, enfrentadas, acostumados, merwin, cremadas, guayas, cremados, imunodeprimidas, alvejante, incinerar, funerais, eclodiu, marburg, covid, terán</t>
+  </si>
+  <si>
+    <t>tedros, 1º, ghebreyesus, infectadas, mycobacterium, ecdc, adhanom, covid, letalidade</t>
+  </si>
+  <si>
+    <t>review, 400mg, 1b, —, mers, ruttonjee, 100mg, antivirais, ribavirin, covid, coautora, diagnosticados, aleatoriamente, yung, participantes, liderados, observacionais, síndromes, interferons, randomizado, yuen, kwok, shalhoub</t>
+  </si>
+  <si>
+    <t>°, desinfetante, mícrons</t>
+  </si>
+  <si>
+    <t>hiperendêmico, infectada, antimaláricos, infectadas, comumente, investigadas, covid, vzv</t>
+  </si>
+  <si>
+    <t>linfonodos, gripes, infectologista, •, vilanizar, micronutrientes, infectadas, renato, granje, desinformação, —, fagocitando, imunologia, microbiota, covid, killers, macrófagos, microrganismos, imunossupressores, inflamatória, antioxidantes, chebabbo, autodestruir, ingeridos, neutrófilos, superssuplementando</t>
+  </si>
+  <si>
+    <t>covid, —, reinfecção, kerkhove</t>
+  </si>
+  <si>
+    <t>participantes, —, kings, mehta, guys, mitul, covid, esteroides, inflamatórios, veran</t>
+  </si>
+  <si>
+    <t>notificados, hipertenso, kits, infectadas, letalidade, périssé, comportamentais, —, criadouros, covid, beto, diagnosticados, fiocruz, infectada, cirurgias, concomitantes, transmissibilidade, sorotipos, preocupante, chikungunya, historicamente, anvisa, imunizada, felippe, massuda</t>
+  </si>
+  <si>
+    <t>pescetarianos, faidon, enriquecidos, sustentabilidade, —, onívora, contêm, bife, medawar, veganas, rebholz, sangramento, nutrientes, isquêmicos, irreversíveis, bloomberg, springman, mantêm, vegana, springmann, magkos, confiabilidade, veganos, b12, participantes, cardiovasculares, ​​e</t>
+  </si>
+  <si>
+    <t>jfigueiredon, ​​, rastreados, microbiota, covid, reconfigurados</t>
+  </si>
+  <si>
+    <t>abrasco, meníngea, revacinadas, imunologia, opas, maternidades, sbi, sipni, ctai, 1º, imunizações, precocemente, sbp, sbim, febrasgo, internacionalmente, ofertada, “, gestores</t>
+  </si>
+  <si>
+    <t>polifenol, trombose, cancerígenas, curativas, handphone, reddy, osh, guruprasad</t>
+  </si>
+  <si>
+    <t>antecedida, ionizante, fiocruz, boechat, diagnóstica, assintomáticas, cirurgias, desconfortável, iff</t>
+  </si>
+  <si>
+    <t>—, oncologista, diagnosticada, sbpt, pneumologista, cancerígenas, ultraprocessados</t>
+  </si>
+  <si>
+    <t>carcinogênica, 10ª, aih, c34, blanquet, c33, baquero, subtipos, 10h, 1521110km2, cih, iarc, nardocci, adeylson, research, papanicolaou, 16h, neoplasia, conservantes, c32, uicc, nitritos, km2, capita, causador</t>
+  </si>
+  <si>
+    <t>laetril, “, obtêm, amígdalina, itens, b17, 5sementes, mirtilos, alforjón</t>
+  </si>
+  <si>
+    <t>brócolis, kokum, calcagno, “, cânceres, biomédica, histonas, garcinol, anticâncer, focada</t>
+  </si>
+  <si>
+    <t>biobank, e4, apoe, alzheimers, e3, covid</t>
+  </si>
+  <si>
+    <t>reports, isc, desfechos, cidacs, neurologic, malformations, emerging, fiocruz, lshtm, diseases, controls, enny, microcefalia</t>
+  </si>
+  <si>
+    <t>isc, cidacs, sinasc, 500g, fiocruz, enny, sinan, symtomatic, b19, infectadas</t>
+  </si>
+  <si>
+    <t>crapino, pediátrica, glicosímetros, liberatore, diagnosticados, insulinas, idf, cardiovasculares, embaçada, socioeconômicos, vigitel, 9º, strachan, roio, sbd</t>
+  </si>
+  <si>
+    <t>communications, akkermansia, akkemansia, sequenciamento, antropométricos, microbiota, nutrientes, inflamatórios, dento, prebióticos, fiocruz, muciniphila, microbiotas, biossistemas, genômica, bioquímicos, inflamatória, autoimunes, “, incapazes, enfrentados</t>
+  </si>
+  <si>
+    <t>hpn, imunossupressores, pcdt, hematopoiéticas, sorotipos, prevalentes, acwy, paroxística, gestores, meningocógica, eculizumabe, corticoides, conitec, meningococos, meningocócicas, anticoagulantes, soliris</t>
+  </si>
+  <si>
+    <t>hesistência, alguém…, 60cl, acção, crónica, canalizacao, atinge, afectará, cancerígenos, canalizador, desconfortável, celibatos, dey, projectada, cânceres, extracto, 50cl, cancerígenas, jacto, ugbogulu, vestuario, wahala, sémen, infectada, , encanador, boxers, lawma, 300cl, “, bph, colega…, humedecimento, 15mg, hormonais, horin, directamente, afecta, reembalar</t>
+  </si>
+  <si>
+    <t>freqüente, 16h, 11h</t>
+  </si>
+  <si>
+    <t>—, chieh, sistêmica, euphorbia, mattar, despigmentação, porssível, melanocíticas, inflamatórias, resiniferatoxin, guilhotinada, resinifera, desobedientes, hsu, fapesp, embranquecimento</t>
+  </si>
+  <si>
+    <t>reports, isc, 1º, 10ª, cidacs, periodo, “, odm, sinasc, diagnosticados, using, enny, fiocruz, infectada, sinan, diagnosticada, descontrole, incidentais</t>
+  </si>
+  <si>
+    <t>genomas, wellcome, indentificar, contêm, cânceres, precocemente, tencologias, genomes, genoma</t>
+  </si>
+  <si>
+    <t>pyriproxyfen, abad, franch, epidemics, disseminadoras, deane, decit, disseminated, criadouros, munícipio, opas, pncd, socioeconômicos, plos, its, fiocruz, fapeam, bessa, fvs, “, observations, chikungunya, disseminadora, results, arbovirus, perea</t>
+  </si>
+  <si>
+    <t>a1, interpessoal, decode, infectados, infectadas, —, constatada, sequenciamento, autoisolamento, biofarmacêutica, haplótipos, covid, biotechnologies, cepas, 1º, adaptive, a2, precocemente, preventivamente, aleatoriamente, infectada, subsidiaria, distanciamento, neutralizantes, tatiana, islandeses, participantes, assintomática, diagnosticada, castello, prestigiada, detectados, capita, islandesas, islandesa</t>
+  </si>
+  <si>
+    <t>sapan, confidencialidade, mandeep, surgisphere, mehra, infectados, amit, covid, desai, ruschitza</t>
+  </si>
+  <si>
+    <t>comprovante, ofertada, notificados, cards</t>
+  </si>
+  <si>
+    <t>fenilpropalamina, ‘, crmsp33006</t>
+  </si>
+  <si>
+    <t>“, cística, precocemente, atinge, diagnosticada, nutrientes</t>
+  </si>
+  <si>
+    <t>lpki</t>
+  </si>
+  <si>
+    <t>fcf, ace2, obstrutiva, preprint, covid, comorbidades, mineraram, rab1a, helder, nakaya, transcritomas, epigenéticos, “, indexados, transcritoma, cardiovasculares, medrxiv, causador, medline</t>
+  </si>
+  <si>
+    <t>emicizumabe, endovenosa, cadastrados, aloanticorpos, recombinante, hemcibra®, inibidores, hemovida, conitec, sangramento, hemofilias, profilaxias</t>
+  </si>
+  <si>
+    <t>participantes, —, bmj, research, hu, sobrepeso, cardiovasculares, diagnosticadas, prevenidos</t>
+  </si>
+  <si>
+    <t>trombose, anticoagulantes, italia, intravascular, coronavirus, covid, inflamatórios</t>
+  </si>
+  <si>
+    <t>cancerígenas, horin, tchen, monoalcólico</t>
+  </si>
+  <si>
+    <t>conservantes, aconchegante, ‘, contactei, sacarovictus, estabilizantes, humildemente, libre, ativus, superdivertida, fatiados, cevabacillus</t>
+  </si>
+  <si>
+    <t>svendsen, —, cedars, desacelerar, dopamina, diagnosticados, detectadas, satisfatoriamente, preventivamente, ipscs, diagnosticadas, geneticamente, dopaminérgicos, lisossomos</t>
+  </si>
+  <si>
+    <t>autolimitados, cadastrados, sas, mcg, 1b, remitentes, 05mg, primariamente, secundariamente, emsp, 20mg, ofertados, fingolimode, diagnosticados, embaçada, emrr, especializadae, empp, 1a, ceaf, sáude</t>
+  </si>
+  <si>
+    <t>ofertada, “, notificados, epizootias, croda</t>
+  </si>
+  <si>
+    <t>hospitalizações, h1n1, imunizados, “, aldeados, dsei, h3n2, pdm09, covid, vulnerabilidade</t>
+  </si>
+  <si>
+    <t>ofertada, d8, audioconferência, gestores, notificados, capacitações, episus, kits, enfrentamento, fvs</t>
+  </si>
+  <si>
+    <t>subsidiarão, gestores, pediátricos, covid, enfrentamento</t>
+  </si>
+  <si>
+    <t>pcap, “, mandetta, educativas, mandeta, saude, sachês, foliões, veiculadas, estabilizada, entrevistados, dolutegravir</t>
+  </si>
+  <si>
+    <t>subtipado, francielli, 1ª, inativado, “, h1n1, contracheque, fontana, 2ª, 3ª, srag, subtipagem, h3n2, socioeducativas, covid, caminhoneiros, vulnerabilidade, cobradores</t>
+  </si>
+  <si>
+    <t>institutes, “, mandetta, wmp, chikungunya, atinge, fiocruz, atingem, nisia, biomas, infectados, saúdeluiz, cubango, solturas, promissora, wolbachia, autossustentável</t>
+  </si>
+  <si>
+    <t>h1n1, assintomática, biobanco, fmusp, necropsias, saldiva, covid, vulnerabilidade, sistêmicas, investigada, necropsia</t>
+  </si>
+  <si>
+    <t>80cc, desconfortáveis, 50cc</t>
+  </si>
+  <si>
+    <t>pergosa, nao, medicos, afectados, adiquire, estao, transmissao, informaçao, podera, japao</t>
+  </si>
+  <si>
+    <t>oneill, ctrl, tay, editors, transtornos, lovell, crispr, —, cas9, questionamentos, talassemias, escaneia, deletado, crtl, reversam, liu, editing, geneticamente, bioquímico</t>
+  </si>
+  <si>
+    <t>palmisano, agressividade, prostática, “, coautora, coletada, glicoproteínas, bioquímicos, fmusp, icb, espectrometria</t>
+  </si>
+  <si>
+    <t>infectologista, permancem, atinge, infectados, infectadas, letalidade, sorológicos, contaminadas, assintomático, aerossóis, covid, mbandaka, cuidadores, gorinchteyn, équateur, figado, sangramentos, detectados, diagnosticadas</t>
+  </si>
+  <si>
+    <t>reagem, imunodiagnósticos, recuperados, imunodiagnóstico, infectadas, falsamente, conseqüências, neutralizantes, covid, confiabilidade</t>
+  </si>
+  <si>
+    <t>participantes, melanomas, —, research, oncologista, nhs, pembrolizumabe, encorajador, descontrolada, marsden, espermatozoides, diagnosticadas, oncologistas, cancerígenas, tumorais, expulsos, ​​pelo</t>
+  </si>
+  <si>
+    <t>—, barzilay, halicina, mamografias, toc, antibacterianas, bioengenheiro</t>
+  </si>
+  <si>
+    <t>ingerida, refrigerantes, taurina, sobrepeso, irritabilidade, antitabaco, incor, —, macronutrientes, hcfmusp, sobretaxados, kantar, siu, cisa, regulações, ultraprocessados, cristini, kalil, chemicals, ultraprocessado, efsa, products, potencializados, jama, motivador, vitalidade, ingeridas, aprimoradas, hipertensivos, propagandeados, arritmias, cardiovasculares, nutrizes, anvisa, ingeridos, 250ml</t>
+  </si>
+  <si>
+    <t>filhotes, jyrkia, micronutrientes, enriquecidos, enriquecidas, desmame, contêm, alamy, givens, nutrientes, gregor, majdic, research, caseína, virtanen, genômica, ordenhadas, b12, participantes, alfarroba, gelana, substancialmente</t>
+  </si>
+  <si>
+    <t>imunizadas, hiperendêmico, valle, notificados, atinge, comportamentais, —, drasticamente, criadouros, ioc, cim, tharine, fiocruz, infectada, chicungunha, idealizadora, entrevistados, acostumada, sorotipos, historicamente, estruturadas</t>
+  </si>
+  <si>
+    <t>lamy, idursulfase, maroteaux, mucopolissacaridoses, alfaelosulfase, conitec, desalinhamento, contraturas, ofertados, mórquio, galsulfase, cirurgias, bioquímicos, fármacos, pcdts, bilaterações, cardiovasculares, gastrointestinais, mps</t>
+  </si>
+  <si>
+    <t>investigados, —, coletadas, tedros, 1º, planejadas, dcnts, ghebreyesus, cardiovasculares, adhanom, covid</t>
+  </si>
+  <si>
+    <t>biotecnologia, imunossupressores, estimulador, maxivax</t>
+  </si>
+  <si>
+    <t>linfoblástica, gadelha, locorregionalmente, osmarina, lla, cromossoma, oncológicas, servidora, tramento, nutrientes, sobrevida, oncológica, cuidadores, onilotinibe, diagnosticados, socioeconômicas, cirurgias, entrevistados, internacionalmente, leucemias, “, abia, diagnosticada, uicc</t>
+  </si>
+  <si>
+    <t>lygia, translacionais, jadel, imortalizadas, fenotípica, icb, infectadas, buckeridge, trypanosoma, negligenciadas, pluripotentes, covid, kratz, fármacos, cardiomiócitos, “, dndi, poluentes, causador</t>
+  </si>
+  <si>
+    <t>antiescorpiônico, revisados, capacitações, piloereção, transportadoras, hortifrutigranjeiros, escorpiônicos</t>
+  </si>
+  <si>
+    <t>imunizadas, h1n1, balassiano, aylward, implemetaram, virologista, utis, infectadas, letalidade, infectologistas, —, mers, spilki, bolsonaro, antivirais, assintomáticas, aseguir, pneumologista, covid, pandemias, virologistas, kerkhove, hidroxocloroquina, bergamo, respirador, infectada, distanciamento, drugs, apoiam, transmissibilidade, remdesivir, triagens, anvisa, desacelerando, sbv</t>
+  </si>
+  <si>
+    <t>unitriedubr, “, unicampbr, cientifico, extraida, esculentus</t>
+  </si>
+  <si>
+    <t>hospitalizações, h1n1, srag, gestores, notificados, retomada, distanciamento, covid, infogripe, propensão, sivep</t>
+  </si>
+  <si>
+    <t>embalagens, 7ª, antitabagismo, cqct, luiza, gats, mohan, mpower, preconizadas, fiocruz, vigitel, 7º, apoiem, vinayak, “, prasad, cetab, narguilés, 42ª</t>
+  </si>
+  <si>
+    <t>preocupante, 1º, “, imunizações, preconizada, croda, focada</t>
+  </si>
+  <si>
+    <t>pcdt, antigiogênico, ofertados, faec, invasiva, precocemente, crosslinking, cirurgias, dmri, credenciados</t>
+  </si>
+  <si>
+    <t>linfoblástica, ofertadas, ofertados, cacon, crcc, onilotinibe, locorregionalmente, oncológicas, quimioterápicos, unacon, conitec, cirurgias, cromossoma, credenciados</t>
+  </si>
+  <si>
+    <t>covid, prisionais, artesanalmente, economicamente</t>
+  </si>
+  <si>
+    <t>rockfellers, wurhan, globalista, jinping, lives, totall, rothschilds, começõu, infectados, alcool, globalistas</t>
+  </si>
+  <si>
+    <t>pediátrica, pediátricas, utis, infectadas, —, imunologia, verdoni, covid, whittaker, impactada, diagnosticados, nhs, pims, ​​explicar, bergamo, multissistêmica, viner, cvid, levin, inflamatória, assintomática, cuomo, ts, detectados, diagnosticadas</t>
+  </si>
+  <si>
+    <t>pecd, 4º, promissores, hrt, hermelinda, ses, recombinante, fiocruz, pedrosa, heberprot®, hipoglicemia, fhdf, sbd, uendo</t>
+  </si>
+  <si>
+    <t>bicistrônico, pp53, gmp, icb, cancerígenos, p53, editada, cancerígenas, tumorais, experimentaisa, glioblastomas, gênica, cdkn2a, constanzi, supressores, aprimoradas, “, quimioterápicos, anvisa</t>
+  </si>
+  <si>
+    <t>°, trombose, puxadores, desinfetante, desinfecte, drsse, cardiovasculares, castello, polmonite, shenzhen, cátaros</t>
+  </si>
+  <si>
+    <t>mantêm, gentilmente, respirações, indevidamente, ​​e, 19h25</t>
+  </si>
+  <si>
+    <t>reencaminhado, antioxidantes</t>
+  </si>
+  <si>
+    <t>interage, drasticamente, —, kings, interleucina, encorajador, microlitro, guys, shankar, covid, hayday</t>
+  </si>
+  <si>
+    <t>lelio, enfrentamento, unitaid, imunossupressoras, mandetta, odm, diagnosticados, impaact4tb, sanofi, aurum, 3hp, conitec, marmora, fragilizado</t>
+  </si>
+  <si>
+    <t>funed, fapemig, immunosorbent, viroses, imunoabsorção, completoo, linked, reaction, fiocruz, polymerase, anvisa, pequisadores, covid, santuza</t>
+  </si>
+  <si>
+    <t>ademola</t>
+  </si>
+  <si>
+    <t>carrington, virologistas, wellcome, coletadas, mantêm, wolfson, nhs, zoonoses, respirador, infectados, respiradores, ncov, bamford</t>
+  </si>
+  <si>
+    <t>bakkano, irreversível, eletromagnetica</t>
+  </si>
+  <si>
+    <t>repatriados, inalador</t>
+  </si>
+  <si>
+    <t>barbuto, —, oncologista, brasileirosuma, genoma</t>
+  </si>
+  <si>
+    <t>mirabolantes, “, contêm, institucionalizado, frustrante, cirurgias, covid</t>
+  </si>
+  <si>
+    <t>reagem, mers, —, alpacas, promissores, camelídeos, nanocorpos, gante, biotecnología, infectada, covid, delisa, wrapp, nanocorpo</t>
+  </si>
+  <si>
+    <t>investigados, chatham, preocupante, sucedidas, guaxinins, civetas, coronovírus, desestabilizam, interagem, aviária, infectadas, pandemias, contaminados, migrantes</t>
+  </si>
+  <si>
+    <t>varella, garganta…</t>
+  </si>
+  <si>
+    <t>2a, shenzen, corrimãos, letala, 27°, dágua</t>
+  </si>
+  <si>
+    <t>“, huiren, anticâncer, cistos, cancerígenas, polifenóis</t>
+  </si>
+  <si>
+    <t>opsdigo, contaminados, 5g, naite</t>
+  </si>
+  <si>
+    <t>tasuku, honjo</t>
+  </si>
+  <si>
+    <t>americans, guidelines, “, coronariana, cardiovasculares, framingham, dgac, acc, _temos, nissen, corticosteróides</t>
+  </si>
+  <si>
+    <t>covid, mentolatum, eucalyptol, epoxi</t>
+  </si>
+  <si>
+    <t>sudoríparas, causador, chicungunha, repasando</t>
+  </si>
+  <si>
+    <t>conscientemente</t>
+  </si>
+  <si>
+    <t>pechotique, letargiaalívio, naturista, massagea, hidratando, 4cm, nutrientes, ricino</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
   </si>
   <si>
+    <t>compartilhamento</t>
+  </si>
+  <si>
     <t>Acurácia: 64.1025641025641%</t>
   </si>
   <si>
@@ -602,15 +908,6 @@
   </si>
   <si>
     <t>Acurácia: 100.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> noticia_verdadeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> noticia_falsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inconclusivo</t>
   </si>
 </sst>
 </file>
@@ -946,23 +1243,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="100.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1005,31 +1302,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1">
         <v>0.0173973556019485</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G2">
         <v>0.6410256410256411</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I2">
         <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1037,31 +1325,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1">
-        <v>0.01458885941644562</v>
+        <v>0.04084507042253521</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G3">
         <v>0.6410256410256411</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I3">
         <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.1381341005090375</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.1381341005090375</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1069,31 +1348,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1">
-        <v>0.03669724770642202</v>
+        <v>0.01458885941644562</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G4">
         <v>0.6410256410256411</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I4">
         <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.073674825147079</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.073674825147079</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1101,31 +1371,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1">
-        <v>0.06538461538461539</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G5">
         <v>0.6410256410256411</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I5">
         <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1133,31 +1394,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1">
-        <v>0.01982378854625551</v>
+        <v>0.02090757899738655</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G6">
         <v>0.6410256410256411</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1165,31 +1417,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="G7">
-        <v>0.6410256410256411</v>
+        <v>-0.6410256410256411</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1197,31 +1440,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0035650623885918</v>
+        <v>0.06538461538461539</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G8">
         <v>0.6410256410256411</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I8">
         <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1229,31 +1463,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
-        <v>0.01934703748488513</v>
+        <v>0.01436781609195402</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G9">
         <v>0.6410256410256411</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1261,31 +1486,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1">
-        <v>0.03059273422562141</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G10">
         <v>0.6410256410256411</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.9948373849752974</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.9948373849752974</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1293,31 +1509,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1">
-        <v>0.04803493449781659</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="G11">
-        <v>0.6410256410256411</v>
+        <v>-0.6410256410256411</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="I11">
         <v>-1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-3.9476717568177966</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-3.9476717568177966</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1325,31 +1532,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1">
-        <v>0.009900990099009901</v>
+        <v>0.01982378854625551</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G12">
         <v>0.6410256410256411</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I12">
         <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.059628786998087</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.059628786998087</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1357,31 +1555,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1">
-        <v>0.005494505494505495</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G13">
         <v>0.6410256410256411</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.0986497006643883</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.0986497006643883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1389,31 +1578,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1">
-        <v>0.01408450704225352</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G14">
         <v>0.6410256410256411</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.128565992248567</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.128565992248567</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1421,31 +1601,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1">
-        <v>0.03943661971830986</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G15">
         <v>0.6410256410256411</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.099438689090893</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.099438689090893</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1453,31 +1624,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1">
-        <v>0.01426533523537803</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G16">
         <v>0.6410256410256411</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.132060896503029</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.132060896503029</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1485,31 +1647,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1">
-        <v>0.02197802197802198</v>
+        <v>0.003273322422258593</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G17">
         <v>0.6410256410256411</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1517,31 +1670,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1">
-        <v>0.03071017274472169</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G18">
         <v>0.6410256410256411</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.9966638171946793</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.9966638171946793</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1549,31 +1693,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1">
-        <v>0.01985981308411215</v>
+        <v>0.0035650623885918</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G19">
         <v>0.6410256410256411</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I19">
         <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1581,31 +1716,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1">
-        <v>0.01345291479820628</v>
+        <v>0.01934703748488513</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G20">
         <v>0.6410256410256411</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I20">
         <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.115825216880472</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.115825216880472</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1613,31 +1739,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1">
-        <v>0.02459893048128342</v>
+        <v>0.03059273422562141</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G21">
         <v>0.6410256410256411</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I21">
         <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.122947112758624</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.122947112758624</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1645,31 +1762,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1">
-        <v>0.01098901098901099</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G22">
         <v>0.6410256410256411</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.059405578826101</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.059405578826101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1677,31 +1785,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1">
-        <v>0.01383714741883981</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G23">
         <v>0.6410256410256411</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.123672448400356</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.123672448400356</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1709,31 +1808,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0111731843575419</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G24">
         <v>0.6410256410256411</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I24">
         <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.063946772864667</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.063946772864667</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1741,31 +1831,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1">
-        <v>0.03076923076923077</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G25">
         <v>0.6410256410256411</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.997572879169156</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.997572879169156</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1773,31 +1854,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1">
-        <v>0.01349892008639309</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G26">
         <v>0.6410256410256411</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.1167805416685965</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.1167805416685965</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1805,31 +1877,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0157251019219569</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G27">
         <v>0.6410256410256411</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1837,31 +1900,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1">
-        <v>0.03006329113924051</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G28">
         <v>0.6410256410256411</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I28">
         <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.9891897494505226</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.9891897494505226</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1869,31 +1923,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1">
-        <v>0.01181102362204724</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G29">
         <v>0.6410256410256411</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.079293001998335</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.079293001998335</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1901,31 +1946,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1">
-        <v>0.008695652173913044</v>
+        <v>0.03943661971830986</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G30">
         <v>0.6410256410256411</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I30">
         <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>196</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.10349420925921</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.10349420925921</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1933,31 +1969,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1">
-        <v>0.02129471890971039</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G31">
         <v>0.6410256410256411</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1965,31 +1992,22 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1">
-        <v>0.05</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G32">
         <v>0.6410256410256411</v>
       </c>
       <c r="H32" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="I32">
         <v>-1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>197</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-3.9841806592704025</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-3.9841806592704025</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1997,31 +2015,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="C33" s="1">
-        <v>0.01769911504424779</v>
+        <v>0.01426533523537803</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G33">
         <v>0.6410256410256411</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I33">
         <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2029,31 +2038,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C34" s="1">
-        <v>0.0268041237113402</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G34">
         <v>0.6410256410256411</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I34">
         <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>196</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.074182752752845</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.074182752752845</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2061,31 +2061,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1">
-        <v>0.01858736059479554</v>
+        <v>0.03071017274472169</v>
       </c>
       <c r="F35" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G35">
         <v>0.6410256410256411</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I35">
         <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>196</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2093,31 +2084,22 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1">
-        <v>0.008493771234428085</v>
+        <v>0.01985981308411215</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G36">
         <v>0.6410256410256411</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I36">
         <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.110520115905824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.110520115905824</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2125,31 +2107,22 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1">
-        <v>0.03286384976525822</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G37">
         <v>0.6410256410256411</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I37">
         <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>196</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.02786214954556</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.02786214954556</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2157,31 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="C38" s="1">
-        <v>0.03373015873015873</v>
+        <v>0.02459893048128342</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G38">
         <v>0.6410256410256411</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I38">
         <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>196</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.03928028141866</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.03928028141866</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2189,31 +2153,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="C39" s="1">
-        <v>0.0218281036834925</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G39">
         <v>0.6410256410256411</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>196</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2221,31 +2176,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C40" s="1">
-        <v>0.02298850574712644</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G40">
         <v>0.6410256410256411</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I40">
         <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>196</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2253,31 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1">
-        <v>0.01914893617021277</v>
+        <v>0.01383714741883981</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G41">
         <v>0.6410256410256411</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I41">
         <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>196</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2285,31 +2222,22 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C42" s="1">
-        <v>0.03480589022757698</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G42">
         <v>0.6410256410256411</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I42">
         <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>196</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.05257733882113</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.05257733882113</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2317,31 +2245,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="C43" s="1">
-        <v>0.02619760479041916</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G43">
         <v>0.6410256410256411</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I43">
         <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>196</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.088411034838602</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.088411034838602</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2349,31 +2268,22 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1">
-        <v>0.02105263157894737</v>
+        <v>0.01349892008639309</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G44">
         <v>0.6410256410256411</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I44">
         <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>196</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2381,31 +2291,22 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1">
-        <v>0.008583690987124463</v>
+        <v>0.0157251019219569</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G45">
         <v>0.6410256410256411</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I45">
         <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>196</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.107407049815405</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.107407049815405</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2413,31 +2314,22 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1">
-        <v>0.01234567901234568</v>
+        <v>0.0113421550094518</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G46">
         <v>0.6410256410256411</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.091685807331083</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.091685807331083</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2445,31 +2337,22 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C47" s="1">
-        <v>0.02331288343558282</v>
+        <v>0.03006329113924051</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G47">
         <v>0.6410256410256411</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>196</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2477,31 +2360,22 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="C48" s="1">
-        <v>0.01957585644371941</v>
+        <v>0.01386481802426343</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G48">
         <v>0.6410256410256411</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2509,31 +2383,22 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1">
-        <v>0.01451612903225807</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G49">
         <v>0.6410256410256411</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I49">
         <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>196</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.136789378667314</v>
-      </c>
-      <c r="L49" t="n">
-        <v>4.136789378667314</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2541,31 +2406,22 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1">
-        <v>0.02491103202846975</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G50">
         <v>0.6410256410256411</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I50">
         <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>196</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.11657393266472</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.11657393266472</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2573,31 +2429,22 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1">
-        <v>0.03697183098591549</v>
+        <v>0.02129471890971039</v>
       </c>
       <c r="F51" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G51">
         <v>0.6410256410256411</v>
       </c>
       <c r="H51" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I51">
         <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>196</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.076504667854021</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.076504667854021</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2605,31 +2452,22 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1">
-        <v>0.007507507507507507</v>
+        <v>0.01424050632911392</v>
       </c>
       <c r="F52" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G52">
         <v>0.6410256410256411</v>
       </c>
       <c r="H52" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2637,31 +2475,22 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="C53" s="1">
-        <v>0.03875968992248062</v>
+        <v>0.05</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G53">
         <v>0.6410256410256411</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>196</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4.093569170184537</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.093569170184537</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2669,31 +2498,22 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C54" s="1">
-        <v>0.01700680272108844</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G54">
         <v>0.6410256410256411</v>
       </c>
       <c r="H54" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I54">
         <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>196</v>
-      </c>
-      <c r="K54" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2701,31 +2521,22 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C55" s="1">
-        <v>0.008912655971479501</v>
+        <v>0.0268041237113402</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G55">
         <v>0.6410256410256411</v>
       </c>
       <c r="H55" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I55">
         <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>196</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4.095809719179334</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.095809719179334</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2733,31 +2544,22 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="C56" s="1">
-        <v>0.01259181532004197</v>
+        <v>0.01858736059479554</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G56">
         <v>0.6410256410256411</v>
       </c>
       <c r="H56" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I56">
         <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>196</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.0972378351617476</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.0972378351617476</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2765,31 +2567,22 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C57" s="1">
-        <v>0.02085747392815759</v>
+        <v>0.008493771234428085</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G57">
         <v>0.6410256410256411</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I57">
         <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>196</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2797,31 +2590,22 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C58" s="1">
-        <v>0.02119700748129676</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G58">
         <v>0.6410256410256411</v>
       </c>
       <c r="H58" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I58">
         <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>196</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2829,31 +2613,22 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C59" s="1">
-        <v>0.03293413173652695</v>
+        <v>0.03373015873015873</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G59">
         <v>0.6410256410256411</v>
       </c>
       <c r="H59" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I59">
         <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>196</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.028812649478626</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.028812649478626</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2861,31 +2636,22 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1">
-        <v>0.01873767258382643</v>
+        <v>0.02373706634205721</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G60">
         <v>0.6410256410256411</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>196</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2893,31 +2659,22 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="C61" s="1">
-        <v>0.01639344262295082</v>
+        <v>0.015</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G61">
         <v>0.6410256410256411</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>196</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2925,31 +2682,22 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C62" s="1">
-        <v>0.0338680926916221</v>
+        <v>0.0218281036834925</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G62">
         <v>0.6410256410256411</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I62">
         <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>196</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.041038527592024</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.041038527592024</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2957,31 +2705,22 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1">
-        <v>0.02016129032258064</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G63">
         <v>0.6410256410256411</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I63">
         <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>196</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2989,31 +2728,22 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C64" s="1">
-        <v>0.01717171717171717</v>
+        <v>0.01914893617021277</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G64">
         <v>0.6410256410256411</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I64">
         <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>196</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3021,31 +2751,22 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C65" s="1">
-        <v>0.01219512195121951</v>
+        <v>0.03480589022757698</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G65">
         <v>0.6410256410256411</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I65">
         <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4.088244118949543</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.088244118949543</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3053,31 +2774,22 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="C66" s="1">
-        <v>0.01658986175115208</v>
+        <v>0.02619760479041916</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G66">
         <v>0.6410256410256411</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I66">
         <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>196</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3085,31 +2797,22 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C67" s="1">
-        <v>0.01348039215686275</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G67">
         <v>0.6410256410256411</v>
       </c>
       <c r="H67" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I67">
         <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>196</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4.116395566950512</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4.116395566950512</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3117,31 +2820,22 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1">
-        <v>0.01292307692307692</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="F68" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G68">
         <v>0.6410256410256411</v>
       </c>
       <c r="H68" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I68">
         <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>196</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4.104543047061184</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.104543047061184</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3149,31 +2843,22 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C69" s="1">
-        <v>0.02785923753665689</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G69">
         <v>0.6410256410256411</v>
       </c>
       <c r="H69" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>196</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4.0481566862027645</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.0481566862027645</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3181,31 +2866,22 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C70" s="1">
-        <v>0.02981029810298103</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G70">
         <v>0.6410256410256411</v>
       </c>
       <c r="H70" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I70">
         <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>196</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.9962499142160635</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.9962499142160635</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3213,31 +2889,22 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C71" s="1">
-        <v>0.02105263157894737</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="F71" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G71">
         <v>0.6410256410256411</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="I71">
         <v>-1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>197</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-2.3139204847140404</v>
-      </c>
-      <c r="L71" t="n">
-        <v>-2.3139204847140404</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3245,31 +2912,22 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C72" s="1">
-        <v>0.01968826907301066</v>
+        <v>0.02331288343558282</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G72">
         <v>0.6410256410256411</v>
       </c>
       <c r="H72" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I72">
         <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>196</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3277,63 +2935,42 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C73" s="1">
-        <v>0.02585034013605442</v>
+        <v>0.01957585644371941</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G73">
         <v>0.6410256410256411</v>
       </c>
       <c r="H73" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I73">
         <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>196</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4.096292745969285</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.096292745969285</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>83</v>
       </c>
-      <c r="B74" t="s">
-        <v>173</v>
-      </c>
       <c r="C74" s="1">
-        <v>0.00760043431053203</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G74">
         <v>0.6410256410256411</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>196</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4.139766475073602</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.139766475073602</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3341,31 +2978,22 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1">
-        <v>0.01286291804483646</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G75">
         <v>0.6410256410256411</v>
       </c>
       <c r="H75" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>196</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.103232122343549</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.103232122343549</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3373,31 +3001,22 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1">
-        <v>0.0240174672489083</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="F76" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G76">
         <v>0.6410256410256411</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
-        <v>196</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4.134288443759365</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.134288443759365</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3405,31 +3024,22 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="C77" s="1">
-        <v>0.01696428571428571</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="F77" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G77">
         <v>0.6410256410256411</v>
       </c>
       <c r="H77" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>196</v>
-      </c>
-      <c r="K77" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3437,31 +3047,22 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C78" s="1">
-        <v>0.009247027741083224</v>
+        <v>0.02771362586605081</v>
       </c>
       <c r="F78" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G78">
         <v>0.6410256410256411</v>
       </c>
       <c r="H78" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>196</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4.083755902508422</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.083755902508422</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3469,31 +3070,22 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1">
-        <v>0.0145985401459854</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="F79" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G79">
         <v>0.6410256410256411</v>
       </c>
       <c r="H79" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I79">
         <v>1</v>
-      </c>
-      <c r="J79" t="s">
-        <v>196</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4.138312523292402</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.138312523292402</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3501,31 +3093,22 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C80" s="1">
-        <v>0.02413793103448276</v>
+        <v>0.03697183098591549</v>
       </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G80">
         <v>0.6410256410256411</v>
       </c>
       <c r="H80" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I80">
         <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>196</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4.131998519341158</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.131998519341158</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3533,31 +3116,22 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C81" s="1">
-        <v>0.01282051282051282</v>
+        <v>0.007507507507507507</v>
       </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G81">
         <v>0.6410256410256411</v>
       </c>
       <c r="H81" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="I81">
-        <v>-1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>198</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-0.709997850618432</v>
-      </c>
-      <c r="L81" t="n">
-        <v>-0.709997850618432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3565,31 +3139,22 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C82" s="1">
-        <v>0.003194888178913738</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G82">
         <v>0.6410256410256411</v>
       </c>
       <c r="H82" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="I82">
-        <v>-1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>196</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.506231132283238</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1.506231132283238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3597,31 +3162,22 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1">
-        <v>0.02844141069397042</v>
+        <v>0.01700680272108844</v>
       </c>
       <c r="F83" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G83">
         <v>0.6410256410256411</v>
       </c>
       <c r="H83" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I83">
         <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>196</v>
-      </c>
-      <c r="K83" t="n">
-        <v>4.033160925892922</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.033160925892922</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3629,31 +3185,22 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="C84" s="1">
-        <v>0.02157164869029276</v>
+        <v>0.008912655971479501</v>
       </c>
       <c r="F84" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G84">
         <v>0.6410256410256411</v>
       </c>
       <c r="H84" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I84">
         <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>196</v>
-      </c>
-      <c r="K84" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3661,31 +3208,22 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="C85" s="1">
-        <v>0.02196531791907514</v>
+        <v>0.01259181532004197</v>
       </c>
       <c r="F85" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G85">
         <v>0.6410256410256411</v>
       </c>
       <c r="H85" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I85">
         <v>1</v>
-      </c>
-      <c r="J85" t="s">
-        <v>196</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3693,31 +3231,22 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C86" s="1">
-        <v>0.02079395085066163</v>
+        <v>0.02085747392815759</v>
       </c>
       <c r="F86" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G86">
         <v>0.6410256410256411</v>
       </c>
       <c r="H86" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I86">
         <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>196</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3725,31 +3254,22 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C87" s="1">
-        <v>0.01596351197263398</v>
+        <v>0.02119700748129676</v>
       </c>
       <c r="F87" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G87">
         <v>0.6410256410256411</v>
       </c>
       <c r="H87" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I87">
         <v>1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>196</v>
-      </c>
-      <c r="K87" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3757,31 +3277,22 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C88" s="1">
-        <v>0.01844532279314888</v>
+        <v>0.03293413173652695</v>
       </c>
       <c r="F88" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G88">
         <v>0.6410256410256411</v>
       </c>
       <c r="H88" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="I88">
         <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>196</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.141118873520919</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3789,31 +3300,22 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C89" s="1">
-        <v>0.01867816091954023</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="F89" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="G89">
         <v>0.6410256410256411</v>
       </c>
       <c r="H89" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>196</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4.141118873520919</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.141118873520919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3821,31 +3323,22 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="C90" s="1">
-        <v>0.01452282157676349</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="F90" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="G90">
-        <v>0.6410256410256411</v>
+        <v>-0.6410256410256411</v>
       </c>
       <c r="H90" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90" t="s">
-        <v>196</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4.136913911400182</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.136913911400182</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3853,39 +3346,1223 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="C91" s="1">
+        <v>0.01873767258382643</v>
+      </c>
+      <c r="F91" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H91" t="s">
+        <v>295</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="F92" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H92" t="s">
+        <v>295</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.0338680926916221</v>
+      </c>
+      <c r="F93" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H93" t="s">
+        <v>295</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.02016129032258064</v>
+      </c>
+      <c r="F94" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H94" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.01717171717171717</v>
+      </c>
+      <c r="F95" t="s">
+        <v>292</v>
+      </c>
+      <c r="G95">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H95" t="s">
+        <v>295</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.01219512195121951</v>
+      </c>
+      <c r="F96" t="s">
+        <v>292</v>
+      </c>
+      <c r="G96">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H96" t="s">
+        <v>295</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.01658986175115208</v>
+      </c>
+      <c r="F97" t="s">
+        <v>292</v>
+      </c>
+      <c r="G97">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H97" t="s">
+        <v>295</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.01348039215686275</v>
+      </c>
+      <c r="F98" t="s">
+        <v>292</v>
+      </c>
+      <c r="G98">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H98" t="s">
+        <v>295</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>292</v>
+      </c>
+      <c r="G99">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H99" t="s">
+        <v>296</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.01292307692307692</v>
+      </c>
+      <c r="F100" t="s">
+        <v>292</v>
+      </c>
+      <c r="G100">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H100" t="s">
+        <v>295</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.02785923753665689</v>
+      </c>
+      <c r="F101" t="s">
+        <v>292</v>
+      </c>
+      <c r="G101">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H101" t="s">
+        <v>295</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.02981029810298103</v>
+      </c>
+      <c r="F102" t="s">
+        <v>292</v>
+      </c>
+      <c r="G102">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H102" t="s">
+        <v>295</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.02105263157894737</v>
+      </c>
+      <c r="F103" t="s">
+        <v>292</v>
+      </c>
+      <c r="G103">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H103" t="s">
+        <v>296</v>
+      </c>
+      <c r="I103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.01968826907301066</v>
+      </c>
+      <c r="F104" t="s">
+        <v>292</v>
+      </c>
+      <c r="G104">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H104" t="s">
+        <v>295</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.02585034013605442</v>
+      </c>
+      <c r="F105" t="s">
+        <v>292</v>
+      </c>
+      <c r="G105">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H105" t="s">
+        <v>295</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.00760043431053203</v>
+      </c>
+      <c r="F106" t="s">
+        <v>292</v>
+      </c>
+      <c r="G106">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H106" t="s">
+        <v>295</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.01286291804483646</v>
+      </c>
+      <c r="F107" t="s">
+        <v>292</v>
+      </c>
+      <c r="G107">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H107" t="s">
+        <v>295</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="F108" t="s">
+        <v>292</v>
+      </c>
+      <c r="G108">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H108" t="s">
+        <v>296</v>
+      </c>
+      <c r="I108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.0240174672489083</v>
+      </c>
+      <c r="F109" t="s">
+        <v>292</v>
+      </c>
+      <c r="G109">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H109" t="s">
+        <v>295</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.01696428571428571</v>
+      </c>
+      <c r="F110" t="s">
+        <v>292</v>
+      </c>
+      <c r="G110">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H110" t="s">
+        <v>295</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.009247027741083224</v>
+      </c>
+      <c r="F111" t="s">
+        <v>292</v>
+      </c>
+      <c r="G111">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H111" t="s">
+        <v>295</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.0145985401459854</v>
+      </c>
+      <c r="F112" t="s">
+        <v>292</v>
+      </c>
+      <c r="G112">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H112" t="s">
+        <v>295</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.02413793103448276</v>
+      </c>
+      <c r="F113" t="s">
+        <v>292</v>
+      </c>
+      <c r="G113">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H113" t="s">
+        <v>295</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.01282051282051282</v>
+      </c>
+      <c r="F114" t="s">
+        <v>292</v>
+      </c>
+      <c r="G114">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H114" t="s">
+        <v>296</v>
+      </c>
+      <c r="I114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.003194888178913738</v>
+      </c>
+      <c r="F115" t="s">
+        <v>292</v>
+      </c>
+      <c r="G115">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H115" t="s">
+        <v>296</v>
+      </c>
+      <c r="I115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.06321839080459771</v>
+      </c>
+      <c r="F116" t="s">
+        <v>293</v>
+      </c>
+      <c r="G116">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H116" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.02844141069397042</v>
+      </c>
+      <c r="F117" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H117" t="s">
+        <v>295</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.02157164869029276</v>
+      </c>
+      <c r="F118" t="s">
+        <v>292</v>
+      </c>
+      <c r="G118">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H118" t="s">
+        <v>295</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.02196531791907514</v>
+      </c>
+      <c r="F119" t="s">
+        <v>292</v>
+      </c>
+      <c r="G119">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H119" t="s">
+        <v>295</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.01403061224489796</v>
+      </c>
+      <c r="F120" t="s">
+        <v>292</v>
+      </c>
+      <c r="G120">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H120" t="s">
+        <v>296</v>
+      </c>
+      <c r="I120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.01496259351620948</v>
+      </c>
+      <c r="F121" t="s">
+        <v>292</v>
+      </c>
+      <c r="G121">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H121" t="s">
+        <v>296</v>
+      </c>
+      <c r="I121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.006042296072507553</v>
+      </c>
+      <c r="F122" t="s">
+        <v>292</v>
+      </c>
+      <c r="G122">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H122" t="s">
+        <v>296</v>
+      </c>
+      <c r="I122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.02079395085066163</v>
+      </c>
+      <c r="F123" t="s">
+        <v>292</v>
+      </c>
+      <c r="G123">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H123" t="s">
+        <v>295</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.01596351197263398</v>
+      </c>
+      <c r="F124" t="s">
+        <v>292</v>
+      </c>
+      <c r="G124">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H124" t="s">
+        <v>295</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.01844532279314888</v>
+      </c>
+      <c r="F125" t="s">
+        <v>292</v>
+      </c>
+      <c r="G125">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H125" t="s">
+        <v>295</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="F126" t="s">
+        <v>292</v>
+      </c>
+      <c r="G126">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H126" t="s">
+        <v>296</v>
+      </c>
+      <c r="I126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.01867816091954023</v>
+      </c>
+      <c r="F127" t="s">
+        <v>292</v>
+      </c>
+      <c r="G127">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H127" t="s">
+        <v>295</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.01016949152542373</v>
+      </c>
+      <c r="F128" t="s">
+        <v>292</v>
+      </c>
+      <c r="G128">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H128" t="s">
+        <v>296</v>
+      </c>
+      <c r="I128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="F129" t="s">
+        <v>292</v>
+      </c>
+      <c r="G129">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H129" t="s">
+        <v>296</v>
+      </c>
+      <c r="I129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.03125</v>
+      </c>
+      <c r="F130" t="s">
+        <v>292</v>
+      </c>
+      <c r="G130">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H130" t="s">
+        <v>296</v>
+      </c>
+      <c r="I130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>279</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.03070175438596491</v>
+      </c>
+      <c r="F131" t="s">
+        <v>292</v>
+      </c>
+      <c r="G131">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H131" t="s">
+        <v>296</v>
+      </c>
+      <c r="I131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.01452282157676349</v>
+      </c>
+      <c r="F132" t="s">
+        <v>292</v>
+      </c>
+      <c r="G132">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H132" t="s">
+        <v>295</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="1">
         <v>0.01162790697674419</v>
       </c>
-      <c r="F91" t="s">
-        <v>191</v>
-      </c>
-      <c r="G91">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="H91" t="s">
-        <v>193</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>196</v>
-      </c>
-      <c r="K91" t="n">
-        <v>4.074950815803128</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.074950815803128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="F92" t="s">
-        <v>192</v>
-      </c>
-      <c r="H92" t="s">
-        <v>195</v>
+      <c r="F133" t="s">
+        <v>292</v>
+      </c>
+      <c r="G133">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H133" t="s">
+        <v>295</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.015625</v>
+      </c>
+      <c r="F134" t="s">
+        <v>292</v>
+      </c>
+      <c r="G134">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H134" t="s">
+        <v>296</v>
+      </c>
+      <c r="I134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.02898550724637681</v>
+      </c>
+      <c r="F135" t="s">
+        <v>292</v>
+      </c>
+      <c r="G135">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H135" t="s">
+        <v>296</v>
+      </c>
+      <c r="I135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="F136" t="s">
+        <v>292</v>
+      </c>
+      <c r="G136">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H136" t="s">
+        <v>296</v>
+      </c>
+      <c r="I136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.0223463687150838</v>
+      </c>
+      <c r="F137" t="s">
+        <v>292</v>
+      </c>
+      <c r="G137">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H137" t="s">
+        <v>296</v>
+      </c>
+      <c r="I137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.00881057268722467</v>
+      </c>
+      <c r="F138" t="s">
+        <v>292</v>
+      </c>
+      <c r="G138">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H138" t="s">
+        <v>296</v>
+      </c>
+      <c r="I138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.02022058823529412</v>
+      </c>
+      <c r="F139" t="s">
+        <v>292</v>
+      </c>
+      <c r="G139">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H139" t="s">
+        <v>296</v>
+      </c>
+      <c r="I139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="F140" t="s">
+        <v>293</v>
+      </c>
+      <c r="G140">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H140" t="s">
+        <v>296</v>
+      </c>
+      <c r="I140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="F141" t="s">
+        <v>293</v>
+      </c>
+      <c r="G141">
+        <v>-0.6410256410256411</v>
+      </c>
+      <c r="H141" t="s">
+        <v>296</v>
+      </c>
+      <c r="I141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.006134969325153374</v>
+      </c>
+      <c r="F142" t="s">
+        <v>292</v>
+      </c>
+      <c r="G142">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H142" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="F143" t="s">
+        <v>292</v>
+      </c>
+      <c r="G143">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="H143" t="s">
+        <v>296</v>
+      </c>
+      <c r="I143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="F144" t="s">
+        <v>294</v>
+      </c>
+      <c r="H144" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -34,13 +34,13 @@
     <t>Solicita compartilhamento?</t>
   </si>
   <si>
-    <t>Compartilhamento valorado</t>
+    <t>Compartilhamento convertido</t>
   </si>
   <si>
     <t>Notícia sensacionalista?</t>
   </si>
   <si>
-    <t>Sensacionalismo valorado</t>
+    <t>Sensacionalismo convertido</t>
   </si>
   <si>
     <t>Resultado final</t>
@@ -475,46 +475,46 @@
     <t>Óleo no umbigo cura doenças.txt</t>
   </si>
   <si>
-    <t>jaques, trombose, anestesiologista, gattoni, detectada, necropsias, infectados, entubadas, surfactantes, —, respirações, bellevue, sztajnbok, pneumologista, covid, anticoagulantes, fluídos, esfaqueamento, entubados, göttingen, infectada, gattinoni, levitan, oxímetros, intrigados</t>
-  </si>
-  <si>
-    <t>transgênicos, saudáveis​​, defending, parents, pharma, ogms, vaccinated, mandates, reorientar, comprovadamente, vaccines, higher, —, afligidos, contêm, studies, tetyana, vactruthcom, ​​em, sites, placebos, patrocinados, firms, vaers, triplice, sgb, nutrientes, unvaccinated, related, updated, says, healthier, diseases, lesadas, reasons, eficazmente, nauseam, reactions, responsabilizadas, gms, conservantes, origins, obukhanych, “, gardasil, sanevax, empurradores, vaxtruth, recommended, rentáveis, geneticamente, anvisa, ​​e, vactruth, adjuvantes, injury, ingredients, imunocomprometidas</t>
-  </si>
-  <si>
-    <t>emberton, ucl, kings, intervencionista, obtêm, cânceres, invasiva, reimagine, sangramento, genômica, mamografias</t>
-  </si>
-  <si>
-    <t>renezika, infectados, decit, coinfectados, contaminada, coinfection, bloomber, hvd, viruses, questionamentos, nágila, tweeters, coinfectado, financiada, fiocruz, diseases, coinfecção, infectada, visualizações, manejamento, secundino, mcti, “, chikungunya, fmt, monoinfectados, results, downloads</t>
-  </si>
-  <si>
-    <t>inalações, cerebrali, prostata, radiografias, inalador, metodicamente, subministrar, candidíases, peritoneale, metástases, adaptabilidade, conseqüência, 360°, intertítulo, oncologista, macrobióticos, deleto, coliciste, 36a, vescica, oncologistas, carcinosi, substancialmente, absurdamente, phds, •, gotejador, polmonari, lincados, casi, cancerígenas, convincentes, bronchiale, charcot, metastasipolmonari, legendado, diffuso, ½, abrasões, pecezinho, sinceramente, dias3, cérvico, 90°, nahco3, pediátrica, links, lavagens, vezes1, simoncini, entopem, poderosíssima, diretaço, restringe, dellintestino, linfomas, colecisti, ingerível, è, tumore, alcalinizando, “, midollare, alcuni, piccoli, 5todos, tanti, linfonodos, palpebra, estomago, epatocarcinoma, cânceres, sites, alla, reversões, jfj, equimoses, trattati, polmoni, enlouquecida, metodologias, cirurgias, tumori, semanas4, empiricamente, turmores, coróide, mês1</t>
-  </si>
-  <si>
-    <t>99ph, 87ph, 132ph, 85ph, 127ph, 156ph, 227ph, abençoê, 92ph</t>
-  </si>
-  <si>
-    <t>bmk, liderados, fármacos, ioc, blanver, bruning, chikungunya, chemotehrapy, farmoquímica, fiocruz, neglected, diseases, ini, plos, cdts, idor, sofosbuvir</t>
-  </si>
-  <si>
-    <t>“, refrescante, 16º, simplemente, cm2</t>
-  </si>
-  <si>
-    <t>acidose, blaylock, hj, lobbies, dopamina, entitulado, câimbras, riccio, zerocal, assintomáticas, arckle, 30º, contaminados, raffaele, adoçante, mancy</t>
+    <t>infectada, intrigados, fluídos, trombose, anestesiologista, göttingen, gattoni, jaques, pneumologista, oxímetros, detectada, anticoagulantes, esfaqueamento, entubadas, necropsias, covid, bellevue, sztajnbok, entubados, levitan, respirações, gattinoni, —, infectados, surfactantes</t>
+  </si>
+  <si>
+    <t>reorientar, geneticamente, sites, reactions, empurradores, ​​em, responsabilizadas, nauseam, related, afligidos, firms, contêm, saudáveis​​, mandates, transgênicos, placebos, healthier, vaccines, sanevax, “, diseases, gardasil, unvaccinated, higher, lesadas, comprovadamente, recommended, defending, studies, eficazmente, parents, tetyana, rentáveis, triplice, sgb, ingredients, anvisa, nutrientes, vactruth, obukhanych, adjuvantes, vaers, patrocinados, says, vaxtruth, vaccinated, pharma, injury, ​​e, —, imunocomprometidas, reasons, ogms, vactruthcom, gms, conservantes, origins, updated</t>
+  </si>
+  <si>
+    <t>invasiva, sangramento, cânceres, mamografias, reimagine, obtêm, kings, genômica, emberton, ucl, intervencionista</t>
+  </si>
+  <si>
+    <t>financiada, infectada, mcti, fmt, coinfecção, results, secundino, questionamentos, “, diseases, coinfection, monoinfectados, renezika, manejamento, tweeters, bloomber, nágila, visualizações, contaminada, chikungunya, hvd, coinfectado, fiocruz, decit, coinfectados, infectados, viruses, downloads</t>
+  </si>
+  <si>
+    <t>90°, metodicamente, ½, sinceramente, linfonodos, macrobióticos, turmores, radiografias, adaptabilidade, reversões, cirurgias, tanti, coliciste, semanas4, tumori, absurdamente, pecezinho, diretaço, 5todos, intertítulo, sites, piccoli, tumore, coróide, casi, nahco3, polmoni, inalador, deleto, epatocarcinoma, cânceres, entopem, oncologistas, lincados, charcot, empiricamente, equimoses, cerebrali, cérvico, peritoneale, dias3, midollare, dellintestino, diffuso, substancialmente, colecisti, mês1, simoncini, oncologista, 36a, links, estomago, linfomas, •, polmonari, poderosíssima, gotejador, inalações, legendado, è, alcuni, alcalinizando, conseqüência, metástases, cancerígenas, convincentes, restringe, phds, alla, carcinosi, 360°, pediátrica, candidíases, bronchiale, subministrar, metastasipolmonari, “, lavagens, trattati, ingerível, metodologias, vescica, vezes1, jfj, prostata, palpebra, enlouquecida, abrasões</t>
+  </si>
+  <si>
+    <t>85ph, 227ph, abençoê, 92ph, 132ph, 99ph, 87ph, 127ph, 156ph</t>
+  </si>
+  <si>
+    <t>farmoquímica, chikungunya, neglected, fiocruz, ini, bmk, liderados, chemotehrapy, fármacos, diseases, ioc, plos, idor, blanver, cdts, bruning, sofosbuvir</t>
+  </si>
+  <si>
+    <t>simplemente, refrescante, 16º, “, cm2</t>
+  </si>
+  <si>
+    <t>raffaele, zerocal, dopamina, hj, assintomáticas, 30º, contaminados, entitulado, riccio, lobbies, arckle, câimbras, blaylock, adoçante, acidose, mancy</t>
   </si>
   <si>
     <t>possivel</t>
   </si>
   <si>
-    <t>vocais, próteses, restabelecimento, suavozacbg, laringectomizados, acbg, fonatória, fonatórias, reabilitados</t>
-  </si>
-  <si>
-    <t>funed, 18c, biotecnologia, 9v, 23f, neurogenômica, prevalentes, ioc, sequenciamento, pneumocócica, sireva, 19a, cepas, neoprospecta, bacterianas, brgem, pneumonias, pcv10, fiocruz, genoma, genômica, biossistemas, antimicrobianos, genômicas, sorotipos, antipneumococos, 7f, meningites, 6b, 19f</t>
+    <t>laringectomizados, vocais, restabelecimento, próteses, acbg, fonatória, fonatórias, suavozacbg, reabilitados</t>
+  </si>
+  <si>
+    <t>7f, genômica, pcv10, 23f, brgem, 19a, cepas, genômicas, biossistemas, funed, pneumonias, meningites, biotecnologia, 18c, 9v, antipneumococos, ioc, sequenciamento, antimicrobianos, neurogenômica, pneumocócica, neoprospecta, bacterianas, sorotipos, fiocruz, 6b, prevalentes, genoma, sireva, 19f</t>
   </si>
   <si>
     <t>lugarquando, cairam</t>
   </si>
   <si>
-    <t>contêm, oncologista, madeixasé</t>
+    <t>oncologista, madeixasé, contêm</t>
   </si>
   <si>
     <t>infectologista</t>
@@ -523,373 +523,373 @@
     <t>vómitos, reage</t>
   </si>
   <si>
-    <t>hu, percursso</t>
-  </si>
-  <si>
-    <t>arakaki, “</t>
-  </si>
-  <si>
-    <t>transgênicos, mers, kalil, desenvolem, “, particles, vlps, fiocruz, imunogênica, geneticamente, r7, neutralizantes, covid, causador, sucedida, incor</t>
-  </si>
-  <si>
-    <t>neocotinoides, syngenta, pesticides, neumann, multinacionais, tuncak, —, highly, bolsonaro, contêm, unearthed, sygenta, fazen, baskut, iarc, financiada, sumitomo, basf, ciproconazol, reconhecidamente, hhps, internacionalmente, glufosinato, unhearted, corteva, croplife, fmc, hhp, agroquímicas, agroquímicos, carcinogênicos, christoph</t>
-  </si>
-  <si>
-    <t>kings, benckiser, nhs, biomédica, guys, nihr, maudsley, reckitt, covid, nurofen, inflamatórios</t>
-  </si>
-  <si>
-    <t>“, wenliang, theobromine, theophylline, methylxanthine, covid, metilxantinas</t>
-  </si>
-  <si>
-    <t>antoniosi, reports, diagnosticada, “</t>
-  </si>
-  <si>
-    <t>nossso, infectologista, h1n1, famíliares</t>
-  </si>
-  <si>
-    <t>covid, alcalinizam, comprovadamente, covid19</t>
+    <t>percursso, hu</t>
+  </si>
+  <si>
+    <t>“, arakaki</t>
+  </si>
+  <si>
+    <t>geneticamente, desenvolem, causador, vlps, transgênicos, fiocruz, imunogênica, neutralizantes, kalil, incor, “, mers, covid, r7, sucedida, particles</t>
+  </si>
+  <si>
+    <t>internacionalmente, financiada, basf, pesticides, christoph, neocotinoides, hhp, agroquímicos, baskut, glufosinato, bolsonaro, sumitomo, fazen, contêm, highly, fmc, corteva, hhps, iarc, sygenta, agroquímicas, multinacionais, unearthed, syngenta, unhearted, carcinogênicos, reconhecidamente, —, ciproconazol, tuncak, croplife, neumann</t>
+  </si>
+  <si>
+    <t>benckiser, nurofen, biomédica, nhs, reckitt, nihr, maudsley, kings, covid, guys, inflamatórios</t>
+  </si>
+  <si>
+    <t>methylxanthine, theobromine, metilxantinas, “, covid, theophylline, wenliang</t>
+  </si>
+  <si>
+    <t>reports, antoniosi, “, diagnosticada</t>
+  </si>
+  <si>
+    <t>h1n1, nossso, infectologista, famíliares</t>
+  </si>
+  <si>
+    <t>comprovadamente, alcalinizam, covid19, covid</t>
   </si>
   <si>
     <t>gratificante</t>
   </si>
   <si>
-    <t>remdesivir, participantes, bmj, bolsonaro, 1a, jama, soumya, covid, questionamentos, swaminathan</t>
+    <t>participantes, bmj, swaminathan, questionamentos, bolsonaro, 1a, covid, soumya, remdesivir, jama</t>
   </si>
   <si>
     <t>covid, infectados</t>
   </si>
   <si>
-    <t>équateur, 1º, moeti, contaminadas, congolesas, beni, contaminados, 11º, eteni, longondo, matshidiso, infectadas, mbandaka, fluídos</t>
-  </si>
-  <si>
-    <t>ambev, conseqüente, “, almeido, fenofinol, tranqüila, socbrasde, fleury, skol, voliteral</t>
-  </si>
-  <si>
-    <t>proprios, conseqüente, refrigerantes, “, almeido, fanta, fenofinol, tranqüila, socbrasde, fleury, voliteral</t>
-  </si>
-  <si>
-    <t>krys, ravi, kits, enfrentamento, —, apidemia, fauci, aterrorizante, covid, sistêmicas, precocemente, indocumentados, distanciamento, rubio, grvois, tracking, tsai, cuomo, detectados, diagnosticadas</t>
-  </si>
-  <si>
-    <t>—, mers, infectada, infectados, infectadas, metrôs</t>
-  </si>
-  <si>
-    <t>—, alamos, infecciosidade, pontinhas, ucl, françois, balloux, cepas, coautora, genomas, d614g, gisaid, covid, genoma, gravemente, dorp</t>
-  </si>
-  <si>
-    <t>​​no, cortés, pandêmica, enfrentadas, acostumados, merwin, cremadas, guayas, cremados, imunodeprimidas, alvejante, incinerar, funerais, eclodiu, marburg, covid, terán</t>
-  </si>
-  <si>
-    <t>tedros, 1º, ghebreyesus, infectadas, mycobacterium, ecdc, adhanom, covid, letalidade</t>
-  </si>
-  <si>
-    <t>review, 400mg, 1b, —, mers, ruttonjee, 100mg, antivirais, ribavirin, covid, coautora, diagnosticados, aleatoriamente, yung, participantes, liderados, observacionais, síndromes, interferons, randomizado, yuen, kwok, shalhoub</t>
-  </si>
-  <si>
-    <t>°, desinfetante, mícrons</t>
-  </si>
-  <si>
-    <t>hiperendêmico, infectada, antimaláricos, infectadas, comumente, investigadas, covid, vzv</t>
-  </si>
-  <si>
-    <t>linfonodos, gripes, infectologista, •, vilanizar, micronutrientes, infectadas, renato, granje, desinformação, —, fagocitando, imunologia, microbiota, covid, killers, macrófagos, microrganismos, imunossupressores, inflamatória, antioxidantes, chebabbo, autodestruir, ingeridos, neutrófilos, superssuplementando</t>
-  </si>
-  <si>
-    <t>covid, —, reinfecção, kerkhove</t>
-  </si>
-  <si>
-    <t>participantes, —, kings, mehta, guys, mitul, covid, esteroides, inflamatórios, veran</t>
-  </si>
-  <si>
-    <t>notificados, hipertenso, kits, infectadas, letalidade, périssé, comportamentais, —, criadouros, covid, beto, diagnosticados, fiocruz, infectada, cirurgias, concomitantes, transmissibilidade, sorotipos, preocupante, chikungunya, historicamente, anvisa, imunizada, felippe, massuda</t>
-  </si>
-  <si>
-    <t>pescetarianos, faidon, enriquecidos, sustentabilidade, —, onívora, contêm, bife, medawar, veganas, rebholz, sangramento, nutrientes, isquêmicos, irreversíveis, bloomberg, springman, mantêm, vegana, springmann, magkos, confiabilidade, veganos, b12, participantes, cardiovasculares, ​​e</t>
-  </si>
-  <si>
-    <t>jfigueiredon, ​​, rastreados, microbiota, covid, reconfigurados</t>
-  </si>
-  <si>
-    <t>abrasco, meníngea, revacinadas, imunologia, opas, maternidades, sbi, sipni, ctai, 1º, imunizações, precocemente, sbp, sbim, febrasgo, internacionalmente, ofertada, “, gestores</t>
-  </si>
-  <si>
-    <t>polifenol, trombose, cancerígenas, curativas, handphone, reddy, osh, guruprasad</t>
-  </si>
-  <si>
-    <t>antecedida, ionizante, fiocruz, boechat, diagnóstica, assintomáticas, cirurgias, desconfortável, iff</t>
-  </si>
-  <si>
-    <t>—, oncologista, diagnosticada, sbpt, pneumologista, cancerígenas, ultraprocessados</t>
-  </si>
-  <si>
-    <t>carcinogênica, 10ª, aih, c34, blanquet, c33, baquero, subtipos, 10h, 1521110km2, cih, iarc, nardocci, adeylson, research, papanicolaou, 16h, neoplasia, conservantes, c32, uicc, nitritos, km2, capita, causador</t>
-  </si>
-  <si>
-    <t>laetril, “, obtêm, amígdalina, itens, b17, 5sementes, mirtilos, alforjón</t>
-  </si>
-  <si>
-    <t>brócolis, kokum, calcagno, “, cânceres, biomédica, histonas, garcinol, anticâncer, focada</t>
-  </si>
-  <si>
-    <t>biobank, e4, apoe, alzheimers, e3, covid</t>
-  </si>
-  <si>
-    <t>reports, isc, desfechos, cidacs, neurologic, malformations, emerging, fiocruz, lshtm, diseases, controls, enny, microcefalia</t>
-  </si>
-  <si>
-    <t>isc, cidacs, sinasc, 500g, fiocruz, enny, sinan, symtomatic, b19, infectadas</t>
-  </si>
-  <si>
-    <t>crapino, pediátrica, glicosímetros, liberatore, diagnosticados, insulinas, idf, cardiovasculares, embaçada, socioeconômicos, vigitel, 9º, strachan, roio, sbd</t>
-  </si>
-  <si>
-    <t>communications, akkermansia, akkemansia, sequenciamento, antropométricos, microbiota, nutrientes, inflamatórios, dento, prebióticos, fiocruz, muciniphila, microbiotas, biossistemas, genômica, bioquímicos, inflamatória, autoimunes, “, incapazes, enfrentados</t>
-  </si>
-  <si>
-    <t>hpn, imunossupressores, pcdt, hematopoiéticas, sorotipos, prevalentes, acwy, paroxística, gestores, meningocógica, eculizumabe, corticoides, conitec, meningococos, meningocócicas, anticoagulantes, soliris</t>
-  </si>
-  <si>
-    <t>hesistência, alguém…, 60cl, acção, crónica, canalizacao, atinge, afectará, cancerígenos, canalizador, desconfortável, celibatos, dey, projectada, cânceres, extracto, 50cl, cancerígenas, jacto, ugbogulu, vestuario, wahala, sémen, infectada, , encanador, boxers, lawma, 300cl, “, bph, colega…, humedecimento, 15mg, hormonais, horin, directamente, afecta, reembalar</t>
-  </si>
-  <si>
-    <t>freqüente, 16h, 11h</t>
-  </si>
-  <si>
-    <t>—, chieh, sistêmica, euphorbia, mattar, despigmentação, porssível, melanocíticas, inflamatórias, resiniferatoxin, guilhotinada, resinifera, desobedientes, hsu, fapesp, embranquecimento</t>
-  </si>
-  <si>
-    <t>reports, isc, 1º, 10ª, cidacs, periodo, “, odm, sinasc, diagnosticados, using, enny, fiocruz, infectada, sinan, diagnosticada, descontrole, incidentais</t>
-  </si>
-  <si>
-    <t>genomas, wellcome, indentificar, contêm, cânceres, precocemente, tencologias, genomes, genoma</t>
-  </si>
-  <si>
-    <t>pyriproxyfen, abad, franch, epidemics, disseminadoras, deane, decit, disseminated, criadouros, munícipio, opas, pncd, socioeconômicos, plos, its, fiocruz, fapeam, bessa, fvs, “, observations, chikungunya, disseminadora, results, arbovirus, perea</t>
-  </si>
-  <si>
-    <t>a1, interpessoal, decode, infectados, infectadas, —, constatada, sequenciamento, autoisolamento, biofarmacêutica, haplótipos, covid, biotechnologies, cepas, 1º, adaptive, a2, precocemente, preventivamente, aleatoriamente, infectada, subsidiaria, distanciamento, neutralizantes, tatiana, islandeses, participantes, assintomática, diagnosticada, castello, prestigiada, detectados, capita, islandesas, islandesa</t>
-  </si>
-  <si>
-    <t>sapan, confidencialidade, mandeep, surgisphere, mehra, infectados, amit, covid, desai, ruschitza</t>
+    <t>équateur, 11º, matshidiso, mbandaka, 1º, moeti, eteni, contaminados, contaminadas, beni, fluídos, congolesas, longondo, infectadas</t>
+  </si>
+  <si>
+    <t>tranqüila, voliteral, conseqüente, skol, ambev, fenofinol, almeido, fleury, “, socbrasde</t>
+  </si>
+  <si>
+    <t>fanta, tranqüila, voliteral, proprios, conseqüente, fenofinol, almeido, fleury, “, socbrasde, refrigerantes</t>
+  </si>
+  <si>
+    <t>ravi, cuomo, precocemente, fauci, aterrorizante, tsai, indocumentados, kits, sistêmicas, rubio, enfrentamento, detectados, krys, distanciamento, apidemia, covid, tracking, —, grvois, diagnosticadas</t>
+  </si>
+  <si>
+    <t>infectada, —, infectados, mers, metrôs, infectadas</t>
+  </si>
+  <si>
+    <t>françois, alamos, coautora, cepas, gisaid, balloux, pontinhas, —, gravemente, infecciosidade, genoma, genomas, covid, d614g, ucl, dorp</t>
+  </si>
+  <si>
+    <t>acostumados, terán, ​​no, guayas, imunodeprimidas, pandêmica, incinerar, merwin, cremados, alvejante, cortés, covid, eclodiu, cremadas, funerais, marburg, enfrentadas</t>
+  </si>
+  <si>
+    <t>ecdc, adhanom, letalidade, tedros, mycobacterium, 1º, ghebreyesus, covid, infectadas</t>
+  </si>
+  <si>
+    <t>antivirais, ribavirin, 100mg, liderados, 400mg, shalhoub, aleatoriamente, coautora, diagnosticados, yung, kwok, observacionais, interferons, síndromes, participantes, review, 1b, covid, randomizado, —, mers, ruttonjee, yuen</t>
+  </si>
+  <si>
+    <t>desinfetante, mícrons, °</t>
+  </si>
+  <si>
+    <t>investigadas, comumente, hiperendêmico, infectada, vzv, covid, antimaláricos, infectadas</t>
+  </si>
+  <si>
+    <t>antioxidantes, granje, autodestruir, fagocitando, microbiota, infectologista, killers, gripes, macrófagos, •, superssuplementando, linfonodos, neutrófilos, chebabbo, micronutrientes, ingeridos, inflamatória, vilanizar, renato, covid, desinformação, infectadas, imunologia, —, microrganismos, imunossupressores</t>
+  </si>
+  <si>
+    <t>—, kerkhove, covid, reinfecção</t>
+  </si>
+  <si>
+    <t>mehta, participantes, veran, —, mitul, kings, esteroides, covid, guys, inflamatórios</t>
+  </si>
+  <si>
+    <t>beto, criadouros, infectada, kits, diagnosticados, preocupante, notificados, concomitantes, letalidade, périssé, cirurgias, felippe, transmissibilidade, covid, infectadas, chikungunya, historicamente, sorotipos, fiocruz, hipertenso, imunizada, —, massuda, comportamentais, anvisa</t>
+  </si>
+  <si>
+    <t>confiabilidade, vegana, faidon, onívora, bloomberg, contêm, sangramento, magkos, veganas, mantêm, bife, cardiovasculares, b12, isquêmicos, enriquecidos, medawar, rebholz, participantes, springmann, irreversíveis, nutrientes, pescetarianos, springman, sustentabilidade, —, ​​e, veganos</t>
+  </si>
+  <si>
+    <t>rastreados, microbiota, jfigueiredon, ​​, covid, reconfigurados</t>
+  </si>
+  <si>
+    <t>internacionalmente, ctai, precocemente, 1º, “, abrasco, gestores, imunizações, maternidades, sbim, opas, revacinadas, sipni, ofertada, febrasgo, imunologia, meníngea, sbp, sbi</t>
+  </si>
+  <si>
+    <t>polifenol, cancerígenas, osh, guruprasad, curativas, reddy, handphone, trombose</t>
+  </si>
+  <si>
+    <t>boechat, antecedida, cirurgias, fiocruz, assintomáticas, desconfortável, iff, diagnóstica, ionizante</t>
+  </si>
+  <si>
+    <t>oncologista, ultraprocessados, diagnosticada, cancerígenas, —, sbpt, pneumologista</t>
+  </si>
+  <si>
+    <t>16h, uicc, 10h, c33, neoplasia, baquero, cih, 10ª, c32, research, iarc, carcinogênica, causador, nitritos, adeylson, km2, papanicolaou, nardocci, blanquet, c34, 1521110km2, subtipos, aih, capita, conservantes</t>
+  </si>
+  <si>
+    <t>5sementes, alforjón, laetril, obtêm, itens, “, b17, mirtilos, amígdalina</t>
+  </si>
+  <si>
+    <t>cânceres, garcinol, biomédica, brócolis, anticâncer, histonas, “, kokum, focada, calcagno</t>
+  </si>
+  <si>
+    <t>e3, alzheimers, e4, covid, apoe, biobank</t>
+  </si>
+  <si>
+    <t>cidacs, lshtm, emerging, enny, desfechos, fiocruz, isc, microcefalia, neurologic, controls, diseases, reports, malformations</t>
+  </si>
+  <si>
+    <t>cidacs, enny, fiocruz, 500g, isc, b19, sinan, sinasc, symtomatic, infectadas</t>
+  </si>
+  <si>
+    <t>diagnosticados, strachan, roio, vigitel, glicosímetros, socioeconômicos, sbd, insulinas, idf, pediátrica, cardiovasculares, liberatore, embaçada, 9º, crapino</t>
+  </si>
+  <si>
+    <t>microbiota, dento, genômica, muciniphila, prebióticos, akkermansia, communications, biossistemas, “, akkemansia, incapazes, inflamatórios, microbiotas, inflamatória, nutrientes, sequenciamento, bioquímicos, fiocruz, antropométricos, enfrentados, autoimunes</t>
+  </si>
+  <si>
+    <t>anticoagulantes, meningococos, sorotipos, pcdt, prevalentes, soliris, paroxística, corticoides, imunossupressores, acwy, hematopoiéticas, gestores, meningocógica, meningocócicas, conitec, hpn, eculizumabe</t>
+  </si>
+  <si>
+    <t>15mg, vestuario, horin, infectada, cancerígenos, acção, 300cl, reembalar, afectará, afecta, ugbogulu, cânceres, “, hesistência, canalizacao, canalizador, 50cl, directamente, 60cl, bph, hormonais, alguém…, sémen, jacto, colega…, , extracto, cancerígenas, celibatos, desconfortável, boxers, encanador, dey, wahala, humedecimento, crónica, projectada, lawma, atinge</t>
+  </si>
+  <si>
+    <t>11h, 16h, freqüente</t>
+  </si>
+  <si>
+    <t>sistêmica, embranquecimento, porssível, desobedientes, guilhotinada, fapesp, euphorbia, hsu, —, chieh, melanocíticas, resiniferatoxin, despigmentação, inflamatórias, mattar, resinifera</t>
+  </si>
+  <si>
+    <t>cidacs, diagnosticados, odm, enny, fiocruz, isc, infectada, 1º, diagnosticada, sinan, sinasc, “, using, descontrole, 10ª, reports, periodo, incidentais</t>
+  </si>
+  <si>
+    <t>cânceres, precocemente, indentificar, genomas, genoma, tencologias, genomes, wellcome, contêm</t>
+  </si>
+  <si>
+    <t>criadouros, deane, fapeam, arbovirus, abad, pyriproxyfen, results, socioeconômicos, disseminadoras, “, fvs, opas, bessa, pncd, munícipio, epidemics, its, disseminated, observations, chikungunya, disseminadora, fiocruz, decit, perea, plos, franch</t>
+  </si>
+  <si>
+    <t>constatada, islandesas, precocemente, infectada, interpessoal, haplótipos, islandeses, prestigiada, aleatoriamente, biotechnologies, castello, a1, cepas, tatiana, 1º, diagnosticada, neutralizantes, detectados, preventivamente, distanciamento, adaptive, assintomática, participantes, autoisolamento, covid, sequenciamento, a2, infectadas, decode, islandesa, subsidiaria, —, infectados, capita, biofarmacêutica</t>
+  </si>
+  <si>
+    <t>sapan, desai, confidencialidade, mandeep, surgisphere, infectados, mehra, covid, ruschitza, amit</t>
   </si>
   <si>
     <t>comprovante, ofertada, notificados, cards</t>
   </si>
   <si>
-    <t>fenilpropalamina, ‘, crmsp33006</t>
-  </si>
-  <si>
-    <t>“, cística, precocemente, atinge, diagnosticada, nutrientes</t>
+    <t>‘, crmsp33006, fenilpropalamina</t>
+  </si>
+  <si>
+    <t>cística, precocemente, diagnosticada, “, nutrientes, atinge</t>
   </si>
   <si>
     <t>lpki</t>
   </si>
   <si>
-    <t>fcf, ace2, obstrutiva, preprint, covid, comorbidades, mineraram, rab1a, helder, nakaya, transcritomas, epigenéticos, “, indexados, transcritoma, cardiovasculares, medrxiv, causador, medline</t>
-  </si>
-  <si>
-    <t>emicizumabe, endovenosa, cadastrados, aloanticorpos, recombinante, hemcibra®, inibidores, hemovida, conitec, sangramento, hemofilias, profilaxias</t>
-  </si>
-  <si>
-    <t>participantes, —, bmj, research, hu, sobrepeso, cardiovasculares, diagnosticadas, prevenidos</t>
-  </si>
-  <si>
-    <t>trombose, anticoagulantes, italia, intravascular, coronavirus, covid, inflamatórios</t>
-  </si>
-  <si>
-    <t>cancerígenas, horin, tchen, monoalcólico</t>
-  </si>
-  <si>
-    <t>conservantes, aconchegante, ‘, contactei, sacarovictus, estabilizantes, humildemente, libre, ativus, superdivertida, fatiados, cevabacillus</t>
-  </si>
-  <si>
-    <t>svendsen, —, cedars, desacelerar, dopamina, diagnosticados, detectadas, satisfatoriamente, preventivamente, ipscs, diagnosticadas, geneticamente, dopaminérgicos, lisossomos</t>
-  </si>
-  <si>
-    <t>autolimitados, cadastrados, sas, mcg, 1b, remitentes, 05mg, primariamente, secundariamente, emsp, 20mg, ofertados, fingolimode, diagnosticados, embaçada, emrr, especializadae, empp, 1a, ceaf, sáude</t>
-  </si>
-  <si>
-    <t>ofertada, “, notificados, epizootias, croda</t>
-  </si>
-  <si>
-    <t>hospitalizações, h1n1, imunizados, “, aldeados, dsei, h3n2, pdm09, covid, vulnerabilidade</t>
-  </si>
-  <si>
-    <t>ofertada, d8, audioconferência, gestores, notificados, capacitações, episus, kits, enfrentamento, fvs</t>
-  </si>
-  <si>
-    <t>subsidiarão, gestores, pediátricos, covid, enfrentamento</t>
-  </si>
-  <si>
-    <t>pcap, “, mandetta, educativas, mandeta, saude, sachês, foliões, veiculadas, estabilizada, entrevistados, dolutegravir</t>
-  </si>
-  <si>
-    <t>subtipado, francielli, 1ª, inativado, “, h1n1, contracheque, fontana, 2ª, 3ª, srag, subtipagem, h3n2, socioeducativas, covid, caminhoneiros, vulnerabilidade, cobradores</t>
-  </si>
-  <si>
-    <t>institutes, “, mandetta, wmp, chikungunya, atinge, fiocruz, atingem, nisia, biomas, infectados, saúdeluiz, cubango, solturas, promissora, wolbachia, autossustentável</t>
-  </si>
-  <si>
-    <t>h1n1, assintomática, biobanco, fmusp, necropsias, saldiva, covid, vulnerabilidade, sistêmicas, investigada, necropsia</t>
-  </si>
-  <si>
-    <t>80cc, desconfortáveis, 50cc</t>
-  </si>
-  <si>
-    <t>pergosa, nao, medicos, afectados, adiquire, estao, transmissao, informaçao, podera, japao</t>
-  </si>
-  <si>
-    <t>oneill, ctrl, tay, editors, transtornos, lovell, crispr, —, cas9, questionamentos, talassemias, escaneia, deletado, crtl, reversam, liu, editing, geneticamente, bioquímico</t>
-  </si>
-  <si>
-    <t>palmisano, agressividade, prostática, “, coautora, coletada, glicoproteínas, bioquímicos, fmusp, icb, espectrometria</t>
-  </si>
-  <si>
-    <t>infectologista, permancem, atinge, infectados, infectadas, letalidade, sorológicos, contaminadas, assintomático, aerossóis, covid, mbandaka, cuidadores, gorinchteyn, équateur, figado, sangramentos, detectados, diagnosticadas</t>
-  </si>
-  <si>
-    <t>reagem, imunodiagnósticos, recuperados, imunodiagnóstico, infectadas, falsamente, conseqüências, neutralizantes, covid, confiabilidade</t>
-  </si>
-  <si>
-    <t>participantes, melanomas, —, research, oncologista, nhs, pembrolizumabe, encorajador, descontrolada, marsden, espermatozoides, diagnosticadas, oncologistas, cancerígenas, tumorais, expulsos, ​​pelo</t>
-  </si>
-  <si>
-    <t>—, barzilay, halicina, mamografias, toc, antibacterianas, bioengenheiro</t>
-  </si>
-  <si>
-    <t>ingerida, refrigerantes, taurina, sobrepeso, irritabilidade, antitabaco, incor, —, macronutrientes, hcfmusp, sobretaxados, kantar, siu, cisa, regulações, ultraprocessados, cristini, kalil, chemicals, ultraprocessado, efsa, products, potencializados, jama, motivador, vitalidade, ingeridas, aprimoradas, hipertensivos, propagandeados, arritmias, cardiovasculares, nutrizes, anvisa, ingeridos, 250ml</t>
-  </si>
-  <si>
-    <t>filhotes, jyrkia, micronutrientes, enriquecidos, enriquecidas, desmame, contêm, alamy, givens, nutrientes, gregor, majdic, research, caseína, virtanen, genômica, ordenhadas, b12, participantes, alfarroba, gelana, substancialmente</t>
-  </si>
-  <si>
-    <t>imunizadas, hiperendêmico, valle, notificados, atinge, comportamentais, —, drasticamente, criadouros, ioc, cim, tharine, fiocruz, infectada, chicungunha, idealizadora, entrevistados, acostumada, sorotipos, historicamente, estruturadas</t>
-  </si>
-  <si>
-    <t>lamy, idursulfase, maroteaux, mucopolissacaridoses, alfaelosulfase, conitec, desalinhamento, contraturas, ofertados, mórquio, galsulfase, cirurgias, bioquímicos, fármacos, pcdts, bilaterações, cardiovasculares, gastrointestinais, mps</t>
-  </si>
-  <si>
-    <t>investigados, —, coletadas, tedros, 1º, planejadas, dcnts, ghebreyesus, cardiovasculares, adhanom, covid</t>
-  </si>
-  <si>
-    <t>biotecnologia, imunossupressores, estimulador, maxivax</t>
-  </si>
-  <si>
-    <t>linfoblástica, gadelha, locorregionalmente, osmarina, lla, cromossoma, oncológicas, servidora, tramento, nutrientes, sobrevida, oncológica, cuidadores, onilotinibe, diagnosticados, socioeconômicas, cirurgias, entrevistados, internacionalmente, leucemias, “, abia, diagnosticada, uicc</t>
-  </si>
-  <si>
-    <t>lygia, translacionais, jadel, imortalizadas, fenotípica, icb, infectadas, buckeridge, trypanosoma, negligenciadas, pluripotentes, covid, kratz, fármacos, cardiomiócitos, “, dndi, poluentes, causador</t>
-  </si>
-  <si>
-    <t>antiescorpiônico, revisados, capacitações, piloereção, transportadoras, hortifrutigranjeiros, escorpiônicos</t>
-  </si>
-  <si>
-    <t>imunizadas, h1n1, balassiano, aylward, implemetaram, virologista, utis, infectadas, letalidade, infectologistas, —, mers, spilki, bolsonaro, antivirais, assintomáticas, aseguir, pneumologista, covid, pandemias, virologistas, kerkhove, hidroxocloroquina, bergamo, respirador, infectada, distanciamento, drugs, apoiam, transmissibilidade, remdesivir, triagens, anvisa, desacelerando, sbv</t>
-  </si>
-  <si>
-    <t>unitriedubr, “, unicampbr, cientifico, extraida, esculentus</t>
-  </si>
-  <si>
-    <t>hospitalizações, h1n1, srag, gestores, notificados, retomada, distanciamento, covid, infogripe, propensão, sivep</t>
-  </si>
-  <si>
-    <t>embalagens, 7ª, antitabagismo, cqct, luiza, gats, mohan, mpower, preconizadas, fiocruz, vigitel, 7º, apoiem, vinayak, “, prasad, cetab, narguilés, 42ª</t>
-  </si>
-  <si>
-    <t>preocupante, 1º, “, imunizações, preconizada, croda, focada</t>
-  </si>
-  <si>
-    <t>pcdt, antigiogênico, ofertados, faec, invasiva, precocemente, crosslinking, cirurgias, dmri, credenciados</t>
-  </si>
-  <si>
-    <t>linfoblástica, ofertadas, ofertados, cacon, crcc, onilotinibe, locorregionalmente, oncológicas, quimioterápicos, unacon, conitec, cirurgias, cromossoma, credenciados</t>
-  </si>
-  <si>
-    <t>covid, prisionais, artesanalmente, economicamente</t>
-  </si>
-  <si>
-    <t>rockfellers, wurhan, globalista, jinping, lives, totall, rothschilds, começõu, infectados, alcool, globalistas</t>
-  </si>
-  <si>
-    <t>pediátrica, pediátricas, utis, infectadas, —, imunologia, verdoni, covid, whittaker, impactada, diagnosticados, nhs, pims, ​​explicar, bergamo, multissistêmica, viner, cvid, levin, inflamatória, assintomática, cuomo, ts, detectados, diagnosticadas</t>
-  </si>
-  <si>
-    <t>pecd, 4º, promissores, hrt, hermelinda, ses, recombinante, fiocruz, pedrosa, heberprot®, hipoglicemia, fhdf, sbd, uendo</t>
-  </si>
-  <si>
-    <t>bicistrônico, pp53, gmp, icb, cancerígenos, p53, editada, cancerígenas, tumorais, experimentaisa, glioblastomas, gênica, cdkn2a, constanzi, supressores, aprimoradas, “, quimioterápicos, anvisa</t>
-  </si>
-  <si>
-    <t>°, trombose, puxadores, desinfetante, desinfecte, drsse, cardiovasculares, castello, polmonite, shenzhen, cátaros</t>
-  </si>
-  <si>
-    <t>mantêm, gentilmente, respirações, indevidamente, ​​e, 19h25</t>
-  </si>
-  <si>
-    <t>reencaminhado, antioxidantes</t>
-  </si>
-  <si>
-    <t>interage, drasticamente, —, kings, interleucina, encorajador, microlitro, guys, shankar, covid, hayday</t>
-  </si>
-  <si>
-    <t>lelio, enfrentamento, unitaid, imunossupressoras, mandetta, odm, diagnosticados, impaact4tb, sanofi, aurum, 3hp, conitec, marmora, fragilizado</t>
-  </si>
-  <si>
-    <t>funed, fapemig, immunosorbent, viroses, imunoabsorção, completoo, linked, reaction, fiocruz, polymerase, anvisa, pequisadores, covid, santuza</t>
+    <t>obstrutiva, rab1a, medrxiv, helder, transcritoma, indexados, ace2, “, cardiovasculares, causador, fcf, medline, preprint, nakaya, covid, transcritomas, comorbidades, mineraram, epigenéticos</t>
+  </si>
+  <si>
+    <t>endovenosa, sangramento, recombinante, hemcibra®, inibidores, hemofilias, conitec, profilaxias, cadastrados, emicizumabe, aloanticorpos, hemovida</t>
+  </si>
+  <si>
+    <t>research, prevenidos, hu, participantes, bmj, —, sobrepeso, cardiovasculares, diagnosticadas</t>
+  </si>
+  <si>
+    <t>coronavirus, intravascular, anticoagulantes, italia, covid, trombose, inflamatórios</t>
+  </si>
+  <si>
+    <t>cancerígenas, tchen, monoalcólico, horin</t>
+  </si>
+  <si>
+    <t>humildemente, superdivertida, aconchegante, cevabacillus, contactei, sacarovictus, ativus, libre, ‘, fatiados, conservantes, estabilizantes</t>
+  </si>
+  <si>
+    <t>diagnosticados, geneticamente, dopamina, lisossomos, —, desacelerar, preventivamente, svendsen, satisfatoriamente, ipscs, detectadas, diagnosticadas, dopaminérgicos, cedars</t>
+  </si>
+  <si>
+    <t>autolimitados, 05mg, emsp, mcg, sas, diagnosticados, ceaf, cadastrados, remitentes, emrr, empp, secundariamente, 1b, sáude, fingolimode, primariamente, ofertados, 1a, embaçada, 20mg, especializadae</t>
+  </si>
+  <si>
+    <t>epizootias, croda, “, ofertada, notificados</t>
+  </si>
+  <si>
+    <t>imunizados, pdm09, vulnerabilidade, h3n2, dsei, hospitalizações, h1n1, “, covid, aldeados</t>
+  </si>
+  <si>
+    <t>episus, enfrentamento, d8, capacitações, gestores, kits, ofertada, fvs, notificados, audioconferência</t>
+  </si>
+  <si>
+    <t>enfrentamento, pediátricos, gestores, covid, subsidiarão</t>
+  </si>
+  <si>
+    <t>mandeta, educativas, mandetta, veiculadas, entrevistados, foliões, dolutegravir, “, pcap, sachês, saude, estabilizada</t>
+  </si>
+  <si>
+    <t>3ª, 2ª, vulnerabilidade, inativado, subtipagem, socioeducativas, h3n2, caminhoneiros, 1ª, h1n1, cobradores, fontana, “, covid, contracheque, srag, francielli, subtipado</t>
+  </si>
+  <si>
+    <t>chikungunya, fiocruz, wolbachia, saúdeluiz, mandetta, wmp, solturas, infectados, atingem, nisia, “, autossustentável, cubango, institutes, biomas, promissora, atinge</t>
+  </si>
+  <si>
+    <t>biobanco, assintomática, sistêmicas, vulnerabilidade, investigada, necropsia, fmusp, h1n1, necropsias, covid, saldiva</t>
+  </si>
+  <si>
+    <t>50cc, desconfortáveis, 80cc</t>
+  </si>
+  <si>
+    <t>japao, nao, adiquire, informaçao, medicos, pergosa, podera, afectados, estao, transmissao</t>
+  </si>
+  <si>
+    <t>geneticamente, deletado, escaneia, editing, questionamentos, crispr, lovell, reversam, editors, ctrl, crtl, bioquímico, transtornos, tay, talassemias, —, cas9, liu, oneill</t>
+  </si>
+  <si>
+    <t>bioquímicos, espectrometria, palmisano, fmusp, prostática, “, agressividade, coletada, coautora, icb, glicoproteínas</t>
+  </si>
+  <si>
+    <t>cuidadores, assintomático, sangramentos, infectologista, sorológicos, aerossóis, detectados, équateur, letalidade, covid, figado, infectadas, gorinchteyn, mbandaka, permancem, infectados, contaminadas, diagnosticadas, atinge</t>
+  </si>
+  <si>
+    <t>confiabilidade, imunodiagnósticos, recuperados, neutralizantes, conseqüências, covid, reagem, falsamente, imunodiagnóstico, infectadas</t>
+  </si>
+  <si>
+    <t>research, diagnosticadas, melanomas, expulsos, oncologista, participantes, oncologistas, cancerígenas, tumorais, —, pembrolizumabe, nhs, ​​pelo, descontrolada, encorajador, espermatozoides, marsden</t>
+  </si>
+  <si>
+    <t>mamografias, toc, barzilay, —, antibacterianas, halicina, bioengenheiro</t>
+  </si>
+  <si>
+    <t>sobretaxados, macronutrientes, arritmias, cisa, 250ml, kalil, incor, propagandeados, regulações, hipertensivos, motivador, antitabaco, ultraprocessado, hcfmusp, kantar, ultraprocessados, nutrizes, taurina, potencializados, ingeridas, vitalidade, cardiovasculares, jama, irritabilidade, ingeridos, chemicals, siu, cristini, aprimoradas, refrigerantes, ingerida, products, —, sobrepeso, anvisa, efsa</t>
+  </si>
+  <si>
+    <t>enriquecidas, genômica, alfarroba, contêm, filhotes, gregor, majdic, b12, micronutrientes, enriquecidos, research, ordenhadas, participantes, alamy, jyrkia, gelana, caseína, nutrientes, desmame, virtanen, givens, substancialmente</t>
+  </si>
+  <si>
+    <t>imunizadas, idealizadora, criadouros, hiperendêmico, infectada, entrevistados, drasticamente, valle, chicungunha, tharine, cim, notificados, ioc, acostumada, historicamente, sorotipos, fiocruz, estruturadas, —, comportamentais, atinge</t>
+  </si>
+  <si>
+    <t>fármacos, conitec, idursulfase, lamy, desalinhamento, mucopolissacaridoses, bilaterações, cardiovasculares, galsulfase, cirurgias, gastrointestinais, mórquio, maroteaux, contraturas, pcdts, bioquímicos, mps, ofertados, alfaelosulfase</t>
+  </si>
+  <si>
+    <t>adhanom, dcnts, tedros, coletadas, 1º, ghebreyesus, —, covid, investigados, cardiovasculares, planejadas</t>
+  </si>
+  <si>
+    <t>maxivax, imunossupressores, estimulador, biotecnologia</t>
+  </si>
+  <si>
+    <t>cuidadores, osmarina, internacionalmente, onilotinibe, tramento, entrevistados, uicc, diagnosticados, oncológicas, locorregionalmente, diagnosticada, “, sobrevida, cirurgias, lla, socioeconômicas, leucemias, nutrientes, servidora, oncológica, gadelha, cromossoma, abia, linfoblástica</t>
+  </si>
+  <si>
+    <t>negligenciadas, buckeridge, dndi, fármacos, jadel, cardiomiócitos, kratz, lygia, “, translacionais, pluripotentes, causador, covid, trypanosoma, infectadas, fenotípica, poluentes, icb, imortalizadas</t>
+  </si>
+  <si>
+    <t>escorpiônicos, hortifrutigranjeiros, capacitações, transportadoras, revisados, piloereção, antiescorpiônico</t>
+  </si>
+  <si>
+    <t>antivirais, imunizadas, infectada, assintomáticas, bergamo, desacelerando, bolsonaro, kerkhove, drugs, apoiam, implemetaram, spilki, respirador, pneumologista, triagens, sbv, distanciamento, hidroxocloroquina, letalidade, transmissibilidade, balassiano, utis, virologistas, pandemias, virologista, covid, infectologistas, infectadas, aseguir, aylward, —, h1n1, mers, anvisa, remdesivir</t>
+  </si>
+  <si>
+    <t>esculentus, unicampbr, “, extraida, unitriedubr, cientifico</t>
+  </si>
+  <si>
+    <t>sivep, infogripe, hospitalizações, retomada, h1n1, gestores, covid, srag, distanciamento, notificados, propensão</t>
+  </si>
+  <si>
+    <t>7ª, prasad, cqct, gats, mpower, vinayak, mohan, “, antitabagismo, luiza, cetab, apoiem, embalagens, narguilés, preconizadas, fiocruz, 7º, 42ª, vigitel</t>
+  </si>
+  <si>
+    <t>preocupante, croda, 1º, “, imunizações, preconizada, focada</t>
+  </si>
+  <si>
+    <t>invasiva, credenciados, cirurgias, crosslinking, faec, precocemente, pcdt, ofertados, antigiogênico, dmri</t>
+  </si>
+  <si>
+    <t>ofertadas, credenciados, unacon, cacon, cirurgias, oncológicas, onilotinibe, locorregionalmente, crcc, cromossoma, ofertados, conitec, linfoblástica, quimioterápicos</t>
+  </si>
+  <si>
+    <t>prisionais, artesanalmente, economicamente, covid</t>
+  </si>
+  <si>
+    <t>rothschilds, globalista, lives, começõu, alcool, totall, globalistas, infectados, wurhan, jinping, rockfellers</t>
+  </si>
+  <si>
+    <t>cuomo, whittaker, bergamo, pediátrica, ts, diagnosticados, nhs, detectados, ​​explicar, viner, assintomática, inflamatória, verdoni, levin, utis, covid, pims, impactada, infectadas, imunologia, pediátricas, multissistêmica, —, cvid, diagnosticadas</t>
+  </si>
+  <si>
+    <t>heberprot®, uendo, recombinante, fiocruz, sbd, 4º, promissores, hipoglicemia, pecd, hermelinda, pedrosa, hrt, fhdf, ses</t>
+  </si>
+  <si>
+    <t>cancerígenos, glioblastomas, constanzi, “, cdkn2a, tumorais, bicistrônico, editada, gmp, aprimoradas, pp53, quimioterápicos, icb, supressores, p53, cancerígenas, gênica, anvisa, experimentaisa</t>
+  </si>
+  <si>
+    <t>trombose, desinfecte, °, drsse, puxadores, desinfetante, shenzhen, cardiovasculares, cátaros, polmonite, castello</t>
+  </si>
+  <si>
+    <t>respirações, indevidamente, ​​e, gentilmente, 19h25, mantêm</t>
+  </si>
+  <si>
+    <t>antioxidantes, reencaminhado</t>
+  </si>
+  <si>
+    <t>interleucina, microlitro, —, interage, kings, encorajador, drasticamente, covid, shankar, guys, hayday</t>
+  </si>
+  <si>
+    <t>lelio, diagnosticados, odm, impaact4tb, 3hp, unitaid, marmora, enfrentamento, aurum, sanofi, mandetta, imunossupressoras, conitec, fragilizado</t>
+  </si>
+  <si>
+    <t>pequisadores, fiocruz, reaction, viroses, imunoabsorção, polymerase, fapemig, immunosorbent, covid, funed, completoo, anvisa, linked, santuza</t>
   </si>
   <si>
     <t>ademola</t>
   </si>
   <si>
-    <t>carrington, virologistas, wellcome, coletadas, mantêm, wolfson, nhs, zoonoses, respirador, infectados, respiradores, ncov, bamford</t>
-  </si>
-  <si>
-    <t>bakkano, irreversível, eletromagnetica</t>
+    <t>wolfson, carrington, respiradores, zoonoses, coletadas, nhs, infectados, virologistas, respirador, ncov, mantêm, bamford, wellcome</t>
+  </si>
+  <si>
+    <t>eletromagnetica, bakkano, irreversível</t>
   </si>
   <si>
     <t>repatriados, inalador</t>
   </si>
   <si>
-    <t>barbuto, —, oncologista, brasileirosuma, genoma</t>
-  </si>
-  <si>
-    <t>mirabolantes, “, contêm, institucionalizado, frustrante, cirurgias, covid</t>
-  </si>
-  <si>
-    <t>reagem, mers, —, alpacas, promissores, camelídeos, nanocorpos, gante, biotecnología, infectada, covid, delisa, wrapp, nanocorpo</t>
-  </si>
-  <si>
-    <t>investigados, chatham, preocupante, sucedidas, guaxinins, civetas, coronovírus, desestabilizam, interagem, aviária, infectadas, pandemias, contaminados, migrantes</t>
-  </si>
-  <si>
-    <t>varella, garganta…</t>
-  </si>
-  <si>
-    <t>2a, shenzen, corrimãos, letala, 27°, dágua</t>
-  </si>
-  <si>
-    <t>“, huiren, anticâncer, cistos, cancerígenas, polifenóis</t>
-  </si>
-  <si>
-    <t>opsdigo, contaminados, 5g, naite</t>
-  </si>
-  <si>
-    <t>tasuku, honjo</t>
-  </si>
-  <si>
-    <t>americans, guidelines, “, coronariana, cardiovasculares, framingham, dgac, acc, _temos, nissen, corticosteróides</t>
-  </si>
-  <si>
-    <t>covid, mentolatum, eucalyptol, epoxi</t>
-  </si>
-  <si>
-    <t>sudoríparas, causador, chicungunha, repasando</t>
+    <t>oncologista, genoma, —, brasileirosuma, barbuto</t>
+  </si>
+  <si>
+    <t>mirabolantes, cirurgias, frustrante, “, covid, institucionalizado, contêm</t>
+  </si>
+  <si>
+    <t>nanocorpo, alpacas, wrapp, infectada, promissores, gante, —, camelídeos, nanocorpos, mers, covid, reagem, delisa, biotecnología</t>
+  </si>
+  <si>
+    <t>migrantes, sucedidas, guaxinins, preocupante, interagem, civetas, contaminados, coronovírus, desestabilizam, pandemias, aviária, investigados, chatham, infectadas</t>
+  </si>
+  <si>
+    <t>garganta…, varella</t>
+  </si>
+  <si>
+    <t>dágua, 27°, shenzen, corrimãos, 2a, letala</t>
+  </si>
+  <si>
+    <t>polifenóis, cancerígenas, cistos, anticâncer, huiren, “</t>
+  </si>
+  <si>
+    <t>contaminados, opsdigo, 5g, naite</t>
+  </si>
+  <si>
+    <t>honjo, tasuku</t>
+  </si>
+  <si>
+    <t>americans, coronariana, nissen, framingham, _temos, “, dgac, acc, cardiovasculares, guidelines, corticosteróides</t>
+  </si>
+  <si>
+    <t>eucalyptol, mentolatum, covid, epoxi</t>
+  </si>
+  <si>
+    <t>repasando, sudoríparas, causador, chicungunha</t>
   </si>
   <si>
     <t>conscientemente</t>
   </si>
   <si>
-    <t>pechotique, letargiaalívio, naturista, massagea, hidratando, 4cm, nutrientes, ricino</t>
+    <t>ricino, pechotique, hidratando, massagea, nutrientes, naturista, 4cm, letargiaalívio</t>
   </si>
   <si>
     <t>sem compartilhamento</t>
